--- a/Book1.xlsx
+++ b/Book1.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="714" uniqueCount="595">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="740" uniqueCount="605">
   <si>
     <t>后九蜀寒拆九寒冷，后九无寒节节寒。</t>
   </si>
@@ -1968,9 +1968,6 @@
     <t>老妈老妈，睏暗起早。</t>
   </si>
   <si>
-    <t>未睏三顶席，心事𣍐着。</t>
-  </si>
-  <si>
     <t>自家文章，别侬老妈。</t>
   </si>
   <si>
@@ -2039,6 +2036,43 @@
   </si>
   <si>
     <t>读】用哲学语言表达就是：夫妻是第一性的，朋友是第二性 的。年轻的先生有时不太注意这条原理。</t>
+  </si>
+  <si>
+    <t>男女婚配</t>
+  </si>
+  <si>
+    <t>家庭生活</t>
+  </si>
+  <si>
+    <t>容猫上灶，容囝不孝。</t>
+  </si>
+  <si>
+    <t>未睏三顶席，心事摸𣍐着。</t>
+  </si>
+  <si>
+    <t>駐】①容：一味宠爱，不加管束。②囝：儿子，此处泛指子
+女。
+除】北方俗语说得更直截了当：棍棒底下出孝子。</t>
+  </si>
+  <si>
+    <t>学好三年，学呆三日。</t>
+  </si>
+  <si>
+    <t>【注】呆：坏；方言音从《广韵》五来切。
+臨】人性本恶，向善不易，而堕落却很快。教育子女必须时 时防微杜漸。</t>
+  </si>
+  <si>
+    <t>无好大，害吼细。</t>
+  </si>
+  <si>
+    <t>【注】①无好大：品行不好的长辈。②吼：动态助词；了。③ 细：幼小，此处指晚辈。
+读】长辈的不良言行将影响晚辈，最终害了他们。</t>
+  </si>
+  <si>
+    <t>桌悬讨侬嫌。</t>
+  </si>
+  <si>
+    <t>駐】①悬：高；俗写同音的“咸”字。②讨侬嫌：招人讨厌。 除】孩子长到桌子那么高时，就越来越顽皮了。</t>
   </si>
 </sst>
 </file>
@@ -2370,8 +2404,8 @@
   <dimension ref="A1:F300"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A139" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="B141" sqref="B141"/>
+      <pane ySplit="1" topLeftCell="A137" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="B147" sqref="B147"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="23.25" customHeight="1" x14ac:dyDescent="0.3"/>
@@ -4536,13 +4570,16 @@
         <v>561</v>
       </c>
       <c r="B127" s="3" t="s">
-        <v>581</v>
+        <v>580</v>
       </c>
       <c r="D127" t="s">
         <v>347</v>
       </c>
       <c r="E127">
         <v>47</v>
+      </c>
+      <c r="F127" t="s">
+        <v>594</v>
       </c>
     </row>
     <row r="128" spans="1:6" ht="23.25" customHeight="1" x14ac:dyDescent="0.3">
@@ -4550,7 +4587,7 @@
         <v>562</v>
       </c>
       <c r="B128" s="3" t="s">
-        <v>582</v>
+        <v>581</v>
       </c>
       <c r="D128" t="s">
         <v>348</v>
@@ -4558,13 +4595,16 @@
       <c r="E128">
         <v>47</v>
       </c>
-    </row>
-    <row r="129" spans="1:5" ht="23.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="F128" t="s">
+        <v>594</v>
+      </c>
+    </row>
+    <row r="129" spans="1:6" ht="23.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A129" s="1" t="s">
         <v>563</v>
       </c>
       <c r="B129" s="3" t="s">
-        <v>583</v>
+        <v>582</v>
       </c>
       <c r="D129" t="s">
         <v>349</v>
@@ -4572,13 +4612,16 @@
       <c r="E129">
         <v>47</v>
       </c>
-    </row>
-    <row r="130" spans="1:5" ht="23.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="F129" t="s">
+        <v>594</v>
+      </c>
+    </row>
+    <row r="130" spans="1:6" ht="23.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A130" s="1" t="s">
         <v>564</v>
       </c>
       <c r="B130" s="3" t="s">
-        <v>584</v>
+        <v>583</v>
       </c>
       <c r="D130" t="s">
         <v>350</v>
@@ -4586,13 +4629,16 @@
       <c r="E130">
         <v>48</v>
       </c>
-    </row>
-    <row r="131" spans="1:5" ht="23.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="F130" t="s">
+        <v>594</v>
+      </c>
+    </row>
+    <row r="131" spans="1:6" ht="23.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A131" s="1" t="s">
         <v>565</v>
       </c>
       <c r="B131" s="3" t="s">
-        <v>585</v>
+        <v>584</v>
       </c>
       <c r="D131" t="s">
         <v>351</v>
@@ -4600,8 +4646,11 @@
       <c r="E131">
         <v>48</v>
       </c>
-    </row>
-    <row r="132" spans="1:5" ht="23.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="F131" t="s">
+        <v>594</v>
+      </c>
+    </row>
+    <row r="132" spans="1:6" ht="23.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A132" s="1" t="s">
         <v>567</v>
       </c>
@@ -4614,13 +4663,16 @@
       <c r="E132">
         <v>48</v>
       </c>
-    </row>
-    <row r="133" spans="1:5" ht="23.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="F132" t="s">
+        <v>594</v>
+      </c>
+    </row>
+    <row r="133" spans="1:6" ht="23.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A133" s="1" t="s">
         <v>568</v>
       </c>
       <c r="B133" s="1" t="s">
-        <v>586</v>
+        <v>585</v>
       </c>
       <c r="D133" t="s">
         <v>353</v>
@@ -4628,13 +4680,16 @@
       <c r="E133">
         <v>49</v>
       </c>
-    </row>
-    <row r="134" spans="1:5" ht="23.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="F133" t="s">
+        <v>594</v>
+      </c>
+    </row>
+    <row r="134" spans="1:6" ht="23.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A134" s="1" t="s">
         <v>569</v>
       </c>
       <c r="B134" s="1" t="s">
-        <v>587</v>
+        <v>586</v>
       </c>
       <c r="D134" t="s">
         <v>354</v>
@@ -4642,13 +4697,16 @@
       <c r="E134">
         <v>49</v>
       </c>
-    </row>
-    <row r="135" spans="1:5" ht="23.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="F134" t="s">
+        <v>594</v>
+      </c>
+    </row>
+    <row r="135" spans="1:6" ht="23.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A135" s="1" t="s">
         <v>570</v>
       </c>
       <c r="B135" s="1" t="s">
-        <v>588</v>
+        <v>587</v>
       </c>
       <c r="D135" t="s">
         <v>355</v>
@@ -4656,13 +4714,16 @@
       <c r="E135">
         <v>49</v>
       </c>
-    </row>
-    <row r="136" spans="1:5" ht="23.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="F135" t="s">
+        <v>594</v>
+      </c>
+    </row>
+    <row r="136" spans="1:6" ht="23.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A136" s="1" t="s">
-        <v>590</v>
+        <v>589</v>
       </c>
       <c r="B136" s="3" t="s">
-        <v>589</v>
+        <v>588</v>
       </c>
       <c r="D136" t="s">
         <v>520</v>
@@ -4670,13 +4731,16 @@
       <c r="E136">
         <v>49</v>
       </c>
-    </row>
-    <row r="137" spans="1:5" ht="23.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="F136" t="s">
+        <v>594</v>
+      </c>
+    </row>
+    <row r="137" spans="1:6" ht="23.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A137" s="1" t="s">
         <v>571</v>
       </c>
       <c r="B137" s="1" t="s">
-        <v>591</v>
+        <v>590</v>
       </c>
       <c r="D137" t="s">
         <v>356</v>
@@ -4684,13 +4748,16 @@
       <c r="E137">
         <v>50</v>
       </c>
-    </row>
-    <row r="138" spans="1:5" ht="23.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="F137" t="s">
+        <v>594</v>
+      </c>
+    </row>
+    <row r="138" spans="1:6" ht="23.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A138" s="1" t="s">
         <v>572</v>
       </c>
       <c r="B138" s="3" t="s">
-        <v>592</v>
+        <v>591</v>
       </c>
       <c r="D138" t="s">
         <v>357</v>
@@ -4698,13 +4765,16 @@
       <c r="E138">
         <v>50</v>
       </c>
-    </row>
-    <row r="139" spans="1:5" ht="23.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="F138" t="s">
+        <v>594</v>
+      </c>
+    </row>
+    <row r="139" spans="1:6" ht="23.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A139" s="1" t="s">
         <v>573</v>
       </c>
       <c r="B139" s="3" t="s">
-        <v>593</v>
+        <v>592</v>
       </c>
       <c r="D139" t="s">
         <v>358</v>
@@ -4712,13 +4782,16 @@
       <c r="E139">
         <v>50</v>
       </c>
-    </row>
-    <row r="140" spans="1:5" ht="23.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="F139" t="s">
+        <v>594</v>
+      </c>
+    </row>
+    <row r="140" spans="1:6" ht="23.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A140" s="1" t="s">
         <v>574</v>
       </c>
       <c r="B140" s="1" t="s">
-        <v>594</v>
+        <v>593</v>
       </c>
       <c r="D140" t="s">
         <v>359</v>
@@ -4726,13 +4799,16 @@
       <c r="E140">
         <v>50</v>
       </c>
-    </row>
-    <row r="141" spans="1:5" ht="23.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="F140" t="s">
+        <v>594</v>
+      </c>
+    </row>
+    <row r="141" spans="1:6" ht="23.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A141" s="1" t="s">
         <v>575</v>
       </c>
       <c r="B141" s="3" t="s">
-        <v>580</v>
+        <v>579</v>
       </c>
       <c r="D141" t="s">
         <v>360</v>
@@ -4740,13 +4816,16 @@
       <c r="E141">
         <v>51</v>
       </c>
-    </row>
-    <row r="142" spans="1:5" ht="23.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="F141" t="s">
+        <v>594</v>
+      </c>
+    </row>
+    <row r="142" spans="1:6" ht="23.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A142" s="1" t="s">
-        <v>576</v>
+        <v>597</v>
       </c>
       <c r="B142" s="3" t="s">
-        <v>579</v>
+        <v>578</v>
       </c>
       <c r="D142" t="s">
         <v>361</v>
@@ -4754,13 +4833,16 @@
       <c r="E142">
         <v>51</v>
       </c>
-    </row>
-    <row r="143" spans="1:5" ht="23.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="F142" t="s">
+        <v>594</v>
+      </c>
+    </row>
+    <row r="143" spans="1:6" ht="23.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A143" s="1" t="s">
+        <v>576</v>
+      </c>
+      <c r="B143" s="3" t="s">
         <v>577</v>
-      </c>
-      <c r="B143" s="3" t="s">
-        <v>578</v>
       </c>
       <c r="D143" t="s">
         <v>362</v>
@@ -4768,88 +4850,118 @@
       <c r="E143">
         <v>51</v>
       </c>
-    </row>
-    <row r="144" spans="1:5" ht="23.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="F143" t="s">
+        <v>594</v>
+      </c>
+    </row>
+    <row r="144" spans="1:6" ht="23.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A144" s="1" t="s">
+        <v>596</v>
+      </c>
+      <c r="B144" s="3" t="s">
+        <v>598</v>
+      </c>
       <c r="D144" t="s">
         <v>363</v>
       </c>
-    </row>
-    <row r="145" spans="4:4" ht="23.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="F144" t="s">
+        <v>595</v>
+      </c>
+    </row>
+    <row r="145" spans="1:4" ht="23.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A145" s="1" t="s">
+        <v>599</v>
+      </c>
+      <c r="B145" s="3" t="s">
+        <v>600</v>
+      </c>
       <c r="D145" t="s">
         <v>364</v>
       </c>
     </row>
-    <row r="146" spans="4:4" ht="23.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="146" spans="1:4" ht="23.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A146" s="1" t="s">
+        <v>601</v>
+      </c>
+      <c r="B146" s="3" t="s">
+        <v>602</v>
+      </c>
       <c r="D146" t="s">
         <v>365</v>
       </c>
     </row>
-    <row r="147" spans="4:4" ht="23.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="147" spans="1:4" ht="23.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A147" s="1" t="s">
+        <v>603</v>
+      </c>
+      <c r="B147" s="1" t="s">
+        <v>604</v>
+      </c>
       <c r="D147" t="s">
         <v>366</v>
       </c>
     </row>
-    <row r="148" spans="4:4" ht="23.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="148" spans="1:4" ht="23.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="D148" t="s">
         <v>367</v>
       </c>
     </row>
-    <row r="149" spans="4:4" ht="23.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="149" spans="1:4" ht="23.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="D149" t="s">
         <v>368</v>
       </c>
     </row>
-    <row r="150" spans="4:4" ht="23.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="150" spans="1:4" ht="23.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="D150" t="s">
         <v>369</v>
       </c>
     </row>
-    <row r="151" spans="4:4" ht="23.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="151" spans="1:4" ht="23.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="D151" t="s">
         <v>370</v>
       </c>
     </row>
-    <row r="152" spans="4:4" ht="23.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="152" spans="1:4" ht="23.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="D152" t="s">
         <v>371</v>
       </c>
     </row>
-    <row r="153" spans="4:4" ht="23.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="153" spans="1:4" ht="23.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="D153" t="s">
         <v>372</v>
       </c>
     </row>
-    <row r="154" spans="4:4" ht="23.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="154" spans="1:4" ht="23.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="D154" t="s">
         <v>373</v>
       </c>
     </row>
-    <row r="155" spans="4:4" ht="23.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="155" spans="1:4" ht="23.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="D155" t="s">
         <v>374</v>
       </c>
     </row>
-    <row r="156" spans="4:4" ht="23.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="156" spans="1:4" ht="23.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="D156" t="s">
         <v>375</v>
       </c>
     </row>
-    <row r="157" spans="4:4" ht="23.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="157" spans="1:4" ht="23.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="D157" t="s">
         <v>376</v>
       </c>
     </row>
-    <row r="158" spans="4:4" ht="23.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="158" spans="1:4" ht="23.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="D158" t="s">
         <v>377</v>
       </c>
     </row>
-    <row r="159" spans="4:4" ht="23.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="159" spans="1:4" ht="23.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="D159" t="s">
         <v>378</v>
       </c>
     </row>
-    <row r="160" spans="4:4" ht="23.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="160" spans="1:4" ht="23.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="D160" t="s">
         <v>379</v>
       </c>

--- a/Book1.xlsx
+++ b/Book1.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="740" uniqueCount="605">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1026" uniqueCount="859">
   <si>
     <t>后九蜀寒拆九寒冷，后九无寒节节寒。</t>
   </si>
@@ -1977,10 +1977,6 @@
 </t>
   </si>
   <si>
-    <t>【注】①未睏三顶席：还没睡烂三张席子。睏：睡。②摸絵着： 摸不着。
-【案】夫妻往往要共同生活几年后才能真正互相了解。</t>
-  </si>
-  <si>
     <t>【注】①老妈：老婆。②睏暗：睡得晚。
 【案】妇女搮持家务，从早忙到晚。不过近年来情况有了一些改变。据报载的社会调查的结果，清展上菜市场的男性居多，不知是否属实。</t>
   </si>
@@ -2013,9 +2009,6 @@
     <t>【注】①角：雄性。②唤：相邀，这里指主动追逐异性。③无 对讨：无处寻，找不到。“对”写同音字。④无得脱：摆脱 不了。“脱”写同义字，方言音“来角”切。</t>
   </si>
   <si>
-    <t>駐】①讨絵着：〔找配偶〉找得不对。②固呆：比……还糟 糕。呆：坏；方言音从《广韵》五来切。③郑〈音〉：错。 [^】婚姻是一辈子的大事，找错了对象比吃错了药更要命。</t>
-  </si>
-  <si>
     <t xml:space="preserve">【注】无糟养猪母：连喂猪的酒糟也没有，形容极穷。
 读】“嫁汉嫁汉，穿衣吃饭”。太穷了，也难怪女家不愿意。
 </t>
@@ -2073,6 +2066,839 @@
   </si>
   <si>
     <t>駐】①悬：高；俗写同音的“咸”字。②讨侬嫌：招人讨厌。 除】孩子长到桌子那么高时，就越来越顽皮了。</t>
+  </si>
+  <si>
+    <t>爹会奶会，无拆自家会。</t>
+  </si>
+  <si>
+    <t>駐】①会：泛指掌握生活或生产的技能。②奶：母亲。③无 拆：抵不上。④自家：自己。陳】父母应该培养複炼子女掌握各种必要的技能，不要一切
+包办代替。</t>
+  </si>
+  <si>
+    <t>三代无骂天，养囝中状元。</t>
+  </si>
+  <si>
+    <t>駐】①无骂天：没有怨天尤人。②囝：儿子。
+辟】要改变命运应当自强不息，人自助然后天助，怨天尤人 不会有任何结果。</t>
+  </si>
+  <si>
+    <t>歪奶做鞋歪囝颂。</t>
+  </si>
+  <si>
+    <t>駐】①奶：母亲。②囝：儿子。③颂：穿。
+險】有其母必有其子。母亲的人品对子女的个性形成有决定 性的影响。</t>
+  </si>
+  <si>
+    <t>手心是肉，手𩩍也是肉。</t>
+  </si>
+  <si>
+    <t>【注】手髀：手背。
+辟】子女都是亲骨肉，不应厚此薄彼。</t>
+  </si>
+  <si>
+    <t>呆囝细心豢。</t>
+  </si>
+  <si>
+    <t xml:space="preserve">駐】①呆囝：坏孩子。此处指先天不足、体弱多病爱哭闹的小儿。呆：坏；方言音从《广韵》五来切。②豢：照料喂养。 读】对体弱
+</t>
+  </si>
+  <si>
+    <t>罢奶疼呆囝，皇帝疼奸臣。</t>
+  </si>
+  <si>
+    <t>駐】①罢奶：父母。②呆囝：坏孩子，此处指品行不良的子 女。
+辟】福州话又称这样的子女为“讨债囝”，俗说为父母者前 世欠债未还，債主投胎来讨请。荒诞的现象只能作荒诞的解
+说。</t>
+  </si>
+  <si>
+    <t>好囝伓使価，呆囝载其无。</t>
+  </si>
+  <si>
+    <t>駐】①囝：儿子。②怀使：不用。③俩：〈方言俗字〉多。 ④呆囝：品行不良的子女。⑤载其：宁可。</t>
+  </si>
+  <si>
+    <t>伲囝痞，大侬灾。</t>
+  </si>
+  <si>
+    <t>駐】①伲囝：孩子。②大侬：大人。
+读】孩子顽皮，处理不当会祸及家长。</t>
+  </si>
+  <si>
+    <t>鸡上斤，囝上十。</t>
+  </si>
+  <si>
+    <t>駐】①上：达到或超过。②囝：儿子。
+泛I】以前的家鸡个儿小，哏到一斤多也就盖不多可以宰了； 以前的孩子养到十岁上，在家可以帮家务，送出去可以学艺 打工了。如今的大种鸡，一斤重还只是鸡姓姓；现在的十岁 孩子，能自已洗袜子的就算不错了。</t>
+  </si>
+  <si>
+    <t>共囝易褪疕，共孙共遘死。</t>
+  </si>
+  <si>
+    <t>性】①共：抚养照料。②囝：子女。③褪芘：啤痂。疮愈痂 脱，比喻一个痛苦过程结束。《字汇补》：“庀：匹鄙切，疮 上甲。”④遘：到。
+读】虽有此叹，老租母们仍乐此不疲。</t>
+  </si>
+  <si>
+    <t>等汤噢滚，等囝噢大。</t>
+  </si>
+  <si>
+    <t>极】①汤：开水。②滚：《水烧）开。③等囝：等着孩子 (长大成人）④噢〈音〉：不易。
+辟】对结果的盼望越急切，过程越难熬。</t>
+  </si>
+  <si>
+    <t>罢奶疼尾囝，公妈疼长孙。</t>
+  </si>
+  <si>
+    <t xml:space="preserve">駐】①罢奶：父母。②尾囝:最小的孩子。③公妈:祖父祖母。
+</t>
+  </si>
+  <si>
+    <t>载扛三斗米，伓抱伲囝疕。</t>
+  </si>
+  <si>
+    <t>駐】①载：宁可。②怀：不愿。③伲囝庀：小孩儿。
+陳】米袋子怎么扛都行，而抱孩子得让孩子感到舒服，所以 特别累人。</t>
+  </si>
+  <si>
+    <t>死郎罢，俪蜀下；死娘奶，苦遘底。</t>
+  </si>
+  <si>
+    <t>駐】①死：此处作及物动词。②郎罢：父亲。③偭：〈借用 字〉仅。④蜀下：一下，指短时间的痛苦。⑤娘奶：母亲。 ⑥遘底：到底。
+陳】对年幼的子女来说，母爱远比父爱重要。</t>
+  </si>
+  <si>
+    <t>洪塘囝，伓八爹。</t>
+  </si>
+  <si>
+    <t>駐】①洪塘：福州西郊的洪塘乡。②囝：儿子，孩子。③怀 八：不知道。
+读】洪埯一带地狭人多，传统上男子多离家外出打工经商， 经年不归，以致孩子都“相见不相识” 了。</t>
+  </si>
+  <si>
+    <t>五十五，固蜀孵。</t>
+  </si>
+  <si>
+    <t>駐】①五十五:指妇女年龄。②固:还。③蜀孵“生)一胎。 陳】此谚当然戏该的成分多，但“耆蚌生味”也并非绝无仅 有。计生工作任重而道远。</t>
+  </si>
+  <si>
+    <t>鱼弟肉妹。</t>
+  </si>
+  <si>
+    <t>辟】猜测胎儿性别是人们永恒的兴趣。这里的说法是乎妇想 吃鱼则生男，想吃肉则生女。不知鱼肉都想或都不想者又作 何解。</t>
+  </si>
+  <si>
+    <t>爬弟𢵣妹。</t>
+  </si>
+  <si>
+    <t>駐】採：〈方言俗字〉蹭擦，此处指婴儿坐着靠手的力量向 前后移动身体。
+陳】这是另一种猜测胎儿性别的方法。在未实行独生子女政 策之前，往往前个婴儿尚未学走路，母亲涞胎又结。婴儿爱 俯身爬动的将有一个弟弟，爱坐着趱的将有个妹妹。这条经 验现在已不易验证了。</t>
+  </si>
+  <si>
+    <t>七成八败九成人。</t>
+  </si>
+  <si>
+    <t xml:space="preserve">辟】怀胎九月产下的的婴儿将正常成长。/乂个月的早产儿在 医疗卫生条件不佳的时代凶多吉少，而只孕育了七个月的 早产儿成活的希望反而大，不知是什么道理。谚语总是从众 多的经验中总结出来的，可能片面，但不至于瞎说。
+</t>
+  </si>
+  <si>
+    <t>风吹单条竹。</t>
+  </si>
+  <si>
+    <t>駐】单条竹：孤零零的一杆竹子，此处喻指独子。
+除】孤竹易折，独子易夭。当然这是医疗卫生条件差的旧时 代的经验。</t>
+  </si>
+  <si>
+    <t>【注】①蜀条：一根。②吼：结构助词；得。③岸岸光：亮堂 堂。岸〈音〉：明亮。
+除】福州丧俗，在灵床前点红烛，死者有几个儿子就点几根 烛。此谚喻独子有出息。</t>
+  </si>
+  <si>
+    <t>蜀条烛，点𠲥岸岸光。</t>
+  </si>
+  <si>
+    <t>公众厅中无侬扫，多子罢奶无对讨昼。</t>
+  </si>
+  <si>
+    <t xml:space="preserve">駐】①公众：公用的。②厅中：旧式民宅的正堂大厅。③无 侬扫：没有人打扫。④罢奶：父母。⑤无对：无处。对 〈音〉：地方。⑥讨昼：吃午饭。
+</t>
+  </si>
+  <si>
+    <t>牛着使钱买，囝着破腹生。</t>
+  </si>
+  <si>
+    <t>【注】①吼：动态助词，相当于“了”。②新妇：儿媳。③去: 失去。④囝：儿子。
+辟】</t>
+  </si>
+  <si>
+    <t>儿子不孝往往归咎于儿媳的不良影响。可怜天下父母</t>
+  </si>
+  <si>
+    <t>歧】①着：要，必须。②使：用。③囝：儿子。④破腹生:亲生。
+I案】</t>
+  </si>
+  <si>
+    <t>自己花钱买的牛用起来才能得心应手，自己生的儿子才 会幸顺父母。</t>
+  </si>
+  <si>
+    <t>讨𠲥新妇去𠲥囝。</t>
+  </si>
+  <si>
+    <t>日头弹倒车，新妇管台家。</t>
+  </si>
+  <si>
+    <t>①日头：太阳。②弹倒车：倒着旋转。③台家：婆婆， 或写作“大家”。</t>
+  </si>
+  <si>
+    <t>按旧俗，婆婆管妓妇天经地义，媳妇倒过来管教婆婆无 异于西边出太阳。</t>
+  </si>
+  <si>
+    <t>做侬新妇着省配，蜀头虾米咬两嘴。</t>
+  </si>
+  <si>
+    <t>①做侬新妇：做别人家的媳妇。②着：要，必须。③省 配：进餐时少吃菜，反之叫“大配”。配：下饭的菜。④蜀 头：一只。⑤咬两嘴：分两口吃。</t>
+  </si>
+  <si>
+    <t>在物屑匮乏的年代，“省配”是一种为人称道的美德。虽 时过境迁，这条谚语的“精神实屑”仍可玩味。</t>
+  </si>
+  <si>
+    <t>偷食台家疑新妇。</t>
+  </si>
+  <si>
+    <t>①偷食：偷吃；或借喻指偷情。②台家：婆婆。③新妇: 媳妇。</t>
+  </si>
+  <si>
+    <t>乍讨新妇月裡囝。</t>
+  </si>
+  <si>
+    <t>①乍讨：刚娶的。②新妇：媳妇。③月裡图：未满月的 婴儿。</t>
+  </si>
+  <si>
+    <t xml:space="preserve">刚过门的媳妇和初生的婪儿都特别招人喜爱。
+</t>
+  </si>
+  <si>
+    <t>孝顺诸娘囝着天边，不孝新妇着身边。</t>
+  </si>
+  <si>
+    <t>女儿总是要嫁，儿子总得要娶，这是自然规律。老人既 随儿子生活，总得与媳妇相处，要顺应家庭结构的变化，处 理好婆媳关系。毕竟孝与不孝，一半是事实，一半是感觉。</t>
+  </si>
+  <si>
+    <t>丈奶疼伲婿，酒瓶搭搭盖。</t>
+  </si>
+  <si>
+    <t>①丈奶：岳母。按连读变调逆推，本字可能是“长奶”。 ②伲婿：女婿。③酒瓶：斟酒的锡壶。④搭搭盖：〖盛酒）满 到壶盖。</t>
+  </si>
+  <si>
+    <t>丈侬攀讲馆，丈奶点心店。</t>
+  </si>
+  <si>
+    <t>①丈侬：岳父。②攀讲馆：即茶馆。攀讲：聊天。③丈 奶：岳母。</t>
+  </si>
+  <si>
+    <t>姑爷来作客，一般总是岳父陪着聊天，岳母则忙着煮点
+心。
+伲婿半爿</t>
+  </si>
+  <si>
+    <t>伲婿半爿囝。</t>
+  </si>
+  <si>
+    <t>】①伲婿：女婿。②半另：半个。③囝：儿子。</t>
+  </si>
+  <si>
+    <t>伲婿中秀才，不如我囝拾田螺。</t>
+  </si>
+  <si>
+    <t>①伲婿：女婿。②我囝：我的儿子。</t>
+  </si>
+  <si>
+    <t>儿子是自己的好，女婿虽亲终究隔了 一层。</t>
+  </si>
+  <si>
+    <t>伲婿别侬囝。</t>
+  </si>
+  <si>
+    <t>①伲婿：女婿。②别侬囝：别人家的儿子。</t>
+  </si>
+  <si>
+    <t xml:space="preserve">岳父母说这话时，姑爷能问心无愧吗？
+</t>
+  </si>
+  <si>
+    <t>凊饭放吼酸，无疼外甥孙。</t>
+  </si>
+  <si>
+    <t>①清饭：冷饭，剩饭。②放吼酸：搁着让它发馊。吼: 动态助词；着。③无疼：不疼爱。④外甥孙：外孙。</t>
+  </si>
+  <si>
+    <t>女婧是别人家的儿，外孙是别人家的孙。就说是由于宗 法观念作祟，也不至于如此绝情。这多半是一句玩笑话。</t>
+  </si>
+  <si>
+    <t>天上雷公，地下舅公。</t>
+  </si>
+  <si>
+    <t xml:space="preserve">闽俗在三亲六戚中数寿公（祖母的兄弟〕的权威最大， 这似乎是对父系宗法制度的一种补偿。
+</t>
+  </si>
+  <si>
+    <t>亲姨娘奶面。</t>
+  </si>
+  <si>
+    <t>①娘奶：母亲。②面：面容。</t>
+  </si>
+  <si>
+    <t>嫡亲的姨妈不仅面容像母亲，而且和母亲一样慈爱。</t>
+  </si>
+  <si>
+    <t>外甥多似舅，侄女像家姑。</t>
+  </si>
+  <si>
+    <t xml:space="preserve">男孩子往往长得像母亲，所以“似寿”；女孩子多随父亲，因此“像家姑”。
+</t>
+  </si>
+  <si>
+    <t>亲戚姜姆汤。</t>
+  </si>
+  <si>
+    <t>姜母汤：姜汤，喻辛辣。姜姆：姜。</t>
+  </si>
+  <si>
+    <t>从亲戚关系中可以体验到脉林溫情，也能体验到人情冷 暖，世态炎凉。</t>
+  </si>
+  <si>
+    <t>田园日日去，亲戚淡淡行。</t>
+  </si>
+  <si>
+    <t>】淡淡行：疏淡地往来。</t>
+  </si>
+  <si>
+    <t>料理田园却一日不得荒兢，亲戚间来往则不必过勤。</t>
+  </si>
+  <si>
+    <t>乌头叔，白头孙。</t>
+  </si>
+  <si>
+    <t>①乌头：黑头发，指年轻的。②孙：侄儿。</t>
+  </si>
+  <si>
+    <t>在一个大家族中，箄分和年龄往往倒挂，同龄人可以相 差两三辈。</t>
+  </si>
+  <si>
+    <t>】①载……怀……：宁可……也不……。②粪坑厝：厕所。 ③外家厝：娘家的房子。</t>
+  </si>
+  <si>
+    <t>旧俗婚后总是妇女从夫居，男住女家即使不是招赘，也 怕被女家族人瞧不起。</t>
+  </si>
+  <si>
+    <t>三岁孩儿值侬疼，八十婆婆讨侬嫌。</t>
+  </si>
+  <si>
+    <t>载住粪坑厝，伓住外家厝。</t>
+  </si>
+  <si>
+    <t>①值侬疼：惹人喜爱。②讨侬嫌：叫人讨厌。</t>
+  </si>
+  <si>
+    <t>希望这只是老年人幽默的自我打趣。</t>
+  </si>
+  <si>
+    <t>皇帝也有草鞋亲。</t>
+  </si>
+  <si>
+    <t>草鞋亲：贫贱的亲戚。</t>
+  </si>
+  <si>
+    <t>钱财生计</t>
+  </si>
+  <si>
+    <t>钱财无露眼。</t>
+  </si>
+  <si>
+    <t>无露眼：不要露在外面叫人看到。</t>
+  </si>
+  <si>
+    <t>防人之心不可无。</t>
+  </si>
+  <si>
+    <t>蜀介钱买针，也着看鼻。</t>
+  </si>
+  <si>
+    <t xml:space="preserve">①蜀介钱：一个铜板。②着：要。③鼻：指针鼻，即针 眼。
+</t>
+  </si>
+  <si>
+    <t>购物无论责贱，总要先看清货色。</t>
+  </si>
+  <si>
+    <t>福州价，半半价。</t>
+  </si>
+  <si>
+    <t>半半：一半。</t>
+  </si>
+  <si>
+    <t>福州的市场上盞行讨价还价，生意人往往加倍要价，有 经验的顾客至少是对折还价，不熟悉这个习慣的外乡人往
+往要吃亏。</t>
+  </si>
+  <si>
+    <t>有错买，无错卖。</t>
+  </si>
+  <si>
+    <t>市场上讨价迈价看似公平，结果吃亏的总是消费者。</t>
+  </si>
+  <si>
+    <t>駐】①讨𣍐着：〔找配偶〉找得不对。②固呆：比……还糟 糕。呆：坏；方言音从《广韵》五来切。③郑〈音〉：错。 [^】婚姻是一辈子的大事，找错了对象比吃错了药更要命。</t>
+  </si>
+  <si>
+    <t>【注】①未睏三顶席：还没睡烂三张席子。睏：睡。②摸𣍐着： 摸不着。
+【案】夫妻往往要共同生活几年后才能真正互相了解。</t>
+  </si>
+  <si>
+    <t>便宜无好乇，好乇𣍐便宜。</t>
+  </si>
+  <si>
+    <t>①乇：〈方言俗字〉东西，货色。②𣍐：〈方言俗字〉不 会。</t>
+  </si>
+  <si>
+    <t>千赊不如八百现。</t>
+  </si>
+  <si>
+    <t xml:space="preserve">“二鸟在林，不如一鸟在手”。赊账一千，还不如现钱八 百。如今饱受“三角债”之苦的企业领导人对此体会尤深。
+</t>
+  </si>
+  <si>
+    <t>亲兄弟，明算数。</t>
+  </si>
+  <si>
+    <t>①明：当面。②数：账目。</t>
+  </si>
+  <si>
+    <t>即使亲如兄弟，也还是把脒当面算清为好。</t>
+  </si>
+  <si>
+    <t>刣头生意有侬做，蚀本生意无侬做。</t>
+  </si>
+  <si>
+    <t xml:space="preserve">①釗头：杀头。剖：〈方言俗字〉宰杀，本字“治”。 ②侬：人。
+</t>
+  </si>
+  <si>
+    <t>拾吼缚腿带，家伙去蜀堂。</t>
+  </si>
+  <si>
+    <t>①吼：动态助词；了。②缚腿带：绑腿。③家伙：家产。 ④去：损失。⑤蜀堂：一套〔家具等乂 辟】</t>
+  </si>
+  <si>
+    <t>民间寓言故事说：某人拾得一副绑腿带，为了与之私套， 便花钱买了一双新鞋，又为了新鞋，再添置新裤掛……直至 车马飧仆等，耗尽了枳蓄。这則寓言中揭示的消费心理学原 理值得商家反复揣摩。</t>
+  </si>
+  <si>
+    <t>“贫”字共“贪”蜀样写。</t>
+  </si>
+  <si>
+    <t>①共：与。②蜀样：同样。</t>
+  </si>
+  <si>
+    <t>“贫”与“贪”字形相似，写得潦草些看上去差不多。此 诗说明贪心不足也往往成为玫贫的原因。</t>
+  </si>
+  <si>
+    <t>贪便宜，去倒长。</t>
+  </si>
+  <si>
+    <t xml:space="preserve">①去：损失。@倒：反而。③长：此处指“多”。
+</t>
+  </si>
+  <si>
+    <t>金银成堆山，不如蜀扁担。</t>
+  </si>
+  <si>
+    <t>①成堆山：形容很多。②蜀：一。</t>
+  </si>
+  <si>
+    <t>坐吃山空，劳动本领才是生活的依靠。</t>
+  </si>
+  <si>
+    <t>衣裳笑破无笑补。</t>
+  </si>
+  <si>
+    <t>穿破衣服遭人嘲笑是因为你懒而且选遇，而不是因为你 穷。衣服破了，补整齐再穿，不会遭人嘲笑。</t>
+  </si>
+  <si>
+    <t>省食钱债轻，省颂衣裳新。</t>
+  </si>
+  <si>
+    <t>①省：节省。②食：饮食。③钱债：债务。④颂：穿著。</t>
+  </si>
+  <si>
+    <t>卖油诸娘水梳头。</t>
+  </si>
+  <si>
+    <t>卖油诸娘：卖梳发油的女子。</t>
+  </si>
+  <si>
+    <t>记得60年代的小学课文中有一首民谣是：“卖盐的，喝 淡汤；种田的，吃米槺；编凉席的睡光床，当奶妈的卖儿郎 ……”反映了旧社会的不平等，印象深刻，至今还能记得。 这条谚语或许也是反映同样的社会现象。但也许还可以解 读为对商品经济社会特点的反映：经营行为和消费行为是 不能混为一谈的，不能因为手边都是油就往自己头上抹。</t>
+  </si>
+  <si>
+    <t>水倒过碗都会消蚀。</t>
+  </si>
+  <si>
+    <t>物品在流通使用过程中都会有一定损耗。</t>
+  </si>
+  <si>
+    <t>三人五眼，长短无后话。</t>
+  </si>
+  <si>
+    <t xml:space="preserve">民间故事说，有人为独眼男子和跛足女子牵媒议亲，相 亲时说这句话以免日后反悔。喻指交易双方及证人都在场， 成交之后不能反悔。
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">①下邪：耍赖占别人的便宜。②脍富：不能致富。③颂： 穿。④跻裤：薄麻布的裤子。冬天着夏装，形容穷。
+</t>
+  </si>
+  <si>
+    <t>下邪𣍐富，十二月纃统裤。</t>
+  </si>
+  <si>
+    <t>使千使万，尿壶无掼。</t>
+  </si>
+  <si>
+    <t>①使：花（钱〉。②掼：提手。</t>
+  </si>
+  <si>
+    <t>此谅嘲讯茱痊人大把大把地花钱，而茱些生活細节上却 节俭得不近情理。</t>
+  </si>
+  <si>
+    <t>有钱日日节，无钱节节空。</t>
+  </si>
+  <si>
+    <t xml:space="preserve">无论过什么节，核心节目都是吃喝一顿。有钱人天天都 可以尽情吃喝；穷人没有钱打酒割肉，过节也是白过。
+</t>
+  </si>
+  <si>
+    <t>生吼无积掌，死咯害保长。</t>
+  </si>
+  <si>
+    <t>①生吼：活着。②积掌：积攒。“掌”可能就是“攒”字 的讹读。③咯：动态助词；了。</t>
+  </si>
+  <si>
+    <t>身后没留一文钱，只好由保长去料理收埋。</t>
+  </si>
+  <si>
+    <t>家私全，功夫半。</t>
+  </si>
+  <si>
+    <t>劳动生产</t>
+  </si>
+  <si>
+    <t xml:space="preserve">①家私：工具。②功夫：指手艺技能。
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">很多手艺活儿，只要工具耙套齐全，做起来并不难，在当代高科技的条件下更是如此。
+</t>
+  </si>
+  <si>
+    <t>钝刀利手。</t>
+  </si>
+  <si>
+    <t>利：锋利。</t>
+  </si>
+  <si>
+    <t>真有好功夫的人使用什么样的工具都能出好活儿。</t>
+  </si>
+  <si>
+    <t>碎食絵饱，碎做无工。</t>
+  </si>
+  <si>
+    <t>①碎食：零食。②狯饱：吃不饱。③碎做：零敲碎打地 干活。④工：指劳动功效。</t>
+  </si>
+  <si>
+    <t xml:space="preserve">①白搦：没有拜师学艺的手工操作。②怀是：不是。 ③暴：折断。
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">外行干的活儿总是毛病多。
+</t>
+  </si>
+  <si>
+    <t>白搦白搦，伓是暴便是折。</t>
+  </si>
+  <si>
+    <t>蜀年固望蜀年好，汗衫补成破夹袄。</t>
+  </si>
+  <si>
+    <t xml:space="preserve">①蜀年：一年。②固：还。③汗衫：衬衫。
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">“樓桃好吃树难栽，不下苦工花不开”。光有美好的愿望是不够的。
+</t>
+  </si>
+  <si>
+    <t>做田无命，节气把定。</t>
+  </si>
+  <si>
+    <t xml:space="preserve">①做田：种田，务农。②无命：不凭命运。
+</t>
+  </si>
+  <si>
+    <t>务农不凭命运，关键是掌握好节气和农时。</t>
+  </si>
+  <si>
+    <t>做田无功夫，俪八骹手粗。</t>
+  </si>
+  <si>
+    <t xml:space="preserve">①做田：务农。②功夫：技能。③偭八：只要……就行。 値：〈借用字〉只，仅。八：懂，知道。④骸：脚。
+</t>
+  </si>
+  <si>
+    <t>种地当然不是不需要知识技能的，但最重要的是不能怕 苦怕累。</t>
+  </si>
+  <si>
+    <t>蜀日肩，两日骹。</t>
+  </si>
+  <si>
+    <t>①蜀：一。②骹：脚，腿。</t>
+  </si>
+  <si>
+    <t>学挑担子首先是过肩膀关，但关键却是腿脚上的功夫, 这需要更长的时间才能练出来。</t>
+  </si>
+  <si>
+    <t>肉食肉做，菜食菜做。</t>
+  </si>
+  <si>
+    <t>陳】给什么样的报酬出什么样的活儿。</t>
+  </si>
+  <si>
+    <t>无工钱也着腹佬圆。</t>
+  </si>
+  <si>
+    <t>】①着：要，必须。②腹佬：肚子。</t>
+  </si>
+  <si>
+    <t>请人帮工，不给工钱至少也得让人吃饱。</t>
+  </si>
+  <si>
+    <t>吃亏做，快活食。</t>
+  </si>
+  <si>
+    <t>①吃亏：辛苦。②做：干活，劳动。③食：吃。</t>
+  </si>
+  <si>
+    <t>舒舒服服地吃饭是对辛苦劳动的补偿。</t>
+  </si>
+  <si>
+    <t>有伙头坐，无伙头饿。</t>
+  </si>
+  <si>
+    <t xml:space="preserve">】①有、无：指饭煮得多了还是少了。②伙头：伙夫。 ③坐：承受，此处指负责吃下剩饭。
+</t>
+  </si>
+  <si>
+    <t>做任何一项工作都要切实地承担起责任。</t>
+  </si>
+  <si>
+    <t>①胶：脚。②灯马：油灯。③肺：跑。</t>
+  </si>
+  <si>
+    <t>年关将近的时候，人人都忙。</t>
+  </si>
+  <si>
+    <t>十二月无骹灯马都会䟛。</t>
+  </si>
+  <si>
+    <t>为人处世</t>
+  </si>
+  <si>
+    <t>会载绝嗣，伓嗵玩遇。</t>
+  </si>
+  <si>
+    <t>①会载：宁可。②怀嗵：不要。③玩遇〈音〉：荒谬，此 处指丢人现眼。</t>
+  </si>
+  <si>
+    <t>会载犯天条，𣍐载犯众怒。</t>
+  </si>
+  <si>
+    <t xml:space="preserve">①会载^𣍐载^ :宁可^不可^。②天条：天 帝的律条。
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">这是夸张的修辞手法，不可信以为真。福州人爱面子是 事实，“面子”重如泰山，但传香火的子嗣绝对比泰山还重。
+</t>
+  </si>
+  <si>
+    <t>请客何在蜀双箸。</t>
+  </si>
+  <si>
+    <t>①何在：不在乎。②蜀双箸：〔添）一双筷子，指多请 一个客人。</t>
+  </si>
+  <si>
+    <t xml:space="preserve">中国的酒席是围圓桌而食的“聚餐”，而且酒菜总是多 得吃不完，临时多请个客人确实只需多摆下一双筷子就行。 何况说，多一个朋友多一条路。
+</t>
+  </si>
+  <si>
+    <t>亲帮亲，邻帮邻，细桌帮度绳。</t>
+  </si>
+  <si>
+    <t>①细桌：制作家具的木匠。②度绳：原指墨斗线，引申 指建筑房屋的木匠。</t>
+  </si>
+  <si>
+    <t>衣裳爱新侬爱旧。</t>
+  </si>
+  <si>
+    <t xml:space="preserve">衣服是新的好，相交还是老朋友可靠。
+</t>
+  </si>
+  <si>
+    <t>金厝边，银乡里。</t>
+  </si>
+  <si>
+    <t xml:space="preserve">①厝边：邻居。②乡里：街坊。
+</t>
+  </si>
+  <si>
+    <t>远亲不如近邻。</t>
+  </si>
+  <si>
+    <t>柴博炭，齐好看。</t>
+  </si>
+  <si>
+    <t xml:space="preserve">①博：交换。②齐：一齐，都。
+</t>
+  </si>
+  <si>
+    <t>礼尚往来，“博”字用得精辟。你送我一 |炭，我送你 一捆柴，大家面子上都有光彩。</t>
+  </si>
+  <si>
+    <t>人情剔得透，有鼎复无灶。</t>
+  </si>
+  <si>
+    <t xml:space="preserve">①人情：亲友间贺喜的红包。②剔得透：打理的周全。 ③鼎：锅。④复：又，却又；俗写“仅”字。
+</t>
+  </si>
+  <si>
+    <t>红白喜事，大操大办，眼蜻盯着亲友的腰包，发请帖像 讨债。这种恶俗由来已久，而今愈烈。</t>
+  </si>
+  <si>
+    <t>有裙无裤，世事着顾。</t>
+  </si>
+  <si>
+    <t xml:space="preserve">】①有裙无裤:顾了裙子顾不了裤子，形容经济窘迫。②世 事：人生大事，指娶妻生子传宗接代等。③着：要，必须。
+</t>
+  </si>
+  <si>
+    <t>做侬两奇做。</t>
+  </si>
+  <si>
+    <t>①做侬：做人，为人。②两奇：两个，此处指相互。奇: 量词；个。</t>
+  </si>
+  <si>
+    <t xml:space="preserve">人际关系是相互的，要靠双方一起来维护、改善。
+</t>
+  </si>
+  <si>
+    <t>无贪鸡肝胗，会去洗鸡橱？</t>
+  </si>
+  <si>
+    <t xml:space="preserve">①无贪鸡肝胗：不贪图（人家的）鸡肝和鸡胗。②会: 可能。③鸡橱：养鸡的笼子。
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">“天下没有免费的午餐”是美国的谚语，我们也不该指 望别人的“义务劳动”。只要鸡笼洗得干净，宰鸡时分卒一 些杂碎也是应当的。
+</t>
+  </si>
+  <si>
+    <t>君子无赢头盘棋。</t>
+  </si>
+  <si>
+    <t>①无贏：不贏。②头盘：第一盘。</t>
+  </si>
+  <si>
+    <t xml:space="preserve">初次交手，给对方留一个面子。
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">①着：要，必须。②蜀：一。
+</t>
+  </si>
+  <si>
+    <t>呼鸡也着蜀把米。</t>
+  </si>
+  <si>
+    <t>总得给出点儿好处才能差遣他人。</t>
+  </si>
+  <si>
+    <t>出门看天色，裡门看面色。</t>
+  </si>
+  <si>
+    <t xml:space="preserve">①裡：动词；进。②面色：〔主人的〉脸色。
+</t>
+  </si>
+  <si>
+    <t>有求于人，能不看看人家的脸色吗？</t>
+  </si>
+  <si>
+    <t>①侬：人。②俩：〈方言俗字〉多。③食乇：吃东西；或 引申指分配利益。</t>
+  </si>
+  <si>
+    <t xml:space="preserve">干活时希望人多一些，到分釔时却希望人少一些，人心
+如此〇
+</t>
+  </si>
+  <si>
+    <t>侬価好做事，侬少好食乇。</t>
+  </si>
+  <si>
+    <t>平平墿，跋死侬。</t>
+  </si>
+  <si>
+    <t>①平平墚：平平的路面；或引申指看似平坦的生活道路。②跋：跌跤。③侬：人。</t>
+  </si>
+  <si>
+    <t>拳头柿，霆死侬。</t>
+  </si>
+  <si>
+    <t xml:space="preserve">①拳头柿：乱挥舞的拳头。柿：《广韵》斫木札也，方 废切。②霆：砸。③侬：人。
+</t>
+  </si>
+  <si>
+    <t>】见别人打架要赶紧躲开，免得被误伤。这反映了小市民 胆小怕事，明哲保身的处世态度。</t>
+  </si>
+  <si>
+    <t>浸死好水相，拍死好拳头。</t>
+  </si>
+  <si>
+    <t xml:space="preserve">①水相：水性。②拍死：打死。③拳头：武术。
+</t>
+  </si>
+  <si>
+    <t>恃艺逞能，结果往往不幸。</t>
+  </si>
+  <si>
+    <t>长乐拍长乐，转厝齐无学。尚干拍尚干，转厝齐无喊。</t>
+  </si>
+  <si>
+    <t>①长乐：长乐市，在福州东南面，此处指长乐人。②拍： 打。③转厝：回家。④齐：都。⑤学：诉说。⑥尚干：尚干 镇，在福州南郊，此处指尚干人。⑦喊：〈借用字〉告诉。</t>
+  </si>
+  <si>
+    <t xml:space="preserve">大水冲了龙王庙，自家人打了自家人，只好算了。
+</t>
+  </si>
+  <si>
+    <t>有理无理，干证先死。</t>
+  </si>
+  <si>
+    <t>①干证：证人。②死：此处指倒霉。</t>
+  </si>
+  <si>
+    <t>“竟良心说话”有时很不容易。</t>
+  </si>
+  <si>
+    <t>①蜀：一。②絵：不能。③益：使……受益。④两介侬: 两个人，指矛盾双方。</t>
+  </si>
+  <si>
+    <t>蜀句话𣍐益两介侬。</t>
+  </si>
+  <si>
+    <t>世道清浊</t>
+  </si>
+  <si>
+    <t>骹踩马屎借官势。</t>
   </si>
 </sst>
 </file>
@@ -2404,8 +3230,8 @@
   <dimension ref="A1:F300"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A137" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="B147" sqref="B147"/>
+      <pane ySplit="1" topLeftCell="A242" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="A251" sqref="A251"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="23.25" customHeight="1" x14ac:dyDescent="0.3"/>
@@ -4570,7 +5396,7 @@
         <v>561</v>
       </c>
       <c r="B127" s="3" t="s">
-        <v>580</v>
+        <v>579</v>
       </c>
       <c r="D127" t="s">
         <v>347</v>
@@ -4579,7 +5405,7 @@
         <v>47</v>
       </c>
       <c r="F127" t="s">
-        <v>594</v>
+        <v>592</v>
       </c>
     </row>
     <row r="128" spans="1:6" ht="23.25" customHeight="1" x14ac:dyDescent="0.3">
@@ -4587,7 +5413,7 @@
         <v>562</v>
       </c>
       <c r="B128" s="3" t="s">
-        <v>581</v>
+        <v>580</v>
       </c>
       <c r="D128" t="s">
         <v>348</v>
@@ -4596,7 +5422,7 @@
         <v>47</v>
       </c>
       <c r="F128" t="s">
-        <v>594</v>
+        <v>592</v>
       </c>
     </row>
     <row r="129" spans="1:6" ht="23.25" customHeight="1" x14ac:dyDescent="0.3">
@@ -4604,7 +5430,7 @@
         <v>563</v>
       </c>
       <c r="B129" s="3" t="s">
-        <v>582</v>
+        <v>581</v>
       </c>
       <c r="D129" t="s">
         <v>349</v>
@@ -4613,7 +5439,7 @@
         <v>47</v>
       </c>
       <c r="F129" t="s">
-        <v>594</v>
+        <v>592</v>
       </c>
     </row>
     <row r="130" spans="1:6" ht="23.25" customHeight="1" x14ac:dyDescent="0.3">
@@ -4621,7 +5447,7 @@
         <v>564</v>
       </c>
       <c r="B130" s="3" t="s">
-        <v>583</v>
+        <v>582</v>
       </c>
       <c r="D130" t="s">
         <v>350</v>
@@ -4630,7 +5456,7 @@
         <v>48</v>
       </c>
       <c r="F130" t="s">
-        <v>594</v>
+        <v>592</v>
       </c>
     </row>
     <row r="131" spans="1:6" ht="23.25" customHeight="1" x14ac:dyDescent="0.3">
@@ -4638,7 +5464,7 @@
         <v>565</v>
       </c>
       <c r="B131" s="3" t="s">
-        <v>584</v>
+        <v>583</v>
       </c>
       <c r="D131" t="s">
         <v>351</v>
@@ -4647,7 +5473,7 @@
         <v>48</v>
       </c>
       <c r="F131" t="s">
-        <v>594</v>
+        <v>592</v>
       </c>
     </row>
     <row r="132" spans="1:6" ht="23.25" customHeight="1" x14ac:dyDescent="0.3">
@@ -4664,7 +5490,7 @@
         <v>48</v>
       </c>
       <c r="F132" t="s">
-        <v>594</v>
+        <v>592</v>
       </c>
     </row>
     <row r="133" spans="1:6" ht="23.25" customHeight="1" x14ac:dyDescent="0.3">
@@ -4672,7 +5498,7 @@
         <v>568</v>
       </c>
       <c r="B133" s="1" t="s">
-        <v>585</v>
+        <v>584</v>
       </c>
       <c r="D133" t="s">
         <v>353</v>
@@ -4681,7 +5507,7 @@
         <v>49</v>
       </c>
       <c r="F133" t="s">
-        <v>594</v>
+        <v>592</v>
       </c>
     </row>
     <row r="134" spans="1:6" ht="23.25" customHeight="1" x14ac:dyDescent="0.3">
@@ -4689,7 +5515,7 @@
         <v>569</v>
       </c>
       <c r="B134" s="1" t="s">
-        <v>586</v>
+        <v>585</v>
       </c>
       <c r="D134" t="s">
         <v>354</v>
@@ -4698,7 +5524,7 @@
         <v>49</v>
       </c>
       <c r="F134" t="s">
-        <v>594</v>
+        <v>592</v>
       </c>
     </row>
     <row r="135" spans="1:6" ht="23.25" customHeight="1" x14ac:dyDescent="0.3">
@@ -4706,7 +5532,7 @@
         <v>570</v>
       </c>
       <c r="B135" s="1" t="s">
-        <v>587</v>
+        <v>718</v>
       </c>
       <c r="D135" t="s">
         <v>355</v>
@@ -4715,15 +5541,15 @@
         <v>49</v>
       </c>
       <c r="F135" t="s">
-        <v>594</v>
+        <v>592</v>
       </c>
     </row>
     <row r="136" spans="1:6" ht="23.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A136" s="1" t="s">
-        <v>589</v>
+        <v>587</v>
       </c>
       <c r="B136" s="3" t="s">
-        <v>588</v>
+        <v>586</v>
       </c>
       <c r="D136" t="s">
         <v>520</v>
@@ -4732,7 +5558,7 @@
         <v>49</v>
       </c>
       <c r="F136" t="s">
-        <v>594</v>
+        <v>592</v>
       </c>
     </row>
     <row r="137" spans="1:6" ht="23.25" customHeight="1" x14ac:dyDescent="0.3">
@@ -4740,7 +5566,7 @@
         <v>571</v>
       </c>
       <c r="B137" s="1" t="s">
-        <v>590</v>
+        <v>588</v>
       </c>
       <c r="D137" t="s">
         <v>356</v>
@@ -4749,7 +5575,7 @@
         <v>50</v>
       </c>
       <c r="F137" t="s">
-        <v>594</v>
+        <v>592</v>
       </c>
     </row>
     <row r="138" spans="1:6" ht="23.25" customHeight="1" x14ac:dyDescent="0.3">
@@ -4757,7 +5583,7 @@
         <v>572</v>
       </c>
       <c r="B138" s="3" t="s">
-        <v>591</v>
+        <v>589</v>
       </c>
       <c r="D138" t="s">
         <v>357</v>
@@ -4766,7 +5592,7 @@
         <v>50</v>
       </c>
       <c r="F138" t="s">
-        <v>594</v>
+        <v>592</v>
       </c>
     </row>
     <row r="139" spans="1:6" ht="23.25" customHeight="1" x14ac:dyDescent="0.3">
@@ -4774,7 +5600,7 @@
         <v>573</v>
       </c>
       <c r="B139" s="3" t="s">
-        <v>592</v>
+        <v>590</v>
       </c>
       <c r="D139" t="s">
         <v>358</v>
@@ -4783,7 +5609,7 @@
         <v>50</v>
       </c>
       <c r="F139" t="s">
-        <v>594</v>
+        <v>592</v>
       </c>
     </row>
     <row r="140" spans="1:6" ht="23.25" customHeight="1" x14ac:dyDescent="0.3">
@@ -4791,7 +5617,7 @@
         <v>574</v>
       </c>
       <c r="B140" s="1" t="s">
-        <v>593</v>
+        <v>591</v>
       </c>
       <c r="D140" t="s">
         <v>359</v>
@@ -4800,7 +5626,7 @@
         <v>50</v>
       </c>
       <c r="F140" t="s">
-        <v>594</v>
+        <v>592</v>
       </c>
     </row>
     <row r="141" spans="1:6" ht="23.25" customHeight="1" x14ac:dyDescent="0.3">
@@ -4808,7 +5634,7 @@
         <v>575</v>
       </c>
       <c r="B141" s="3" t="s">
-        <v>579</v>
+        <v>578</v>
       </c>
       <c r="D141" t="s">
         <v>360</v>
@@ -4817,15 +5643,15 @@
         <v>51</v>
       </c>
       <c r="F141" t="s">
-        <v>594</v>
+        <v>592</v>
       </c>
     </row>
     <row r="142" spans="1:6" ht="23.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A142" s="1" t="s">
-        <v>597</v>
+        <v>595</v>
       </c>
       <c r="B142" s="3" t="s">
-        <v>578</v>
+        <v>719</v>
       </c>
       <c r="D142" t="s">
         <v>361</v>
@@ -4834,7 +5660,7 @@
         <v>51</v>
       </c>
       <c r="F142" t="s">
-        <v>594</v>
+        <v>592</v>
       </c>
     </row>
     <row r="143" spans="1:6" ht="23.25" customHeight="1" x14ac:dyDescent="0.3">
@@ -4851,597 +5677,1557 @@
         <v>51</v>
       </c>
       <c r="F143" t="s">
-        <v>594</v>
+        <v>592</v>
       </c>
     </row>
     <row r="144" spans="1:6" ht="23.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A144" s="1" t="s">
+        <v>594</v>
+      </c>
+      <c r="B144" s="3" t="s">
         <v>596</v>
-      </c>
-      <c r="B144" s="3" t="s">
-        <v>598</v>
       </c>
       <c r="D144" t="s">
         <v>363</v>
       </c>
+      <c r="E144">
+        <v>51</v>
+      </c>
       <c r="F144" t="s">
-        <v>595</v>
-      </c>
-    </row>
-    <row r="145" spans="1:4" ht="23.25" customHeight="1" x14ac:dyDescent="0.3">
+        <v>593</v>
+      </c>
+    </row>
+    <row r="145" spans="1:6" ht="23.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A145" s="1" t="s">
-        <v>599</v>
+        <v>597</v>
       </c>
       <c r="B145" s="3" t="s">
-        <v>600</v>
+        <v>598</v>
       </c>
       <c r="D145" t="s">
         <v>364</v>
       </c>
-    </row>
-    <row r="146" spans="1:4" ht="23.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="E145">
+        <v>52</v>
+      </c>
+      <c r="F145" t="s">
+        <v>593</v>
+      </c>
+    </row>
+    <row r="146" spans="1:6" ht="23.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A146" s="1" t="s">
-        <v>601</v>
+        <v>599</v>
       </c>
       <c r="B146" s="3" t="s">
-        <v>602</v>
+        <v>600</v>
       </c>
       <c r="D146" t="s">
         <v>365</v>
       </c>
-    </row>
-    <row r="147" spans="1:4" ht="23.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="E146">
+        <v>52</v>
+      </c>
+      <c r="F146" t="s">
+        <v>593</v>
+      </c>
+    </row>
+    <row r="147" spans="1:6" ht="23.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A147" s="1" t="s">
-        <v>603</v>
+        <v>601</v>
       </c>
       <c r="B147" s="1" t="s">
-        <v>604</v>
+        <v>602</v>
       </c>
       <c r="D147" t="s">
         <v>366</v>
       </c>
-    </row>
-    <row r="148" spans="1:4" ht="23.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="E147">
+        <v>52</v>
+      </c>
+      <c r="F147" t="s">
+        <v>593</v>
+      </c>
+    </row>
+    <row r="148" spans="1:6" ht="23.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A148" s="1" t="s">
+        <v>603</v>
+      </c>
+      <c r="B148" s="3" t="s">
+        <v>604</v>
+      </c>
       <c r="D148" t="s">
         <v>367</v>
       </c>
-    </row>
-    <row r="149" spans="1:4" ht="23.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="E148">
+        <v>52</v>
+      </c>
+      <c r="F148" t="s">
+        <v>593</v>
+      </c>
+    </row>
+    <row r="149" spans="1:6" ht="23.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A149" s="1" t="s">
+        <v>605</v>
+      </c>
+      <c r="B149" s="3" t="s">
+        <v>606</v>
+      </c>
       <c r="D149" t="s">
         <v>368</v>
       </c>
-    </row>
-    <row r="150" spans="1:4" ht="23.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="E149">
+        <v>53</v>
+      </c>
+      <c r="F149" t="s">
+        <v>593</v>
+      </c>
+    </row>
+    <row r="150" spans="1:6" ht="23.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A150" s="1" t="s">
+        <v>607</v>
+      </c>
+      <c r="B150" s="3" t="s">
+        <v>608</v>
+      </c>
       <c r="D150" t="s">
         <v>369</v>
       </c>
-    </row>
-    <row r="151" spans="1:4" ht="23.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="E150">
+        <v>53</v>
+      </c>
+      <c r="F150" t="s">
+        <v>593</v>
+      </c>
+    </row>
+    <row r="151" spans="1:6" ht="23.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A151" s="1" t="s">
+        <v>609</v>
+      </c>
+      <c r="B151" s="3" t="s">
+        <v>610</v>
+      </c>
       <c r="D151" t="s">
         <v>370</v>
       </c>
-    </row>
-    <row r="152" spans="1:4" ht="23.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="E151">
+        <v>53</v>
+      </c>
+      <c r="F151" t="s">
+        <v>593</v>
+      </c>
+    </row>
+    <row r="152" spans="1:6" ht="23.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A152" s="1" t="s">
+        <v>611</v>
+      </c>
+      <c r="B152" s="3" t="s">
+        <v>612</v>
+      </c>
       <c r="D152" t="s">
         <v>371</v>
       </c>
-    </row>
-    <row r="153" spans="1:4" ht="23.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="E152">
+        <v>53</v>
+      </c>
+      <c r="F152" t="s">
+        <v>593</v>
+      </c>
+    </row>
+    <row r="153" spans="1:6" ht="23.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A153" s="1" t="s">
+        <v>613</v>
+      </c>
+      <c r="B153" s="3" t="s">
+        <v>614</v>
+      </c>
       <c r="D153" t="s">
         <v>372</v>
       </c>
-    </row>
-    <row r="154" spans="1:4" ht="23.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="E153">
+        <v>54</v>
+      </c>
+      <c r="F153" t="s">
+        <v>593</v>
+      </c>
+    </row>
+    <row r="154" spans="1:6" ht="23.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A154" s="1" t="s">
+        <v>615</v>
+      </c>
+      <c r="B154" s="1" t="s">
+        <v>616</v>
+      </c>
       <c r="D154" t="s">
         <v>373</v>
       </c>
-    </row>
-    <row r="155" spans="1:4" ht="23.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="E154">
+        <v>54</v>
+      </c>
+      <c r="F154" t="s">
+        <v>593</v>
+      </c>
+    </row>
+    <row r="155" spans="1:6" ht="23.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A155" s="1" t="s">
+        <v>617</v>
+      </c>
+      <c r="B155" s="3" t="s">
+        <v>618</v>
+      </c>
       <c r="D155" t="s">
         <v>374</v>
       </c>
-    </row>
-    <row r="156" spans="1:4" ht="23.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="E155">
+        <v>54</v>
+      </c>
+      <c r="F155" t="s">
+        <v>593</v>
+      </c>
+    </row>
+    <row r="156" spans="1:6" ht="23.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A156" s="1" t="s">
+        <v>619</v>
+      </c>
+      <c r="B156" s="3" t="s">
+        <v>620</v>
+      </c>
       <c r="D156" t="s">
         <v>375</v>
       </c>
-    </row>
-    <row r="157" spans="1:4" ht="23.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="E156">
+        <v>54</v>
+      </c>
+      <c r="F156" t="s">
+        <v>593</v>
+      </c>
+    </row>
+    <row r="157" spans="1:6" ht="23.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A157" s="1" t="s">
+        <v>621</v>
+      </c>
+      <c r="B157" s="3" t="s">
+        <v>622</v>
+      </c>
       <c r="D157" t="s">
         <v>376</v>
       </c>
-    </row>
-    <row r="158" spans="1:4" ht="23.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="E157">
+        <v>55</v>
+      </c>
+      <c r="F157" t="s">
+        <v>593</v>
+      </c>
+    </row>
+    <row r="158" spans="1:6" ht="23.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A158" s="1" t="s">
+        <v>623</v>
+      </c>
+      <c r="B158" s="3" t="s">
+        <v>624</v>
+      </c>
       <c r="D158" t="s">
         <v>377</v>
       </c>
-    </row>
-    <row r="159" spans="1:4" ht="23.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="E158">
+        <v>55</v>
+      </c>
+      <c r="F158" t="s">
+        <v>593</v>
+      </c>
+    </row>
+    <row r="159" spans="1:6" ht="23.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A159" s="1" t="s">
+        <v>625</v>
+      </c>
+      <c r="B159" s="3" t="s">
+        <v>626</v>
+      </c>
       <c r="D159" t="s">
         <v>378</v>
       </c>
-    </row>
-    <row r="160" spans="1:4" ht="23.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="E159">
+        <v>55</v>
+      </c>
+      <c r="F159" t="s">
+        <v>593</v>
+      </c>
+    </row>
+    <row r="160" spans="1:6" ht="23.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A160" s="1" t="s">
+        <v>627</v>
+      </c>
+      <c r="B160" s="3" t="s">
+        <v>628</v>
+      </c>
       <c r="D160" t="s">
         <v>379</v>
       </c>
-    </row>
-    <row r="161" spans="4:4" ht="23.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="E160">
+        <v>56</v>
+      </c>
+      <c r="F160" t="s">
+        <v>593</v>
+      </c>
+    </row>
+    <row r="161" spans="1:6" ht="23.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A161" s="1" t="s">
+        <v>629</v>
+      </c>
+      <c r="B161" s="3" t="s">
+        <v>630</v>
+      </c>
       <c r="D161" t="s">
         <v>380</v>
       </c>
-    </row>
-    <row r="162" spans="4:4" ht="23.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="E161">
+        <v>56</v>
+      </c>
+      <c r="F161" t="s">
+        <v>593</v>
+      </c>
+    </row>
+    <row r="162" spans="1:6" ht="23.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A162" s="1" t="s">
+        <v>631</v>
+      </c>
+      <c r="B162" s="3" t="s">
+        <v>632</v>
+      </c>
       <c r="D162" t="s">
         <v>381</v>
       </c>
-    </row>
-    <row r="163" spans="4:4" ht="23.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="E162">
+        <v>56</v>
+      </c>
+      <c r="F162" t="s">
+        <v>593</v>
+      </c>
+    </row>
+    <row r="163" spans="1:6" ht="23.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A163" s="3" t="s">
+        <v>633</v>
+      </c>
+      <c r="B163" s="3" t="s">
+        <v>634</v>
+      </c>
       <c r="D163" t="s">
         <v>382</v>
       </c>
-    </row>
-    <row r="164" spans="4:4" ht="23.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="E163">
+        <v>56</v>
+      </c>
+      <c r="F163" t="s">
+        <v>593</v>
+      </c>
+    </row>
+    <row r="164" spans="1:6" ht="23.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A164" s="1" t="s">
+        <v>635</v>
+      </c>
+      <c r="B164" s="1" t="s">
+        <v>636</v>
+      </c>
       <c r="D164" t="s">
         <v>383</v>
       </c>
-    </row>
-    <row r="165" spans="4:4" ht="23.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="E164">
+        <v>57</v>
+      </c>
+      <c r="F164" t="s">
+        <v>593</v>
+      </c>
+    </row>
+    <row r="165" spans="1:6" ht="23.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A165" s="1" t="s">
+        <v>637</v>
+      </c>
+      <c r="B165" s="3" t="s">
+        <v>638</v>
+      </c>
       <c r="D165" t="s">
         <v>384</v>
       </c>
-    </row>
-    <row r="166" spans="4:4" ht="23.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="E165">
+        <v>57</v>
+      </c>
+      <c r="F165" t="s">
+        <v>593</v>
+      </c>
+    </row>
+    <row r="166" spans="1:6" ht="23.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A166" s="1" t="s">
+        <v>639</v>
+      </c>
+      <c r="B166" s="3" t="s">
+        <v>640</v>
+      </c>
       <c r="D166" t="s">
         <v>385</v>
       </c>
-    </row>
-    <row r="167" spans="4:4" ht="23.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="E166">
+        <v>57</v>
+      </c>
+      <c r="F166" t="s">
+        <v>593</v>
+      </c>
+    </row>
+    <row r="167" spans="1:6" ht="23.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A167" s="1" t="s">
+        <v>641</v>
+      </c>
+      <c r="B167" s="3" t="s">
+        <v>642</v>
+      </c>
       <c r="D167" t="s">
         <v>386</v>
       </c>
-    </row>
-    <row r="168" spans="4:4" ht="23.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="E167">
+        <v>58</v>
+      </c>
+      <c r="F167" t="s">
+        <v>593</v>
+      </c>
+    </row>
+    <row r="168" spans="1:6" ht="23.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A168" s="1" t="s">
+        <v>644</v>
+      </c>
+      <c r="B168" s="3" t="s">
+        <v>643</v>
+      </c>
       <c r="D168" t="s">
         <v>387</v>
       </c>
-    </row>
-    <row r="169" spans="4:4" ht="23.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="E168">
+        <v>58</v>
+      </c>
+      <c r="F168" t="s">
+        <v>593</v>
+      </c>
+    </row>
+    <row r="169" spans="1:6" ht="23.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A169" s="1" t="s">
+        <v>645</v>
+      </c>
+      <c r="B169" s="3" t="s">
+        <v>646</v>
+      </c>
       <c r="D169" t="s">
         <v>388</v>
       </c>
-    </row>
-    <row r="170" spans="4:4" ht="23.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="E169">
+        <v>58</v>
+      </c>
+      <c r="F169" t="s">
+        <v>593</v>
+      </c>
+    </row>
+    <row r="170" spans="1:6" ht="23.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A170" s="1" t="s">
+        <v>647</v>
+      </c>
+      <c r="B170" s="3" t="s">
+        <v>650</v>
+      </c>
+      <c r="C170" s="1" t="s">
+        <v>651</v>
+      </c>
       <c r="D170" t="s">
         <v>389</v>
       </c>
-    </row>
-    <row r="171" spans="4:4" ht="23.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="E170">
+        <v>58</v>
+      </c>
+      <c r="F170" t="s">
+        <v>593</v>
+      </c>
+    </row>
+    <row r="171" spans="1:6" ht="23.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A171" s="1" t="s">
+        <v>652</v>
+      </c>
+      <c r="B171" s="3" t="s">
+        <v>648</v>
+      </c>
+      <c r="C171" s="1" t="s">
+        <v>649</v>
+      </c>
       <c r="D171" t="s">
         <v>390</v>
       </c>
-    </row>
-    <row r="172" spans="4:4" ht="23.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="E171">
+        <v>59</v>
+      </c>
+      <c r="F171" t="s">
+        <v>593</v>
+      </c>
+    </row>
+    <row r="172" spans="1:6" ht="23.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A172" s="1" t="s">
+        <v>653</v>
+      </c>
+      <c r="B172" s="1" t="s">
+        <v>654</v>
+      </c>
+      <c r="C172" s="1" t="s">
+        <v>655</v>
+      </c>
       <c r="D172" t="s">
         <v>391</v>
       </c>
-    </row>
-    <row r="173" spans="4:4" ht="23.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="E172">
+        <v>59</v>
+      </c>
+      <c r="F172" t="s">
+        <v>593</v>
+      </c>
+    </row>
+    <row r="173" spans="1:6" ht="23.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A173" s="1" t="s">
+        <v>656</v>
+      </c>
+      <c r="B173" s="1" t="s">
+        <v>657</v>
+      </c>
+      <c r="C173" s="1" t="s">
+        <v>658</v>
+      </c>
       <c r="D173" t="s">
         <v>392</v>
       </c>
-    </row>
-    <row r="174" spans="4:4" ht="23.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="E173">
+        <v>59</v>
+      </c>
+      <c r="F173" t="s">
+        <v>593</v>
+      </c>
+    </row>
+    <row r="174" spans="1:6" ht="23.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A174" s="1" t="s">
+        <v>659</v>
+      </c>
+      <c r="B174" s="1" t="s">
+        <v>660</v>
+      </c>
       <c r="D174" t="s">
         <v>393</v>
       </c>
-    </row>
-    <row r="175" spans="4:4" ht="23.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="E174">
+        <v>60</v>
+      </c>
+      <c r="F174" t="s">
+        <v>593</v>
+      </c>
+    </row>
+    <row r="175" spans="1:6" ht="23.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A175" s="1" t="s">
+        <v>661</v>
+      </c>
+      <c r="B175" s="1" t="s">
+        <v>662</v>
+      </c>
+      <c r="C175" s="3" t="s">
+        <v>663</v>
+      </c>
       <c r="D175" t="s">
         <v>394</v>
       </c>
-    </row>
-    <row r="176" spans="4:4" ht="23.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="E175">
+        <v>60</v>
+      </c>
+      <c r="F175" t="s">
+        <v>593</v>
+      </c>
+    </row>
+    <row r="176" spans="1:6" ht="23.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A176" s="1" t="s">
+        <v>664</v>
+      </c>
+      <c r="C176" s="1" t="s">
+        <v>665</v>
+      </c>
       <c r="D176" t="s">
         <v>395</v>
       </c>
-    </row>
-    <row r="177" spans="4:4" ht="23.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="E176">
+        <v>60</v>
+      </c>
+      <c r="F176" t="s">
+        <v>593</v>
+      </c>
+    </row>
+    <row r="177" spans="1:6" ht="23.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A177" s="1" t="s">
+        <v>666</v>
+      </c>
+      <c r="B177" s="1" t="s">
+        <v>667</v>
+      </c>
       <c r="D177" t="s">
         <v>396</v>
       </c>
     </row>
-    <row r="178" spans="4:4" ht="23.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="178" spans="1:6" ht="23.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A178" s="1" t="s">
+        <v>668</v>
+      </c>
+      <c r="B178" s="1" t="s">
+        <v>669</v>
+      </c>
+      <c r="C178" s="3" t="s">
+        <v>670</v>
+      </c>
       <c r="D178" t="s">
         <v>397</v>
       </c>
     </row>
-    <row r="179" spans="4:4" ht="23.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="179" spans="1:6" ht="23.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A179" s="1" t="s">
+        <v>671</v>
+      </c>
+      <c r="B179" s="1" t="s">
+        <v>672</v>
+      </c>
       <c r="D179" t="s">
         <v>398</v>
       </c>
     </row>
-    <row r="180" spans="4:4" ht="23.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="180" spans="1:6" ht="23.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A180" s="1" t="s">
+        <v>673</v>
+      </c>
+      <c r="B180" s="1" t="s">
+        <v>674</v>
+      </c>
+      <c r="C180" s="1" t="s">
+        <v>675</v>
+      </c>
       <c r="D180" t="s">
         <v>399</v>
       </c>
     </row>
-    <row r="181" spans="4:4" ht="23.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="181" spans="1:6" ht="23.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A181" s="1" t="s">
+        <v>676</v>
+      </c>
+      <c r="B181" s="1" t="s">
+        <v>677</v>
+      </c>
+      <c r="C181" s="3" t="s">
+        <v>678</v>
+      </c>
       <c r="D181" t="s">
         <v>400</v>
       </c>
     </row>
-    <row r="182" spans="4:4" ht="23.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="182" spans="1:6" ht="23.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A182" s="1" t="s">
+        <v>679</v>
+      </c>
+      <c r="B182" s="1" t="s">
+        <v>680</v>
+      </c>
+      <c r="C182" s="1" t="s">
+        <v>681</v>
+      </c>
       <c r="D182" t="s">
         <v>401</v>
       </c>
     </row>
-    <row r="183" spans="4:4" ht="23.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="183" spans="1:6" ht="23.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A183" s="1" t="s">
+        <v>682</v>
+      </c>
+      <c r="C183" s="3" t="s">
+        <v>683</v>
+      </c>
       <c r="D183" t="s">
         <v>402</v>
       </c>
     </row>
-    <row r="184" spans="4:4" ht="23.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="184" spans="1:6" ht="23.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A184" s="1" t="s">
+        <v>684</v>
+      </c>
+      <c r="B184" s="1" t="s">
+        <v>685</v>
+      </c>
+      <c r="C184" s="1" t="s">
+        <v>686</v>
+      </c>
       <c r="D184" t="s">
         <v>403</v>
       </c>
     </row>
-    <row r="185" spans="4:4" ht="23.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="185" spans="1:6" ht="23.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A185" s="1" t="s">
+        <v>687</v>
+      </c>
+      <c r="C185" s="3" t="s">
+        <v>688</v>
+      </c>
       <c r="D185" t="s">
         <v>404</v>
       </c>
     </row>
-    <row r="186" spans="4:4" ht="23.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="186" spans="1:6" ht="23.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A186" s="1" t="s">
+        <v>689</v>
+      </c>
+      <c r="B186" s="1" t="s">
+        <v>690</v>
+      </c>
+      <c r="C186" s="1" t="s">
+        <v>691</v>
+      </c>
       <c r="D186" t="s">
         <v>405</v>
       </c>
     </row>
-    <row r="187" spans="4:4" ht="23.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="187" spans="1:6" ht="23.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A187" s="1" t="s">
+        <v>692</v>
+      </c>
+      <c r="B187" s="1" t="s">
+        <v>693</v>
+      </c>
+      <c r="C187" s="1" t="s">
+        <v>694</v>
+      </c>
       <c r="D187" t="s">
         <v>406</v>
       </c>
     </row>
-    <row r="188" spans="4:4" ht="23.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="188" spans="1:6" ht="23.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A188" s="1" t="s">
+        <v>695</v>
+      </c>
+      <c r="B188" s="1" t="s">
+        <v>696</v>
+      </c>
+      <c r="C188" s="1" t="s">
+        <v>697</v>
+      </c>
       <c r="D188" t="s">
         <v>407</v>
       </c>
     </row>
-    <row r="189" spans="4:4" ht="23.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="189" spans="1:6" ht="23.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A189" s="1" t="s">
+        <v>701</v>
+      </c>
+      <c r="B189" s="1" t="s">
+        <v>698</v>
+      </c>
+      <c r="C189" s="1" t="s">
+        <v>699</v>
+      </c>
       <c r="D189" t="s">
         <v>408</v>
       </c>
     </row>
-    <row r="190" spans="4:4" ht="23.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="190" spans="1:6" ht="23.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A190" s="1" t="s">
+        <v>700</v>
+      </c>
+      <c r="B190" s="1" t="s">
+        <v>702</v>
+      </c>
+      <c r="C190" s="1" t="s">
+        <v>703</v>
+      </c>
       <c r="D190" t="s">
         <v>409</v>
       </c>
     </row>
-    <row r="191" spans="4:4" ht="23.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="191" spans="1:6" ht="23.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A191" s="1" t="s">
+        <v>704</v>
+      </c>
+      <c r="B191" s="1" t="s">
+        <v>705</v>
+      </c>
       <c r="D191" t="s">
         <v>410</v>
       </c>
     </row>
-    <row r="192" spans="4:4" ht="23.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="192" spans="1:6" ht="23.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A192" s="1" t="s">
+        <v>707</v>
+      </c>
+      <c r="B192" s="1" t="s">
+        <v>708</v>
+      </c>
+      <c r="C192" s="1" t="s">
+        <v>709</v>
+      </c>
       <c r="D192" t="s">
         <v>411</v>
       </c>
-    </row>
-    <row r="193" spans="4:4" ht="23.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="F192" t="s">
+        <v>706</v>
+      </c>
+    </row>
+    <row r="193" spans="1:4" ht="23.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A193" s="1" t="s">
+        <v>710</v>
+      </c>
+      <c r="B193" s="3" t="s">
+        <v>711</v>
+      </c>
+      <c r="C193" s="1" t="s">
+        <v>712</v>
+      </c>
       <c r="D193" t="s">
         <v>412</v>
       </c>
     </row>
-    <row r="194" spans="4:4" ht="23.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="194" spans="1:4" ht="23.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A194" s="1" t="s">
+        <v>713</v>
+      </c>
+      <c r="B194" s="1" t="s">
+        <v>714</v>
+      </c>
+      <c r="C194" s="3" t="s">
+        <v>715</v>
+      </c>
       <c r="D194" t="s">
         <v>413</v>
       </c>
     </row>
-    <row r="195" spans="4:4" ht="23.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="195" spans="1:4" ht="23.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A195" s="1" t="s">
+        <v>716</v>
+      </c>
+      <c r="C195" s="1" t="s">
+        <v>717</v>
+      </c>
       <c r="D195" t="s">
         <v>414</v>
       </c>
     </row>
-    <row r="196" spans="4:4" ht="23.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="196" spans="1:4" ht="23.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A196" s="1" t="s">
+        <v>720</v>
+      </c>
+      <c r="B196" s="1" t="s">
+        <v>721</v>
+      </c>
       <c r="D196" t="s">
         <v>415</v>
       </c>
     </row>
-    <row r="197" spans="4:4" ht="23.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="197" spans="1:4" ht="23.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A197" s="1" t="s">
+        <v>722</v>
+      </c>
+      <c r="C197" s="3" t="s">
+        <v>723</v>
+      </c>
       <c r="D197" t="s">
         <v>416</v>
       </c>
     </row>
-    <row r="198" spans="4:4" ht="23.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="198" spans="1:4" ht="23.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A198" s="1" t="s">
+        <v>724</v>
+      </c>
+      <c r="B198" s="1" t="s">
+        <v>725</v>
+      </c>
+      <c r="C198" s="1" t="s">
+        <v>726</v>
+      </c>
       <c r="D198" t="s">
         <v>417</v>
       </c>
     </row>
-    <row r="199" spans="4:4" ht="23.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="199" spans="1:4" ht="23.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A199" s="1" t="s">
+        <v>727</v>
+      </c>
+      <c r="B199" s="3" t="s">
+        <v>728</v>
+      </c>
       <c r="D199" t="s">
         <v>418</v>
       </c>
     </row>
-    <row r="200" spans="4:4" ht="23.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="200" spans="1:4" ht="23.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A200" s="1" t="s">
+        <v>729</v>
+      </c>
+      <c r="B200" s="1" t="s">
+        <v>730</v>
+      </c>
+      <c r="C200" s="1" t="s">
+        <v>731</v>
+      </c>
       <c r="D200" t="s">
         <v>419</v>
       </c>
     </row>
-    <row r="201" spans="4:4" ht="23.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="201" spans="1:4" ht="23.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A201" s="1" t="s">
+        <v>732</v>
+      </c>
+      <c r="B201" s="3" t="s">
+        <v>733</v>
+      </c>
+      <c r="C201" s="1" t="s">
+        <v>734</v>
+      </c>
       <c r="D201" t="s">
         <v>420</v>
       </c>
     </row>
-    <row r="202" spans="4:4" ht="23.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="202" spans="1:4" ht="23.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A202" s="1" t="s">
+        <v>735</v>
+      </c>
+      <c r="B202" s="3" t="s">
+        <v>736</v>
+      </c>
       <c r="D202" t="s">
         <v>421</v>
       </c>
     </row>
-    <row r="203" spans="4:4" ht="23.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="203" spans="1:4" ht="23.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A203" s="1" t="s">
+        <v>737</v>
+      </c>
+      <c r="B203" s="1" t="s">
+        <v>738</v>
+      </c>
+      <c r="C203" s="1" t="s">
+        <v>739</v>
+      </c>
       <c r="D203" t="s">
         <v>422</v>
       </c>
     </row>
-    <row r="204" spans="4:4" ht="23.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="204" spans="1:4" ht="23.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A204" s="1" t="s">
+        <v>740</v>
+      </c>
+      <c r="B204" s="1" t="s">
+        <v>741</v>
+      </c>
       <c r="D204" t="s">
         <v>423</v>
       </c>
     </row>
-    <row r="205" spans="4:4" ht="23.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="205" spans="1:4" ht="23.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A205" s="1" t="s">
+        <v>742</v>
+      </c>
+      <c r="B205" s="1" t="s">
+        <v>743</v>
+      </c>
       <c r="D205" t="s">
         <v>424</v>
       </c>
     </row>
-    <row r="206" spans="4:4" ht="23.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="206" spans="1:4" ht="23.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A206" s="1" t="s">
+        <v>744</v>
+      </c>
+      <c r="B206" s="1" t="s">
+        <v>745</v>
+      </c>
+      <c r="C206" s="1" t="s">
+        <v>746</v>
+      </c>
       <c r="D206" t="s">
         <v>425</v>
       </c>
     </row>
-    <row r="207" spans="4:4" ht="23.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="207" spans="1:4" ht="23.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A207" s="1" t="s">
+        <v>747</v>
+      </c>
+      <c r="C207" s="1" t="s">
+        <v>748</v>
+      </c>
       <c r="D207" t="s">
         <v>426</v>
       </c>
     </row>
-    <row r="208" spans="4:4" ht="23.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="208" spans="1:4" ht="23.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A208" s="1" t="s">
+        <v>749</v>
+      </c>
+      <c r="C208" s="3" t="s">
+        <v>750</v>
+      </c>
       <c r="D208" s="2" t="s">
         <v>427</v>
       </c>
     </row>
-    <row r="209" spans="4:4" ht="23.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="209" spans="1:6" ht="23.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A209" s="1" t="s">
+        <v>752</v>
+      </c>
+      <c r="B209" s="3" t="s">
+        <v>751</v>
+      </c>
       <c r="D209" t="s">
         <v>428</v>
       </c>
     </row>
-    <row r="210" spans="4:4" ht="23.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="210" spans="1:6" ht="23.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A210" s="1" t="s">
+        <v>753</v>
+      </c>
+      <c r="B210" s="1" t="s">
+        <v>754</v>
+      </c>
+      <c r="C210" s="1" t="s">
+        <v>755</v>
+      </c>
       <c r="D210" t="s">
         <v>429</v>
       </c>
     </row>
-    <row r="211" spans="4:4" ht="23.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="211" spans="1:6" ht="23.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A211" s="1" t="s">
+        <v>756</v>
+      </c>
+      <c r="C211" s="3" t="s">
+        <v>757</v>
+      </c>
       <c r="D211" t="s">
         <v>430</v>
       </c>
     </row>
-    <row r="212" spans="4:4" ht="23.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="212" spans="1:6" ht="23.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A212" s="1" t="s">
+        <v>758</v>
+      </c>
+      <c r="B212" s="1" t="s">
+        <v>759</v>
+      </c>
+      <c r="C212" s="1" t="s">
+        <v>760</v>
+      </c>
       <c r="D212" t="s">
         <v>431</v>
       </c>
     </row>
-    <row r="213" spans="4:4" ht="23.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="213" spans="1:6" ht="23.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A213" s="1" t="s">
+        <v>761</v>
+      </c>
+      <c r="B213" s="3" t="s">
+        <v>763</v>
+      </c>
+      <c r="C213" s="3" t="s">
+        <v>764</v>
+      </c>
       <c r="D213" t="s">
         <v>432</v>
       </c>
-    </row>
-    <row r="214" spans="4:4" ht="23.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="F213" t="s">
+        <v>762</v>
+      </c>
+    </row>
+    <row r="214" spans="1:6" ht="23.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A214" s="1" t="s">
+        <v>765</v>
+      </c>
+      <c r="B214" s="1" t="s">
+        <v>766</v>
+      </c>
+      <c r="C214" s="1" t="s">
+        <v>767</v>
+      </c>
       <c r="D214" t="s">
         <v>433</v>
       </c>
     </row>
-    <row r="215" spans="4:4" ht="23.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="215" spans="1:6" ht="23.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A215" s="1" t="s">
+        <v>768</v>
+      </c>
+      <c r="B215" s="1" t="s">
+        <v>769</v>
+      </c>
       <c r="D215" t="s">
         <v>434</v>
       </c>
     </row>
-    <row r="216" spans="4:4" ht="23.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="216" spans="1:6" ht="23.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A216" s="1" t="s">
+        <v>772</v>
+      </c>
+      <c r="B216" s="3" t="s">
+        <v>770</v>
+      </c>
+      <c r="C216" s="3" t="s">
+        <v>771</v>
+      </c>
       <c r="D216" t="s">
         <v>435</v>
       </c>
     </row>
-    <row r="217" spans="4:4" ht="23.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="217" spans="1:6" ht="23.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A217" s="1" t="s">
+        <v>773</v>
+      </c>
+      <c r="B217" s="3" t="s">
+        <v>774</v>
+      </c>
+      <c r="C217" s="3" t="s">
+        <v>775</v>
+      </c>
       <c r="D217" t="s">
         <v>436</v>
       </c>
     </row>
-    <row r="218" spans="4:4" ht="23.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="218" spans="1:6" ht="23.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A218" s="1" t="s">
+        <v>776</v>
+      </c>
+      <c r="B218" s="3" t="s">
+        <v>777</v>
+      </c>
+      <c r="C218" s="1" t="s">
+        <v>778</v>
+      </c>
       <c r="D218" t="s">
         <v>437</v>
       </c>
     </row>
-    <row r="219" spans="4:4" ht="23.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="219" spans="1:6" ht="23.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A219" s="1" t="s">
+        <v>779</v>
+      </c>
+      <c r="B219" s="3" t="s">
+        <v>780</v>
+      </c>
+      <c r="C219" s="1" t="s">
+        <v>781</v>
+      </c>
       <c r="D219" t="s">
         <v>438</v>
       </c>
     </row>
-    <row r="220" spans="4:4" ht="23.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="220" spans="1:6" ht="23.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A220" s="1" t="s">
+        <v>782</v>
+      </c>
+      <c r="B220" s="1" t="s">
+        <v>783</v>
+      </c>
+      <c r="C220" s="1" t="s">
+        <v>784</v>
+      </c>
       <c r="D220" t="s">
         <v>439</v>
       </c>
     </row>
-    <row r="221" spans="4:4" ht="23.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="221" spans="1:6" ht="23.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A221" s="1" t="s">
+        <v>785</v>
+      </c>
+      <c r="C221" s="1" t="s">
+        <v>786</v>
+      </c>
       <c r="D221" t="s">
         <v>440</v>
       </c>
     </row>
-    <row r="222" spans="4:4" ht="23.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="222" spans="1:6" ht="23.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A222" s="1" t="s">
+        <v>787</v>
+      </c>
+      <c r="B222" s="1" t="s">
+        <v>788</v>
+      </c>
+      <c r="C222" s="1" t="s">
+        <v>789</v>
+      </c>
       <c r="D222" t="s">
         <v>441</v>
       </c>
     </row>
-    <row r="223" spans="4:4" ht="23.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="223" spans="1:6" ht="23.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A223" s="1" t="s">
+        <v>790</v>
+      </c>
+      <c r="B223" s="1" t="s">
+        <v>791</v>
+      </c>
+      <c r="C223" s="1" t="s">
+        <v>792</v>
+      </c>
       <c r="D223" t="s">
         <v>442</v>
       </c>
     </row>
-    <row r="224" spans="4:4" ht="23.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="224" spans="1:6" ht="23.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A224" s="1" t="s">
+        <v>793</v>
+      </c>
+      <c r="B224" s="3" t="s">
+        <v>794</v>
+      </c>
+      <c r="C224" s="1" t="s">
+        <v>795</v>
+      </c>
       <c r="D224" t="s">
         <v>443</v>
       </c>
     </row>
-    <row r="225" spans="4:4" ht="23.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="225" spans="1:6" ht="23.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A225" s="1" t="s">
+        <v>798</v>
+      </c>
+      <c r="B225" s="1" t="s">
+        <v>796</v>
+      </c>
+      <c r="C225" s="1" t="s">
+        <v>797</v>
+      </c>
       <c r="D225" t="s">
         <v>444</v>
       </c>
     </row>
-    <row r="226" spans="4:4" ht="23.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="226" spans="1:6" ht="23.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A226" s="1" t="s">
+        <v>802</v>
+      </c>
+      <c r="B226" s="3" t="s">
+        <v>803</v>
+      </c>
       <c r="D226" t="s">
         <v>445</v>
       </c>
-    </row>
-    <row r="227" spans="4:4" ht="23.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="E226">
+        <v>73</v>
+      </c>
+      <c r="F226" t="s">
+        <v>799</v>
+      </c>
+    </row>
+    <row r="227" spans="1:6" ht="23.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A227" s="1" t="s">
+        <v>800</v>
+      </c>
+      <c r="B227" s="1" t="s">
+        <v>801</v>
+      </c>
+      <c r="C227" s="3" t="s">
+        <v>804</v>
+      </c>
       <c r="D227" t="s">
         <v>446</v>
       </c>
     </row>
-    <row r="228" spans="4:4" ht="23.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="228" spans="1:6" ht="23.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A228" s="1" t="s">
+        <v>805</v>
+      </c>
+      <c r="B228" s="1" t="s">
+        <v>806</v>
+      </c>
+      <c r="C228" s="3" t="s">
+        <v>807</v>
+      </c>
       <c r="D228" t="s">
         <v>447</v>
       </c>
     </row>
-    <row r="229" spans="4:4" ht="23.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="229" spans="1:6" ht="23.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A229" s="1" t="s">
+        <v>808</v>
+      </c>
+      <c r="B229" s="1" t="s">
+        <v>809</v>
+      </c>
       <c r="D229" t="s">
         <v>448</v>
       </c>
     </row>
-    <row r="230" spans="4:4" ht="23.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="230" spans="1:6" ht="23.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A230" s="1" t="s">
+        <v>810</v>
+      </c>
+      <c r="C230" s="3" t="s">
+        <v>811</v>
+      </c>
       <c r="D230" t="s">
         <v>449</v>
       </c>
     </row>
-    <row r="231" spans="4:4" ht="23.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="231" spans="1:6" ht="23.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A231" s="1" t="s">
+        <v>812</v>
+      </c>
+      <c r="B231" s="3" t="s">
+        <v>813</v>
+      </c>
+      <c r="C231" s="1" t="s">
+        <v>814</v>
+      </c>
       <c r="D231" t="s">
         <v>450</v>
       </c>
     </row>
-    <row r="232" spans="4:4" ht="23.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="232" spans="1:6" ht="23.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A232" s="1" t="s">
+        <v>815</v>
+      </c>
+      <c r="B232" s="3" t="s">
+        <v>816</v>
+      </c>
+      <c r="C232" s="1" t="s">
+        <v>817</v>
+      </c>
       <c r="D232" t="s">
         <v>451</v>
       </c>
     </row>
-    <row r="233" spans="4:4" ht="23.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="233" spans="1:6" ht="23.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A233" s="1" t="s">
+        <v>818</v>
+      </c>
+      <c r="B233" s="3" t="s">
+        <v>819</v>
+      </c>
+      <c r="C233" s="1" t="s">
+        <v>820</v>
+      </c>
       <c r="D233" t="s">
         <v>452</v>
       </c>
     </row>
-    <row r="234" spans="4:4" ht="23.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="234" spans="1:6" ht="23.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A234" s="1" t="s">
+        <v>821</v>
+      </c>
+      <c r="B234" s="3" t="s">
+        <v>822</v>
+      </c>
       <c r="D234" t="s">
         <v>453</v>
       </c>
     </row>
-    <row r="235" spans="4:4" ht="23.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="235" spans="1:6" ht="23.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A235" s="1" t="s">
+        <v>823</v>
+      </c>
+      <c r="B235" s="1" t="s">
+        <v>824</v>
+      </c>
+      <c r="C235" s="3" t="s">
+        <v>825</v>
+      </c>
       <c r="D235" t="s">
         <v>454</v>
       </c>
     </row>
-    <row r="236" spans="4:4" ht="23.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="236" spans="1:6" ht="23.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A236" s="1" t="s">
+        <v>826</v>
+      </c>
+      <c r="B236" s="3" t="s">
+        <v>827</v>
+      </c>
+      <c r="C236" s="3" t="s">
+        <v>828</v>
+      </c>
       <c r="D236" t="s">
         <v>455</v>
       </c>
     </row>
-    <row r="237" spans="4:4" ht="23.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="237" spans="1:6" ht="23.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A237" s="1" t="s">
+        <v>829</v>
+      </c>
+      <c r="B237" s="1" t="s">
+        <v>830</v>
+      </c>
+      <c r="C237" s="3" t="s">
+        <v>831</v>
+      </c>
       <c r="D237" t="s">
         <v>456</v>
       </c>
     </row>
-    <row r="238" spans="4:4" ht="23.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="238" spans="1:6" ht="23.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A238" s="3" t="s">
+        <v>833</v>
+      </c>
+      <c r="B238" s="3" t="s">
+        <v>832</v>
+      </c>
+      <c r="C238" s="1" t="s">
+        <v>834</v>
+      </c>
       <c r="D238" t="s">
         <v>457</v>
       </c>
     </row>
-    <row r="239" spans="4:4" ht="23.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="239" spans="1:6" ht="23.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A239" s="1" t="s">
+        <v>835</v>
+      </c>
+      <c r="B239" s="3" t="s">
+        <v>836</v>
+      </c>
+      <c r="C239" s="1" t="s">
+        <v>837</v>
+      </c>
       <c r="D239" t="s">
         <v>458</v>
       </c>
     </row>
-    <row r="240" spans="4:4" ht="23.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="240" spans="1:6" ht="23.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A240" s="1" t="s">
+        <v>840</v>
+      </c>
+      <c r="B240" s="1" t="s">
+        <v>838</v>
+      </c>
+      <c r="C240" s="3" t="s">
+        <v>839</v>
+      </c>
       <c r="D240" t="s">
         <v>459</v>
       </c>
     </row>
-    <row r="241" spans="4:4" ht="23.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="241" spans="1:6" ht="23.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A241" s="1" t="s">
+        <v>841</v>
+      </c>
+      <c r="B241" s="1" t="s">
+        <v>842</v>
+      </c>
       <c r="D241" t="s">
         <v>460</v>
       </c>
     </row>
-    <row r="242" spans="4:4" ht="23.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="242" spans="1:6" ht="23.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A242" s="1" t="s">
+        <v>843</v>
+      </c>
+      <c r="B242" s="3" t="s">
+        <v>844</v>
+      </c>
+      <c r="C242" s="1" t="s">
+        <v>845</v>
+      </c>
       <c r="D242" t="s">
         <v>461</v>
       </c>
     </row>
-    <row r="243" spans="4:4" ht="23.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="243" spans="1:6" ht="23.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A243" s="1" t="s">
+        <v>846</v>
+      </c>
+      <c r="B243" s="3" t="s">
+        <v>847</v>
+      </c>
+      <c r="C243" s="1" t="s">
+        <v>848</v>
+      </c>
       <c r="D243" t="s">
         <v>462</v>
       </c>
     </row>
-    <row r="244" spans="4:4" ht="23.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="244" spans="1:6" ht="23.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A244" s="1" t="s">
+        <v>849</v>
+      </c>
+      <c r="B244" s="1" t="s">
+        <v>850</v>
+      </c>
+      <c r="C244" s="3" t="s">
+        <v>851</v>
+      </c>
       <c r="D244" t="s">
         <v>463</v>
       </c>
     </row>
-    <row r="245" spans="4:4" ht="23.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="245" spans="1:6" ht="23.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A245" s="1" t="s">
+        <v>852</v>
+      </c>
+      <c r="B245" s="1" t="s">
+        <v>853</v>
+      </c>
+      <c r="C245" s="1" t="s">
+        <v>854</v>
+      </c>
       <c r="D245" t="s">
         <v>464</v>
       </c>
     </row>
-    <row r="246" spans="4:4" ht="23.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="246" spans="1:6" ht="23.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A246" s="1" t="s">
+        <v>856</v>
+      </c>
+      <c r="B246" s="1" t="s">
+        <v>855</v>
+      </c>
       <c r="D246" t="s">
         <v>465</v>
       </c>
     </row>
-    <row r="247" spans="4:4" ht="23.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="247" spans="1:6" ht="23.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A247" s="1" t="s">
+        <v>858</v>
+      </c>
       <c r="D247" t="s">
         <v>466</v>
       </c>
-    </row>
-    <row r="248" spans="4:4" ht="23.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="F247" t="s">
+        <v>857</v>
+      </c>
+    </row>
+    <row r="248" spans="1:6" ht="23.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="D248" t="s">
         <v>467</v>
       </c>
     </row>
-    <row r="249" spans="4:4" ht="23.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="249" spans="1:6" ht="23.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="D249" t="s">
         <v>468</v>
       </c>
     </row>
-    <row r="250" spans="4:4" ht="23.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="250" spans="1:6" ht="23.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="D250" t="s">
         <v>469</v>
       </c>
     </row>
-    <row r="251" spans="4:4" ht="23.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="251" spans="1:6" ht="23.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="D251" t="s">
         <v>470</v>
       </c>
     </row>
-    <row r="252" spans="4:4" ht="23.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="252" spans="1:6" ht="23.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="D252" t="s">
         <v>471</v>
       </c>
     </row>
-    <row r="253" spans="4:4" ht="23.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="253" spans="1:6" ht="23.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="D253" t="s">
         <v>472</v>
       </c>
     </row>
-    <row r="254" spans="4:4" ht="23.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="254" spans="1:6" ht="23.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="D254" t="s">
         <v>473</v>
       </c>
     </row>
-    <row r="255" spans="4:4" ht="23.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="255" spans="1:6" ht="23.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="D255" t="s">
         <v>474</v>
       </c>
     </row>
-    <row r="256" spans="4:4" ht="23.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="256" spans="1:6" ht="23.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="D256" t="s">
         <v>475</v>
       </c>

--- a/Book1.xlsx
+++ b/Book1.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1026" uniqueCount="859">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1463" uniqueCount="1296">
   <si>
     <t>后九蜀寒拆九寒冷，后九无寒节节寒。</t>
   </si>
@@ -2055,13 +2055,6 @@
 臨】人性本恶，向善不易，而堕落却很快。教育子女必须时 时防微杜漸。</t>
   </si>
   <si>
-    <t>无好大，害吼细。</t>
-  </si>
-  <si>
-    <t>【注】①无好大：品行不好的长辈。②吼：动态助词；了。③ 细：幼小，此处指晚辈。
-读】长辈的不良言行将影响晚辈，最终害了他们。</t>
-  </si>
-  <si>
     <t>桌悬讨侬嫌。</t>
   </si>
   <si>
@@ -2206,10 +2199,6 @@
 除】孤竹易折，独子易夭。当然这是医疗卫生条件差的旧时 代的经验。</t>
   </si>
   <si>
-    <t>【注】①蜀条：一根。②吼：结构助词；得。③岸岸光：亮堂 堂。岸〈音〉：明亮。
-除】福州丧俗，在灵床前点红烛，死者有几个儿子就点几根 烛。此谚喻独子有出息。</t>
-  </si>
-  <si>
     <t>蜀条烛，点𠲥岸岸光。</t>
   </si>
   <si>
@@ -2322,12 +2311,6 @@
 </t>
   </si>
   <si>
-    <t>凊饭放吼酸，无疼外甥孙。</t>
-  </si>
-  <si>
-    <t>①清饭：冷饭，剩饭。②放吼酸：搁着让它发馊。吼: 动态助词；着。③无疼：不疼爱。④外甥孙：外孙。</t>
-  </si>
-  <si>
     <t>女婧是别人家的儿，外孙是别人家的孙。就说是由于宗 法观念作祟，也不至于如此绝情。这多半是一句玩笑话。</t>
   </si>
   <si>
@@ -2479,12 +2462,6 @@
 </t>
   </si>
   <si>
-    <t>拾吼缚腿带，家伙去蜀堂。</t>
-  </si>
-  <si>
-    <t>①吼：动态助词；了。②缚腿带：绑腿。③家伙：家产。 ④去：损失。⑤蜀堂：一套〔家具等乂 辟】</t>
-  </si>
-  <si>
     <t>民间寓言故事说：某人拾得一副绑腿带，为了与之私套， 便花钱买了一双新鞋，又为了新鞋，再添置新裤掛……直至 车马飧仆等，耗尽了枳蓄。这則寓言中揭示的消费心理学原 理值得商家反复揣摩。</t>
   </si>
   <si>
@@ -2568,12 +2545,6 @@
   <si>
     <t xml:space="preserve">无论过什么节，核心节目都是吃喝一顿。有钱人天天都 可以尽情吃喝；穷人没有钱打酒割肉，过节也是白过。
 </t>
-  </si>
-  <si>
-    <t>生吼无积掌，死咯害保长。</t>
-  </si>
-  <si>
-    <t>①生吼：活着。②积掌：积攒。“掌”可能就是“攒”字 的讹读。③咯：动态助词；了。</t>
   </si>
   <si>
     <t>身后没留一文钱，只好由保长去料理收埋。</t>
@@ -2899,6 +2870,1419 @@
   </si>
   <si>
     <t>骹踩马屎借官势。</t>
+  </si>
+  <si>
+    <t>①骹：脚。②踩：〈同义字〉。③借：倚仗。</t>
+  </si>
+  <si>
+    <t>】在官老爷的鞍前马后跑的家伙，往往仗势欺人。</t>
+  </si>
+  <si>
+    <t>未见严嵩，先见严年。</t>
+  </si>
+  <si>
+    <t>严年是民间故事中大奸臣严嵩的亲信家人〔秘书？；！，要 见严嵩都得先向严年行贿。</t>
+  </si>
+  <si>
+    <t>有势使势，无势讨势。</t>
+  </si>
+  <si>
+    <t>北方俗语说：“站在矮檐下，怎能不低头。”</t>
+  </si>
+  <si>
+    <t xml:space="preserve">①势：权势。②使势：利用权势。③讨势：听话，顺从。
+</t>
+  </si>
+  <si>
+    <t>捧侬饭碗，服侬教管。</t>
+  </si>
+  <si>
+    <t xml:space="preserve">①侬：人，别人。②教管：训诫管束。
+</t>
+  </si>
+  <si>
+    <t>①老爹：老爷，特指官吏。②郑〈音〉：错。③盖讲起: 再‘新讲。盖：再。④拍：打。</t>
+  </si>
+  <si>
+    <t>老爹讲郑盖讲起，百姓讲郑拍半死。</t>
+  </si>
+  <si>
+    <t>老爷说话不算数，顶多是换个老爷再另外讲一套，这种 事情百姓见得多了；而小百姓一不小心，就可能祸从口出。</t>
+  </si>
+  <si>
+    <t>①呆：坏，方言音从《广韵》五来切。②搦：〈借用 字〉捉。③钊：〈方言俗字〉宰杀，本字”治“。④呆侬：坏 人。⑤无法惹伊才：对他无可奈何。</t>
+  </si>
+  <si>
+    <t>“人恶人怕天不怕”、“多行不义必自兔”云云，其实也 是无可奈何的另一种说法。</t>
+  </si>
+  <si>
+    <t>有钱就有理，无钱拍半死。</t>
+  </si>
+  <si>
+    <t>拍：打、揍。</t>
+  </si>
+  <si>
+    <t>“街门八字开，无钱英进来”。</t>
+  </si>
+  <si>
+    <t>若卜赢，钱先行。</t>
+  </si>
+  <si>
+    <t>若卜贏：若要打贏（官司〉。卜：要。</t>
+  </si>
+  <si>
+    <t>①狯瞒：瞒不过。②乡里：街坊。</t>
+  </si>
+  <si>
+    <t>有理无理，𣍐瞒乡里。</t>
+  </si>
+  <si>
+    <t>呆牛呆马搦去刣，呆侬无法惹伊才。</t>
+  </si>
+  <si>
+    <t>诈迷梦食老羊蹄。</t>
+  </si>
+  <si>
+    <t xml:space="preserve">①诈迷梦：装聋作哑。②食：吃。
+</t>
+  </si>
+  <si>
+    <t>《闽都别记》第四十七回载民间故事说某老太婆图吃老 羊締而对隔壁的奸情装聋作哑。</t>
+  </si>
+  <si>
+    <t>下界爷爬𣍐上横头桌。</t>
+  </si>
+  <si>
+    <t xml:space="preserve">①下界爷：指孤魂野鬼，在冥界中地位最低。注意“下 界”二字合音。②爬絵上：登不上。③横头桌：横置厅上的 香案，约两米长、半米宽、齐胸高，用以放置神像、佛龛等。 </t>
+  </si>
+  <si>
+    <t>阴间阳间，社会等级都是存在的。</t>
+  </si>
+  <si>
+    <t>火㖹暗，都是贼。</t>
+  </si>
+  <si>
+    <t xml:space="preserve">火嗌暗：吹熄灯火。㖹：〈方言俗字〉吹。
+</t>
+  </si>
+  <si>
+    <t>症做兴化兄。</t>
+  </si>
+  <si>
+    <t xml:space="preserve">①症做：设下圈套，诱人上当。②兴化兄：兴化府在福 州府南面，今属莆田市。福州人对莆仙口音者谑称“兴化 兄”，也泛指老实的乡下人。
+</t>
+  </si>
+  <si>
+    <t>福州是省城，福州人对周围县市的同胞常有一种自以为 是的可笑心态。文化程度越低的人表现越明显。</t>
+  </si>
+  <si>
+    <t>好柴无流闽安镇。</t>
+  </si>
+  <si>
+    <t xml:space="preserve">
+</t>
+  </si>
+  <si>
+    <t>闽江流经福州再向东，过闽安镇后出海。每年汛期，沿 江的居民或船户用搭钧绳索捞取从上游山区漂下的树木断 枝，已成习俗。尚有利用价值的木材往往在漂流到闽安镇之 前就被打捞尽了。喻指好处总是让条件优越的人先捞去。</t>
+  </si>
+  <si>
+    <t>猪母肉卖乡里。</t>
+  </si>
+  <si>
+    <t xml:space="preserve">①猪母：母猪。②乡里：街坊。
+</t>
+  </si>
+  <si>
+    <t>母猪肉不能食用，但市场上总有没天良的摊版用母猪肉 蒙騙顾客，尤为可恶的是利用熟客的信任以售其奸者。</t>
+  </si>
+  <si>
+    <t>偷搦其鸡母无论重。</t>
+  </si>
+  <si>
+    <t>①搦：〈借用字〉捉。②其：结构助词；的。③鸡母：母 鸡。④无论重：不论斤两。</t>
+  </si>
+  <si>
+    <t>据报上新闻，近来有皮包公司用少量预付款騙得货物后，在市场上低价迅速脱手，然后逃之天夭。偷鸡贼相形见
+缺。</t>
+  </si>
+  <si>
+    <t>贼偷贼，𣍐明白。</t>
+  </si>
+  <si>
+    <t>脍明白：说不清。</t>
+  </si>
+  <si>
+    <t>大王补库，弟子出钱。</t>
+  </si>
+  <si>
+    <t>大王补库：旧俗各个街区都供奉保佑一方的神祇，称 “大王”或“将军”，每年庙祝借口“大王”睪“补库”〔补 充钱库〉向信徒募集钱财。</t>
+  </si>
+  <si>
+    <t>各种“事业”的经济负担最终都是落在老'百姓身上，主 事者乘机渔利，新名甸叫“乱摊派”。</t>
+  </si>
+  <si>
+    <t>坐轿是侬，扛轿也是侬。</t>
+  </si>
+  <si>
+    <t>①坐轿：坐轿子的。②侬：人。③扛轿：抬轿子的，轿
+夫。</t>
+  </si>
+  <si>
+    <t>有人坐轿子，有人抬桥子，阶鈒社会的本貭就是不平等。</t>
+  </si>
+  <si>
+    <t>】①着：在。@埭头：路口。③啼：哭。</t>
+  </si>
+  <si>
+    <t>心酸莫着墿头啼。</t>
+  </si>
+  <si>
+    <t>存在主义哲学家萨特的名言是“他人即地狱”，何况说 陌生的路人。</t>
+  </si>
+  <si>
+    <t>臭头鸡囝众侬刨。</t>
+  </si>
+  <si>
+    <t>①鸡囝：小鸡。②侬：人，此处指鸡。③刨：啄。</t>
+  </si>
+  <si>
+    <t>众人都欺负老实软弱的倒霉蛋。</t>
+  </si>
+  <si>
+    <t>俪看见贼食，无看见贼拍。</t>
+  </si>
+  <si>
+    <t>①偭：〈借用字〉范围副词；只。②食：吃。③拍：打， 此处指挨揍。</t>
+  </si>
+  <si>
+    <t xml:space="preserve">众人只眼红你的得意处，付出什么代价只有自已知道。 北方俗语说“只看见和尚吃馒头，没看见和尚烧戒”，也是 这个意思。
+</t>
+  </si>
+  <si>
+    <t>拆观音堂，起五帝庙。</t>
+  </si>
+  <si>
+    <t>①起：修建。②五帝：福州民间信仰的瘟神，有张、钟、 刘、史、赵五位，合称五帝，神像形貌丑恶。</t>
+  </si>
+  <si>
+    <t>这条谚语来自《闽都别记》中记栽的一则民间传说：有 一个叫吴瑞的人到闽江边的五帝庙抽签有灵验，拟在天宁 山观音堂左側建新庙答谢。新庙上梁后，夜里人工散尽，次 曰来看，中梁架到了观音堂顶上，其余木料被拆卸置于江边。于是认为这是五帝且灵，表示心愿。为了取悦五帝，拆 去观音堂，改建成五帝庙。
+历史学家认为这个故事反映了外来的宗教终究难敌民 间信仰。从民俗心理上说，取悦五帝而冷落了大慈大悲的观 世音说明迷信主要产生于恐惧，人们敬恶煞甚于敬善神。</t>
+  </si>
+  <si>
+    <t>五帝惊呆侬。</t>
+  </si>
+  <si>
+    <t xml:space="preserve">①五帝：见上条注。②惊：害怕。③呆侬：坏人。 </t>
+  </si>
+  <si>
+    <t>除】五帝专司捉拿作祟的疫鬼和作恶的坏人，俚世上仍有连 五帝见了都怕的坏人。</t>
+  </si>
+  <si>
+    <t>众生百相</t>
+  </si>
+  <si>
+    <t>蜀色米食百样侬。</t>
+  </si>
+  <si>
+    <t xml:space="preserve">①蜀色：一样的。②食：吃。③侬：人。
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">北方俗语说：“林子大了，什么鸟都有。”
+</t>
+  </si>
+  <si>
+    <t>真教师伓讲拳头。</t>
+  </si>
+  <si>
+    <t xml:space="preserve">①教师：拳师。②怀讲：不谈论。③拳头：武术。
+</t>
+  </si>
+  <si>
+    <t>真人不露相。</t>
+  </si>
+  <si>
+    <t>光棍蜀重膜，戳破渧渧落。</t>
+  </si>
+  <si>
+    <t>①光棍：骗子。②蜀重：一层。③渖谛落：不住地淌水， 形容狼狈相。</t>
+  </si>
+  <si>
+    <t>老实共𣤞间壁厝。</t>
+  </si>
+  <si>
+    <t>①共：与。②歇：傻。③间壁厝：隔壁邻居。</t>
+  </si>
+  <si>
+    <t>人应当老实，而过于老实则近于愚蠢，因为我们不是生 活在“君子国”。</t>
+  </si>
+  <si>
+    <t>老实偷食鸡翼。</t>
+  </si>
+  <si>
+    <t xml:space="preserve">①偷食：偷吃。②鸡翼：鸡翅膀。
+</t>
+  </si>
+  <si>
+    <t>“害人之心不可有，防人之心不可无”。尤其要提防身边 貌似忠厚的小人。</t>
+  </si>
+  <si>
+    <t>婊子年年讲十八，熏鬼日日讲革。</t>
+  </si>
+  <si>
+    <t>①熏鬼：烟鬼。熏：香烟。②革：戒（烟〉。</t>
+  </si>
+  <si>
+    <t>美国作家马克‘吐温说：“戒烟是最容易不过的事情，我 就戒过一百次以上。”</t>
+  </si>
+  <si>
+    <t>老罔老，会（扌马）蜀把豆。</t>
+  </si>
+  <si>
+    <t xml:space="preserve">①罔：尽管。②会：能够。③冯：抓取。④蜀把：一把。
+</t>
+  </si>
+  <si>
+    <t>切不可小覷了老年人，有时会让你大吃一惊。</t>
+  </si>
+  <si>
+    <t>𠈙瓜无瓤，𠈙囝无腹肠。</t>
+  </si>
+  <si>
+    <t xml:space="preserve">①伐瓜：未熟透的瓜，此处“瓜”特指丝瓜。②親：指 晾干的丝瓜瓤，常用作洗涤用具。③伐囝：缺乏知识和经验 的年轻人。④无腹肠：没有肠子，喻指缺乏心计。
+</t>
+  </si>
+  <si>
+    <t>呆侬：坏人。</t>
+  </si>
+  <si>
+    <t>呆侬假胆小。</t>
+  </si>
+  <si>
+    <t>人们一般认为胆小者怕事，胆大者妄为。所以飯装胆小 是一种很好的伪装。</t>
+  </si>
+  <si>
+    <t>钱胆衣裳威。</t>
+  </si>
+  <si>
+    <t>钱能壮胆，衣显威风。商品社会里有钱就是大爷，哪怕 是假装有钱说话嗓门也大些。</t>
+  </si>
+  <si>
+    <t xml:space="preserve">①絵：不会。②掰册：撕书。册：书。
+</t>
+  </si>
+  <si>
+    <t>𣍐读书，会掰册。</t>
+  </si>
+  <si>
+    <t>有些人不爱读书却愛买书，书落到他们手中，与被级了 何异。</t>
+  </si>
+  <si>
+    <t>老爹老爹，破布之遮遮。</t>
+  </si>
+  <si>
+    <t xml:space="preserve">①老爹：老爷，特指官吏。②之遮遮：动词“遮”的反 复貌衍音变型，意思相当于“左遮右遮”、“遮来遮去”。 </t>
+  </si>
+  <si>
+    <t>尴尬的老爷终究难免馗尬，用破布遮遮掩掩，尾巴还是
+露在外面。</t>
+  </si>
+  <si>
+    <t>神仙难趁兴化钱。</t>
+  </si>
+  <si>
+    <t xml:space="preserve">①趁：赚。②兴化钱：兴化人的钱。
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">兴化府在福州南面，今属莆田市。在旧社会，福州人与 兴化人因方言隔阂，互相缺乏好感。生意人占不到对方的便 宜，反归疚于对方吝啬、精明。
+</t>
+  </si>
+  <si>
+    <t>福清哥，戴斗笠，伓挃安侬挃。</t>
+  </si>
+  <si>
+    <t xml:space="preserve">①福清哥：福州人谑称福清人。福清县位于福州南面， 历史上一直隶属于福州府，口音与福州不同，民风鲁直彪 悍。②戴斗笠：旧日福清人出门，无论晴雨总戴着富有特色 的尖顶小斗笠。③怀桎安侬桎：〔人家）不想要，他强迫人家接受。桎：〈方言俗字〉要，接受。安〈音〉：强迫。侬: 人，别人。
+</t>
+  </si>
+  <si>
+    <t>扛棺材，张式款。</t>
+  </si>
+  <si>
+    <t xml:space="preserve">①扛：抬。②张式款：装腔作势。
+</t>
+  </si>
+  <si>
+    <t>旧日出殡，抬棺材的总是一路“嘿吻、嘿为”地叫，以 显示棺木厚实，陪葬品多。丧家也乐意为此多予“花彩” (小费乂</t>
+  </si>
+  <si>
+    <t>①隻：量词；个。②病囝：早孕反应的症状，此处指怀 孕。</t>
+  </si>
+  <si>
+    <t>十隻尼姑，九隻病囝。</t>
+  </si>
+  <si>
+    <t>世俗向来有很多揶揄和尚、尼姑不守清规戒律的说法， 这可能反映了僧俗之间的隔阂，也可能是说明了真出于信 仰原因而出家的人不多。</t>
+  </si>
+  <si>
+    <t>和尚食十方。</t>
+  </si>
+  <si>
+    <t>食十方：到处化缘，吃百家饭。</t>
+  </si>
+  <si>
+    <t>看命先生半墿死，地理先生无对埋。</t>
+  </si>
+  <si>
+    <t xml:space="preserve">①半埠死：横死途中。②地理先生：看风水的迷信职业 者。③无对：无处，“对”写同音字。
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">抄录一首打油诗为证：风水先生真会哄，指南指北指 西东，此处若是真龙穴，何不当年笄乃翁。”
+</t>
+  </si>
+  <si>
+    <t>看命嘴，犬放屁。</t>
+  </si>
+  <si>
+    <t xml:space="preserve">看命嘴：算命先生的嘴，借代指算命者的胡言乱语。 
+</t>
+  </si>
+  <si>
+    <t>除】认识这一条“绝对真理”本不需要多大的智慧，但至少 在目前，算命先生仍衣食无虞。</t>
+  </si>
+  <si>
+    <t>神妈神妈，半真半假。</t>
+  </si>
+  <si>
+    <t>神妈：巫婆。</t>
+  </si>
+  <si>
+    <t xml:space="preserve">巫婆的本屑是利用人们的迷信心理诈蹁钱财，凭着职业 本能和对人情世态的熟悉，往往也能对求神者的经历、状况
+猜对几分。
+</t>
+  </si>
+  <si>
+    <t>城裡灯笼乡下骨。</t>
+  </si>
+  <si>
+    <t xml:space="preserve">灯笼体现着都市的气派，灯笼的骨架却都来自穷乡僻 壤。城里的体面人物原来也多是来自乡村。
+</t>
+  </si>
+  <si>
+    <t>面囝白澈澈，呆事做固搭。</t>
+  </si>
+  <si>
+    <t>衣冠楚楚的人难保不会偷鸡摸狗。</t>
+  </si>
+  <si>
+    <t>无好大，害𠲥细。</t>
+  </si>
+  <si>
+    <t>【注】①无好大：品行不好的长辈。②𠲥：动态助词；了。③ 细：幼小，此处指晚辈。
+读】长辈的不良言行将影响晚辈，最终害了他们。</t>
+  </si>
+  <si>
+    <t>【注】①蜀条：一根。②𠲥：结构助词；得。③岸岸光：亮堂 堂。岸〈音〉：明亮。
+除】福州丧俗，在灵床前点红烛，死者有几个儿子就点几根 烛。此谚喻独子有出息。</t>
+  </si>
+  <si>
+    <t>凊饭放𠲥酸，无疼外甥孙。</t>
+  </si>
+  <si>
+    <t>①清饭：冷饭，剩饭。②放𠲥酸：搁着让它发馊。𠲥: 动态助词；着。③无疼：不疼爱。④外甥孙：外孙。</t>
+  </si>
+  <si>
+    <t>拾𠲥缚腿带，家伙去蜀堂。</t>
+  </si>
+  <si>
+    <t>①𠲥：动态助词；了。②缚腿带：绑腿。③家伙：家产。 ④去：损失。⑤蜀堂：一套〔家具等乂 辟】</t>
+  </si>
+  <si>
+    <t>生𠲥无积掌，死咯害保长。</t>
+  </si>
+  <si>
+    <t>①生𠲥：活着。②积掌：积攒。“掌”可能就是“攒”字 的讹读。③咯：动态助词；了。</t>
+  </si>
+  <si>
+    <t>横心横肠，饭炊蜀甑；良心天理，鼎𠲥无米。</t>
+  </si>
+  <si>
+    <t>①横心横肠：狠心。②饭炊蜀甑：蒸一锅饭，形容富裕。 瓶：蒸笼，本字“床”。③鼎：铁锅。④𠲥：处所助词，本 字“里”。</t>
+  </si>
+  <si>
+    <t>江𠲥怀去讨，碗𠲥对头夺。</t>
+  </si>
+  <si>
+    <t xml:space="preserve">①𠲥：处所助词；本字“里”。②怀去：不去。③讨：捕 (鱼〉。④对头夺：互相争夺。对头：副词；相互。
+</t>
+  </si>
+  <si>
+    <t>颂𠲥长衫偷尿壶。</t>
+  </si>
+  <si>
+    <t xml:space="preserve">颂𠲥：穿着。𠲥：时态助词；着。 </t>
+  </si>
+  <si>
+    <t>①面囝：脸蛋。②白澈澈：白白净净。③呆事：坏事。 固搭：更甚。固：更。搭：到顶，到家。</t>
+  </si>
+  <si>
+    <t>长衫重马褂，尿壶无对挂。</t>
+  </si>
+  <si>
+    <t>①长衫重马褂：穿长衫套马褂，指穿着像个有钱人。 ②无对:无处。“对”写同音字。</t>
+  </si>
+  <si>
+    <t xml:space="preserve">有痤人衣着考究，其实贫无立锥之地。
+</t>
+  </si>
+  <si>
+    <t>肖蛇多心事。</t>
+  </si>
+  <si>
+    <t xml:space="preserve">①肖：〈生肖）属。②多心事：多疑。
+</t>
+  </si>
+  <si>
+    <t>好呆侬，相带累。</t>
+  </si>
+  <si>
+    <t xml:space="preserve">①好呆侬：好人坏人。呆:坏。②相：外表长相。⑧带 累：连累。
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">初次见面，人们总难免“由表及里”地凭外珑判断人品。
+</t>
+  </si>
+  <si>
+    <t>十矮九作疾。</t>
+  </si>
+  <si>
+    <t xml:space="preserve">作疾：不安分。
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">矮身材者往往能比一般人付出更大的努力以获得社会 的承认，赢得自尊，心理学上称为“补偿规律”。
+</t>
+  </si>
+  <si>
+    <t>七疤八扭做夫人。</t>
+  </si>
+  <si>
+    <t>①七疤八扭：形容貌丑。②夫人：贵妇人。</t>
+  </si>
+  <si>
+    <t xml:space="preserve">“自古红颜多薄命”，而“七疤八扭做夫人”，如果姑娘 可以自由选择，愿做“夫人”者恐怕不多。
+</t>
+  </si>
+  <si>
+    <t>上身长，坐吼噇；下身长，做忙忙。</t>
+  </si>
+  <si>
+    <t xml:space="preserve">①坐吼：坐着。②噇：吃（贬义③做忙忙：劳作繁 忙。
+</t>
+  </si>
+  <si>
+    <t>桉身长的比例来算命，其实只是一句玩笑话。</t>
+  </si>
+  <si>
+    <t>男形母相，伓死破相。</t>
+  </si>
+  <si>
+    <t>①男形母相：身为男人却有女性化的神态举止。②怀死 破相：不死也要残废。破相：残废。</t>
+  </si>
+  <si>
+    <t>与其说是“相术”，不如说是咒骂。如《日出》中的胡四爷那样的人物，心理正常的人看了都觉得不舒服。</t>
+  </si>
+  <si>
+    <t xml:space="preserve">①骹肚：小腿肚。②怀……也……：若不……则要……。 ③侬：人，别人。
+</t>
+  </si>
+  <si>
+    <t>骹肚像竹筒，伓死也害侬。</t>
+  </si>
+  <si>
+    <t xml:space="preserve">小腿如竹茼者大约是“豆芽菜”体螌的瘦高个儿，现在 非常时免，“超级名模”更是非此类莫属。不知吾乡先辈何 以深恶而痛绝之。
+</t>
+  </si>
+  <si>
+    <t>麻麻其骚，乌乌其娇。</t>
+  </si>
+  <si>
+    <t>①麻麻其：麻麻的，指麻脸。②骚：俗写同音的“超” 字。③乌乌其：黑黑的。</t>
+  </si>
+  <si>
+    <t xml:space="preserve">东施遭人嘲笑不是因为扰丑，而是因为效颦。
+</t>
+  </si>
+  <si>
+    <t>面髀无肉，不可相熟。</t>
+  </si>
+  <si>
+    <t xml:space="preserve">①面髀：脸颊。②相熟：相交往。
+</t>
+  </si>
+  <si>
+    <t>传统文化心理认为尖嘴猴腮者多作。</t>
+  </si>
+  <si>
+    <t>谐喻事理</t>
+  </si>
+  <si>
+    <t>十隻掌指都有长短。</t>
+  </si>
+  <si>
+    <t xml:space="preserve">①掌指：手指头。②有长短：有长有短。“短”写同义
+字。
+</t>
+  </si>
+  <si>
+    <t>讨亲长长阵，拜堂偭两奇。</t>
+  </si>
+  <si>
+    <t>①讨亲：娶亲。②长长阵：队伍很长。③偭：〈借用 字〉只，仅。④两奇：两个（人〉。</t>
+  </si>
+  <si>
+    <t xml:space="preserve">凑热闹的人多，真正办事的只是个别人。
+</t>
+  </si>
+  <si>
+    <t>头回养猪母，半冥去担潘。</t>
+  </si>
+  <si>
+    <t>①头回：初次。②猪母：母猪。③半冥：半夜。④担潘: 挑猪食。潘：潲水。《广韵》：“潘，浙米汁也，普官切。”</t>
+  </si>
+  <si>
+    <t xml:space="preserve">初做某事，积极性往往特别高。
+</t>
+  </si>
+  <si>
+    <t>破钵逗汝玻璃缸。</t>
+  </si>
+  <si>
+    <t xml:space="preserve">①逗：向‘…”挑衅。②汝：你。
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">玻瑞釭忍气呑声，因为这样的决斗输不起，赢了也没啥 意思。
+</t>
+  </si>
+  <si>
+    <t>有葱也办酒，无葱也办酒。</t>
+  </si>
+  <si>
+    <t>办酒：置办酒席。</t>
+  </si>
+  <si>
+    <t>次要因素不影响大局。</t>
+  </si>
+  <si>
+    <t>拉尿也着看风势。</t>
+  </si>
+  <si>
+    <t>①着：要，必须。②风势：风向，引申指具体的客观情 况、外部条件。</t>
+  </si>
+  <si>
+    <t xml:space="preserve">做任何事情都要根据当时具体情况采取适当的方法。
+</t>
+  </si>
+  <si>
+    <t>开饭店固惊大食饭？</t>
+  </si>
+  <si>
+    <t>①固：〔难道）还怕。②大食饭：指饭量大的顾客。</t>
+  </si>
+  <si>
+    <t>坎爿也中垫桌骹。</t>
+  </si>
+  <si>
+    <t>①坎另：碎瓦片。②桌骹：桌腿。</t>
+  </si>
+  <si>
+    <t xml:space="preserve">任何东西都有用，主要看用得是不是地方。
+</t>
+  </si>
+  <si>
+    <t>做媒侬无能嗨包生囝。</t>
+  </si>
+  <si>
+    <t xml:space="preserve">①媒侬：媒人。②无能嗨：不能，办不到。③生囝：生 儿子。
+</t>
+  </si>
+  <si>
+    <t>无法对不可知的结果承诺。</t>
+  </si>
+  <si>
+    <t>井水罔绱罔出泉。</t>
+  </si>
+  <si>
+    <t>①罔……罔……：一边……一边……。②绱：〈用吊 桶）吊（水〉。③泉：指涌入井中的清水；“泉”的读音特殊， 可能不是本字。</t>
+  </si>
+  <si>
+    <t>三年食长斋，蜀条虾米须开荤。</t>
+  </si>
+  <si>
+    <t xml:space="preserve">①食长斋：长年奉佛吃素。②蜀条：一根。③须：触须; 俗写同音字“秋”。
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">往往一念之差，会致了长期努力的结果。
+</t>
+  </si>
+  <si>
+    <t>江中再大，有日船头会相碰。</t>
+  </si>
+  <si>
+    <t xml:space="preserve">①再大：无论有多大。②有日：总有一天。
+</t>
+  </si>
+  <si>
+    <t>冤家路窄。</t>
+  </si>
+  <si>
+    <t>细倪碰着沙。</t>
+  </si>
+  <si>
+    <t xml:space="preserve">细倪：爱计较、爱挑剔（的人〉。②沙：指米饭中的
+沙子。
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">爱挑剔的人偏偏常遘到不順心的事。
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">①八背：倒霉。②夹鼎：粘锅。
+</t>
+  </si>
+  <si>
+    <t>八背煮水会夹鼎。</t>
+  </si>
+  <si>
+    <t xml:space="preserve">人倒霉的时候做什么事都不对劲。
+</t>
+  </si>
+  <si>
+    <t>庙吼猪头都有主。</t>
+  </si>
+  <si>
+    <t xml:space="preserve">庙吼：庙里（的〉。吼：处所助词，本字“里”。
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">各家献祭的供品按习慣留在庙里直至祭祀结束后再各 自取田，留在庙里的猪头实际上各有主人。“庙啡猪头”常 喻指已有了对象的男女。
+</t>
+  </si>
+  <si>
+    <t>神仙都会拍逷剑。</t>
+  </si>
+  <si>
+    <t xml:space="preserve">拍遗：丢失。
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">此谚源于民间传说吕洞宾醉酒丢了宝剑，食指任何人都 难免有兢忽之处。
+</t>
+  </si>
+  <si>
+    <t>鬼囝无见过大猪头。</t>
+  </si>
+  <si>
+    <t xml:space="preserve">①鬼囝：小鬼。②大猪头：猪头是庙里敬神的供品，小 鬼不配享用。
+</t>
+  </si>
+  <si>
+    <t>令指小人物没见过大世面。</t>
+  </si>
+  <si>
+    <t>29735f36-81d9-42ad-90c0-f10795a307f8</t>
+  </si>
+  <si>
+    <t>7972878b-54c2-47bb-999f-acd3f69d4346</t>
+  </si>
+  <si>
+    <t>bda5a558-c469-4a6c-a6f6-2ad774dbb09b</t>
+  </si>
+  <si>
+    <t>de92fac6-e314-41f9-b580-3fe4c5533576</t>
+  </si>
+  <si>
+    <t>9b50b3ef-6758-466e-ac92-f38058c5bbaf</t>
+  </si>
+  <si>
+    <t>2a2e0df9-d1ff-477f-a732-579c95748148</t>
+  </si>
+  <si>
+    <t>67591530-3076-4d4e-9243-6abf190199d4</t>
+  </si>
+  <si>
+    <t>c1446da5-c836-46f1-8933-ae6c0227e84d</t>
+  </si>
+  <si>
+    <t>222dd335-f4a5-4e94-a63a-6fe80e894c27</t>
+  </si>
+  <si>
+    <t>f6034b92-4309-45d8-8fa7-7abdf03ded0a</t>
+  </si>
+  <si>
+    <t>53418d9e-0c16-49d5-a2f3-582eee6c0b9d</t>
+  </si>
+  <si>
+    <t>b6a719b4-585e-45dd-80e9-7208e20fadc4</t>
+  </si>
+  <si>
+    <t>99e0a189-6022-46c8-a410-75f6846643ed</t>
+  </si>
+  <si>
+    <t>b05b5603-bffe-4925-ab92-b09b8377f888</t>
+  </si>
+  <si>
+    <t>c7350fb4-d476-4dff-aa84-80a8230b0840</t>
+  </si>
+  <si>
+    <t>1bef9f0b-e3f3-4490-bb6d-4400544d1f43</t>
+  </si>
+  <si>
+    <t>7240ba72-6076-41ac-9699-86f3f0872864</t>
+  </si>
+  <si>
+    <t>86ce5a64-6b87-4887-b7de-ee8a748b6ca0</t>
+  </si>
+  <si>
+    <t>24188cb8-3d56-4ce8-81ae-e10c1838c0c6</t>
+  </si>
+  <si>
+    <t>23d87282-ced6-49b4-a2fe-61df5a58a05f</t>
+  </si>
+  <si>
+    <t>e156d170-bd0e-40c7-b62a-daeced43627a</t>
+  </si>
+  <si>
+    <t>16acee38-6c69-4680-bba3-844b54ba0eff</t>
+  </si>
+  <si>
+    <t>c47cd2be-f917-4d25-b57a-dab8e875c4da</t>
+  </si>
+  <si>
+    <t>ea9ce6b8-01a0-4e4a-9d7d-7f14acac3088</t>
+  </si>
+  <si>
+    <t>8265298c-ba95-4cd5-a6c8-2b914ddc24e4</t>
+  </si>
+  <si>
+    <t>15af519d-661c-4a26-813c-43ca48ac92f2</t>
+  </si>
+  <si>
+    <t>315aa8ff-df1d-4d34-a344-00f575618e5a</t>
+  </si>
+  <si>
+    <t>29fa7974-b816-4d12-aa77-825d902b58c9</t>
+  </si>
+  <si>
+    <t>c3fb9723-16dc-4e3c-9944-12f9215374d2</t>
+  </si>
+  <si>
+    <t>ffeae9d3-f14e-40e7-942e-f8c872515dd4</t>
+  </si>
+  <si>
+    <t>3de751dc-f9ca-4066-ac3e-7ba849720eb6</t>
+  </si>
+  <si>
+    <t>0b053cec-41f6-453d-b6c9-adac2aa3cc83</t>
+  </si>
+  <si>
+    <t>880f6e73-6578-41cb-8dee-11c9e81d6415</t>
+  </si>
+  <si>
+    <t>aeab1f73-7e5a-4e25-b91f-cb970ae31d3c</t>
+  </si>
+  <si>
+    <t>0c5c8931-e317-4942-9129-e7ae9b78f256</t>
+  </si>
+  <si>
+    <t>4f4bc689-8825-453c-8469-e16a6c498e5e</t>
+  </si>
+  <si>
+    <t>59cd5b05-9620-49b6-8669-fb4a241fd093</t>
+  </si>
+  <si>
+    <t>8a634275-2e17-4632-b42b-b3a8972c1b79</t>
+  </si>
+  <si>
+    <t>a220c844-6f60-48b8-9132-4ee4bd8e69ae</t>
+  </si>
+  <si>
+    <t>57f50ec0-4dbe-40a2-bd7a-63c9fe3dff07</t>
+  </si>
+  <si>
+    <t>b45f92fd-d72c-42c5-8d1f-ee9da44a18e6</t>
+  </si>
+  <si>
+    <t>aea99b48-60f0-4699-8dc9-0cdd680cf1db</t>
+  </si>
+  <si>
+    <t>1f897467-6a43-4244-9c7f-d0fe689b4ca6</t>
+  </si>
+  <si>
+    <t>ce443994-c154-428b-9bc9-ebd06a48b62e</t>
+  </si>
+  <si>
+    <t>645730a9-a0e7-4fd2-8602-a269e559a364</t>
+  </si>
+  <si>
+    <t>40d29d08-6e10-41e1-85e3-3094310ed66b</t>
+  </si>
+  <si>
+    <t>2c93fd38-02fd-40f5-b829-293516de3772</t>
+  </si>
+  <si>
+    <t>1c7c2a59-e98e-4ee7-b2e0-7ac9ec990910</t>
+  </si>
+  <si>
+    <t>fed7f440-0fc7-46f7-8fe1-5bf0e91a9fc8</t>
+  </si>
+  <si>
+    <t>f799c63b-c0b3-47af-b88a-37bbf1ab13a7</t>
+  </si>
+  <si>
+    <t>dca2088b-d854-47f6-b22f-e05ae48f0193</t>
+  </si>
+  <si>
+    <t>5fdb2553-f0f6-4664-9dd2-de4031fccbb6</t>
+  </si>
+  <si>
+    <t>901bdf43-aa4f-4ea8-80ea-bb208d799da0</t>
+  </si>
+  <si>
+    <t>e2f9ce75-ead5-4065-8894-1982429bb481</t>
+  </si>
+  <si>
+    <t>6b9951dd-017e-4e5a-92f3-d9214be0e468</t>
+  </si>
+  <si>
+    <t>1a925f22-c6ca-4285-9bf4-fe88206bcb04</t>
+  </si>
+  <si>
+    <t>993586ec-9aac-46c4-b9b5-4a07257c3424</t>
+  </si>
+  <si>
+    <t>faef8564-b87b-446e-80cd-455b8d404a1e</t>
+  </si>
+  <si>
+    <t>47a3fb67-9523-4a16-a75f-acb863180179</t>
+  </si>
+  <si>
+    <t>52a7b0a5-fe79-49e9-a349-aeb5f1404591</t>
+  </si>
+  <si>
+    <t>bea3160d-37cb-4878-9388-3e62bb6354d5</t>
+  </si>
+  <si>
+    <t>69d87374-7563-4a80-9b6f-d767e1cd26d9</t>
+  </si>
+  <si>
+    <t>77356aff-48d0-4959-8712-1a12f5053565</t>
+  </si>
+  <si>
+    <t>e8f149b6-6b15-4e83-ad46-ad4533f093f6</t>
+  </si>
+  <si>
+    <t>c5248bdc-1d59-4e66-b3b6-feb79c5dbba7</t>
+  </si>
+  <si>
+    <t>bd525339-1303-4c13-9353-06cd3ce334d4</t>
+  </si>
+  <si>
+    <t>14c102ec-21a8-49bb-867a-b1752ceb84da</t>
+  </si>
+  <si>
+    <t>718aac2c-7237-4a72-95a0-58ad39e19deb</t>
+  </si>
+  <si>
+    <t>a583c62d-4d33-4d76-a0a6-cace9b6f8c2f</t>
+  </si>
+  <si>
+    <t>389ca6b9-795b-48fa-9899-36d8766d1565</t>
+  </si>
+  <si>
+    <t>0e3206ef-1ad8-4c84-884e-f5a0e399da6c</t>
+  </si>
+  <si>
+    <t>fb948bfc-b2af-48f4-89c4-e5f188b27b4a</t>
+  </si>
+  <si>
+    <t>a94a8c0a-ed79-4555-85ab-295e14afef17</t>
+  </si>
+  <si>
+    <t>124dfb6f-9fe4-4bf6-aed0-7ae5560c6510</t>
+  </si>
+  <si>
+    <t>ac06ee38-f431-4f91-8335-8ddaeea3038a</t>
+  </si>
+  <si>
+    <t>9cca91b5-41cf-469a-ab10-6eddc4351479</t>
+  </si>
+  <si>
+    <t>42a1542d-6a77-48a7-8d05-c24124588378</t>
+  </si>
+  <si>
+    <t>be7409ab-4552-4f0b-8102-d89dff957678</t>
+  </si>
+  <si>
+    <t>813b64aa-63ab-4e56-8631-f1cfeda111bc</t>
+  </si>
+  <si>
+    <t>4d2ea185-6de1-48e4-8736-51e7269d223d</t>
+  </si>
+  <si>
+    <t>d9e0f95c-7fd0-4f92-ba14-3ada806e59e0</t>
+  </si>
+  <si>
+    <t>ac3dc033-d93f-496a-862e-8afc75911aaa</t>
+  </si>
+  <si>
+    <t>e6650935-e00f-4e2e-ae62-61b7db5daa92</t>
+  </si>
+  <si>
+    <t>b7933919-c3cf-4deb-bf20-2dedd47e3822</t>
+  </si>
+  <si>
+    <t>b24eb314-84f0-42ef-aa45-58f8576bb6ce</t>
+  </si>
+  <si>
+    <t>97b054e7-a7e0-41ed-bddd-18a7b655cf10</t>
+  </si>
+  <si>
+    <t>214d771a-1f3c-40eb-9def-6f4fcd57d63e</t>
+  </si>
+  <si>
+    <t>d9c8492d-ae43-4bf6-81c8-2b637f44fa13</t>
+  </si>
+  <si>
+    <t>1b5d51a6-6d4a-4d33-9619-c388b8a49f96</t>
+  </si>
+  <si>
+    <t>1c3a0c5a-47bd-4e28-a70d-485f917ec1a0</t>
+  </si>
+  <si>
+    <t>5ee74867-0537-462d-b3be-8b854468178a</t>
+  </si>
+  <si>
+    <t>670033d9-5e14-486e-acf0-0f79d3795bb9</t>
+  </si>
+  <si>
+    <t>b7564d02-5bea-484a-97da-256dddaa6219</t>
+  </si>
+  <si>
+    <t>19aefad7-49ce-43bf-aa11-2336a7f8e62c</t>
+  </si>
+  <si>
+    <t>a136e3fb-a53d-4ffe-a24e-f04a9b30004a</t>
+  </si>
+  <si>
+    <t>50c3cb1f-7522-4960-a8a7-efde5c66c349</t>
+  </si>
+  <si>
+    <t>b08cd440-f14e-46f9-be4b-704ac1b4a91f</t>
+  </si>
+  <si>
+    <t>9dd30f24-15b1-4814-9958-e36866daa9ef</t>
+  </si>
+  <si>
+    <t>c8323d35-2751-46d5-b28a-09d75b0fdf98</t>
+  </si>
+  <si>
+    <t>29363f69-5044-4085-bac1-609f7accc7b9</t>
+  </si>
+  <si>
+    <t>b830e281-b86a-4437-898b-fc022dae7352</t>
+  </si>
+  <si>
+    <t>be44fe57-d0a9-402a-9761-9d78e61f3647</t>
+  </si>
+  <si>
+    <t>19a94187-2370-4128-9c2e-b39bd56d0076</t>
+  </si>
+  <si>
+    <t>4d5b7328-9995-4635-b0e7-8e67c505eeb0</t>
+  </si>
+  <si>
+    <t>6fe64af6-7576-44b6-b9ac-bd24ef6a7b24</t>
+  </si>
+  <si>
+    <t>0a6337c3-7840-44d7-bea1-5dbf2874b41b</t>
+  </si>
+  <si>
+    <t>1aea1e7d-4c81-4cc3-acdb-d8793be4e4a4</t>
+  </si>
+  <si>
+    <t>051af94d-cdde-4d6d-8ce4-b22ab0aefe45</t>
+  </si>
+  <si>
+    <t>09fa42ba-a2e6-41b7-98e4-3c18220d08a9</t>
+  </si>
+  <si>
+    <t>d5334afb-47d4-45a7-a756-05875fb723f6</t>
+  </si>
+  <si>
+    <t>f0983738-7b11-49a1-8dc7-488d0bcd72a4</t>
+  </si>
+  <si>
+    <t>fc13ac3e-d862-4f37-9224-b1b49fcbca17</t>
+  </si>
+  <si>
+    <t>4cfc30c5-b533-4a66-86be-7edbe2e3b27b</t>
+  </si>
+  <si>
+    <t>9cae75a3-1442-4f9e-901d-b2423834cec8</t>
+  </si>
+  <si>
+    <t>242e69e2-5c9b-43ff-a9be-90fd99038a25</t>
+  </si>
+  <si>
+    <t>27031348-e8bf-44df-896e-010bc4e64214</t>
+  </si>
+  <si>
+    <t>2a4fc842-9f26-4798-b596-200ae1fb56ae</t>
+  </si>
+  <si>
+    <t>b24d5c6a-7c6e-4c47-bb7e-4f09400e1285</t>
+  </si>
+  <si>
+    <t>060fa5ed-bbce-4003-ae34-9149cf55e860</t>
+  </si>
+  <si>
+    <t>2dc94f7a-87a1-48de-856a-ae2878f3f153</t>
+  </si>
+  <si>
+    <t>61883146-235e-442d-b519-02f331d31b27</t>
+  </si>
+  <si>
+    <t>3f17e274-330e-450a-adcc-2df46fd64226</t>
+  </si>
+  <si>
+    <t>d8b55cf6-0320-488b-9aee-dc098afe31b8</t>
+  </si>
+  <si>
+    <t>2d3fa69b-1aa1-42ed-af4a-4e01e1959f49</t>
+  </si>
+  <si>
+    <t>d0d13a21-a60f-458d-ae7c-9edb215ff720</t>
+  </si>
+  <si>
+    <t>86a33858-690d-4de0-bf59-ba03995b2bff</t>
+  </si>
+  <si>
+    <t>3633afc3-ad80-47bb-a54d-321912946780</t>
+  </si>
+  <si>
+    <t>2c9a8499-4433-45d9-bfca-25132be97d9d</t>
+  </si>
+  <si>
+    <t>382e4089-c77d-4448-a7bf-1ecda655541c</t>
+  </si>
+  <si>
+    <t>4faab479-4ec3-4cda-91f8-20afef8c7925</t>
+  </si>
+  <si>
+    <t>7339ba4d-100e-4ef0-a22f-7ca3ee68a657</t>
+  </si>
+  <si>
+    <t>1c0b58f5-209c-4eae-913f-e1329ebe74b9</t>
+  </si>
+  <si>
+    <t>b6ac79d1-e529-48eb-8658-198aace47415</t>
+  </si>
+  <si>
+    <t>cb521f44-429f-4f2b-ba65-39ef90012746</t>
+  </si>
+  <si>
+    <t>a16e03fc-8f09-441f-b28a-dcbecf25855b</t>
+  </si>
+  <si>
+    <t>0fad8b05-9c96-4f88-8646-bf364d8130e7</t>
+  </si>
+  <si>
+    <t>65e04c74-0bc1-4840-bca9-a3afa0dc0833</t>
+  </si>
+  <si>
+    <t>bc4f687d-d7cb-430a-a472-4bb5384907b7</t>
+  </si>
+  <si>
+    <t>3addf04a-3e29-4d82-9a3f-3f41182620a3</t>
+  </si>
+  <si>
+    <t>c791a87b-2df7-4184-9ee6-cff8936af084</t>
+  </si>
+  <si>
+    <t>1341d609-0852-40c5-b651-7c080e167c94</t>
+  </si>
+  <si>
+    <t>df09bfed-ccca-4bb0-8a3a-666d66e62b72</t>
+  </si>
+  <si>
+    <t>9aa7b2bd-7974-4574-9932-9c73955c3fd7</t>
+  </si>
+  <si>
+    <t>da77a746-ee27-4bc4-8b78-a0935ff714aa</t>
+  </si>
+  <si>
+    <t>ff426a6b-42d0-4414-b828-be078e5b4d19</t>
+  </si>
+  <si>
+    <t>e1b68d42-f255-46cf-9760-ce6f45795760</t>
+  </si>
+  <si>
+    <t>90c10702-01e8-4944-a3f5-d617a62feb04</t>
+  </si>
+  <si>
+    <t>083edd24-a809-41af-80bb-91931b1fbbf6</t>
+  </si>
+  <si>
+    <t>17cc9878-c557-47df-9ec2-5c923b5424d5</t>
+  </si>
+  <si>
+    <t>736fa3b2-6db7-426e-b1e2-031b88a909b1</t>
+  </si>
+  <si>
+    <t>1c23cfea-be50-4637-9af4-10163ece1433</t>
+  </si>
+  <si>
+    <t>080f538f-bf7b-449e-94b7-2587bfd41344</t>
+  </si>
+  <si>
+    <t>2f0a7e23-28b3-4e7c-b00b-a1dfdc9c4df7</t>
+  </si>
+  <si>
+    <t>0c2b7244-67f8-4035-8e2f-db9e4e00e9cb</t>
+  </si>
+  <si>
+    <t>4fdb4040-7830-4eaf-af85-35d5818baacc</t>
+  </si>
+  <si>
+    <t>6515bda1-e4dd-4d1a-9f66-6d8169223e91</t>
+  </si>
+  <si>
+    <t>c054aec7-aff1-4e27-967c-5450e0f27d4b</t>
+  </si>
+  <si>
+    <t>3504b6f8-eefd-4211-8219-10b56d730727</t>
+  </si>
+  <si>
+    <t>b14afd46-9bac-42f0-9bf0-f2f5a96938e9</t>
+  </si>
+  <si>
+    <t>c7a85e58-668b-474c-becd-cafb99c0337f</t>
+  </si>
+  <si>
+    <t>cbefa99b-0279-4bf2-b19b-c9a519f71e45</t>
+  </si>
+  <si>
+    <t>9647b392-27bf-4281-b1b4-71ec04c2d59b</t>
+  </si>
+  <si>
+    <t>d04f6ab8-5570-46cf-9799-f6112d78e9cc</t>
+  </si>
+  <si>
+    <t>71a63fe3-8987-4c2f-8add-5a243805e585</t>
+  </si>
+  <si>
+    <t>ad19b462-981b-462e-b509-3e81628cc2a4</t>
+  </si>
+  <si>
+    <t>208340e6-1d21-4b1b-a009-3f64bb732de7</t>
+  </si>
+  <si>
+    <t>e83e28a8-7458-46ac-ad06-be96d19f4bfb</t>
+  </si>
+  <si>
+    <t>14afa730-1372-4889-90c8-b84c7d3a3d90</t>
+  </si>
+  <si>
+    <t>3842e79b-9183-49e7-938d-dfb68ba83723</t>
+  </si>
+  <si>
+    <t>4020631a-e62e-43a4-b530-e17c818ea2a6</t>
+  </si>
+  <si>
+    <t>d1fcff3e-75b6-41a7-8b59-eacc81dd1276</t>
+  </si>
+  <si>
+    <t>dd5375f6-a117-4b51-a695-9a0369ed448b</t>
+  </si>
+  <si>
+    <t>598d6ae5-602d-4784-98ea-f4028a0fcb3a</t>
+  </si>
+  <si>
+    <t>6f7a93d4-3a53-4f6a-86d0-882a75910705</t>
+  </si>
+  <si>
+    <t>21bf7c32-b81e-4222-b376-6b111df3fc93</t>
+  </si>
+  <si>
+    <t>e48e1fbf-2ca6-4774-b0cb-63b51fad5653</t>
+  </si>
+  <si>
+    <t>d1995530-3400-44a2-88e5-00d37a3699f8</t>
+  </si>
+  <si>
+    <t>ac0f1a87-e9ee-4ea3-aed3-d4eb109138e0</t>
+  </si>
+  <si>
+    <t>ac49cbc7-8a18-47b9-92d1-6d872098ddc1</t>
+  </si>
+  <si>
+    <t>adfab49f-9a8c-4951-a83d-cd3024926aea</t>
+  </si>
+  <si>
+    <t>89763181-959f-41c6-ba40-5d9b8513fb02</t>
+  </si>
+  <si>
+    <t>99499b50-3501-456b-ab0e-68a958023eab</t>
+  </si>
+  <si>
+    <t>7a989fa2-3576-4ec4-84e3-01de607e2a63</t>
+  </si>
+  <si>
+    <t>a9173b6d-c359-4a1a-9b2d-0159f5935ace</t>
+  </si>
+  <si>
+    <t>2cb13d6d-d8a3-44d8-b9fa-27ba887cb478</t>
+  </si>
+  <si>
+    <t>d7537bcc-e5db-45b2-8f80-985c701e61a9</t>
+  </si>
+  <si>
+    <t>f64f97b6-c525-4030-9e27-796ec779ede2</t>
+  </si>
+  <si>
+    <t>eb3d59b3-ea0d-44dd-b89b-f74c22b71d07</t>
+  </si>
+  <si>
+    <t>102dfcfa-eef0-4554-8539-66beadcd3caa</t>
+  </si>
+  <si>
+    <t>d04d5e84-230a-47c8-b3cf-37d859ea9e7c</t>
+  </si>
+  <si>
+    <t>4c2ebfa7-2006-4e68-87ed-fc80ed6ca72a</t>
+  </si>
+  <si>
+    <t>26881090-781c-44bb-974f-1a9e94dd586d</t>
+  </si>
+  <si>
+    <t>fcc611b7-4bd5-4bf5-94fd-7a1e6d83e2e2</t>
+  </si>
+  <si>
+    <t>47156f68-b377-4af4-9a28-b4f10af1a7ab</t>
+  </si>
+  <si>
+    <t>d3ad3056-5805-4c2e-92e0-082ee4bbfb85</t>
+  </si>
+  <si>
+    <t>cd9253a6-b5c3-4b76-8163-10b140cf2271</t>
+  </si>
+  <si>
+    <t>b827add3-2ba8-44fa-8f6f-214d39ebd40b</t>
+  </si>
+  <si>
+    <t>4833a737-f6a2-441d-9997-f799d422784b</t>
+  </si>
+  <si>
+    <t>4d857388-69ae-410b-bdcf-b27aa6474155</t>
+  </si>
+  <si>
+    <t>bfc6275f-fe7b-4f27-8396-f452159890c3</t>
+  </si>
+  <si>
+    <t>多吼香炉多吼鬼。</t>
+  </si>
+  <si>
+    <t>吼：动态助词；了。</t>
+  </si>
+  <si>
+    <t xml:space="preserve">雇人常自扰。多此一举，反而带来麻烦。
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">①石柜〈音〉：即梨蝽象，一种果树害虫，褐色，会飞， 极臭。②脍八：不知道。八：知道。
+</t>
+  </si>
+  <si>
+    <t>有臭名声者往往缺乏自知之明。</t>
+  </si>
+  <si>
+    <t xml:space="preserve">①压：〈同义字〉按压。②怀成：不成。
+</t>
+  </si>
+  <si>
+    <t>有些事，若非自觉自愿.强迫也是徒劳。</t>
+  </si>
+  <si>
+    <t>养鼠咬布袋。</t>
+  </si>
+  <si>
+    <t>起风乍八妈祖婆婆。</t>
+  </si>
+  <si>
+    <t xml:space="preserve">①乍：副词；才。②八：认识，知道。③妈祖婆婆：对 “妈祖”〈即“天妃娘娘”）的尊称。
+</t>
+  </si>
+  <si>
+    <t>压鸡伓成孵。</t>
+  </si>
+  <si>
+    <t>石柜𣍐八自身臭。</t>
+  </si>
+  <si>
+    <t xml:space="preserve">“妈祖”原为北宋年间莆田湄洲岛的一个女巫，名林默娘，死后民众为之立庙，奉为海上守护神。宋以来历代皇帝 加封踢号为“神女，，、“龙女”、“天妃”、“圣妃”、“天后圣 母”等。福建人以方言尊称“妈祖”，即“女性老祖宗”的 意思。
+</t>
+  </si>
+  <si>
+    <t>鸭母妆死嘴是扁其。</t>
+  </si>
+  <si>
+    <t xml:space="preserve">①鸭母：母鸭。②妆：打扮。③死：作程度补语，表示 程度深。④其：的。
+</t>
+  </si>
+  <si>
+    <t>乔装打扮改变不了丑的本质。</t>
+  </si>
+  <si>
+    <t>三月枇杷出好势。</t>
+  </si>
+  <si>
+    <t>①三月枇杷：枇杷的成熟期早，作为春季的鲜果赶在农 历三月上市，尽得天时之利。②出好势：赶上好时机。</t>
+  </si>
+  <si>
+    <t xml:space="preserve">把握时机常常是成功之道。
+</t>
+  </si>
+  <si>
+    <t>手指拗裡无拗出。</t>
+  </si>
+  <si>
+    <t>拗裡：朝掌心方向弯曲。</t>
+  </si>
+  <si>
+    <t xml:space="preserve">人都有靼栌白己人的倾向，难以公正。
+</t>
+  </si>
+  <si>
+    <t>扫厝扫厝角，洗面洗耳角。</t>
+  </si>
+  <si>
+    <t>①厝：房子。②洗面：洗脸。③耳角：耳后的隐蔽处。</t>
+  </si>
+  <si>
+    <t>牛囝跋九倒。</t>
+  </si>
+  <si>
+    <t xml:space="preserve">①牛囝：牛犊。②跋倒：跌跤。“九”指次数多。
+</t>
+  </si>
+  <si>
+    <t>初生的牛犊总是在接二连三地跌跤后才能站稳，喻成长 的过程中难免遭遇挫折，总要吃些苦头。</t>
   </si>
 </sst>
 </file>
@@ -3227,11 +4611,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:F300"/>
+  <dimension ref="A1:F500"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A242" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="A251" sqref="A251"/>
+    <sheetView tabSelected="1" zoomScale="89" zoomScaleNormal="89" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A280" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="B247" sqref="B247"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="23.25" customHeight="1" x14ac:dyDescent="0.3"/>
@@ -5532,7 +6916,7 @@
         <v>570</v>
       </c>
       <c r="B135" s="1" t="s">
-        <v>718</v>
+        <v>713</v>
       </c>
       <c r="D135" t="s">
         <v>355</v>
@@ -5651,7 +7035,7 @@
         <v>595</v>
       </c>
       <c r="B142" s="3" t="s">
-        <v>719</v>
+        <v>714</v>
       </c>
       <c r="D142" t="s">
         <v>361</v>
@@ -5716,10 +7100,10 @@
     </row>
     <row r="146" spans="1:6" ht="23.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A146" s="1" t="s">
-        <v>599</v>
+        <v>975</v>
       </c>
       <c r="B146" s="3" t="s">
-        <v>600</v>
+        <v>976</v>
       </c>
       <c r="D146" t="s">
         <v>365</v>
@@ -5733,10 +7117,10 @@
     </row>
     <row r="147" spans="1:6" ht="23.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A147" s="1" t="s">
-        <v>601</v>
+        <v>599</v>
       </c>
       <c r="B147" s="1" t="s">
-        <v>602</v>
+        <v>600</v>
       </c>
       <c r="D147" t="s">
         <v>366</v>
@@ -5750,10 +7134,10 @@
     </row>
     <row r="148" spans="1:6" ht="23.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A148" s="1" t="s">
-        <v>603</v>
+        <v>601</v>
       </c>
       <c r="B148" s="3" t="s">
-        <v>604</v>
+        <v>602</v>
       </c>
       <c r="D148" t="s">
         <v>367</v>
@@ -5767,10 +7151,10 @@
     </row>
     <row r="149" spans="1:6" ht="23.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A149" s="1" t="s">
-        <v>605</v>
+        <v>603</v>
       </c>
       <c r="B149" s="3" t="s">
-        <v>606</v>
+        <v>604</v>
       </c>
       <c r="D149" t="s">
         <v>368</v>
@@ -5784,10 +7168,10 @@
     </row>
     <row r="150" spans="1:6" ht="23.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A150" s="1" t="s">
-        <v>607</v>
+        <v>605</v>
       </c>
       <c r="B150" s="3" t="s">
-        <v>608</v>
+        <v>606</v>
       </c>
       <c r="D150" t="s">
         <v>369</v>
@@ -5801,10 +7185,10 @@
     </row>
     <row r="151" spans="1:6" ht="23.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A151" s="1" t="s">
-        <v>609</v>
+        <v>607</v>
       </c>
       <c r="B151" s="3" t="s">
-        <v>610</v>
+        <v>608</v>
       </c>
       <c r="D151" t="s">
         <v>370</v>
@@ -5818,10 +7202,10 @@
     </row>
     <row r="152" spans="1:6" ht="23.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A152" s="1" t="s">
-        <v>611</v>
+        <v>609</v>
       </c>
       <c r="B152" s="3" t="s">
-        <v>612</v>
+        <v>610</v>
       </c>
       <c r="D152" t="s">
         <v>371</v>
@@ -5835,10 +7219,10 @@
     </row>
     <row r="153" spans="1:6" ht="23.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A153" s="1" t="s">
-        <v>613</v>
+        <v>611</v>
       </c>
       <c r="B153" s="3" t="s">
-        <v>614</v>
+        <v>612</v>
       </c>
       <c r="D153" t="s">
         <v>372</v>
@@ -5852,10 +7236,10 @@
     </row>
     <row r="154" spans="1:6" ht="23.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A154" s="1" t="s">
-        <v>615</v>
+        <v>613</v>
       </c>
       <c r="B154" s="1" t="s">
-        <v>616</v>
+        <v>614</v>
       </c>
       <c r="D154" t="s">
         <v>373</v>
@@ -5869,10 +7253,10 @@
     </row>
     <row r="155" spans="1:6" ht="23.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A155" s="1" t="s">
-        <v>617</v>
+        <v>615</v>
       </c>
       <c r="B155" s="3" t="s">
-        <v>618</v>
+        <v>616</v>
       </c>
       <c r="D155" t="s">
         <v>374</v>
@@ -5886,10 +7270,10 @@
     </row>
     <row r="156" spans="1:6" ht="23.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A156" s="1" t="s">
-        <v>619</v>
+        <v>617</v>
       </c>
       <c r="B156" s="3" t="s">
-        <v>620</v>
+        <v>618</v>
       </c>
       <c r="D156" t="s">
         <v>375</v>
@@ -5903,10 +7287,10 @@
     </row>
     <row r="157" spans="1:6" ht="23.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A157" s="1" t="s">
-        <v>621</v>
+        <v>619</v>
       </c>
       <c r="B157" s="3" t="s">
-        <v>622</v>
+        <v>620</v>
       </c>
       <c r="D157" t="s">
         <v>376</v>
@@ -5920,10 +7304,10 @@
     </row>
     <row r="158" spans="1:6" ht="23.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A158" s="1" t="s">
-        <v>623</v>
+        <v>621</v>
       </c>
       <c r="B158" s="3" t="s">
-        <v>624</v>
+        <v>622</v>
       </c>
       <c r="D158" t="s">
         <v>377</v>
@@ -5937,10 +7321,10 @@
     </row>
     <row r="159" spans="1:6" ht="23.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A159" s="1" t="s">
-        <v>625</v>
+        <v>623</v>
       </c>
       <c r="B159" s="3" t="s">
-        <v>626</v>
+        <v>624</v>
       </c>
       <c r="D159" t="s">
         <v>378</v>
@@ -5954,10 +7338,10 @@
     </row>
     <row r="160" spans="1:6" ht="23.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A160" s="1" t="s">
-        <v>627</v>
+        <v>625</v>
       </c>
       <c r="B160" s="3" t="s">
-        <v>628</v>
+        <v>626</v>
       </c>
       <c r="D160" t="s">
         <v>379</v>
@@ -5971,10 +7355,10 @@
     </row>
     <row r="161" spans="1:6" ht="23.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A161" s="1" t="s">
-        <v>629</v>
+        <v>627</v>
       </c>
       <c r="B161" s="3" t="s">
-        <v>630</v>
+        <v>628</v>
       </c>
       <c r="D161" t="s">
         <v>380</v>
@@ -5988,10 +7372,10 @@
     </row>
     <row r="162" spans="1:6" ht="23.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A162" s="1" t="s">
-        <v>631</v>
+        <v>629</v>
       </c>
       <c r="B162" s="3" t="s">
-        <v>632</v>
+        <v>630</v>
       </c>
       <c r="D162" t="s">
         <v>381</v>
@@ -6005,10 +7389,10 @@
     </row>
     <row r="163" spans="1:6" ht="23.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A163" s="3" t="s">
-        <v>633</v>
+        <v>631</v>
       </c>
       <c r="B163" s="3" t="s">
-        <v>634</v>
+        <v>632</v>
       </c>
       <c r="D163" t="s">
         <v>382</v>
@@ -6022,10 +7406,10 @@
     </row>
     <row r="164" spans="1:6" ht="23.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A164" s="1" t="s">
-        <v>635</v>
+        <v>633</v>
       </c>
       <c r="B164" s="1" t="s">
-        <v>636</v>
+        <v>634</v>
       </c>
       <c r="D164" t="s">
         <v>383</v>
@@ -6039,10 +7423,10 @@
     </row>
     <row r="165" spans="1:6" ht="23.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A165" s="1" t="s">
-        <v>637</v>
+        <v>635</v>
       </c>
       <c r="B165" s="3" t="s">
-        <v>638</v>
+        <v>636</v>
       </c>
       <c r="D165" t="s">
         <v>384</v>
@@ -6056,10 +7440,10 @@
     </row>
     <row r="166" spans="1:6" ht="23.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A166" s="1" t="s">
-        <v>639</v>
+        <v>637</v>
       </c>
       <c r="B166" s="3" t="s">
-        <v>640</v>
+        <v>638</v>
       </c>
       <c r="D166" t="s">
         <v>385</v>
@@ -6073,10 +7457,10 @@
     </row>
     <row r="167" spans="1:6" ht="23.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A167" s="1" t="s">
-        <v>641</v>
+        <v>639</v>
       </c>
       <c r="B167" s="3" t="s">
-        <v>642</v>
+        <v>640</v>
       </c>
       <c r="D167" t="s">
         <v>386</v>
@@ -6090,10 +7474,10 @@
     </row>
     <row r="168" spans="1:6" ht="23.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A168" s="1" t="s">
-        <v>644</v>
+        <v>641</v>
       </c>
       <c r="B168" s="3" t="s">
-        <v>643</v>
+        <v>977</v>
       </c>
       <c r="D168" t="s">
         <v>387</v>
@@ -6107,10 +7491,10 @@
     </row>
     <row r="169" spans="1:6" ht="23.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A169" s="1" t="s">
-        <v>645</v>
+        <v>642</v>
       </c>
       <c r="B169" s="3" t="s">
-        <v>646</v>
+        <v>643</v>
       </c>
       <c r="D169" t="s">
         <v>388</v>
@@ -6124,13 +7508,13 @@
     </row>
     <row r="170" spans="1:6" ht="23.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A170" s="1" t="s">
+        <v>644</v>
+      </c>
+      <c r="B170" s="3" t="s">
         <v>647</v>
       </c>
-      <c r="B170" s="3" t="s">
-        <v>650</v>
-      </c>
       <c r="C170" s="1" t="s">
-        <v>651</v>
+        <v>648</v>
       </c>
       <c r="D170" t="s">
         <v>389</v>
@@ -6144,13 +7528,13 @@
     </row>
     <row r="171" spans="1:6" ht="23.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A171" s="1" t="s">
-        <v>652</v>
+        <v>649</v>
       </c>
       <c r="B171" s="3" t="s">
-        <v>648</v>
+        <v>645</v>
       </c>
       <c r="C171" s="1" t="s">
-        <v>649</v>
+        <v>646</v>
       </c>
       <c r="D171" t="s">
         <v>390</v>
@@ -6164,13 +7548,13 @@
     </row>
     <row r="172" spans="1:6" ht="23.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A172" s="1" t="s">
-        <v>653</v>
+        <v>650</v>
       </c>
       <c r="B172" s="1" t="s">
-        <v>654</v>
+        <v>651</v>
       </c>
       <c r="C172" s="1" t="s">
-        <v>655</v>
+        <v>652</v>
       </c>
       <c r="D172" t="s">
         <v>391</v>
@@ -6184,13 +7568,13 @@
     </row>
     <row r="173" spans="1:6" ht="23.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A173" s="1" t="s">
-        <v>656</v>
+        <v>653</v>
       </c>
       <c r="B173" s="1" t="s">
-        <v>657</v>
+        <v>654</v>
       </c>
       <c r="C173" s="1" t="s">
-        <v>658</v>
+        <v>655</v>
       </c>
       <c r="D173" t="s">
         <v>392</v>
@@ -6204,10 +7588,10 @@
     </row>
     <row r="174" spans="1:6" ht="23.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A174" s="1" t="s">
-        <v>659</v>
+        <v>656</v>
       </c>
       <c r="B174" s="1" t="s">
-        <v>660</v>
+        <v>657</v>
       </c>
       <c r="D174" t="s">
         <v>393</v>
@@ -6221,13 +7605,13 @@
     </row>
     <row r="175" spans="1:6" ht="23.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A175" s="1" t="s">
-        <v>661</v>
+        <v>658</v>
       </c>
       <c r="B175" s="1" t="s">
-        <v>662</v>
+        <v>659</v>
       </c>
       <c r="C175" s="3" t="s">
-        <v>663</v>
+        <v>660</v>
       </c>
       <c r="D175" t="s">
         <v>394</v>
@@ -6241,10 +7625,10 @@
     </row>
     <row r="176" spans="1:6" ht="23.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A176" s="1" t="s">
-        <v>664</v>
+        <v>661</v>
       </c>
       <c r="C176" s="1" t="s">
-        <v>665</v>
+        <v>662</v>
       </c>
       <c r="D176" t="s">
         <v>395</v>
@@ -6258,10 +7642,10 @@
     </row>
     <row r="177" spans="1:6" ht="23.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A177" s="1" t="s">
-        <v>666</v>
+        <v>663</v>
       </c>
       <c r="B177" s="1" t="s">
-        <v>667</v>
+        <v>664</v>
       </c>
       <c r="D177" t="s">
         <v>396</v>
@@ -6269,13 +7653,13 @@
     </row>
     <row r="178" spans="1:6" ht="23.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A178" s="1" t="s">
-        <v>668</v>
+        <v>665</v>
       </c>
       <c r="B178" s="1" t="s">
-        <v>669</v>
+        <v>666</v>
       </c>
       <c r="C178" s="3" t="s">
-        <v>670</v>
+        <v>667</v>
       </c>
       <c r="D178" t="s">
         <v>397</v>
@@ -6283,10 +7667,10 @@
     </row>
     <row r="179" spans="1:6" ht="23.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A179" s="1" t="s">
-        <v>671</v>
+        <v>668</v>
       </c>
       <c r="B179" s="1" t="s">
-        <v>672</v>
+        <v>669</v>
       </c>
       <c r="D179" t="s">
         <v>398</v>
@@ -6294,13 +7678,13 @@
     </row>
     <row r="180" spans="1:6" ht="23.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A180" s="1" t="s">
-        <v>673</v>
+        <v>670</v>
       </c>
       <c r="B180" s="1" t="s">
-        <v>674</v>
+        <v>671</v>
       </c>
       <c r="C180" s="1" t="s">
-        <v>675</v>
+        <v>672</v>
       </c>
       <c r="D180" t="s">
         <v>399</v>
@@ -6308,13 +7692,13 @@
     </row>
     <row r="181" spans="1:6" ht="23.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A181" s="1" t="s">
-        <v>676</v>
+        <v>673</v>
       </c>
       <c r="B181" s="1" t="s">
-        <v>677</v>
+        <v>674</v>
       </c>
       <c r="C181" s="3" t="s">
-        <v>678</v>
+        <v>675</v>
       </c>
       <c r="D181" t="s">
         <v>400</v>
@@ -6322,13 +7706,13 @@
     </row>
     <row r="182" spans="1:6" ht="23.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A182" s="1" t="s">
-        <v>679</v>
+        <v>978</v>
       </c>
       <c r="B182" s="1" t="s">
-        <v>680</v>
+        <v>979</v>
       </c>
       <c r="C182" s="1" t="s">
-        <v>681</v>
+        <v>676</v>
       </c>
       <c r="D182" t="s">
         <v>401</v>
@@ -6336,10 +7720,10 @@
     </row>
     <row r="183" spans="1:6" ht="23.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A183" s="1" t="s">
-        <v>682</v>
+        <v>677</v>
       </c>
       <c r="C183" s="3" t="s">
-        <v>683</v>
+        <v>678</v>
       </c>
       <c r="D183" t="s">
         <v>402</v>
@@ -6347,13 +7731,13 @@
     </row>
     <row r="184" spans="1:6" ht="23.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A184" s="1" t="s">
-        <v>684</v>
+        <v>679</v>
       </c>
       <c r="B184" s="1" t="s">
-        <v>685</v>
+        <v>680</v>
       </c>
       <c r="C184" s="1" t="s">
-        <v>686</v>
+        <v>681</v>
       </c>
       <c r="D184" t="s">
         <v>403</v>
@@ -6361,10 +7745,10 @@
     </row>
     <row r="185" spans="1:6" ht="23.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A185" s="1" t="s">
-        <v>687</v>
+        <v>682</v>
       </c>
       <c r="C185" s="3" t="s">
-        <v>688</v>
+        <v>683</v>
       </c>
       <c r="D185" t="s">
         <v>404</v>
@@ -6372,13 +7756,13 @@
     </row>
     <row r="186" spans="1:6" ht="23.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A186" s="1" t="s">
-        <v>689</v>
+        <v>684</v>
       </c>
       <c r="B186" s="1" t="s">
-        <v>690</v>
+        <v>685</v>
       </c>
       <c r="C186" s="1" t="s">
-        <v>691</v>
+        <v>686</v>
       </c>
       <c r="D186" t="s">
         <v>405</v>
@@ -6386,13 +7770,13 @@
     </row>
     <row r="187" spans="1:6" ht="23.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A187" s="1" t="s">
-        <v>692</v>
+        <v>687</v>
       </c>
       <c r="B187" s="1" t="s">
-        <v>693</v>
+        <v>688</v>
       </c>
       <c r="C187" s="1" t="s">
-        <v>694</v>
+        <v>689</v>
       </c>
       <c r="D187" t="s">
         <v>406</v>
@@ -6400,13 +7784,13 @@
     </row>
     <row r="188" spans="1:6" ht="23.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A188" s="1" t="s">
-        <v>695</v>
+        <v>690</v>
       </c>
       <c r="B188" s="1" t="s">
-        <v>696</v>
+        <v>691</v>
       </c>
       <c r="C188" s="1" t="s">
-        <v>697</v>
+        <v>692</v>
       </c>
       <c r="D188" t="s">
         <v>407</v>
@@ -6414,13 +7798,13 @@
     </row>
     <row r="189" spans="1:6" ht="23.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A189" s="1" t="s">
-        <v>701</v>
+        <v>696</v>
       </c>
       <c r="B189" s="1" t="s">
-        <v>698</v>
+        <v>693</v>
       </c>
       <c r="C189" s="1" t="s">
-        <v>699</v>
+        <v>694</v>
       </c>
       <c r="D189" t="s">
         <v>408</v>
@@ -6428,13 +7812,13 @@
     </row>
     <row r="190" spans="1:6" ht="23.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A190" s="1" t="s">
-        <v>700</v>
+        <v>695</v>
       </c>
       <c r="B190" s="1" t="s">
-        <v>702</v>
+        <v>697</v>
       </c>
       <c r="C190" s="1" t="s">
-        <v>703</v>
+        <v>698</v>
       </c>
       <c r="D190" t="s">
         <v>409</v>
@@ -6442,10 +7826,10 @@
     </row>
     <row r="191" spans="1:6" ht="23.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A191" s="1" t="s">
-        <v>704</v>
+        <v>699</v>
       </c>
       <c r="B191" s="1" t="s">
-        <v>705</v>
+        <v>700</v>
       </c>
       <c r="D191" t="s">
         <v>410</v>
@@ -6453,30 +7837,30 @@
     </row>
     <row r="192" spans="1:6" ht="23.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A192" s="1" t="s">
-        <v>707</v>
+        <v>702</v>
       </c>
       <c r="B192" s="1" t="s">
-        <v>708</v>
+        <v>703</v>
       </c>
       <c r="C192" s="1" t="s">
-        <v>709</v>
+        <v>704</v>
       </c>
       <c r="D192" t="s">
         <v>411</v>
       </c>
       <c r="F192" t="s">
-        <v>706</v>
+        <v>701</v>
       </c>
     </row>
     <row r="193" spans="1:4" ht="23.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A193" s="1" t="s">
-        <v>710</v>
+        <v>705</v>
       </c>
       <c r="B193" s="3" t="s">
-        <v>711</v>
+        <v>706</v>
       </c>
       <c r="C193" s="1" t="s">
-        <v>712</v>
+        <v>707</v>
       </c>
       <c r="D193" t="s">
         <v>412</v>
@@ -6484,13 +7868,13 @@
     </row>
     <row r="194" spans="1:4" ht="23.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A194" s="1" t="s">
-        <v>713</v>
+        <v>708</v>
       </c>
       <c r="B194" s="1" t="s">
-        <v>714</v>
+        <v>709</v>
       </c>
       <c r="C194" s="3" t="s">
-        <v>715</v>
+        <v>710</v>
       </c>
       <c r="D194" t="s">
         <v>413</v>
@@ -6498,10 +7882,10 @@
     </row>
     <row r="195" spans="1:4" ht="23.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A195" s="1" t="s">
-        <v>716</v>
+        <v>711</v>
       </c>
       <c r="C195" s="1" t="s">
-        <v>717</v>
+        <v>712</v>
       </c>
       <c r="D195" t="s">
         <v>414</v>
@@ -6509,10 +7893,10 @@
     </row>
     <row r="196" spans="1:4" ht="23.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A196" s="1" t="s">
-        <v>720</v>
+        <v>715</v>
       </c>
       <c r="B196" s="1" t="s">
-        <v>721</v>
+        <v>716</v>
       </c>
       <c r="D196" t="s">
         <v>415</v>
@@ -6520,10 +7904,10 @@
     </row>
     <row r="197" spans="1:4" ht="23.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A197" s="1" t="s">
-        <v>722</v>
+        <v>717</v>
       </c>
       <c r="C197" s="3" t="s">
-        <v>723</v>
+        <v>718</v>
       </c>
       <c r="D197" t="s">
         <v>416</v>
@@ -6531,13 +7915,13 @@
     </row>
     <row r="198" spans="1:4" ht="23.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A198" s="1" t="s">
-        <v>724</v>
+        <v>719</v>
       </c>
       <c r="B198" s="1" t="s">
-        <v>725</v>
+        <v>720</v>
       </c>
       <c r="C198" s="1" t="s">
-        <v>726</v>
+        <v>721</v>
       </c>
       <c r="D198" t="s">
         <v>417</v>
@@ -6545,10 +7929,10 @@
     </row>
     <row r="199" spans="1:4" ht="23.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A199" s="1" t="s">
-        <v>727</v>
+        <v>722</v>
       </c>
       <c r="B199" s="3" t="s">
-        <v>728</v>
+        <v>723</v>
       </c>
       <c r="D199" t="s">
         <v>418</v>
@@ -6556,13 +7940,13 @@
     </row>
     <row r="200" spans="1:4" ht="23.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A200" s="1" t="s">
-        <v>729</v>
+        <v>980</v>
       </c>
       <c r="B200" s="1" t="s">
-        <v>730</v>
+        <v>981</v>
       </c>
       <c r="C200" s="1" t="s">
-        <v>731</v>
+        <v>724</v>
       </c>
       <c r="D200" t="s">
         <v>419</v>
@@ -6570,13 +7954,13 @@
     </row>
     <row r="201" spans="1:4" ht="23.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A201" s="1" t="s">
-        <v>732</v>
+        <v>725</v>
       </c>
       <c r="B201" s="3" t="s">
-        <v>733</v>
+        <v>726</v>
       </c>
       <c r="C201" s="1" t="s">
-        <v>734</v>
+        <v>727</v>
       </c>
       <c r="D201" t="s">
         <v>420</v>
@@ -6584,10 +7968,10 @@
     </row>
     <row r="202" spans="1:4" ht="23.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A202" s="1" t="s">
-        <v>735</v>
+        <v>728</v>
       </c>
       <c r="B202" s="3" t="s">
-        <v>736</v>
+        <v>729</v>
       </c>
       <c r="D202" t="s">
         <v>421</v>
@@ -6595,13 +7979,13 @@
     </row>
     <row r="203" spans="1:4" ht="23.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A203" s="1" t="s">
-        <v>737</v>
+        <v>730</v>
       </c>
       <c r="B203" s="1" t="s">
-        <v>738</v>
+        <v>731</v>
       </c>
       <c r="C203" s="1" t="s">
-        <v>739</v>
+        <v>732</v>
       </c>
       <c r="D203" t="s">
         <v>422</v>
@@ -6609,10 +7993,10 @@
     </row>
     <row r="204" spans="1:4" ht="23.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A204" s="1" t="s">
-        <v>740</v>
+        <v>733</v>
       </c>
       <c r="B204" s="1" t="s">
-        <v>741</v>
+        <v>734</v>
       </c>
       <c r="D204" t="s">
         <v>423</v>
@@ -6620,10 +8004,10 @@
     </row>
     <row r="205" spans="1:4" ht="23.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A205" s="1" t="s">
-        <v>742</v>
+        <v>735</v>
       </c>
       <c r="B205" s="1" t="s">
-        <v>743</v>
+        <v>736</v>
       </c>
       <c r="D205" t="s">
         <v>424</v>
@@ -6631,13 +8015,13 @@
     </row>
     <row r="206" spans="1:4" ht="23.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A206" s="1" t="s">
-        <v>744</v>
+        <v>737</v>
       </c>
       <c r="B206" s="1" t="s">
-        <v>745</v>
+        <v>738</v>
       </c>
       <c r="C206" s="1" t="s">
-        <v>746</v>
+        <v>739</v>
       </c>
       <c r="D206" t="s">
         <v>425</v>
@@ -6645,10 +8029,10 @@
     </row>
     <row r="207" spans="1:4" ht="23.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A207" s="1" t="s">
-        <v>747</v>
+        <v>740</v>
       </c>
       <c r="C207" s="1" t="s">
-        <v>748</v>
+        <v>741</v>
       </c>
       <c r="D207" t="s">
         <v>426</v>
@@ -6656,10 +8040,10 @@
     </row>
     <row r="208" spans="1:4" ht="23.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A208" s="1" t="s">
-        <v>749</v>
+        <v>742</v>
       </c>
       <c r="C208" s="3" t="s">
-        <v>750</v>
+        <v>743</v>
       </c>
       <c r="D208" s="2" t="s">
         <v>427</v>
@@ -6667,10 +8051,10 @@
     </row>
     <row r="209" spans="1:6" ht="23.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A209" s="1" t="s">
-        <v>752</v>
+        <v>745</v>
       </c>
       <c r="B209" s="3" t="s">
-        <v>751</v>
+        <v>744</v>
       </c>
       <c r="D209" t="s">
         <v>428</v>
@@ -6678,13 +8062,13 @@
     </row>
     <row r="210" spans="1:6" ht="23.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A210" s="1" t="s">
-        <v>753</v>
+        <v>746</v>
       </c>
       <c r="B210" s="1" t="s">
-        <v>754</v>
+        <v>747</v>
       </c>
       <c r="C210" s="1" t="s">
-        <v>755</v>
+        <v>748</v>
       </c>
       <c r="D210" t="s">
         <v>429</v>
@@ -6692,10 +8076,10 @@
     </row>
     <row r="211" spans="1:6" ht="23.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A211" s="1" t="s">
-        <v>756</v>
+        <v>749</v>
       </c>
       <c r="C211" s="3" t="s">
-        <v>757</v>
+        <v>750</v>
       </c>
       <c r="D211" t="s">
         <v>430</v>
@@ -6703,13 +8087,13 @@
     </row>
     <row r="212" spans="1:6" ht="23.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A212" s="1" t="s">
-        <v>758</v>
+        <v>982</v>
       </c>
       <c r="B212" s="1" t="s">
-        <v>759</v>
+        <v>983</v>
       </c>
       <c r="C212" s="1" t="s">
-        <v>760</v>
+        <v>751</v>
       </c>
       <c r="D212" t="s">
         <v>431</v>
@@ -6717,30 +8101,30 @@
     </row>
     <row r="213" spans="1:6" ht="23.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A213" s="1" t="s">
-        <v>761</v>
+        <v>752</v>
       </c>
       <c r="B213" s="3" t="s">
-        <v>763</v>
+        <v>754</v>
       </c>
       <c r="C213" s="3" t="s">
-        <v>764</v>
+        <v>755</v>
       </c>
       <c r="D213" t="s">
         <v>432</v>
       </c>
       <c r="F213" t="s">
-        <v>762</v>
+        <v>753</v>
       </c>
     </row>
     <row r="214" spans="1:6" ht="23.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A214" s="1" t="s">
-        <v>765</v>
+        <v>756</v>
       </c>
       <c r="B214" s="1" t="s">
-        <v>766</v>
+        <v>757</v>
       </c>
       <c r="C214" s="1" t="s">
-        <v>767</v>
+        <v>758</v>
       </c>
       <c r="D214" t="s">
         <v>433</v>
@@ -6748,10 +8132,10 @@
     </row>
     <row r="215" spans="1:6" ht="23.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A215" s="1" t="s">
-        <v>768</v>
+        <v>759</v>
       </c>
       <c r="B215" s="1" t="s">
-        <v>769</v>
+        <v>760</v>
       </c>
       <c r="D215" t="s">
         <v>434</v>
@@ -6759,13 +8143,13 @@
     </row>
     <row r="216" spans="1:6" ht="23.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A216" s="1" t="s">
-        <v>772</v>
+        <v>763</v>
       </c>
       <c r="B216" s="3" t="s">
-        <v>770</v>
+        <v>761</v>
       </c>
       <c r="C216" s="3" t="s">
-        <v>771</v>
+        <v>762</v>
       </c>
       <c r="D216" t="s">
         <v>435</v>
@@ -6773,13 +8157,13 @@
     </row>
     <row r="217" spans="1:6" ht="23.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A217" s="1" t="s">
-        <v>773</v>
+        <v>764</v>
       </c>
       <c r="B217" s="3" t="s">
-        <v>774</v>
+        <v>765</v>
       </c>
       <c r="C217" s="3" t="s">
-        <v>775</v>
+        <v>766</v>
       </c>
       <c r="D217" t="s">
         <v>436</v>
@@ -6787,13 +8171,13 @@
     </row>
     <row r="218" spans="1:6" ht="23.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A218" s="1" t="s">
-        <v>776</v>
+        <v>767</v>
       </c>
       <c r="B218" s="3" t="s">
-        <v>777</v>
+        <v>768</v>
       </c>
       <c r="C218" s="1" t="s">
-        <v>778</v>
+        <v>769</v>
       </c>
       <c r="D218" t="s">
         <v>437</v>
@@ -6801,13 +8185,13 @@
     </row>
     <row r="219" spans="1:6" ht="23.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A219" s="1" t="s">
-        <v>779</v>
+        <v>770</v>
       </c>
       <c r="B219" s="3" t="s">
-        <v>780</v>
+        <v>771</v>
       </c>
       <c r="C219" s="1" t="s">
-        <v>781</v>
+        <v>772</v>
       </c>
       <c r="D219" t="s">
         <v>438</v>
@@ -6815,13 +8199,13 @@
     </row>
     <row r="220" spans="1:6" ht="23.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A220" s="1" t="s">
-        <v>782</v>
+        <v>773</v>
       </c>
       <c r="B220" s="1" t="s">
-        <v>783</v>
+        <v>774</v>
       </c>
       <c r="C220" s="1" t="s">
-        <v>784</v>
+        <v>775</v>
       </c>
       <c r="D220" t="s">
         <v>439</v>
@@ -6829,10 +8213,10 @@
     </row>
     <row r="221" spans="1:6" ht="23.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A221" s="1" t="s">
-        <v>785</v>
+        <v>776</v>
       </c>
       <c r="C221" s="1" t="s">
-        <v>786</v>
+        <v>777</v>
       </c>
       <c r="D221" t="s">
         <v>440</v>
@@ -6840,13 +8224,13 @@
     </row>
     <row r="222" spans="1:6" ht="23.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A222" s="1" t="s">
-        <v>787</v>
+        <v>778</v>
       </c>
       <c r="B222" s="1" t="s">
-        <v>788</v>
+        <v>779</v>
       </c>
       <c r="C222" s="1" t="s">
-        <v>789</v>
+        <v>780</v>
       </c>
       <c r="D222" t="s">
         <v>441</v>
@@ -6854,13 +8238,13 @@
     </row>
     <row r="223" spans="1:6" ht="23.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A223" s="1" t="s">
-        <v>790</v>
+        <v>781</v>
       </c>
       <c r="B223" s="1" t="s">
-        <v>791</v>
+        <v>782</v>
       </c>
       <c r="C223" s="1" t="s">
-        <v>792</v>
+        <v>783</v>
       </c>
       <c r="D223" t="s">
         <v>442</v>
@@ -6868,13 +8252,13 @@
     </row>
     <row r="224" spans="1:6" ht="23.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A224" s="1" t="s">
-        <v>793</v>
+        <v>784</v>
       </c>
       <c r="B224" s="3" t="s">
-        <v>794</v>
+        <v>785</v>
       </c>
       <c r="C224" s="1" t="s">
-        <v>795</v>
+        <v>786</v>
       </c>
       <c r="D224" t="s">
         <v>443</v>
@@ -6882,13 +8266,13 @@
     </row>
     <row r="225" spans="1:6" ht="23.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A225" s="1" t="s">
-        <v>798</v>
+        <v>789</v>
       </c>
       <c r="B225" s="1" t="s">
-        <v>796</v>
+        <v>787</v>
       </c>
       <c r="C225" s="1" t="s">
-        <v>797</v>
+        <v>788</v>
       </c>
       <c r="D225" t="s">
         <v>444</v>
@@ -6896,10 +8280,10 @@
     </row>
     <row r="226" spans="1:6" ht="23.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A226" s="1" t="s">
-        <v>802</v>
+        <v>793</v>
       </c>
       <c r="B226" s="3" t="s">
-        <v>803</v>
+        <v>794</v>
       </c>
       <c r="D226" t="s">
         <v>445</v>
@@ -6908,18 +8292,18 @@
         <v>73</v>
       </c>
       <c r="F226" t="s">
-        <v>799</v>
+        <v>790</v>
       </c>
     </row>
     <row r="227" spans="1:6" ht="23.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A227" s="1" t="s">
-        <v>800</v>
+        <v>791</v>
       </c>
       <c r="B227" s="1" t="s">
-        <v>801</v>
+        <v>792</v>
       </c>
       <c r="C227" s="3" t="s">
-        <v>804</v>
+        <v>795</v>
       </c>
       <c r="D227" t="s">
         <v>446</v>
@@ -6927,13 +8311,13 @@
     </row>
     <row r="228" spans="1:6" ht="23.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A228" s="1" t="s">
-        <v>805</v>
+        <v>796</v>
       </c>
       <c r="B228" s="1" t="s">
-        <v>806</v>
+        <v>797</v>
       </c>
       <c r="C228" s="3" t="s">
-        <v>807</v>
+        <v>798</v>
       </c>
       <c r="D228" t="s">
         <v>447</v>
@@ -6941,10 +8325,10 @@
     </row>
     <row r="229" spans="1:6" ht="23.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A229" s="1" t="s">
-        <v>808</v>
+        <v>799</v>
       </c>
       <c r="B229" s="1" t="s">
-        <v>809</v>
+        <v>800</v>
       </c>
       <c r="D229" t="s">
         <v>448</v>
@@ -6952,10 +8336,10 @@
     </row>
     <row r="230" spans="1:6" ht="23.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A230" s="1" t="s">
-        <v>810</v>
+        <v>801</v>
       </c>
       <c r="C230" s="3" t="s">
-        <v>811</v>
+        <v>802</v>
       </c>
       <c r="D230" t="s">
         <v>449</v>
@@ -6963,13 +8347,13 @@
     </row>
     <row r="231" spans="1:6" ht="23.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A231" s="1" t="s">
-        <v>812</v>
+        <v>803</v>
       </c>
       <c r="B231" s="3" t="s">
-        <v>813</v>
+        <v>804</v>
       </c>
       <c r="C231" s="1" t="s">
-        <v>814</v>
+        <v>805</v>
       </c>
       <c r="D231" t="s">
         <v>450</v>
@@ -6977,13 +8361,13 @@
     </row>
     <row r="232" spans="1:6" ht="23.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A232" s="1" t="s">
-        <v>815</v>
+        <v>806</v>
       </c>
       <c r="B232" s="3" t="s">
-        <v>816</v>
+        <v>807</v>
       </c>
       <c r="C232" s="1" t="s">
-        <v>817</v>
+        <v>808</v>
       </c>
       <c r="D232" t="s">
         <v>451</v>
@@ -6991,13 +8375,13 @@
     </row>
     <row r="233" spans="1:6" ht="23.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A233" s="1" t="s">
-        <v>818</v>
+        <v>809</v>
       </c>
       <c r="B233" s="3" t="s">
-        <v>819</v>
+        <v>810</v>
       </c>
       <c r="C233" s="1" t="s">
-        <v>820</v>
+        <v>811</v>
       </c>
       <c r="D233" t="s">
         <v>452</v>
@@ -7005,10 +8389,10 @@
     </row>
     <row r="234" spans="1:6" ht="23.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A234" s="1" t="s">
-        <v>821</v>
+        <v>812</v>
       </c>
       <c r="B234" s="3" t="s">
-        <v>822</v>
+        <v>813</v>
       </c>
       <c r="D234" t="s">
         <v>453</v>
@@ -7016,13 +8400,13 @@
     </row>
     <row r="235" spans="1:6" ht="23.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A235" s="1" t="s">
-        <v>823</v>
+        <v>814</v>
       </c>
       <c r="B235" s="1" t="s">
-        <v>824</v>
+        <v>815</v>
       </c>
       <c r="C235" s="3" t="s">
-        <v>825</v>
+        <v>816</v>
       </c>
       <c r="D235" t="s">
         <v>454</v>
@@ -7030,13 +8414,13 @@
     </row>
     <row r="236" spans="1:6" ht="23.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A236" s="1" t="s">
-        <v>826</v>
+        <v>817</v>
       </c>
       <c r="B236" s="3" t="s">
-        <v>827</v>
+        <v>818</v>
       </c>
       <c r="C236" s="3" t="s">
-        <v>828</v>
+        <v>819</v>
       </c>
       <c r="D236" t="s">
         <v>455</v>
@@ -7044,13 +8428,13 @@
     </row>
     <row r="237" spans="1:6" ht="23.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A237" s="1" t="s">
-        <v>829</v>
+        <v>820</v>
       </c>
       <c r="B237" s="1" t="s">
-        <v>830</v>
+        <v>821</v>
       </c>
       <c r="C237" s="3" t="s">
-        <v>831</v>
+        <v>822</v>
       </c>
       <c r="D237" t="s">
         <v>456</v>
@@ -7058,13 +8442,13 @@
     </row>
     <row r="238" spans="1:6" ht="23.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A238" s="3" t="s">
-        <v>833</v>
+        <v>824</v>
       </c>
       <c r="B238" s="3" t="s">
-        <v>832</v>
+        <v>823</v>
       </c>
       <c r="C238" s="1" t="s">
-        <v>834</v>
+        <v>825</v>
       </c>
       <c r="D238" t="s">
         <v>457</v>
@@ -7072,13 +8456,13 @@
     </row>
     <row r="239" spans="1:6" ht="23.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A239" s="1" t="s">
-        <v>835</v>
+        <v>826</v>
       </c>
       <c r="B239" s="3" t="s">
-        <v>836</v>
+        <v>827</v>
       </c>
       <c r="C239" s="1" t="s">
-        <v>837</v>
+        <v>828</v>
       </c>
       <c r="D239" t="s">
         <v>458</v>
@@ -7086,13 +8470,13 @@
     </row>
     <row r="240" spans="1:6" ht="23.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A240" s="1" t="s">
-        <v>840</v>
+        <v>831</v>
       </c>
       <c r="B240" s="1" t="s">
-        <v>838</v>
+        <v>829</v>
       </c>
       <c r="C240" s="3" t="s">
-        <v>839</v>
+        <v>830</v>
       </c>
       <c r="D240" t="s">
         <v>459</v>
@@ -7100,10 +8484,10 @@
     </row>
     <row r="241" spans="1:6" ht="23.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A241" s="1" t="s">
-        <v>841</v>
+        <v>832</v>
       </c>
       <c r="B241" s="1" t="s">
-        <v>842</v>
+        <v>833</v>
       </c>
       <c r="D241" t="s">
         <v>460</v>
@@ -7111,13 +8495,13 @@
     </row>
     <row r="242" spans="1:6" ht="23.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A242" s="1" t="s">
-        <v>843</v>
+        <v>834</v>
       </c>
       <c r="B242" s="3" t="s">
-        <v>844</v>
+        <v>835</v>
       </c>
       <c r="C242" s="1" t="s">
-        <v>845</v>
+        <v>836</v>
       </c>
       <c r="D242" t="s">
         <v>461</v>
@@ -7125,13 +8509,13 @@
     </row>
     <row r="243" spans="1:6" ht="23.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A243" s="1" t="s">
-        <v>846</v>
+        <v>837</v>
       </c>
       <c r="B243" s="3" t="s">
-        <v>847</v>
+        <v>838</v>
       </c>
       <c r="C243" s="1" t="s">
-        <v>848</v>
+        <v>839</v>
       </c>
       <c r="D243" t="s">
         <v>462</v>
@@ -7139,13 +8523,13 @@
     </row>
     <row r="244" spans="1:6" ht="23.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A244" s="1" t="s">
-        <v>849</v>
+        <v>840</v>
       </c>
       <c r="B244" s="1" t="s">
-        <v>850</v>
+        <v>841</v>
       </c>
       <c r="C244" s="3" t="s">
-        <v>851</v>
+        <v>842</v>
       </c>
       <c r="D244" t="s">
         <v>463</v>
@@ -7153,13 +8537,13 @@
     </row>
     <row r="245" spans="1:6" ht="23.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A245" s="1" t="s">
-        <v>852</v>
+        <v>843</v>
       </c>
       <c r="B245" s="1" t="s">
-        <v>853</v>
+        <v>844</v>
       </c>
       <c r="C245" s="1" t="s">
-        <v>854</v>
+        <v>845</v>
       </c>
       <c r="D245" t="s">
         <v>464</v>
@@ -7167,10 +8551,10 @@
     </row>
     <row r="246" spans="1:6" ht="23.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A246" s="1" t="s">
-        <v>856</v>
+        <v>847</v>
       </c>
       <c r="B246" s="1" t="s">
-        <v>855</v>
+        <v>846</v>
       </c>
       <c r="D246" t="s">
         <v>465</v>
@@ -7178,278 +8562,1989 @@
     </row>
     <row r="247" spans="1:6" ht="23.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A247" s="1" t="s">
-        <v>858</v>
+        <v>849</v>
+      </c>
+      <c r="B247" s="1" t="s">
+        <v>850</v>
+      </c>
+      <c r="C247" s="1" t="s">
+        <v>851</v>
       </c>
       <c r="D247" t="s">
         <v>466</v>
       </c>
       <c r="F247" t="s">
-        <v>857</v>
+        <v>848</v>
       </c>
     </row>
     <row r="248" spans="1:6" ht="23.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A248" s="1" t="s">
+        <v>852</v>
+      </c>
+      <c r="C248" s="1" t="s">
+        <v>853</v>
+      </c>
       <c r="D248" t="s">
         <v>467</v>
       </c>
     </row>
     <row r="249" spans="1:6" ht="23.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A249" s="1" t="s">
+        <v>854</v>
+      </c>
+      <c r="B249" s="3" t="s">
+        <v>856</v>
+      </c>
+      <c r="C249" s="1" t="s">
+        <v>855</v>
+      </c>
       <c r="D249" t="s">
         <v>468</v>
       </c>
     </row>
     <row r="250" spans="1:6" ht="23.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A250" s="1" t="s">
+        <v>857</v>
+      </c>
+      <c r="B250" s="3" t="s">
+        <v>858</v>
+      </c>
       <c r="D250" t="s">
         <v>469</v>
       </c>
     </row>
     <row r="251" spans="1:6" ht="23.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A251" s="3" t="s">
+        <v>860</v>
+      </c>
+      <c r="B251" s="1" t="s">
+        <v>859</v>
+      </c>
+      <c r="C251" s="1" t="s">
+        <v>861</v>
+      </c>
       <c r="D251" t="s">
         <v>470</v>
       </c>
     </row>
     <row r="252" spans="1:6" ht="23.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A252" s="1" t="s">
+        <v>984</v>
+      </c>
+      <c r="B252" s="1" t="s">
+        <v>985</v>
+      </c>
       <c r="D252" t="s">
         <v>471</v>
       </c>
     </row>
     <row r="253" spans="1:6" ht="23.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A253" s="1" t="s">
+        <v>871</v>
+      </c>
+      <c r="B253" s="1" t="s">
+        <v>862</v>
+      </c>
+      <c r="C253" s="1" t="s">
+        <v>863</v>
+      </c>
       <c r="D253" t="s">
         <v>472</v>
       </c>
     </row>
     <row r="254" spans="1:6" ht="23.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A254" s="1" t="s">
+        <v>864</v>
+      </c>
+      <c r="B254" s="1" t="s">
+        <v>865</v>
+      </c>
+      <c r="C254" s="1" t="s">
+        <v>866</v>
+      </c>
       <c r="D254" t="s">
         <v>473</v>
       </c>
     </row>
     <row r="255" spans="1:6" ht="23.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A255" s="1" t="s">
+        <v>867</v>
+      </c>
+      <c r="B255" s="1" t="s">
+        <v>868</v>
+      </c>
       <c r="D255" t="s">
         <v>474</v>
       </c>
     </row>
     <row r="256" spans="1:6" ht="23.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A256" s="3" t="s">
+        <v>870</v>
+      </c>
+      <c r="B256" s="1" t="s">
+        <v>869</v>
+      </c>
       <c r="D256" t="s">
         <v>475</v>
       </c>
     </row>
-    <row r="257" spans="4:4" ht="23.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="257" spans="1:4" ht="23.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A257" s="1" t="s">
+        <v>872</v>
+      </c>
+      <c r="B257" s="3" t="s">
+        <v>873</v>
+      </c>
+      <c r="C257" s="1" t="s">
+        <v>874</v>
+      </c>
       <c r="D257" t="s">
         <v>476</v>
       </c>
     </row>
-    <row r="258" spans="4:4" ht="23.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="258" spans="1:4" ht="23.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A258" s="1" t="s">
+        <v>875</v>
+      </c>
+      <c r="B258" s="1" t="s">
+        <v>876</v>
+      </c>
+      <c r="C258" s="1" t="s">
+        <v>877</v>
+      </c>
       <c r="D258" t="s">
         <v>477</v>
       </c>
     </row>
-    <row r="259" spans="4:4" ht="23.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="259" spans="1:4" ht="23.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A259" s="1" t="s">
+        <v>986</v>
+      </c>
+      <c r="B259" s="3" t="s">
+        <v>987</v>
+      </c>
       <c r="D259" t="s">
         <v>478</v>
       </c>
     </row>
-    <row r="260" spans="4:4" ht="23.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="260" spans="1:4" ht="23.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A260" s="3" t="s">
+        <v>878</v>
+      </c>
+      <c r="B260" s="3" t="s">
+        <v>879</v>
+      </c>
       <c r="D260" t="s">
         <v>479</v>
       </c>
     </row>
-    <row r="261" spans="4:4" ht="23.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="261" spans="1:4" ht="23.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A261" s="1" t="s">
+        <v>880</v>
+      </c>
+      <c r="B261" s="3" t="s">
+        <v>881</v>
+      </c>
+      <c r="C261" s="1" t="s">
+        <v>882</v>
+      </c>
       <c r="D261" t="s">
         <v>480</v>
       </c>
     </row>
-    <row r="262" spans="4:4" ht="23.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="262" spans="1:4" ht="23.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A262" s="1" t="s">
+        <v>883</v>
+      </c>
+      <c r="B262" s="3" t="s">
+        <v>884</v>
+      </c>
+      <c r="C262" s="1" t="s">
+        <v>885</v>
+      </c>
       <c r="D262" t="s">
         <v>481</v>
       </c>
     </row>
-    <row r="263" spans="4:4" ht="23.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="263" spans="1:4" ht="23.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A263" s="1" t="s">
+        <v>886</v>
+      </c>
+      <c r="B263" s="3" t="s">
+        <v>887</v>
+      </c>
+      <c r="C263" s="1" t="s">
+        <v>888</v>
+      </c>
       <c r="D263" t="s">
         <v>482</v>
       </c>
     </row>
-    <row r="264" spans="4:4" ht="23.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="264" spans="1:4" ht="23.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A264" s="1" t="s">
+        <v>889</v>
+      </c>
+      <c r="B264" s="1" t="s">
+        <v>890</v>
+      </c>
+      <c r="C264" s="3" t="s">
+        <v>891</v>
+      </c>
       <c r="D264" t="s">
         <v>483</v>
       </c>
     </row>
-    <row r="265" spans="4:4" ht="23.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="265" spans="1:4" ht="23.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A265" s="1" t="s">
+        <v>892</v>
+      </c>
+      <c r="B265" s="1" t="s">
+        <v>893</v>
+      </c>
       <c r="D265" t="s">
         <v>484</v>
       </c>
     </row>
-    <row r="266" spans="4:4" ht="23.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="266" spans="1:4" ht="23.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A266" s="1" t="s">
+        <v>894</v>
+      </c>
+      <c r="B266" s="1" t="s">
+        <v>895</v>
+      </c>
+      <c r="C266" s="1" t="s">
+        <v>896</v>
+      </c>
       <c r="D266" t="s">
         <v>485</v>
       </c>
     </row>
-    <row r="267" spans="4:4" ht="23.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="267" spans="1:4" ht="23.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A267" s="1" t="s">
+        <v>897</v>
+      </c>
+      <c r="B267" s="3" t="s">
+        <v>898</v>
+      </c>
+      <c r="C267" s="1" t="s">
+        <v>899</v>
+      </c>
       <c r="D267" t="s">
         <v>486</v>
       </c>
     </row>
-    <row r="268" spans="4:4" ht="23.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="268" spans="1:4" ht="23.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A268" s="1" t="s">
+        <v>901</v>
+      </c>
+      <c r="B268" s="1" t="s">
+        <v>900</v>
+      </c>
+      <c r="C268" s="1" t="s">
+        <v>902</v>
+      </c>
       <c r="D268" t="s">
         <v>487</v>
       </c>
     </row>
-    <row r="269" spans="4:4" ht="23.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="269" spans="1:4" ht="23.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A269" s="1" t="s">
+        <v>903</v>
+      </c>
+      <c r="B269" s="1" t="s">
+        <v>904</v>
+      </c>
+      <c r="C269" s="1" t="s">
+        <v>905</v>
+      </c>
       <c r="D269" t="s">
         <v>488</v>
       </c>
     </row>
-    <row r="270" spans="4:4" ht="23.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="270" spans="1:4" ht="23.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A270" s="1" t="s">
+        <v>906</v>
+      </c>
+      <c r="B270" s="1" t="s">
+        <v>907</v>
+      </c>
+      <c r="C270" s="3" t="s">
+        <v>908</v>
+      </c>
       <c r="D270" t="s">
         <v>489</v>
       </c>
     </row>
-    <row r="271" spans="4:4" ht="23.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="271" spans="1:4" ht="23.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A271" s="1" t="s">
+        <v>909</v>
+      </c>
+      <c r="B271" s="1" t="s">
+        <v>910</v>
+      </c>
+      <c r="C271" s="3" t="s">
+        <v>911</v>
+      </c>
       <c r="D271" t="s">
         <v>490</v>
       </c>
     </row>
-    <row r="272" spans="4:4" ht="23.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="272" spans="1:4" ht="23.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A272" s="1" t="s">
+        <v>912</v>
+      </c>
+      <c r="B272" s="1" t="s">
+        <v>913</v>
+      </c>
+      <c r="C272" s="1" t="s">
+        <v>914</v>
+      </c>
       <c r="D272" t="s">
         <v>491</v>
       </c>
     </row>
-    <row r="273" spans="4:4" ht="23.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="273" spans="1:6" ht="23.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A273" s="1" t="s">
+        <v>916</v>
+      </c>
+      <c r="B273" s="3" t="s">
+        <v>917</v>
+      </c>
+      <c r="C273" s="3" t="s">
+        <v>918</v>
+      </c>
       <c r="D273" t="s">
         <v>492</v>
       </c>
-    </row>
-    <row r="274" spans="4:4" ht="23.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="F273" t="s">
+        <v>915</v>
+      </c>
+    </row>
+    <row r="274" spans="1:6" ht="23.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A274" s="1" t="s">
+        <v>919</v>
+      </c>
+      <c r="B274" s="3" t="s">
+        <v>920</v>
+      </c>
+      <c r="C274" s="1" t="s">
+        <v>921</v>
+      </c>
       <c r="D274" t="s">
         <v>493</v>
       </c>
     </row>
-    <row r="275" spans="4:4" ht="23.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="275" spans="1:6" ht="23.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A275" s="1" t="s">
+        <v>922</v>
+      </c>
+      <c r="B275" s="1" t="s">
+        <v>923</v>
+      </c>
       <c r="D275" t="s">
         <v>494</v>
       </c>
     </row>
-    <row r="276" spans="4:4" ht="23.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="276" spans="1:6" ht="23.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A276" s="1" t="s">
+        <v>924</v>
+      </c>
+      <c r="B276" s="1" t="s">
+        <v>925</v>
+      </c>
+      <c r="C276" s="1" t="s">
+        <v>926</v>
+      </c>
       <c r="D276" t="s">
         <v>495</v>
       </c>
     </row>
-    <row r="277" spans="4:4" ht="23.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="277" spans="1:6" ht="23.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A277" s="1" t="s">
+        <v>927</v>
+      </c>
+      <c r="B277" s="3" t="s">
+        <v>928</v>
+      </c>
+      <c r="C277" s="1" t="s">
+        <v>929</v>
+      </c>
       <c r="D277" t="s">
         <v>496</v>
       </c>
     </row>
-    <row r="278" spans="4:4" ht="23.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="278" spans="1:6" ht="23.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A278" s="1" t="s">
+        <v>930</v>
+      </c>
+      <c r="B278" s="1" t="s">
+        <v>931</v>
+      </c>
+      <c r="C278" s="1" t="s">
+        <v>932</v>
+      </c>
       <c r="D278" t="s">
         <v>497</v>
       </c>
     </row>
-    <row r="279" spans="4:4" ht="23.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="279" spans="1:6" ht="23.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A279" s="1" t="s">
+        <v>933</v>
+      </c>
+      <c r="B279" s="3" t="s">
+        <v>934</v>
+      </c>
+      <c r="C279" s="1" t="s">
+        <v>935</v>
+      </c>
       <c r="D279" t="s">
         <v>498</v>
       </c>
     </row>
-    <row r="280" spans="4:4" ht="23.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="280" spans="1:6" ht="23.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A280" s="1" t="s">
+        <v>936</v>
+      </c>
+      <c r="B280" s="3" t="s">
+        <v>937</v>
+      </c>
       <c r="D280" t="s">
         <v>499</v>
       </c>
     </row>
-    <row r="281" spans="4:4" ht="23.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="281" spans="1:6" ht="23.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A281" s="1" t="s">
+        <v>939</v>
+      </c>
+      <c r="B281" s="1" t="s">
+        <v>938</v>
+      </c>
+      <c r="C281" s="1" t="s">
+        <v>940</v>
+      </c>
       <c r="D281" t="s">
         <v>500</v>
       </c>
     </row>
-    <row r="282" spans="4:4" ht="23.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="282" spans="1:6" ht="23.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A282" s="1" t="s">
+        <v>941</v>
+      </c>
+      <c r="C282" s="1" t="s">
+        <v>942</v>
+      </c>
       <c r="D282" t="s">
         <v>501</v>
       </c>
     </row>
-    <row r="283" spans="4:4" ht="23.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="283" spans="1:6" ht="23.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A283" s="1" t="s">
+        <v>944</v>
+      </c>
+      <c r="B283" s="3" t="s">
+        <v>943</v>
+      </c>
+      <c r="C283" s="1" t="s">
+        <v>945</v>
+      </c>
       <c r="D283" t="s">
         <v>502</v>
       </c>
     </row>
-    <row r="284" spans="4:4" ht="23.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="284" spans="1:6" ht="23.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A284" s="1" t="s">
+        <v>946</v>
+      </c>
+      <c r="B284" s="1" t="s">
+        <v>947</v>
+      </c>
+      <c r="C284" s="3" t="s">
+        <v>948</v>
+      </c>
       <c r="D284" t="s">
         <v>503</v>
       </c>
     </row>
-    <row r="285" spans="4:4" ht="23.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="285" spans="1:6" ht="23.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A285" s="1" t="s">
+        <v>949</v>
+      </c>
+      <c r="B285" s="3" t="s">
+        <v>950</v>
+      </c>
+      <c r="C285" s="3" t="s">
+        <v>951</v>
+      </c>
       <c r="D285" t="s">
         <v>504</v>
       </c>
     </row>
-    <row r="286" spans="4:4" ht="23.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="286" spans="1:6" ht="23.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A286" s="1" t="s">
+        <v>952</v>
+      </c>
+      <c r="B286" s="3" t="s">
+        <v>953</v>
+      </c>
       <c r="D286" t="s">
         <v>505</v>
       </c>
     </row>
-    <row r="287" spans="4:4" ht="23.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="287" spans="1:6" ht="23.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A287" s="1" t="s">
+        <v>954</v>
+      </c>
+      <c r="B287" s="3" t="s">
+        <v>955</v>
+      </c>
+      <c r="C287" s="1" t="s">
+        <v>956</v>
+      </c>
       <c r="D287" t="s">
         <v>506</v>
       </c>
     </row>
-    <row r="288" spans="4:4" ht="23.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="288" spans="1:6" ht="23.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A288" s="3" t="s">
+        <v>958</v>
+      </c>
+      <c r="B288" s="1" t="s">
+        <v>957</v>
+      </c>
+      <c r="C288" s="1" t="s">
+        <v>959</v>
+      </c>
       <c r="D288" t="s">
         <v>507</v>
       </c>
     </row>
-    <row r="289" spans="4:4" ht="23.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="289" spans="1:4" ht="23.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A289" s="1" t="s">
+        <v>960</v>
+      </c>
+      <c r="B289" s="1" t="s">
+        <v>961</v>
+      </c>
       <c r="D289" s="2" t="s">
         <v>508</v>
       </c>
     </row>
-    <row r="290" spans="4:4" ht="23.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="290" spans="1:4" ht="23.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A290" s="1" t="s">
+        <v>962</v>
+      </c>
+      <c r="B290" s="3" t="s">
+        <v>963</v>
+      </c>
+      <c r="C290" s="3" t="s">
+        <v>964</v>
+      </c>
       <c r="D290" t="s">
         <v>509</v>
       </c>
     </row>
-    <row r="291" spans="4:4" ht="23.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="291" spans="1:4" ht="23.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A291" s="1" t="s">
+        <v>965</v>
+      </c>
+      <c r="B291" s="3" t="s">
+        <v>966</v>
+      </c>
+      <c r="C291" s="1" t="s">
+        <v>967</v>
+      </c>
       <c r="D291" t="s">
         <v>510</v>
       </c>
     </row>
-    <row r="292" spans="4:4" ht="23.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="292" spans="1:4" ht="23.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A292" s="1" t="s">
+        <v>968</v>
+      </c>
+      <c r="B292" s="1" t="s">
+        <v>969</v>
+      </c>
+      <c r="C292" s="3" t="s">
+        <v>970</v>
+      </c>
       <c r="D292" t="s">
         <v>511</v>
       </c>
     </row>
-    <row r="293" spans="4:4" ht="23.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="293" spans="1:4" ht="23.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A293" s="1" t="s">
+        <v>971</v>
+      </c>
+      <c r="B293" s="3" t="s">
+        <v>972</v>
+      </c>
       <c r="D293" t="s">
         <v>512</v>
       </c>
     </row>
-    <row r="294" spans="4:4" ht="23.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="294" spans="1:4" ht="23.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A294" s="1" t="s">
+        <v>988</v>
+      </c>
+      <c r="B294" s="1" t="s">
+        <v>989</v>
+      </c>
+      <c r="C294" s="1" t="s">
+        <v>974</v>
+      </c>
       <c r="D294" t="s">
         <v>513</v>
       </c>
     </row>
-    <row r="295" spans="4:4" ht="23.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="295" spans="1:4" ht="23.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A295" s="1" t="s">
+        <v>973</v>
+      </c>
+      <c r="B295" s="1" t="s">
+        <v>990</v>
+      </c>
       <c r="D295" t="s">
         <v>514</v>
       </c>
     </row>
-    <row r="296" spans="4:4" ht="23.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="296" spans="1:4" ht="23.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A296" s="1" t="s">
+        <v>991</v>
+      </c>
+      <c r="B296" s="1" t="s">
+        <v>992</v>
+      </c>
+      <c r="C296" s="3" t="s">
+        <v>993</v>
+      </c>
       <c r="D296" t="s">
         <v>515</v>
       </c>
     </row>
-    <row r="297" spans="4:4" ht="23.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="297" spans="1:4" ht="23.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A297" s="1" t="s">
+        <v>994</v>
+      </c>
+      <c r="B297" s="3" t="s">
+        <v>995</v>
+      </c>
       <c r="D297" t="s">
         <v>516</v>
       </c>
     </row>
-    <row r="298" spans="4:4" ht="23.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="298" spans="1:4" ht="23.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A298" s="1" t="s">
+        <v>996</v>
+      </c>
+      <c r="B298" s="3" t="s">
+        <v>997</v>
+      </c>
+      <c r="C298" s="3" t="s">
+        <v>998</v>
+      </c>
       <c r="D298" t="s">
         <v>517</v>
       </c>
     </row>
-    <row r="299" spans="4:4" ht="23.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="299" spans="1:4" ht="23.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A299" s="1" t="s">
+        <v>999</v>
+      </c>
+      <c r="B299" s="3" t="s">
+        <v>1000</v>
+      </c>
+      <c r="C299" s="3" t="s">
+        <v>1001</v>
+      </c>
       <c r="D299" t="s">
         <v>518</v>
       </c>
     </row>
-    <row r="300" spans="4:4" ht="23.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="300" spans="1:4" ht="23.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A300" s="1" t="s">
+        <v>1002</v>
+      </c>
+      <c r="B300" s="1" t="s">
+        <v>1003</v>
+      </c>
+      <c r="C300" s="3" t="s">
+        <v>1004</v>
+      </c>
       <c r="D300" t="s">
         <v>519</v>
+      </c>
+    </row>
+    <row r="301" spans="1:4" ht="23.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A301" s="1" t="s">
+        <v>1005</v>
+      </c>
+      <c r="B301" s="3" t="s">
+        <v>1006</v>
+      </c>
+      <c r="C301" s="1" t="s">
+        <v>1007</v>
+      </c>
+      <c r="D301" t="s">
+        <v>1069</v>
+      </c>
+    </row>
+    <row r="302" spans="1:4" ht="23.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A302" s="1" t="s">
+        <v>1008</v>
+      </c>
+      <c r="B302" s="1" t="s">
+        <v>1009</v>
+      </c>
+      <c r="C302" s="1" t="s">
+        <v>1010</v>
+      </c>
+      <c r="D302" t="s">
+        <v>1070</v>
+      </c>
+    </row>
+    <row r="303" spans="1:4" ht="23.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A303" s="1" t="s">
+        <v>1012</v>
+      </c>
+      <c r="B303" s="3" t="s">
+        <v>1011</v>
+      </c>
+      <c r="C303" s="3" t="s">
+        <v>1013</v>
+      </c>
+      <c r="D303" t="s">
+        <v>1071</v>
+      </c>
+    </row>
+    <row r="304" spans="1:4" ht="23.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A304" s="1" t="s">
+        <v>1014</v>
+      </c>
+      <c r="B304" s="1" t="s">
+        <v>1015</v>
+      </c>
+      <c r="C304" s="3" t="s">
+        <v>1016</v>
+      </c>
+      <c r="D304" t="s">
+        <v>1072</v>
+      </c>
+    </row>
+    <row r="305" spans="1:6" ht="23.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A305" s="1" t="s">
+        <v>1017</v>
+      </c>
+      <c r="B305" s="3" t="s">
+        <v>1018</v>
+      </c>
+      <c r="C305" s="1" t="s">
+        <v>1019</v>
+      </c>
+      <c r="D305" t="s">
+        <v>1073</v>
+      </c>
+    </row>
+    <row r="306" spans="1:6" ht="23.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A306" s="1" t="s">
+        <v>1021</v>
+      </c>
+      <c r="B306" s="3" t="s">
+        <v>1022</v>
+      </c>
+      <c r="D306" t="s">
+        <v>1074</v>
+      </c>
+      <c r="F306" t="s">
+        <v>1020</v>
+      </c>
+    </row>
+    <row r="307" spans="1:6" ht="23.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A307" s="1" t="s">
+        <v>1023</v>
+      </c>
+      <c r="B307" s="1" t="s">
+        <v>1024</v>
+      </c>
+      <c r="C307" s="3" t="s">
+        <v>1025</v>
+      </c>
+      <c r="D307" t="s">
+        <v>1075</v>
+      </c>
+    </row>
+    <row r="308" spans="1:6" ht="23.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A308" s="1" t="s">
+        <v>1026</v>
+      </c>
+      <c r="B308" s="1" t="s">
+        <v>1027</v>
+      </c>
+      <c r="C308" s="3" t="s">
+        <v>1028</v>
+      </c>
+      <c r="D308" t="s">
+        <v>1076</v>
+      </c>
+    </row>
+    <row r="309" spans="1:6" ht="23.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A309" s="1" t="s">
+        <v>1029</v>
+      </c>
+      <c r="B309" s="3" t="s">
+        <v>1030</v>
+      </c>
+      <c r="C309" s="3" t="s">
+        <v>1031</v>
+      </c>
+      <c r="D309" t="s">
+        <v>1077</v>
+      </c>
+    </row>
+    <row r="310" spans="1:6" ht="23.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A310" s="1" t="s">
+        <v>1032</v>
+      </c>
+      <c r="B310" s="1" t="s">
+        <v>1033</v>
+      </c>
+      <c r="C310" s="1" t="s">
+        <v>1034</v>
+      </c>
+      <c r="D310" t="s">
+        <v>1078</v>
+      </c>
+    </row>
+    <row r="311" spans="1:6" ht="23.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A311" s="1" t="s">
+        <v>1035</v>
+      </c>
+      <c r="B311" s="1" t="s">
+        <v>1036</v>
+      </c>
+      <c r="C311" s="3" t="s">
+        <v>1037</v>
+      </c>
+      <c r="D311" t="s">
+        <v>1079</v>
+      </c>
+    </row>
+    <row r="312" spans="1:6" ht="23.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A312" s="1" t="s">
+        <v>1038</v>
+      </c>
+      <c r="B312" s="1" t="s">
+        <v>1039</v>
+      </c>
+      <c r="D312" t="s">
+        <v>1080</v>
+      </c>
+    </row>
+    <row r="313" spans="1:6" ht="23.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A313" s="1" t="s">
+        <v>1040</v>
+      </c>
+      <c r="B313" s="1" t="s">
+        <v>1041</v>
+      </c>
+      <c r="C313" s="3" t="s">
+        <v>1042</v>
+      </c>
+      <c r="D313" t="s">
+        <v>1081</v>
+      </c>
+    </row>
+    <row r="314" spans="1:6" ht="23.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A314" s="1" t="s">
+        <v>1043</v>
+      </c>
+      <c r="B314" s="3" t="s">
+        <v>1044</v>
+      </c>
+      <c r="C314" s="1" t="s">
+        <v>1045</v>
+      </c>
+      <c r="D314" t="s">
+        <v>1082</v>
+      </c>
+    </row>
+    <row r="315" spans="1:6" ht="23.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A315" s="1" t="s">
+        <v>1046</v>
+      </c>
+      <c r="B315" s="1" t="s">
+        <v>1047</v>
+      </c>
+      <c r="D315" t="s">
+        <v>1083</v>
+      </c>
+    </row>
+    <row r="316" spans="1:6" ht="23.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A316" s="1" t="s">
+        <v>1048</v>
+      </c>
+      <c r="B316" s="3" t="s">
+        <v>1049</v>
+      </c>
+      <c r="C316" s="3" t="s">
+        <v>1050</v>
+      </c>
+      <c r="D316" t="s">
+        <v>1084</v>
+      </c>
+    </row>
+    <row r="317" spans="1:6" ht="23.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A317" s="1" t="s">
+        <v>1051</v>
+      </c>
+      <c r="B317" s="3" t="s">
+        <v>1052</v>
+      </c>
+      <c r="C317" s="1" t="s">
+        <v>1053</v>
+      </c>
+      <c r="D317" t="s">
+        <v>1085</v>
+      </c>
+    </row>
+    <row r="318" spans="1:6" ht="23.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A318" s="1" t="s">
+        <v>1054</v>
+      </c>
+      <c r="B318" s="3" t="s">
+        <v>1055</v>
+      </c>
+      <c r="C318" s="3" t="s">
+        <v>1056</v>
+      </c>
+      <c r="D318" t="s">
+        <v>1086</v>
+      </c>
+    </row>
+    <row r="319" spans="1:6" ht="23.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A319" s="3" t="s">
+        <v>1058</v>
+      </c>
+      <c r="B319" s="3" t="s">
+        <v>1057</v>
+      </c>
+      <c r="C319" s="3" t="s">
+        <v>1059</v>
+      </c>
+      <c r="D319" t="s">
+        <v>1087</v>
+      </c>
+    </row>
+    <row r="320" spans="1:6" ht="23.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A320" s="1" t="s">
+        <v>1060</v>
+      </c>
+      <c r="B320" s="3" t="s">
+        <v>1061</v>
+      </c>
+      <c r="C320" s="3" t="s">
+        <v>1062</v>
+      </c>
+      <c r="D320" t="s">
+        <v>1088</v>
+      </c>
+    </row>
+    <row r="321" spans="1:4" ht="23.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A321" s="1" t="s">
+        <v>1063</v>
+      </c>
+      <c r="B321" s="3" t="s">
+        <v>1064</v>
+      </c>
+      <c r="C321" s="3" t="s">
+        <v>1065</v>
+      </c>
+      <c r="D321" t="s">
+        <v>1089</v>
+      </c>
+    </row>
+    <row r="322" spans="1:4" ht="23.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A322" s="1" t="s">
+        <v>1066</v>
+      </c>
+      <c r="B322" s="3" t="s">
+        <v>1067</v>
+      </c>
+      <c r="C322" s="1" t="s">
+        <v>1068</v>
+      </c>
+      <c r="D322" t="s">
+        <v>1090</v>
+      </c>
+    </row>
+    <row r="323" spans="1:4" ht="23.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A323" s="1" t="s">
+        <v>1269</v>
+      </c>
+      <c r="B323" s="1" t="s">
+        <v>1270</v>
+      </c>
+      <c r="C323" s="3" t="s">
+        <v>1271</v>
+      </c>
+      <c r="D323" t="s">
+        <v>1091</v>
+      </c>
+    </row>
+    <row r="324" spans="1:4" ht="23.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A324" s="1" t="s">
+        <v>1280</v>
+      </c>
+      <c r="B324" s="3" t="s">
+        <v>1272</v>
+      </c>
+      <c r="C324" s="1" t="s">
+        <v>1273</v>
+      </c>
+      <c r="D324" t="s">
+        <v>1092</v>
+      </c>
+    </row>
+    <row r="325" spans="1:4" ht="23.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A325" s="1" t="s">
+        <v>1279</v>
+      </c>
+      <c r="B325" s="3" t="s">
+        <v>1274</v>
+      </c>
+      <c r="C325" s="1" t="s">
+        <v>1275</v>
+      </c>
+      <c r="D325" t="s">
+        <v>1093</v>
+      </c>
+    </row>
+    <row r="326" spans="1:4" ht="23.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A326" s="1" t="s">
+        <v>1276</v>
+      </c>
+      <c r="D326" t="s">
+        <v>1094</v>
+      </c>
+    </row>
+    <row r="327" spans="1:4" ht="23.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A327" s="1" t="s">
+        <v>1277</v>
+      </c>
+      <c r="B327" s="3" t="s">
+        <v>1278</v>
+      </c>
+      <c r="C327" s="3" t="s">
+        <v>1281</v>
+      </c>
+      <c r="D327" t="s">
+        <v>1095</v>
+      </c>
+    </row>
+    <row r="328" spans="1:4" ht="23.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A328" s="1" t="s">
+        <v>1282</v>
+      </c>
+      <c r="B328" s="3" t="s">
+        <v>1283</v>
+      </c>
+      <c r="C328" s="1" t="s">
+        <v>1284</v>
+      </c>
+      <c r="D328" t="s">
+        <v>1096</v>
+      </c>
+    </row>
+    <row r="329" spans="1:4" ht="23.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A329" s="1" t="s">
+        <v>1285</v>
+      </c>
+      <c r="B329" s="1" t="s">
+        <v>1286</v>
+      </c>
+      <c r="C329" s="3" t="s">
+        <v>1287</v>
+      </c>
+      <c r="D329" t="s">
+        <v>1097</v>
+      </c>
+    </row>
+    <row r="330" spans="1:4" ht="23.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A330" s="1" t="s">
+        <v>1288</v>
+      </c>
+      <c r="B330" s="1" t="s">
+        <v>1289</v>
+      </c>
+      <c r="C330" s="3" t="s">
+        <v>1290</v>
+      </c>
+      <c r="D330" t="s">
+        <v>1098</v>
+      </c>
+    </row>
+    <row r="331" spans="1:4" ht="23.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A331" s="1" t="s">
+        <v>1291</v>
+      </c>
+      <c r="B331" s="1" t="s">
+        <v>1292</v>
+      </c>
+      <c r="D331" t="s">
+        <v>1099</v>
+      </c>
+    </row>
+    <row r="332" spans="1:4" ht="23.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A332" s="1" t="s">
+        <v>1293</v>
+      </c>
+      <c r="B332" s="3" t="s">
+        <v>1294</v>
+      </c>
+      <c r="C332" s="1" t="s">
+        <v>1295</v>
+      </c>
+      <c r="D332" t="s">
+        <v>1100</v>
+      </c>
+    </row>
+    <row r="333" spans="1:4" ht="23.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="D333" t="s">
+        <v>1101</v>
+      </c>
+    </row>
+    <row r="334" spans="1:4" ht="23.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="D334" t="s">
+        <v>1102</v>
+      </c>
+    </row>
+    <row r="335" spans="1:4" ht="23.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="D335" t="s">
+        <v>1103</v>
+      </c>
+    </row>
+    <row r="336" spans="1:4" ht="23.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="D336" t="s">
+        <v>1104</v>
+      </c>
+    </row>
+    <row r="337" spans="4:4" ht="23.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="D337" t="s">
+        <v>1105</v>
+      </c>
+    </row>
+    <row r="338" spans="4:4" ht="23.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="D338" t="s">
+        <v>1106</v>
+      </c>
+    </row>
+    <row r="339" spans="4:4" ht="23.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="D339" t="s">
+        <v>1107</v>
+      </c>
+    </row>
+    <row r="340" spans="4:4" ht="23.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="D340" t="s">
+        <v>1108</v>
+      </c>
+    </row>
+    <row r="341" spans="4:4" ht="23.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="D341" t="s">
+        <v>1109</v>
+      </c>
+    </row>
+    <row r="342" spans="4:4" ht="23.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="D342" t="s">
+        <v>1110</v>
+      </c>
+    </row>
+    <row r="343" spans="4:4" ht="23.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="D343" t="s">
+        <v>1111</v>
+      </c>
+    </row>
+    <row r="344" spans="4:4" ht="23.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="D344" t="s">
+        <v>1112</v>
+      </c>
+    </row>
+    <row r="345" spans="4:4" ht="23.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="D345" t="s">
+        <v>1113</v>
+      </c>
+    </row>
+    <row r="346" spans="4:4" ht="23.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="D346" t="s">
+        <v>1114</v>
+      </c>
+    </row>
+    <row r="347" spans="4:4" ht="23.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="D347" t="s">
+        <v>1115</v>
+      </c>
+    </row>
+    <row r="348" spans="4:4" ht="23.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="D348" t="s">
+        <v>1116</v>
+      </c>
+    </row>
+    <row r="349" spans="4:4" ht="23.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="D349" t="s">
+        <v>1117</v>
+      </c>
+    </row>
+    <row r="350" spans="4:4" ht="23.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="D350" t="s">
+        <v>1118</v>
+      </c>
+    </row>
+    <row r="351" spans="4:4" ht="23.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="D351" t="s">
+        <v>1119</v>
+      </c>
+    </row>
+    <row r="352" spans="4:4" ht="23.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="D352" t="s">
+        <v>1120</v>
+      </c>
+    </row>
+    <row r="353" spans="4:4" ht="23.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="D353" t="s">
+        <v>1121</v>
+      </c>
+    </row>
+    <row r="354" spans="4:4" ht="23.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="D354" t="s">
+        <v>1122</v>
+      </c>
+    </row>
+    <row r="355" spans="4:4" ht="23.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="D355" t="s">
+        <v>1123</v>
+      </c>
+    </row>
+    <row r="356" spans="4:4" ht="23.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="D356" t="s">
+        <v>1124</v>
+      </c>
+    </row>
+    <row r="357" spans="4:4" ht="23.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="D357" t="s">
+        <v>1125</v>
+      </c>
+    </row>
+    <row r="358" spans="4:4" ht="23.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="D358" t="s">
+        <v>1126</v>
+      </c>
+    </row>
+    <row r="359" spans="4:4" ht="23.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="D359" t="s">
+        <v>1127</v>
+      </c>
+    </row>
+    <row r="360" spans="4:4" ht="23.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="D360" t="s">
+        <v>1128</v>
+      </c>
+    </row>
+    <row r="361" spans="4:4" ht="23.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="D361" t="s">
+        <v>1129</v>
+      </c>
+    </row>
+    <row r="362" spans="4:4" ht="23.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="D362" t="s">
+        <v>1130</v>
+      </c>
+    </row>
+    <row r="363" spans="4:4" ht="23.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="D363" t="s">
+        <v>1131</v>
+      </c>
+    </row>
+    <row r="364" spans="4:4" ht="23.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="D364" t="s">
+        <v>1132</v>
+      </c>
+    </row>
+    <row r="365" spans="4:4" ht="23.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="D365" t="s">
+        <v>1133</v>
+      </c>
+    </row>
+    <row r="366" spans="4:4" ht="23.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="D366" t="s">
+        <v>1134</v>
+      </c>
+    </row>
+    <row r="367" spans="4:4" ht="23.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="D367" t="s">
+        <v>1135</v>
+      </c>
+    </row>
+    <row r="368" spans="4:4" ht="23.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="D368" t="s">
+        <v>1136</v>
+      </c>
+    </row>
+    <row r="369" spans="4:4" ht="23.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="D369" t="s">
+        <v>1137</v>
+      </c>
+    </row>
+    <row r="370" spans="4:4" ht="23.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="D370" t="s">
+        <v>1138</v>
+      </c>
+    </row>
+    <row r="371" spans="4:4" ht="23.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="D371" s="2" t="s">
+        <v>1139</v>
+      </c>
+    </row>
+    <row r="372" spans="4:4" ht="23.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="D372" t="s">
+        <v>1140</v>
+      </c>
+    </row>
+    <row r="373" spans="4:4" ht="23.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="D373" t="s">
+        <v>1141</v>
+      </c>
+    </row>
+    <row r="374" spans="4:4" ht="23.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="D374" t="s">
+        <v>1142</v>
+      </c>
+    </row>
+    <row r="375" spans="4:4" ht="23.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="D375" t="s">
+        <v>1143</v>
+      </c>
+    </row>
+    <row r="376" spans="4:4" ht="23.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="D376" t="s">
+        <v>1144</v>
+      </c>
+    </row>
+    <row r="377" spans="4:4" ht="23.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="D377" t="s">
+        <v>1145</v>
+      </c>
+    </row>
+    <row r="378" spans="4:4" ht="23.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="D378" t="s">
+        <v>1146</v>
+      </c>
+    </row>
+    <row r="379" spans="4:4" ht="23.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="D379" t="s">
+        <v>1147</v>
+      </c>
+    </row>
+    <row r="380" spans="4:4" ht="23.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="D380" t="s">
+        <v>1148</v>
+      </c>
+    </row>
+    <row r="381" spans="4:4" ht="23.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="D381" t="s">
+        <v>1149</v>
+      </c>
+    </row>
+    <row r="382" spans="4:4" ht="23.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="D382" t="s">
+        <v>1150</v>
+      </c>
+    </row>
+    <row r="383" spans="4:4" ht="23.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="D383" t="s">
+        <v>1151</v>
+      </c>
+    </row>
+    <row r="384" spans="4:4" ht="23.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="D384" t="s">
+        <v>1152</v>
+      </c>
+    </row>
+    <row r="385" spans="4:4" ht="23.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="D385" t="s">
+        <v>1153</v>
+      </c>
+    </row>
+    <row r="386" spans="4:4" ht="23.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="D386" t="s">
+        <v>1154</v>
+      </c>
+    </row>
+    <row r="387" spans="4:4" ht="23.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="D387" t="s">
+        <v>1155</v>
+      </c>
+    </row>
+    <row r="388" spans="4:4" ht="23.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="D388" t="s">
+        <v>1156</v>
+      </c>
+    </row>
+    <row r="389" spans="4:4" ht="23.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="D389" t="s">
+        <v>1157</v>
+      </c>
+    </row>
+    <row r="390" spans="4:4" ht="23.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="D390" t="s">
+        <v>1158</v>
+      </c>
+    </row>
+    <row r="391" spans="4:4" ht="23.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="D391" t="s">
+        <v>1159</v>
+      </c>
+    </row>
+    <row r="392" spans="4:4" ht="23.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="D392" t="s">
+        <v>1160</v>
+      </c>
+    </row>
+    <row r="393" spans="4:4" ht="23.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="D393" t="s">
+        <v>1161</v>
+      </c>
+    </row>
+    <row r="394" spans="4:4" ht="23.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="D394" t="s">
+        <v>1162</v>
+      </c>
+    </row>
+    <row r="395" spans="4:4" ht="23.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="D395" t="s">
+        <v>1163</v>
+      </c>
+    </row>
+    <row r="396" spans="4:4" ht="23.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="D396" t="s">
+        <v>1164</v>
+      </c>
+    </row>
+    <row r="397" spans="4:4" ht="23.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="D397" t="s">
+        <v>1165</v>
+      </c>
+    </row>
+    <row r="398" spans="4:4" ht="23.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="D398" t="s">
+        <v>1166</v>
+      </c>
+    </row>
+    <row r="399" spans="4:4" ht="23.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="D399" t="s">
+        <v>1167</v>
+      </c>
+    </row>
+    <row r="400" spans="4:4" ht="23.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="D400" t="s">
+        <v>1168</v>
+      </c>
+    </row>
+    <row r="401" spans="4:4" ht="23.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="D401" t="s">
+        <v>1169</v>
+      </c>
+    </row>
+    <row r="402" spans="4:4" ht="23.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="D402" t="s">
+        <v>1170</v>
+      </c>
+    </row>
+    <row r="403" spans="4:4" ht="23.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="D403" t="s">
+        <v>1171</v>
+      </c>
+    </row>
+    <row r="404" spans="4:4" ht="23.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="D404" t="s">
+        <v>1172</v>
+      </c>
+    </row>
+    <row r="405" spans="4:4" ht="23.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="D405" t="s">
+        <v>1173</v>
+      </c>
+    </row>
+    <row r="406" spans="4:4" ht="23.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="D406" t="s">
+        <v>1174</v>
+      </c>
+    </row>
+    <row r="407" spans="4:4" ht="23.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="D407" t="s">
+        <v>1175</v>
+      </c>
+    </row>
+    <row r="408" spans="4:4" ht="23.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="D408" t="s">
+        <v>1176</v>
+      </c>
+    </row>
+    <row r="409" spans="4:4" ht="23.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="D409" t="s">
+        <v>1177</v>
+      </c>
+    </row>
+    <row r="410" spans="4:4" ht="23.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="D410" t="s">
+        <v>1178</v>
+      </c>
+    </row>
+    <row r="411" spans="4:4" ht="23.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="D411" t="s">
+        <v>1179</v>
+      </c>
+    </row>
+    <row r="412" spans="4:4" ht="23.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="D412" t="s">
+        <v>1180</v>
+      </c>
+    </row>
+    <row r="413" spans="4:4" ht="23.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="D413" t="s">
+        <v>1181</v>
+      </c>
+    </row>
+    <row r="414" spans="4:4" ht="23.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="D414" t="s">
+        <v>1182</v>
+      </c>
+    </row>
+    <row r="415" spans="4:4" ht="23.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="D415" t="s">
+        <v>1183</v>
+      </c>
+    </row>
+    <row r="416" spans="4:4" ht="23.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="D416" t="s">
+        <v>1184</v>
+      </c>
+    </row>
+    <row r="417" spans="4:4" ht="23.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="D417" t="s">
+        <v>1185</v>
+      </c>
+    </row>
+    <row r="418" spans="4:4" ht="23.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="D418" t="s">
+        <v>1186</v>
+      </c>
+    </row>
+    <row r="419" spans="4:4" ht="23.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="D419" t="s">
+        <v>1187</v>
+      </c>
+    </row>
+    <row r="420" spans="4:4" ht="23.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="D420" t="s">
+        <v>1188</v>
+      </c>
+    </row>
+    <row r="421" spans="4:4" ht="23.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="D421" t="s">
+        <v>1189</v>
+      </c>
+    </row>
+    <row r="422" spans="4:4" ht="23.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="D422" t="s">
+        <v>1190</v>
+      </c>
+    </row>
+    <row r="423" spans="4:4" ht="23.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="D423" t="s">
+        <v>1191</v>
+      </c>
+    </row>
+    <row r="424" spans="4:4" ht="23.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="D424" t="s">
+        <v>1192</v>
+      </c>
+    </row>
+    <row r="425" spans="4:4" ht="23.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="D425" t="s">
+        <v>1193</v>
+      </c>
+    </row>
+    <row r="426" spans="4:4" ht="23.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="D426" t="s">
+        <v>1194</v>
+      </c>
+    </row>
+    <row r="427" spans="4:4" ht="23.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="D427" t="s">
+        <v>1195</v>
+      </c>
+    </row>
+    <row r="428" spans="4:4" ht="23.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="D428" t="s">
+        <v>1196</v>
+      </c>
+    </row>
+    <row r="429" spans="4:4" ht="23.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="D429" s="2" t="s">
+        <v>1197</v>
+      </c>
+    </row>
+    <row r="430" spans="4:4" ht="23.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="D430" t="s">
+        <v>1198</v>
+      </c>
+    </row>
+    <row r="431" spans="4:4" ht="23.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="D431" t="s">
+        <v>1199</v>
+      </c>
+    </row>
+    <row r="432" spans="4:4" ht="23.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="D432" t="s">
+        <v>1200</v>
+      </c>
+    </row>
+    <row r="433" spans="4:4" ht="23.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="D433" t="s">
+        <v>1201</v>
+      </c>
+    </row>
+    <row r="434" spans="4:4" ht="23.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="D434" t="s">
+        <v>1202</v>
+      </c>
+    </row>
+    <row r="435" spans="4:4" ht="23.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="D435" t="s">
+        <v>1203</v>
+      </c>
+    </row>
+    <row r="436" spans="4:4" ht="23.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="D436" t="s">
+        <v>1204</v>
+      </c>
+    </row>
+    <row r="437" spans="4:4" ht="23.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="D437" t="s">
+        <v>1205</v>
+      </c>
+    </row>
+    <row r="438" spans="4:4" ht="23.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="D438" t="s">
+        <v>1206</v>
+      </c>
+    </row>
+    <row r="439" spans="4:4" ht="23.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="D439" t="s">
+        <v>1207</v>
+      </c>
+    </row>
+    <row r="440" spans="4:4" ht="23.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="D440" t="s">
+        <v>1208</v>
+      </c>
+    </row>
+    <row r="441" spans="4:4" ht="23.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="D441" t="s">
+        <v>1209</v>
+      </c>
+    </row>
+    <row r="442" spans="4:4" ht="23.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="D442" t="s">
+        <v>1210</v>
+      </c>
+    </row>
+    <row r="443" spans="4:4" ht="23.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="D443" t="s">
+        <v>1211</v>
+      </c>
+    </row>
+    <row r="444" spans="4:4" ht="23.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="D444" t="s">
+        <v>1212</v>
+      </c>
+    </row>
+    <row r="445" spans="4:4" ht="23.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="D445" t="s">
+        <v>1213</v>
+      </c>
+    </row>
+    <row r="446" spans="4:4" ht="23.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="D446" t="s">
+        <v>1214</v>
+      </c>
+    </row>
+    <row r="447" spans="4:4" ht="23.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="D447" t="s">
+        <v>1215</v>
+      </c>
+    </row>
+    <row r="448" spans="4:4" ht="23.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="D448" t="s">
+        <v>1216</v>
+      </c>
+    </row>
+    <row r="449" spans="4:4" ht="23.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="D449" t="s">
+        <v>1217</v>
+      </c>
+    </row>
+    <row r="450" spans="4:4" ht="23.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="D450" t="s">
+        <v>1218</v>
+      </c>
+    </row>
+    <row r="451" spans="4:4" ht="23.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="D451" t="s">
+        <v>1219</v>
+      </c>
+    </row>
+    <row r="452" spans="4:4" ht="23.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="D452" t="s">
+        <v>1220</v>
+      </c>
+    </row>
+    <row r="453" spans="4:4" ht="23.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="D453" t="s">
+        <v>1221</v>
+      </c>
+    </row>
+    <row r="454" spans="4:4" ht="23.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="D454" t="s">
+        <v>1222</v>
+      </c>
+    </row>
+    <row r="455" spans="4:4" ht="23.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="D455" t="s">
+        <v>1223</v>
+      </c>
+    </row>
+    <row r="456" spans="4:4" ht="23.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="D456" t="s">
+        <v>1224</v>
+      </c>
+    </row>
+    <row r="457" spans="4:4" ht="23.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="D457" t="s">
+        <v>1225</v>
+      </c>
+    </row>
+    <row r="458" spans="4:4" ht="23.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="D458" t="s">
+        <v>1226</v>
+      </c>
+    </row>
+    <row r="459" spans="4:4" ht="23.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="D459" t="s">
+        <v>1227</v>
+      </c>
+    </row>
+    <row r="460" spans="4:4" ht="23.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="D460" t="s">
+        <v>1228</v>
+      </c>
+    </row>
+    <row r="461" spans="4:4" ht="23.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="D461" t="s">
+        <v>1229</v>
+      </c>
+    </row>
+    <row r="462" spans="4:4" ht="23.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="D462" t="s">
+        <v>1230</v>
+      </c>
+    </row>
+    <row r="463" spans="4:4" ht="23.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="D463" t="s">
+        <v>1231</v>
+      </c>
+    </row>
+    <row r="464" spans="4:4" ht="23.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="D464" t="s">
+        <v>1232</v>
+      </c>
+    </row>
+    <row r="465" spans="4:4" ht="23.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="D465" t="s">
+        <v>1233</v>
+      </c>
+    </row>
+    <row r="466" spans="4:4" ht="23.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="D466" t="s">
+        <v>1234</v>
+      </c>
+    </row>
+    <row r="467" spans="4:4" ht="23.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="D467" t="s">
+        <v>1235</v>
+      </c>
+    </row>
+    <row r="468" spans="4:4" ht="23.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="D468" t="s">
+        <v>1236</v>
+      </c>
+    </row>
+    <row r="469" spans="4:4" ht="23.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="D469" t="s">
+        <v>1237</v>
+      </c>
+    </row>
+    <row r="470" spans="4:4" ht="23.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="D470" t="s">
+        <v>1238</v>
+      </c>
+    </row>
+    <row r="471" spans="4:4" ht="23.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="D471" t="s">
+        <v>1239</v>
+      </c>
+    </row>
+    <row r="472" spans="4:4" ht="23.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="D472" t="s">
+        <v>1240</v>
+      </c>
+    </row>
+    <row r="473" spans="4:4" ht="23.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="D473" t="s">
+        <v>1241</v>
+      </c>
+    </row>
+    <row r="474" spans="4:4" ht="23.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="D474" t="s">
+        <v>1242</v>
+      </c>
+    </row>
+    <row r="475" spans="4:4" ht="23.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="D475" t="s">
+        <v>1243</v>
+      </c>
+    </row>
+    <row r="476" spans="4:4" ht="23.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="D476" t="s">
+        <v>1244</v>
+      </c>
+    </row>
+    <row r="477" spans="4:4" ht="23.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="D477" t="s">
+        <v>1245</v>
+      </c>
+    </row>
+    <row r="478" spans="4:4" ht="23.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="D478" t="s">
+        <v>1246</v>
+      </c>
+    </row>
+    <row r="479" spans="4:4" ht="23.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="D479" t="s">
+        <v>1247</v>
+      </c>
+    </row>
+    <row r="480" spans="4:4" ht="23.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="D480" t="s">
+        <v>1248</v>
+      </c>
+    </row>
+    <row r="481" spans="4:4" ht="23.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="D481" t="s">
+        <v>1249</v>
+      </c>
+    </row>
+    <row r="482" spans="4:4" ht="23.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="D482" t="s">
+        <v>1250</v>
+      </c>
+    </row>
+    <row r="483" spans="4:4" ht="23.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="D483" t="s">
+        <v>1251</v>
+      </c>
+    </row>
+    <row r="484" spans="4:4" ht="23.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="D484" t="s">
+        <v>1252</v>
+      </c>
+    </row>
+    <row r="485" spans="4:4" ht="23.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="D485" t="s">
+        <v>1253</v>
+      </c>
+    </row>
+    <row r="486" spans="4:4" ht="23.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="D486" t="s">
+        <v>1254</v>
+      </c>
+    </row>
+    <row r="487" spans="4:4" ht="23.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="D487" t="s">
+        <v>1255</v>
+      </c>
+    </row>
+    <row r="488" spans="4:4" ht="23.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="D488" t="s">
+        <v>1256</v>
+      </c>
+    </row>
+    <row r="489" spans="4:4" ht="23.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="D489" t="s">
+        <v>1257</v>
+      </c>
+    </row>
+    <row r="490" spans="4:4" ht="23.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="D490" t="s">
+        <v>1258</v>
+      </c>
+    </row>
+    <row r="491" spans="4:4" ht="23.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="D491" t="s">
+        <v>1259</v>
+      </c>
+    </row>
+    <row r="492" spans="4:4" ht="23.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="D492" t="s">
+        <v>1260</v>
+      </c>
+    </row>
+    <row r="493" spans="4:4" ht="23.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="D493" t="s">
+        <v>1261</v>
+      </c>
+    </row>
+    <row r="494" spans="4:4" ht="23.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="D494" t="s">
+        <v>1262</v>
+      </c>
+    </row>
+    <row r="495" spans="4:4" ht="23.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="D495" t="s">
+        <v>1263</v>
+      </c>
+    </row>
+    <row r="496" spans="4:4" ht="23.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="D496" t="s">
+        <v>1264</v>
+      </c>
+    </row>
+    <row r="497" spans="4:4" ht="23.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="D497" t="s">
+        <v>1265</v>
+      </c>
+    </row>
+    <row r="498" spans="4:4" ht="23.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="D498" t="s">
+        <v>1266</v>
+      </c>
+    </row>
+    <row r="499" spans="4:4" ht="23.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="D499" t="s">
+        <v>1267</v>
+      </c>
+    </row>
+    <row r="500" spans="4:4" ht="23.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="D500" t="s">
+        <v>1268</v>
       </c>
     </row>
   </sheetData>

--- a/Book1.xlsx
+++ b/Book1.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2275" uniqueCount="1775">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2328" uniqueCount="1828">
   <si>
     <t>后九蜀寒拆九寒冷，后九无寒节节寒。</t>
   </si>
@@ -5466,9 +5466,6 @@
     <t>毛毛鸡——假大格。</t>
   </si>
   <si>
-    <t>贼去关门——洽迟。</t>
-  </si>
-  <si>
     <t>绱鞋卖水䖳——汝急伊狯急。</t>
   </si>
   <si>
@@ -5794,6 +5791,178 @@
   </si>
   <si>
     <t>𣤞囝食姜母——有食都是好。</t>
+  </si>
+  <si>
+    <t xml:space="preserve">①丁香蚵：一种状如火柴梗的小鱼干，以细小者为贵。 蚵：本字“荛”。《广韵》：“菴，干鱼，苦浩切。”②罔…… 罔……：越……越……。③絵值钱：不值钱。
+</t>
+  </si>
+  <si>
+    <t>①歇囝：傻瓜。②姜母：生姜。③有食都是好：吃什么 都好。</t>
+  </si>
+  <si>
+    <t>①去：离去。②恰：太。</t>
+  </si>
+  <si>
+    <t>贼去关门——恰迟。</t>
+  </si>
+  <si>
+    <t>①水姹：新鲜的海蛰。②汝：你。③伊：他。④脍急: 不着急。</t>
+  </si>
+  <si>
+    <t>除】绱鞋者终日坐着不紧不慢地干活，而卖鲜海蛰的扳子急 于求售要四处游走，因为待售的鲜海蛰在不停地化水收縮， 分量越来越轻。</t>
+  </si>
+  <si>
+    <t>①白面盾：娼寮。白面：娼妓。盾：家，房子。②固做: 还显得。③真：很。④光鲜：光彩漂亮。</t>
+  </si>
+  <si>
+    <t>【案】旧社会的娼寮门前挂红灯笔。</t>
+  </si>
+  <si>
+    <t>①花彩：小费。②偌夥：多少。③会使：可以。</t>
+  </si>
+  <si>
+    <t>①鸡母：母鸡。②粪扫：垃圾。③讨：找。</t>
+  </si>
+  <si>
+    <t>①孤老：麻疯病。②裡：进。</t>
+  </si>
+  <si>
+    <t>【喻】亲友往来中只收礼、不送礼的人。</t>
+  </si>
+  <si>
+    <t>①六月天：指盛夏。②老客：富有旅行经验者。</t>
+  </si>
+  <si>
+    <t>喻】有备无患。</t>
+  </si>
+  <si>
+    <t>①黄瓜鱼：大黄鱼。②放：指“放籽”，即产子。③春 籽：即小黄鱼，状如黄鱼而较小，口味远逊于大黄鱼。④蜀 代：一代。</t>
+  </si>
+  <si>
+    <t>【案】俗或以为“春籽”是大黄鱼所产的幼鱼，故有此说。</t>
+  </si>
+  <si>
+    <t>①火烧厝：火烧房子，失火6②受怪：可怜。“怪”的 本字可能是“过”。③东家：指事主。</t>
+  </si>
+  <si>
+    <t xml:space="preserve">辟】有了电视之后，还可以欣赏许多更精彩的场景：火车出 轨、飞机爆炸、大楼坍塌、波黑炮火、肯尼亚饥荒……
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">①乞食：乞丐。②死脍八倒：死了也不晓得该倒下。意 思是已落到如此糟糕境地还学公子哥儿玩鸟摆谱。
+</t>
+  </si>
+  <si>
+    <t>①曲蹄：旧称水居的船民。②颂：穿。③颟掰：指身体 受到束缚而行动不便的难受感觉。</t>
+  </si>
+  <si>
+    <t xml:space="preserve">旧社会船民备受歧视，有不得参加科举考试、不得在陆 地上建房、上岸行走不得穿峩等歧视性规约。
+</t>
+  </si>
+  <si>
+    <t>①牙：牙齿；字音为“牙齿”二字的合音。②食：吃。 ③正正好：正合适。</t>
+  </si>
+  <si>
+    <t>①招姐：福州民间故事中的喜剧型人物。②做新妇：出 嫁，当新娘。③懵懵眩：慌张忙乱。</t>
+  </si>
+  <si>
+    <t>①重重炮：象棋的“重炮”残局。②铁无解：铁定没有 解救之招。</t>
+  </si>
+  <si>
+    <t>①贱骨头：儿童玩的陀螺。②无……絵……：不……不
+……。③拍：打。④加流〈音〉：滚动，转动。</t>
+  </si>
+  <si>
+    <t>①小侬囝：处女。②媒侬：媒人。</t>
+  </si>
+  <si>
+    <t>①乞食婆：女丐。②走反：逃避战乱。③吼：动态助词； 着。④染染嘈：凑热闹。染：〈白读音〉混杂。嘈：〈白读 音〉嘈杂。</t>
+  </si>
+  <si>
+    <t>①怀使：不用。②伴房妈：职业性的婚礼伴娘，多为中 年妇女，能说会道，熟悉各种繁文缛节。③上轿：上花轿。 ④无师假师：不懂装懂。师：〈白读音〉精通，俗或写作司』。</t>
+  </si>
+  <si>
+    <t>排场：向他人炫耀。</t>
+  </si>
+  <si>
+    <t>①信：火药。②七处：到处。③跃：〈白读音〉奔跑跳 跃。</t>
+  </si>
+  <si>
+    <t>①蒲蝇：苍蝇。②乞食：乞丐。③野：很。④真：感觉 灵敏，判断准确。</t>
+  </si>
+  <si>
+    <t>苍绳靠灵敏的嗅觉迅速发现食物；乞丐特别留心关于婚 丧喜庆的消息，以便及时上门乞讨。</t>
+  </si>
+  <si>
+    <t xml:space="preserve">①瓮吼：坛子里。吼：处所助词，本字“里”。②摊：打 (拳〉。③拳头：武术。④舞脍开：施展不开。
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">①建宁府：今闽北地区，包括建瓯、建阳、武夷山、浦 城等市县。俗以为闽北山高日出迟。②洽：程度副词；太。
+</t>
+  </si>
+  <si>
+    <t>①鼓楼前：福州地名，附近有多家卖光饼的传统老店。 ②光饼：一种烘烤的面饼，面上烤得焦黄，中心有一脐状小 孔，传说是戚继光发明的军队干粮，士兵可用细绳穿饼挎在 身上行军打仗，所以称“光饼”。③偭做吼面：只做得面上 好看。偭：〈借用字〉范围副词；只，仅。吼：动态助词；了。 面：双关指“面子”。</t>
+  </si>
+  <si>
+    <t>①蜀：一。②摔壁：摔向墙壁。③无蜀粒夹粒：没有一 点儿关系。“夹粒”的字面意思是粘在墙上的米粒，同音词 指“关系”，本字不明。
+鼓楼前光饼^偭做吼面。</t>
+  </si>
+  <si>
+    <t>①眚盲：瞎子。②讨姆：娶妻，此处指择偶。③俪八: 只晓得，只要。偭：〈借用字〉只，仅。八：晓得，知道。</t>
+  </si>
+  <si>
+    <t>】①食蜀腹：吃了一肚子。②固吼：还，还在。③畏羞: 怕羞。④须：触须；与“羞”字白读音相同。</t>
+  </si>
+  <si>
+    <t>①芋瓠：瓤瓜的一种，长条状。②拍犬：打狗。③固： 还。④蜀长：一段。</t>
+  </si>
+  <si>
+    <t>①下渡尾：福州地名，在今仓山区。②迎神：福州旧俗， 每年在一定的日子抬着神像巡游，极盛时游行队伍可绵延 数里。③好看在后：好看的还在后头。</t>
+  </si>
+  <si>
+    <t>①塀骹：歧足。②师公：道士。③坐吼：坐着。吼：动 态助词；着。④做法：施法术。</t>
+  </si>
+  <si>
+    <t>【喻】自己坐着不动，支使别人做这做那。</t>
+  </si>
+  <si>
+    <t>①眠床：床。②平平：一样，同样。③悬：高；俗写同 音字“咸”。</t>
+  </si>
+  <si>
+    <t>【喻】谁也不比谁强。</t>
+  </si>
+  <si>
+    <t>【喻】脏话不离口。</t>
+  </si>
+  <si>
+    <t xml:space="preserve">①十八钱：十八个铜板。②俪：只。③吼：动态助词；了。④嘴：尿壶口，双关指嘴巴。 </t>
+  </si>
+  <si>
+    <t>【喻】能言善辩而别无他长的人物。</t>
+  </si>
+  <si>
+    <t xml:space="preserve">①鼎边糊：一种福州小吃，如北方的“片儿汤”，以米 浆制作。用大铁锅煮半锅汤，再以稠米浆在锅壁的上半部摊 成片状，即铲入汤汁中。鼎：铁锅。②蜀：一。③汶〈音〉： 制作“鼎边糊”时摊米浆的动作手势一一迅速地沿锅壁转一 圈；双关指短暂的交际接触。
+</t>
+  </si>
+  <si>
+    <t>【喻】善于交际，与人一见面就熟的人。</t>
+  </si>
+  <si>
+    <t>①青螯：蛤蜊。②怀食：不吃。③食碰：碰钉子。 “碰”与“蚌”同音。</t>
+  </si>
+  <si>
+    <t>【喻】自讨没趣。</t>
+  </si>
+  <si>
+    <t>①夫人奶：即“临水夫人陈靖姑”，福州及闽东一带民 间信仰的女神，旧福州有其庙宇多处，庙内有抽签问卜等活 动。②梢着：碰到。梢：〈方言俗字〉遇，碰。③脍圣：不 灵验。④卖线：指吆喝卖线的小贩。“卖线”与“脍圣”同 音。</t>
+  </si>
+  <si>
+    <t xml:space="preserve">①稀稀粥：很稀的粥。②滚汤：开水。③亲吼加亲：亲 上加亲。吼：处所助词。④清吼加清：〈稀薄的粥）变得更 稀了。清：〈粥）稀薄。“清”与“亲”同音。
+</t>
+  </si>
+  <si>
+    <t>①大泻天下：拉肚子拉得很厉害。②赦：“赦”与 “泻，，同音。</t>
   </si>
 </sst>
 </file>
@@ -6124,9 +6293,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:G518"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A472" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="A480" sqref="A480"/>
+    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A511" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="A519" sqref="A519"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="23.25" customHeight="1" x14ac:dyDescent="0.3"/>
@@ -8348,7 +8517,7 @@
         <v>564</v>
       </c>
       <c r="B130" s="3" t="s">
-        <v>1702</v>
+        <v>1701</v>
       </c>
       <c r="E130" t="s">
         <v>350</v>
@@ -8365,7 +8534,7 @@
         <v>565</v>
       </c>
       <c r="B131" s="3" t="s">
-        <v>1752</v>
+        <v>1751</v>
       </c>
       <c r="E131" t="s">
         <v>351</v>
@@ -8484,7 +8653,7 @@
         <v>572</v>
       </c>
       <c r="B138" s="3" t="s">
-        <v>1753</v>
+        <v>1752</v>
       </c>
       <c r="E138" t="s">
         <v>357</v>
@@ -8756,7 +8925,7 @@
         <v>610</v>
       </c>
       <c r="B154" s="1" t="s">
-        <v>1754</v>
+        <v>1753</v>
       </c>
       <c r="E154" t="s">
         <v>373</v>
@@ -8858,7 +9027,7 @@
         <v>621</v>
       </c>
       <c r="B160" s="3" t="s">
-        <v>1755</v>
+        <v>1754</v>
       </c>
       <c r="E160" t="s">
         <v>379</v>
@@ -8892,7 +9061,7 @@
         <v>624</v>
       </c>
       <c r="B162" s="3" t="s">
-        <v>1756</v>
+        <v>1755</v>
       </c>
       <c r="E162" t="s">
         <v>381</v>
@@ -9048,7 +9217,7 @@
         <v>642</v>
       </c>
       <c r="B171" s="3" t="s">
-        <v>1737</v>
+        <v>1736</v>
       </c>
       <c r="C171" s="1" t="s">
         <v>639</v>
@@ -9169,7 +9338,7 @@
         <v>396</v>
       </c>
       <c r="G177" t="s">
-        <v>1773</v>
+        <v>1772</v>
       </c>
     </row>
     <row r="178" spans="1:7" ht="23.25" customHeight="1" x14ac:dyDescent="0.3">
@@ -9187,7 +9356,7 @@
         <v>397</v>
       </c>
       <c r="G178" t="s">
-        <v>1773</v>
+        <v>1772</v>
       </c>
     </row>
     <row r="179" spans="1:7" ht="23.25" customHeight="1" x14ac:dyDescent="0.3">
@@ -9201,7 +9370,7 @@
         <v>398</v>
       </c>
       <c r="G179" t="s">
-        <v>1773</v>
+        <v>1772</v>
       </c>
     </row>
     <row r="180" spans="1:7" ht="23.25" customHeight="1" x14ac:dyDescent="0.3">
@@ -9218,7 +9387,7 @@
         <v>399</v>
       </c>
       <c r="G180" t="s">
-        <v>1773</v>
+        <v>1772</v>
       </c>
     </row>
     <row r="181" spans="1:7" ht="23.25" customHeight="1" x14ac:dyDescent="0.3">
@@ -9236,7 +9405,7 @@
         <v>400</v>
       </c>
       <c r="G181" t="s">
-        <v>1773</v>
+        <v>1772</v>
       </c>
     </row>
     <row r="182" spans="1:7" ht="23.25" customHeight="1" x14ac:dyDescent="0.3">
@@ -9253,7 +9422,7 @@
         <v>401</v>
       </c>
       <c r="G182" t="s">
-        <v>1773</v>
+        <v>1772</v>
       </c>
     </row>
     <row r="183" spans="1:7" ht="23.25" customHeight="1" x14ac:dyDescent="0.3">
@@ -9268,7 +9437,7 @@
         <v>402</v>
       </c>
       <c r="G183" t="s">
-        <v>1773</v>
+        <v>1772</v>
       </c>
     </row>
     <row r="184" spans="1:7" ht="23.25" customHeight="1" x14ac:dyDescent="0.3">
@@ -9285,7 +9454,7 @@
         <v>403</v>
       </c>
       <c r="G184" t="s">
-        <v>1773</v>
+        <v>1772</v>
       </c>
     </row>
     <row r="185" spans="1:7" ht="23.25" customHeight="1" x14ac:dyDescent="0.3">
@@ -9300,7 +9469,7 @@
         <v>404</v>
       </c>
       <c r="G185" t="s">
-        <v>1773</v>
+        <v>1772</v>
       </c>
     </row>
     <row r="186" spans="1:7" ht="23.25" customHeight="1" x14ac:dyDescent="0.3">
@@ -9317,7 +9486,7 @@
         <v>405</v>
       </c>
       <c r="G186" t="s">
-        <v>1773</v>
+        <v>1772</v>
       </c>
     </row>
     <row r="187" spans="1:7" ht="23.25" customHeight="1" x14ac:dyDescent="0.3">
@@ -9334,7 +9503,7 @@
         <v>406</v>
       </c>
       <c r="G187" t="s">
-        <v>1773</v>
+        <v>1772</v>
       </c>
     </row>
     <row r="188" spans="1:7" ht="23.25" customHeight="1" x14ac:dyDescent="0.3">
@@ -9351,7 +9520,7 @@
         <v>407</v>
       </c>
       <c r="G188" t="s">
-        <v>1773</v>
+        <v>1772</v>
       </c>
     </row>
     <row r="189" spans="1:7" ht="23.25" customHeight="1" x14ac:dyDescent="0.3">
@@ -9359,7 +9528,7 @@
         <v>688</v>
       </c>
       <c r="B189" s="1" t="s">
-        <v>1757</v>
+        <v>1756</v>
       </c>
       <c r="C189" s="1" t="s">
         <v>686</v>
@@ -9368,7 +9537,7 @@
         <v>408</v>
       </c>
       <c r="G189" t="s">
-        <v>1773</v>
+        <v>1772</v>
       </c>
     </row>
     <row r="190" spans="1:7" ht="23.25" customHeight="1" x14ac:dyDescent="0.3">
@@ -9385,7 +9554,7 @@
         <v>409</v>
       </c>
       <c r="G190" t="s">
-        <v>1773</v>
+        <v>1772</v>
       </c>
     </row>
     <row r="191" spans="1:7" ht="23.25" customHeight="1" x14ac:dyDescent="0.3">
@@ -9399,7 +9568,7 @@
         <v>410</v>
       </c>
       <c r="G191" t="s">
-        <v>1773</v>
+        <v>1772</v>
       </c>
     </row>
     <row r="192" spans="1:7" ht="23.25" customHeight="1" x14ac:dyDescent="0.3">
@@ -9767,7 +9936,7 @@
     </row>
     <row r="215" spans="1:7" ht="23.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A215" s="1" t="s">
-        <v>1739</v>
+        <v>1738</v>
       </c>
       <c r="B215" s="1" t="s">
         <v>751</v>
@@ -9784,7 +9953,7 @@
         <v>753</v>
       </c>
       <c r="B216" s="3" t="s">
-        <v>1758</v>
+        <v>1757</v>
       </c>
       <c r="C216" s="3" t="s">
         <v>752</v>
@@ -9970,7 +10139,7 @@
         <v>781</v>
       </c>
       <c r="B227" s="1" t="s">
-        <v>1759</v>
+        <v>1758</v>
       </c>
       <c r="C227" s="3" t="s">
         <v>784</v>
@@ -10289,7 +10458,7 @@
         <v>835</v>
       </c>
       <c r="B246" s="1" t="s">
-        <v>1740</v>
+        <v>1739</v>
       </c>
       <c r="E246" t="s">
         <v>465</v>
@@ -10475,7 +10644,7 @@
         <v>863</v>
       </c>
       <c r="B258" s="1" t="s">
-        <v>1741</v>
+        <v>1740</v>
       </c>
       <c r="C258" s="1" t="s">
         <v>864</v>
@@ -10489,10 +10658,10 @@
     </row>
     <row r="259" spans="1:7" ht="23.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A259" s="1" t="s">
+        <v>1759</v>
+      </c>
+      <c r="B259" s="3" t="s">
         <v>1760</v>
-      </c>
-      <c r="B259" s="3" t="s">
-        <v>1761</v>
       </c>
       <c r="E259" t="s">
         <v>478</v>
@@ -10742,7 +10911,7 @@
         <v>906</v>
       </c>
       <c r="B274" s="3" t="s">
-        <v>1762</v>
+        <v>1761</v>
       </c>
       <c r="C274" s="1" t="s">
         <v>907</v>
@@ -10886,7 +11055,7 @@
         <v>929</v>
       </c>
       <c r="B283" s="3" t="s">
-        <v>1742</v>
+        <v>1741</v>
       </c>
       <c r="C283" s="1" t="s">
         <v>930</v>
@@ -10939,7 +11108,7 @@
         <v>937</v>
       </c>
       <c r="B286" s="3" t="s">
-        <v>1763</v>
+        <v>1762</v>
       </c>
       <c r="E286" t="s">
         <v>505</v>
@@ -11182,10 +11351,10 @@
     </row>
     <row r="301" spans="1:7" ht="23.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A301" s="1" t="s">
-        <v>1703</v>
+        <v>1702</v>
       </c>
       <c r="B301" s="3" t="s">
-        <v>1738</v>
+        <v>1737</v>
       </c>
       <c r="C301" s="1" t="s">
         <v>987</v>
@@ -11202,7 +11371,7 @@
         <v>988</v>
       </c>
       <c r="B302" s="1" t="s">
-        <v>1764</v>
+        <v>1763</v>
       </c>
       <c r="C302" s="1" t="s">
         <v>989</v>
@@ -11219,7 +11388,7 @@
         <v>990</v>
       </c>
       <c r="B303" s="3" t="s">
-        <v>1765</v>
+        <v>1764</v>
       </c>
       <c r="C303" s="3" t="s">
         <v>991</v>
@@ -11506,10 +11675,10 @@
     </row>
     <row r="320" spans="1:7" ht="23.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A320" s="1" t="s">
+        <v>1703</v>
+      </c>
+      <c r="B320" s="3" t="s">
         <v>1704</v>
-      </c>
-      <c r="B320" s="3" t="s">
-        <v>1705</v>
       </c>
       <c r="C320" s="3" t="s">
         <v>1038</v>
@@ -11559,10 +11728,10 @@
     </row>
     <row r="323" spans="1:7" ht="23.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A323" s="1" t="s">
+        <v>1705</v>
+      </c>
+      <c r="B323" s="1" t="s">
         <v>1706</v>
-      </c>
-      <c r="B323" s="1" t="s">
-        <v>1707</v>
       </c>
       <c r="C323" s="3" t="s">
         <v>1245</v>
@@ -11597,7 +11766,7 @@
         <v>1252</v>
       </c>
       <c r="B325" s="3" t="s">
-        <v>1766</v>
+        <v>1765</v>
       </c>
       <c r="C325" s="1" t="s">
         <v>1248</v>
@@ -11827,7 +11996,7 @@
         <v>1286</v>
       </c>
       <c r="B339" s="3" t="s">
-        <v>1743</v>
+        <v>1742</v>
       </c>
       <c r="C339" s="1" t="s">
         <v>1287</v>
@@ -11889,10 +12058,10 @@
     </row>
     <row r="343" spans="1:7" ht="23.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A343" s="1" t="s">
+        <v>1707</v>
+      </c>
+      <c r="B343" s="1" t="s">
         <v>1708</v>
-      </c>
-      <c r="B343" s="1" t="s">
-        <v>1709</v>
       </c>
       <c r="C343" s="1" t="s">
         <v>1296</v>
@@ -12084,10 +12253,10 @@
     </row>
     <row r="355" spans="1:7" ht="23.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A355" s="1" t="s">
+        <v>1709</v>
+      </c>
+      <c r="B355" s="1" t="s">
         <v>1710</v>
-      </c>
-      <c r="B355" s="1" t="s">
-        <v>1711</v>
       </c>
       <c r="C355" s="3" t="s">
         <v>1327</v>
@@ -12303,10 +12472,10 @@
     </row>
     <row r="368" spans="1:7" ht="23.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A368" s="1" t="s">
+        <v>1711</v>
+      </c>
+      <c r="B368" s="1" t="s">
         <v>1712</v>
-      </c>
-      <c r="B368" s="1" t="s">
-        <v>1713</v>
       </c>
       <c r="C368" s="1" t="s">
         <v>1363</v>
@@ -12509,10 +12678,10 @@
     </row>
     <row r="380" spans="1:7" ht="23.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A380" s="3" t="s">
+        <v>1766</v>
+      </c>
+      <c r="B380" s="3" t="s">
         <v>1767</v>
-      </c>
-      <c r="B380" s="3" t="s">
-        <v>1768</v>
       </c>
       <c r="C380" s="1" t="s">
         <v>1397</v>
@@ -12898,7 +13067,7 @@
         <v>1462</v>
       </c>
       <c r="B403" s="3" t="s">
-        <v>1769</v>
+        <v>1768</v>
       </c>
       <c r="C403" s="1" t="s">
         <v>1463</v>
@@ -12912,10 +13081,10 @@
     </row>
     <row r="404" spans="1:7" ht="23.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A404" s="1" t="s">
+        <v>1713</v>
+      </c>
+      <c r="B404" s="3" t="s">
         <v>1714</v>
-      </c>
-      <c r="B404" s="3" t="s">
-        <v>1715</v>
       </c>
       <c r="C404" s="1" t="s">
         <v>1464</v>
@@ -13049,10 +13218,10 @@
     </row>
     <row r="412" spans="1:7" ht="23.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A412" s="1" t="s">
+        <v>1715</v>
+      </c>
+      <c r="B412" s="3" t="s">
         <v>1716</v>
-      </c>
-      <c r="B412" s="3" t="s">
-        <v>1717</v>
       </c>
       <c r="C412" s="1" t="s">
         <v>1486</v>
@@ -13114,10 +13283,10 @@
     </row>
     <row r="416" spans="1:7" ht="23.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A416" s="1" t="s">
+        <v>1717</v>
+      </c>
+      <c r="B416" s="1" t="s">
         <v>1718</v>
-      </c>
-      <c r="B416" s="1" t="s">
-        <v>1719</v>
       </c>
       <c r="C416" s="1" t="s">
         <v>1495</v>
@@ -13167,10 +13336,10 @@
     </row>
     <row r="419" spans="1:7" ht="23.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A419" s="1" t="s">
+        <v>1719</v>
+      </c>
+      <c r="B419" s="1" t="s">
         <v>1720</v>
-      </c>
-      <c r="B419" s="1" t="s">
-        <v>1721</v>
       </c>
       <c r="C419" s="1" t="s">
         <v>1502</v>
@@ -13201,10 +13370,10 @@
     </row>
     <row r="421" spans="1:7" ht="23.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A421" s="1" t="s">
+        <v>1721</v>
+      </c>
+      <c r="B421" s="3" t="s">
         <v>1722</v>
-      </c>
-      <c r="B421" s="3" t="s">
-        <v>1723</v>
       </c>
       <c r="C421" s="1" t="s">
         <v>1506</v>
@@ -13427,10 +13596,10 @@
     </row>
     <row r="435" spans="1:7" ht="23.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A435" s="1" t="s">
-        <v>1724</v>
+        <v>1723</v>
       </c>
       <c r="B435" s="3" t="s">
-        <v>1770</v>
+        <v>1769</v>
       </c>
       <c r="C435" s="1" t="s">
         <v>1542</v>
@@ -13482,7 +13651,7 @@
         <v>1549</v>
       </c>
       <c r="B438" s="3" t="s">
-        <v>1744</v>
+        <v>1743</v>
       </c>
       <c r="C438" s="1" t="s">
         <v>1550</v>
@@ -13731,10 +13900,10 @@
     </row>
     <row r="453" spans="1:7" ht="23.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A453" s="1" t="s">
+        <v>1724</v>
+      </c>
+      <c r="B453" s="3" t="s">
         <v>1725</v>
-      </c>
-      <c r="B453" s="3" t="s">
-        <v>1726</v>
       </c>
       <c r="C453" s="1" t="s">
         <v>1590</v>
@@ -13748,10 +13917,10 @@
     </row>
     <row r="454" spans="1:7" ht="23.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A454" s="1" t="s">
+        <v>1726</v>
+      </c>
+      <c r="B454" s="1" t="s">
         <v>1727</v>
-      </c>
-      <c r="B454" s="1" t="s">
-        <v>1728</v>
       </c>
       <c r="C454" s="1" t="s">
         <v>1591</v>
@@ -13799,10 +13968,10 @@
     </row>
     <row r="457" spans="1:7" ht="23.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A457" s="1" t="s">
+        <v>1744</v>
+      </c>
+      <c r="B457" s="1" t="s">
         <v>1745</v>
-      </c>
-      <c r="B457" s="1" t="s">
-        <v>1746</v>
       </c>
       <c r="C457" s="3" t="s">
         <v>1598</v>
@@ -13817,10 +13986,10 @@
     </row>
     <row r="458" spans="1:7" ht="23.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A458" s="1" t="s">
+        <v>1728</v>
+      </c>
+      <c r="B458" s="1" t="s">
         <v>1729</v>
-      </c>
-      <c r="B458" s="1" t="s">
-        <v>1730</v>
       </c>
       <c r="C458" s="3" t="s">
         <v>1599</v>
@@ -13906,7 +14075,7 @@
         <v>1612</v>
       </c>
       <c r="B463" s="1" t="s">
-        <v>1771</v>
+        <v>1770</v>
       </c>
       <c r="C463" s="1" t="s">
         <v>1613</v>
@@ -14058,7 +14227,7 @@
         <v>1636</v>
       </c>
       <c r="B472" s="1" t="s">
-        <v>1772</v>
+        <v>1771</v>
       </c>
       <c r="E472" t="s">
         <v>1216</v>
@@ -14138,7 +14307,7 @@
     </row>
     <row r="477" spans="1:7" ht="23.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A477" s="1" t="s">
-        <v>1747</v>
+        <v>1746</v>
       </c>
       <c r="B477" s="3" t="s">
         <v>1650</v>
@@ -14172,7 +14341,10 @@
     </row>
     <row r="479" spans="1:7" ht="23.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A479" s="1" t="s">
-        <v>1748</v>
+        <v>1747</v>
+      </c>
+      <c r="B479" s="3" t="s">
+        <v>1774</v>
       </c>
       <c r="E479" t="s">
         <v>1223</v>
@@ -14186,7 +14358,10 @@
     </row>
     <row r="480" spans="1:7" ht="23.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A480" s="1" t="s">
-        <v>1774</v>
+        <v>1773</v>
+      </c>
+      <c r="B480" s="1" t="s">
+        <v>1775</v>
       </c>
       <c r="E480" t="s">
         <v>1224</v>
@@ -14200,7 +14375,10 @@
     </row>
     <row r="481" spans="1:7" ht="23.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A481" s="1" t="s">
-        <v>1673</v>
+        <v>1777</v>
+      </c>
+      <c r="B481" s="1" t="s">
+        <v>1776</v>
       </c>
       <c r="E481" t="s">
         <v>1225</v>
@@ -14214,7 +14392,13 @@
     </row>
     <row r="482" spans="1:7" ht="23.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A482" s="1" t="s">
-        <v>1674</v>
+        <v>1673</v>
+      </c>
+      <c r="B482" s="1" t="s">
+        <v>1778</v>
+      </c>
+      <c r="C482" s="1" t="s">
+        <v>1779</v>
       </c>
       <c r="E482" t="s">
         <v>1226</v>
@@ -14228,7 +14412,13 @@
     </row>
     <row r="483" spans="1:7" ht="23.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A483" s="1" t="s">
-        <v>1675</v>
+        <v>1674</v>
+      </c>
+      <c r="B483" s="1" t="s">
+        <v>1780</v>
+      </c>
+      <c r="C483" s="1" t="s">
+        <v>1781</v>
       </c>
       <c r="E483" t="s">
         <v>1227</v>
@@ -14244,6 +14434,9 @@
       <c r="A484" s="1" t="s">
         <v>1652</v>
       </c>
+      <c r="B484" s="1" t="s">
+        <v>1782</v>
+      </c>
       <c r="E484" t="s">
         <v>1228</v>
       </c>
@@ -14256,7 +14449,10 @@
     </row>
     <row r="485" spans="1:7" ht="23.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A485" s="1" t="s">
-        <v>1676</v>
+        <v>1675</v>
+      </c>
+      <c r="B485" s="1" t="s">
+        <v>1783</v>
       </c>
       <c r="E485" t="s">
         <v>1229</v>
@@ -14270,7 +14466,13 @@
     </row>
     <row r="486" spans="1:7" ht="23.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A486" s="1" t="s">
-        <v>1677</v>
+        <v>1676</v>
+      </c>
+      <c r="B486" s="1" t="s">
+        <v>1784</v>
+      </c>
+      <c r="C486" s="1" t="s">
+        <v>1785</v>
       </c>
       <c r="E486" t="s">
         <v>1230</v>
@@ -14284,7 +14486,13 @@
     </row>
     <row r="487" spans="1:7" ht="23.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A487" s="1" t="s">
-        <v>1678</v>
+        <v>1677</v>
+      </c>
+      <c r="B487" s="1" t="s">
+        <v>1786</v>
+      </c>
+      <c r="C487" s="1" t="s">
+        <v>1787</v>
       </c>
       <c r="E487" t="s">
         <v>1231</v>
@@ -14298,7 +14506,13 @@
     </row>
     <row r="488" spans="1:7" ht="23.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A488" s="1" t="s">
-        <v>1679</v>
+        <v>1678</v>
+      </c>
+      <c r="B488" s="1" t="s">
+        <v>1788</v>
+      </c>
+      <c r="C488" s="1" t="s">
+        <v>1789</v>
       </c>
       <c r="E488" t="s">
         <v>1232</v>
@@ -14312,7 +14526,13 @@
     </row>
     <row r="489" spans="1:7" ht="23.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A489" s="1" t="s">
-        <v>1680</v>
+        <v>1679</v>
+      </c>
+      <c r="B489" s="1" t="s">
+        <v>1790</v>
+      </c>
+      <c r="C489" s="3" t="s">
+        <v>1791</v>
       </c>
       <c r="E489" t="s">
         <v>1233</v>
@@ -14326,7 +14546,10 @@
     </row>
     <row r="490" spans="1:7" ht="23.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A490" s="1" t="s">
-        <v>1681</v>
+        <v>1680</v>
+      </c>
+      <c r="B490" s="3" t="s">
+        <v>1792</v>
       </c>
       <c r="E490" t="s">
         <v>1234</v>
@@ -14340,7 +14563,13 @@
     </row>
     <row r="491" spans="1:7" ht="23.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A491" s="1" t="s">
-        <v>1682</v>
+        <v>1681</v>
+      </c>
+      <c r="B491" s="1" t="s">
+        <v>1793</v>
+      </c>
+      <c r="C491" s="3" t="s">
+        <v>1794</v>
       </c>
       <c r="E491" t="s">
         <v>1235</v>
@@ -14354,7 +14583,10 @@
     </row>
     <row r="492" spans="1:7" ht="23.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A492" s="1" t="s">
-        <v>1683</v>
+        <v>1682</v>
+      </c>
+      <c r="B492" s="1" t="s">
+        <v>1795</v>
       </c>
       <c r="E492" t="s">
         <v>1236</v>
@@ -14368,7 +14600,10 @@
     </row>
     <row r="493" spans="1:7" ht="23.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A493" s="1" t="s">
-        <v>1684</v>
+        <v>1683</v>
+      </c>
+      <c r="B493" s="1" t="s">
+        <v>1796</v>
       </c>
       <c r="E493" t="s">
         <v>1237</v>
@@ -14382,7 +14617,10 @@
     </row>
     <row r="494" spans="1:7" ht="23.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A494" s="1" t="s">
-        <v>1685</v>
+        <v>1684</v>
+      </c>
+      <c r="B494" s="1" t="s">
+        <v>1797</v>
       </c>
       <c r="E494" t="s">
         <v>1238</v>
@@ -14396,7 +14634,10 @@
     </row>
     <row r="495" spans="1:7" ht="23.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A495" s="1" t="s">
-        <v>1749</v>
+        <v>1748</v>
+      </c>
+      <c r="B495" s="3" t="s">
+        <v>1798</v>
       </c>
       <c r="E495" t="s">
         <v>1239</v>
@@ -14410,7 +14651,10 @@
     </row>
     <row r="496" spans="1:7" ht="23.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A496" s="1" t="s">
-        <v>1686</v>
+        <v>1685</v>
+      </c>
+      <c r="B496" s="1" t="s">
+        <v>1799</v>
       </c>
       <c r="E496" t="s">
         <v>1240</v>
@@ -14424,7 +14668,10 @@
     </row>
     <row r="497" spans="1:7" ht="23.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A497" s="1" t="s">
-        <v>1731</v>
+        <v>1730</v>
+      </c>
+      <c r="B497" s="1" t="s">
+        <v>1800</v>
       </c>
       <c r="E497" t="s">
         <v>1241</v>
@@ -14438,7 +14685,10 @@
     </row>
     <row r="498" spans="1:7" ht="23.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A498" s="1" t="s">
-        <v>1687</v>
+        <v>1686</v>
+      </c>
+      <c r="B498" s="1" t="s">
+        <v>1801</v>
       </c>
       <c r="E498" t="s">
         <v>1242</v>
@@ -14452,7 +14702,10 @@
     </row>
     <row r="499" spans="1:7" ht="23.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A499" s="1" t="s">
-        <v>1688</v>
+        <v>1687</v>
+      </c>
+      <c r="B499" s="1" t="s">
+        <v>1802</v>
       </c>
       <c r="E499" t="s">
         <v>1243</v>
@@ -14466,7 +14719,10 @@
     </row>
     <row r="500" spans="1:7" ht="23.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A500" s="1" t="s">
-        <v>1689</v>
+        <v>1688</v>
+      </c>
+      <c r="B500" s="1" t="s">
+        <v>1803</v>
       </c>
       <c r="E500" t="s">
         <v>1244</v>
@@ -14480,7 +14736,13 @@
     </row>
     <row r="501" spans="1:7" ht="23.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A501" s="1" t="s">
-        <v>1690</v>
+        <v>1689</v>
+      </c>
+      <c r="B501" s="1" t="s">
+        <v>1804</v>
+      </c>
+      <c r="C501" s="1" t="s">
+        <v>1805</v>
       </c>
       <c r="E501" t="s">
         <v>1655</v>
@@ -14494,7 +14756,10 @@
     </row>
     <row r="502" spans="1:7" ht="23.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A502" s="1" t="s">
-        <v>1750</v>
+        <v>1749</v>
+      </c>
+      <c r="B502" s="3" t="s">
+        <v>1806</v>
       </c>
       <c r="E502" t="s">
         <v>1656</v>
@@ -14508,7 +14773,10 @@
     </row>
     <row r="503" spans="1:7" ht="23.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A503" s="1" t="s">
-        <v>1691</v>
+        <v>1690</v>
+      </c>
+      <c r="B503" s="3" t="s">
+        <v>1807</v>
       </c>
       <c r="E503" t="s">
         <v>1657</v>
@@ -14522,7 +14790,10 @@
     </row>
     <row r="504" spans="1:7" ht="23.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A504" s="1" t="s">
-        <v>1692</v>
+        <v>1691</v>
+      </c>
+      <c r="B504" s="1" t="s">
+        <v>1810</v>
       </c>
       <c r="E504" t="s">
         <v>1658</v>
@@ -14536,7 +14807,10 @@
     </row>
     <row r="505" spans="1:7" ht="23.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A505" s="1" t="s">
-        <v>1693</v>
+        <v>1692</v>
+      </c>
+      <c r="B505" s="3" t="s">
+        <v>1809</v>
       </c>
       <c r="E505" t="s">
         <v>1659</v>
@@ -14550,7 +14824,10 @@
     </row>
     <row r="506" spans="1:7" ht="23.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A506" s="1" t="s">
-        <v>1732</v>
+        <v>1731</v>
+      </c>
+      <c r="B506" s="1" t="s">
+        <v>1808</v>
       </c>
       <c r="E506" t="s">
         <v>1660</v>
@@ -14564,7 +14841,10 @@
     </row>
     <row r="507" spans="1:7" ht="23.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A507" s="1" t="s">
-        <v>1733</v>
+        <v>1732</v>
+      </c>
+      <c r="B507" s="1" t="s">
+        <v>1811</v>
       </c>
       <c r="E507" t="s">
         <v>1661</v>
@@ -14578,7 +14858,10 @@
     </row>
     <row r="508" spans="1:7" ht="23.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A508" s="1" t="s">
-        <v>1694</v>
+        <v>1693</v>
+      </c>
+      <c r="B508" s="1" t="s">
+        <v>1812</v>
       </c>
       <c r="E508" t="s">
         <v>1662</v>
@@ -14592,7 +14875,10 @@
     </row>
     <row r="509" spans="1:7" ht="23.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A509" s="1" t="s">
-        <v>1695</v>
+        <v>1694</v>
+      </c>
+      <c r="B509" s="1" t="s">
+        <v>1813</v>
       </c>
       <c r="E509" t="s">
         <v>1663</v>
@@ -14606,7 +14892,13 @@
     </row>
     <row r="510" spans="1:7" ht="23.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A510" s="1" t="s">
-        <v>1734</v>
+        <v>1733</v>
+      </c>
+      <c r="B510" s="1" t="s">
+        <v>1814</v>
+      </c>
+      <c r="C510" s="1" t="s">
+        <v>1815</v>
       </c>
       <c r="E510" t="s">
         <v>1664</v>
@@ -14620,10 +14912,16 @@
     </row>
     <row r="511" spans="1:7" ht="23.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A511" s="1" t="s">
-        <v>1697</v>
+        <v>1696</v>
+      </c>
+      <c r="B511" s="1" t="s">
+        <v>1816</v>
+      </c>
+      <c r="C511" s="1" t="s">
+        <v>1817</v>
       </c>
       <c r="E511" t="s">
-        <v>1701</v>
+        <v>1700</v>
       </c>
       <c r="F511">
         <v>144</v>
@@ -14634,11 +14932,14 @@
     </row>
     <row r="512" spans="1:7" ht="23.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A512" s="1" t="s">
-        <v>1696</v>
+        <v>1695</v>
       </c>
       <c r="B512" s="1" t="s">
         <v>1654</v>
       </c>
+      <c r="C512" s="1" t="s">
+        <v>1818</v>
+      </c>
       <c r="E512" t="s">
         <v>1665</v>
       </c>
@@ -14651,7 +14952,13 @@
     </row>
     <row r="513" spans="1:7" ht="23.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A513" s="1" t="s">
-        <v>1735</v>
+        <v>1734</v>
+      </c>
+      <c r="B513" s="1" t="s">
+        <v>1819</v>
+      </c>
+      <c r="C513" s="1" t="s">
+        <v>1820</v>
       </c>
       <c r="E513" t="s">
         <v>1666</v>
@@ -14665,7 +14972,13 @@
     </row>
     <row r="514" spans="1:7" ht="23.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A514" s="1" t="s">
-        <v>1698</v>
+        <v>1697</v>
+      </c>
+      <c r="B514" s="3" t="s">
+        <v>1821</v>
+      </c>
+      <c r="C514" s="1" t="s">
+        <v>1822</v>
       </c>
       <c r="E514" t="s">
         <v>1667</v>
@@ -14679,7 +14992,13 @@
     </row>
     <row r="515" spans="1:7" ht="23.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A515" s="1" t="s">
-        <v>1699</v>
+        <v>1698</v>
+      </c>
+      <c r="B515" s="1" t="s">
+        <v>1823</v>
+      </c>
+      <c r="C515" s="1" t="s">
+        <v>1824</v>
       </c>
       <c r="E515" t="s">
         <v>1668</v>
@@ -14693,7 +15012,10 @@
     </row>
     <row r="516" spans="1:7" ht="23.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A516" s="1" t="s">
-        <v>1751</v>
+        <v>1750</v>
+      </c>
+      <c r="B516" s="1" t="s">
+        <v>1825</v>
       </c>
       <c r="E516" t="s">
         <v>1669</v>
@@ -14707,7 +15029,10 @@
     </row>
     <row r="517" spans="1:7" ht="23.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A517" s="1" t="s">
-        <v>1736</v>
+        <v>1735</v>
+      </c>
+      <c r="B517" s="3" t="s">
+        <v>1826</v>
       </c>
       <c r="E517" t="s">
         <v>1670</v>
@@ -14721,7 +15046,10 @@
     </row>
     <row r="518" spans="1:7" ht="23.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A518" s="1" t="s">
-        <v>1700</v>
+        <v>1699</v>
+      </c>
+      <c r="B518" s="1" t="s">
+        <v>1827</v>
       </c>
       <c r="E518" t="s">
         <v>1671</v>

--- a/Book1.xlsx
+++ b/Book1.xlsx
@@ -2498,9 +2498,6 @@
 </t>
   </si>
   <si>
-    <t>下邪𣍐富，十二月纃统裤。</t>
-  </si>
-  <si>
     <t>使千使万，尿壶无掼。</t>
   </si>
   <si>
@@ -3358,9 +3355,6 @@
 </t>
   </si>
   <si>
-    <t>讨亲长长阵，拜堂偭两奇。</t>
-  </si>
-  <si>
     <t>①讨亲：娶亲。②长长阵：队伍很长。③偭：〈借用 字〉只，仅。④两奇：两个（人〉。</t>
   </si>
   <si>
@@ -5963,6 +5957,12 @@
   </si>
   <si>
     <t>①大泻天下：拉肚子拉得很厉害。②赦：“赦”与 “泻，，同音。</t>
+  </si>
+  <si>
+    <t>下邪𣍐富，十二月颂纃裤。</t>
+  </si>
+  <si>
+    <t>讨亲长长阵，拜堂俪两奇。</t>
   </si>
 </sst>
 </file>
@@ -6293,16 +6293,16 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:G518"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A511" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="A519" sqref="A519"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A302" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="A307" sqref="A307"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="23.25" customHeight="1" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="53" style="1" customWidth="1"/>
-    <col min="2" max="2" width="32.85546875" style="1" customWidth="1"/>
-    <col min="3" max="4" width="16.5703125" style="1" customWidth="1"/>
+    <col min="2" max="2" width="32.85546875" style="1" hidden="1" customWidth="1"/>
+    <col min="3" max="4" width="16.5703125" style="1" hidden="1" customWidth="1"/>
     <col min="5" max="5" width="37" customWidth="1"/>
     <col min="6" max="6" width="9.140625" customWidth="1"/>
     <col min="7" max="7" width="12.42578125" customWidth="1"/>
@@ -6319,7 +6319,7 @@
         <v>151</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>1649</v>
+        <v>1647</v>
       </c>
       <c r="E1" t="s">
         <v>219</v>
@@ -8517,7 +8517,7 @@
         <v>564</v>
       </c>
       <c r="B130" s="3" t="s">
-        <v>1701</v>
+        <v>1699</v>
       </c>
       <c r="E130" t="s">
         <v>350</v>
@@ -8534,7 +8534,7 @@
         <v>565</v>
       </c>
       <c r="B131" s="3" t="s">
-        <v>1751</v>
+        <v>1749</v>
       </c>
       <c r="E131" t="s">
         <v>351</v>
@@ -8653,7 +8653,7 @@
         <v>572</v>
       </c>
       <c r="B138" s="3" t="s">
-        <v>1752</v>
+        <v>1750</v>
       </c>
       <c r="E138" t="s">
         <v>357</v>
@@ -8786,10 +8786,10 @@
     </row>
     <row r="146" spans="1:7" ht="23.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A146" s="1" t="s">
+        <v>958</v>
+      </c>
+      <c r="B146" s="3" t="s">
         <v>959</v>
-      </c>
-      <c r="B146" s="3" t="s">
-        <v>960</v>
       </c>
       <c r="E146" t="s">
         <v>365</v>
@@ -8925,7 +8925,7 @@
         <v>610</v>
       </c>
       <c r="B154" s="1" t="s">
-        <v>1753</v>
+        <v>1751</v>
       </c>
       <c r="E154" t="s">
         <v>373</v>
@@ -9027,7 +9027,7 @@
         <v>621</v>
       </c>
       <c r="B160" s="3" t="s">
-        <v>1754</v>
+        <v>1752</v>
       </c>
       <c r="E160" t="s">
         <v>379</v>
@@ -9061,7 +9061,7 @@
         <v>624</v>
       </c>
       <c r="B162" s="3" t="s">
-        <v>1755</v>
+        <v>1753</v>
       </c>
       <c r="E162" t="s">
         <v>381</v>
@@ -9163,7 +9163,7 @@
         <v>635</v>
       </c>
       <c r="B168" s="3" t="s">
-        <v>961</v>
+        <v>960</v>
       </c>
       <c r="E168" t="s">
         <v>387</v>
@@ -9217,7 +9217,7 @@
         <v>642</v>
       </c>
       <c r="B171" s="3" t="s">
-        <v>1736</v>
+        <v>1734</v>
       </c>
       <c r="C171" s="1" t="s">
         <v>639</v>
@@ -9338,7 +9338,7 @@
         <v>396</v>
       </c>
       <c r="G177" t="s">
-        <v>1772</v>
+        <v>1770</v>
       </c>
     </row>
     <row r="178" spans="1:7" ht="23.25" customHeight="1" x14ac:dyDescent="0.3">
@@ -9356,7 +9356,7 @@
         <v>397</v>
       </c>
       <c r="G178" t="s">
-        <v>1772</v>
+        <v>1770</v>
       </c>
     </row>
     <row r="179" spans="1:7" ht="23.25" customHeight="1" x14ac:dyDescent="0.3">
@@ -9370,7 +9370,7 @@
         <v>398</v>
       </c>
       <c r="G179" t="s">
-        <v>1772</v>
+        <v>1770</v>
       </c>
     </row>
     <row r="180" spans="1:7" ht="23.25" customHeight="1" x14ac:dyDescent="0.3">
@@ -9387,7 +9387,7 @@
         <v>399</v>
       </c>
       <c r="G180" t="s">
-        <v>1772</v>
+        <v>1770</v>
       </c>
     </row>
     <row r="181" spans="1:7" ht="23.25" customHeight="1" x14ac:dyDescent="0.3">
@@ -9405,15 +9405,15 @@
         <v>400</v>
       </c>
       <c r="G181" t="s">
-        <v>1772</v>
+        <v>1770</v>
       </c>
     </row>
     <row r="182" spans="1:7" ht="23.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A182" s="1" t="s">
+        <v>961</v>
+      </c>
+      <c r="B182" s="1" t="s">
         <v>962</v>
-      </c>
-      <c r="B182" s="1" t="s">
-        <v>963</v>
       </c>
       <c r="C182" s="1" t="s">
         <v>669</v>
@@ -9422,7 +9422,7 @@
         <v>401</v>
       </c>
       <c r="G182" t="s">
-        <v>1772</v>
+        <v>1770</v>
       </c>
     </row>
     <row r="183" spans="1:7" ht="23.25" customHeight="1" x14ac:dyDescent="0.3">
@@ -9437,7 +9437,7 @@
         <v>402</v>
       </c>
       <c r="G183" t="s">
-        <v>1772</v>
+        <v>1770</v>
       </c>
     </row>
     <row r="184" spans="1:7" ht="23.25" customHeight="1" x14ac:dyDescent="0.3">
@@ -9454,7 +9454,7 @@
         <v>403</v>
       </c>
       <c r="G184" t="s">
-        <v>1772</v>
+        <v>1770</v>
       </c>
     </row>
     <row r="185" spans="1:7" ht="23.25" customHeight="1" x14ac:dyDescent="0.3">
@@ -9469,7 +9469,7 @@
         <v>404</v>
       </c>
       <c r="G185" t="s">
-        <v>1772</v>
+        <v>1770</v>
       </c>
     </row>
     <row r="186" spans="1:7" ht="23.25" customHeight="1" x14ac:dyDescent="0.3">
@@ -9486,7 +9486,7 @@
         <v>405</v>
       </c>
       <c r="G186" t="s">
-        <v>1772</v>
+        <v>1770</v>
       </c>
     </row>
     <row r="187" spans="1:7" ht="23.25" customHeight="1" x14ac:dyDescent="0.3">
@@ -9503,7 +9503,7 @@
         <v>406</v>
       </c>
       <c r="G187" t="s">
-        <v>1772</v>
+        <v>1770</v>
       </c>
     </row>
     <row r="188" spans="1:7" ht="23.25" customHeight="1" x14ac:dyDescent="0.3">
@@ -9520,7 +9520,7 @@
         <v>407</v>
       </c>
       <c r="G188" t="s">
-        <v>1772</v>
+        <v>1770</v>
       </c>
     </row>
     <row r="189" spans="1:7" ht="23.25" customHeight="1" x14ac:dyDescent="0.3">
@@ -9528,7 +9528,7 @@
         <v>688</v>
       </c>
       <c r="B189" s="1" t="s">
-        <v>1756</v>
+        <v>1754</v>
       </c>
       <c r="C189" s="1" t="s">
         <v>686</v>
@@ -9537,7 +9537,7 @@
         <v>408</v>
       </c>
       <c r="G189" t="s">
-        <v>1772</v>
+        <v>1770</v>
       </c>
     </row>
     <row r="190" spans="1:7" ht="23.25" customHeight="1" x14ac:dyDescent="0.3">
@@ -9554,7 +9554,7 @@
         <v>409</v>
       </c>
       <c r="G190" t="s">
-        <v>1772</v>
+        <v>1770</v>
       </c>
     </row>
     <row r="191" spans="1:7" ht="23.25" customHeight="1" x14ac:dyDescent="0.3">
@@ -9568,7 +9568,7 @@
         <v>410</v>
       </c>
       <c r="G191" t="s">
-        <v>1772</v>
+        <v>1770</v>
       </c>
     </row>
     <row r="192" spans="1:7" ht="23.25" customHeight="1" x14ac:dyDescent="0.3">
@@ -9699,10 +9699,10 @@
     </row>
     <row r="200" spans="1:7" ht="23.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A200" s="1" t="s">
+        <v>963</v>
+      </c>
+      <c r="B200" s="1" t="s">
         <v>964</v>
-      </c>
-      <c r="B200" s="1" t="s">
-        <v>965</v>
       </c>
       <c r="C200" s="1" t="s">
         <v>716</v>
@@ -9838,7 +9838,7 @@
     </row>
     <row r="209" spans="1:7" ht="23.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A209" s="1" t="s">
-        <v>737</v>
+        <v>1826</v>
       </c>
       <c r="B209" s="3" t="s">
         <v>736</v>
@@ -9852,13 +9852,13 @@
     </row>
     <row r="210" spans="1:7" ht="23.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A210" s="1" t="s">
+        <v>737</v>
+      </c>
+      <c r="B210" s="1" t="s">
         <v>738</v>
       </c>
-      <c r="B210" s="1" t="s">
+      <c r="C210" s="1" t="s">
         <v>739</v>
-      </c>
-      <c r="C210" s="1" t="s">
-        <v>740</v>
       </c>
       <c r="E210" t="s">
         <v>429</v>
@@ -9869,10 +9869,10 @@
     </row>
     <row r="211" spans="1:7" ht="23.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A211" s="1" t="s">
+        <v>740</v>
+      </c>
+      <c r="C211" s="3" t="s">
         <v>741</v>
-      </c>
-      <c r="C211" s="3" t="s">
-        <v>742</v>
       </c>
       <c r="D211" s="3"/>
       <c r="E211" t="s">
@@ -9884,13 +9884,13 @@
     </row>
     <row r="212" spans="1:7" ht="23.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A212" s="1" t="s">
+        <v>965</v>
+      </c>
+      <c r="B212" s="1" t="s">
         <v>966</v>
       </c>
-      <c r="B212" s="1" t="s">
-        <v>967</v>
-      </c>
       <c r="C212" s="1" t="s">
-        <v>743</v>
+        <v>742</v>
       </c>
       <c r="E212" t="s">
         <v>431</v>
@@ -9901,228 +9901,228 @@
     </row>
     <row r="213" spans="1:7" ht="23.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A213" s="1" t="s">
-        <v>744</v>
+        <v>743</v>
       </c>
       <c r="B213" s="3" t="s">
+        <v>745</v>
+      </c>
+      <c r="C213" s="3" t="s">
         <v>746</v>
-      </c>
-      <c r="C213" s="3" t="s">
-        <v>747</v>
       </c>
       <c r="D213" s="3"/>
       <c r="E213" t="s">
         <v>432</v>
       </c>
       <c r="G213" t="s">
-        <v>745</v>
+        <v>744</v>
       </c>
     </row>
     <row r="214" spans="1:7" ht="23.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A214" s="1" t="s">
+        <v>747</v>
+      </c>
+      <c r="B214" s="1" t="s">
         <v>748</v>
       </c>
-      <c r="B214" s="1" t="s">
+      <c r="C214" s="1" t="s">
         <v>749</v>
-      </c>
-      <c r="C214" s="1" t="s">
-        <v>750</v>
       </c>
       <c r="E214" t="s">
         <v>433</v>
       </c>
       <c r="G214" t="s">
-        <v>745</v>
+        <v>744</v>
       </c>
     </row>
     <row r="215" spans="1:7" ht="23.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A215" s="1" t="s">
-        <v>1738</v>
+        <v>1736</v>
       </c>
       <c r="B215" s="1" t="s">
-        <v>751</v>
+        <v>750</v>
       </c>
       <c r="E215" t="s">
         <v>434</v>
       </c>
       <c r="G215" t="s">
-        <v>745</v>
+        <v>744</v>
       </c>
     </row>
     <row r="216" spans="1:7" ht="23.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A216" s="1" t="s">
-        <v>753</v>
+        <v>752</v>
       </c>
       <c r="B216" s="3" t="s">
-        <v>1757</v>
+        <v>1755</v>
       </c>
       <c r="C216" s="3" t="s">
-        <v>752</v>
+        <v>751</v>
       </c>
       <c r="D216" s="3"/>
       <c r="E216" t="s">
         <v>435</v>
       </c>
       <c r="G216" t="s">
-        <v>745</v>
+        <v>744</v>
       </c>
     </row>
     <row r="217" spans="1:7" ht="23.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A217" s="1" t="s">
+        <v>753</v>
+      </c>
+      <c r="B217" s="3" t="s">
         <v>754</v>
       </c>
-      <c r="B217" s="3" t="s">
+      <c r="C217" s="3" t="s">
         <v>755</v>
-      </c>
-      <c r="C217" s="3" t="s">
-        <v>756</v>
       </c>
       <c r="D217" s="3"/>
       <c r="E217" t="s">
         <v>436</v>
       </c>
       <c r="G217" t="s">
-        <v>745</v>
+        <v>744</v>
       </c>
     </row>
     <row r="218" spans="1:7" ht="23.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A218" s="1" t="s">
+        <v>756</v>
+      </c>
+      <c r="B218" s="3" t="s">
         <v>757</v>
       </c>
-      <c r="B218" s="3" t="s">
+      <c r="C218" s="1" t="s">
         <v>758</v>
-      </c>
-      <c r="C218" s="1" t="s">
-        <v>759</v>
       </c>
       <c r="E218" t="s">
         <v>437</v>
       </c>
       <c r="G218" t="s">
-        <v>745</v>
+        <v>744</v>
       </c>
     </row>
     <row r="219" spans="1:7" ht="23.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A219" s="1" t="s">
+        <v>759</v>
+      </c>
+      <c r="B219" s="3" t="s">
         <v>760</v>
       </c>
-      <c r="B219" s="3" t="s">
+      <c r="C219" s="1" t="s">
         <v>761</v>
-      </c>
-      <c r="C219" s="1" t="s">
-        <v>762</v>
       </c>
       <c r="E219" t="s">
         <v>438</v>
       </c>
       <c r="G219" t="s">
-        <v>745</v>
+        <v>744</v>
       </c>
     </row>
     <row r="220" spans="1:7" ht="23.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A220" s="1" t="s">
+        <v>762</v>
+      </c>
+      <c r="B220" s="1" t="s">
         <v>763</v>
       </c>
-      <c r="B220" s="1" t="s">
+      <c r="C220" s="1" t="s">
         <v>764</v>
-      </c>
-      <c r="C220" s="1" t="s">
-        <v>765</v>
       </c>
       <c r="E220" t="s">
         <v>439</v>
       </c>
       <c r="G220" t="s">
-        <v>745</v>
+        <v>744</v>
       </c>
     </row>
     <row r="221" spans="1:7" ht="23.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A221" s="1" t="s">
+        <v>765</v>
+      </c>
+      <c r="C221" s="1" t="s">
         <v>766</v>
-      </c>
-      <c r="C221" s="1" t="s">
-        <v>767</v>
       </c>
       <c r="E221" t="s">
         <v>440</v>
       </c>
       <c r="G221" t="s">
-        <v>745</v>
+        <v>744</v>
       </c>
     </row>
     <row r="222" spans="1:7" ht="23.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A222" s="1" t="s">
+        <v>767</v>
+      </c>
+      <c r="B222" s="1" t="s">
         <v>768</v>
       </c>
-      <c r="B222" s="1" t="s">
+      <c r="C222" s="1" t="s">
         <v>769</v>
-      </c>
-      <c r="C222" s="1" t="s">
-        <v>770</v>
       </c>
       <c r="E222" t="s">
         <v>441</v>
       </c>
       <c r="G222" t="s">
-        <v>745</v>
+        <v>744</v>
       </c>
     </row>
     <row r="223" spans="1:7" ht="23.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A223" s="1" t="s">
+        <v>770</v>
+      </c>
+      <c r="B223" s="1" t="s">
         <v>771</v>
       </c>
-      <c r="B223" s="1" t="s">
+      <c r="C223" s="1" t="s">
         <v>772</v>
-      </c>
-      <c r="C223" s="1" t="s">
-        <v>773</v>
       </c>
       <c r="E223" t="s">
         <v>442</v>
       </c>
       <c r="G223" t="s">
-        <v>745</v>
+        <v>744</v>
       </c>
     </row>
     <row r="224" spans="1:7" ht="23.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A224" s="1" t="s">
+        <v>773</v>
+      </c>
+      <c r="B224" s="3" t="s">
         <v>774</v>
       </c>
-      <c r="B224" s="3" t="s">
+      <c r="C224" s="1" t="s">
         <v>775</v>
-      </c>
-      <c r="C224" s="1" t="s">
-        <v>776</v>
       </c>
       <c r="E224" t="s">
         <v>443</v>
       </c>
       <c r="G224" t="s">
-        <v>745</v>
+        <v>744</v>
       </c>
     </row>
     <row r="225" spans="1:7" ht="23.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A225" s="1" t="s">
-        <v>779</v>
+        <v>778</v>
       </c>
       <c r="B225" s="1" t="s">
+        <v>776</v>
+      </c>
+      <c r="C225" s="1" t="s">
         <v>777</v>
-      </c>
-      <c r="C225" s="1" t="s">
-        <v>778</v>
       </c>
       <c r="E225" t="s">
         <v>444</v>
       </c>
       <c r="G225" t="s">
-        <v>745</v>
+        <v>744</v>
       </c>
     </row>
     <row r="226" spans="1:7" ht="23.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A226" s="1" t="s">
+        <v>781</v>
+      </c>
+      <c r="B226" s="3" t="s">
         <v>782</v>
-      </c>
-      <c r="B226" s="3" t="s">
-        <v>783</v>
       </c>
       <c r="E226" t="s">
         <v>445</v>
@@ -10131,4934 +10131,4934 @@
         <v>73</v>
       </c>
       <c r="G226" t="s">
-        <v>780</v>
+        <v>779</v>
       </c>
     </row>
     <row r="227" spans="1:7" ht="23.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A227" s="1" t="s">
-        <v>781</v>
+        <v>780</v>
       </c>
       <c r="B227" s="1" t="s">
-        <v>1758</v>
+        <v>1756</v>
       </c>
       <c r="C227" s="3" t="s">
-        <v>784</v>
+        <v>783</v>
       </c>
       <c r="D227" s="3"/>
       <c r="E227" t="s">
         <v>446</v>
       </c>
       <c r="G227" t="s">
-        <v>780</v>
+        <v>779</v>
       </c>
     </row>
     <row r="228" spans="1:7" ht="23.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A228" s="1" t="s">
+        <v>784</v>
+      </c>
+      <c r="B228" s="1" t="s">
         <v>785</v>
       </c>
-      <c r="B228" s="1" t="s">
+      <c r="C228" s="3" t="s">
         <v>786</v>
-      </c>
-      <c r="C228" s="3" t="s">
-        <v>787</v>
       </c>
       <c r="D228" s="3"/>
       <c r="E228" t="s">
         <v>447</v>
       </c>
       <c r="G228" t="s">
-        <v>780</v>
+        <v>779</v>
       </c>
     </row>
     <row r="229" spans="1:7" ht="23.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A229" s="1" t="s">
+        <v>787</v>
+      </c>
+      <c r="B229" s="1" t="s">
         <v>788</v>
-      </c>
-      <c r="B229" s="1" t="s">
-        <v>789</v>
       </c>
       <c r="E229" t="s">
         <v>448</v>
       </c>
       <c r="G229" t="s">
-        <v>780</v>
+        <v>779</v>
       </c>
     </row>
     <row r="230" spans="1:7" ht="23.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A230" s="1" t="s">
+        <v>789</v>
+      </c>
+      <c r="C230" s="3" t="s">
         <v>790</v>
-      </c>
-      <c r="C230" s="3" t="s">
-        <v>791</v>
       </c>
       <c r="D230" s="3"/>
       <c r="E230" t="s">
         <v>449</v>
       </c>
       <c r="G230" t="s">
-        <v>780</v>
+        <v>779</v>
       </c>
     </row>
     <row r="231" spans="1:7" ht="23.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A231" s="1" t="s">
+        <v>791</v>
+      </c>
+      <c r="B231" s="3" t="s">
         <v>792</v>
       </c>
-      <c r="B231" s="3" t="s">
+      <c r="C231" s="1" t="s">
         <v>793</v>
-      </c>
-      <c r="C231" s="1" t="s">
-        <v>794</v>
       </c>
       <c r="E231" t="s">
         <v>450</v>
       </c>
       <c r="G231" t="s">
-        <v>780</v>
+        <v>779</v>
       </c>
     </row>
     <row r="232" spans="1:7" ht="23.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A232" s="1" t="s">
+        <v>794</v>
+      </c>
+      <c r="B232" s="3" t="s">
         <v>795</v>
       </c>
-      <c r="B232" s="3" t="s">
+      <c r="C232" s="1" t="s">
         <v>796</v>
-      </c>
-      <c r="C232" s="1" t="s">
-        <v>797</v>
       </c>
       <c r="E232" t="s">
         <v>451</v>
       </c>
       <c r="G232" t="s">
-        <v>780</v>
+        <v>779</v>
       </c>
     </row>
     <row r="233" spans="1:7" ht="23.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A233" s="1" t="s">
+        <v>797</v>
+      </c>
+      <c r="B233" s="3" t="s">
         <v>798</v>
       </c>
-      <c r="B233" s="3" t="s">
+      <c r="C233" s="1" t="s">
         <v>799</v>
-      </c>
-      <c r="C233" s="1" t="s">
-        <v>800</v>
       </c>
       <c r="E233" t="s">
         <v>452</v>
       </c>
       <c r="G233" t="s">
-        <v>780</v>
+        <v>779</v>
       </c>
     </row>
     <row r="234" spans="1:7" ht="23.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A234" s="1" t="s">
+        <v>800</v>
+      </c>
+      <c r="B234" s="3" t="s">
         <v>801</v>
-      </c>
-      <c r="B234" s="3" t="s">
-        <v>802</v>
       </c>
       <c r="E234" t="s">
         <v>453</v>
       </c>
       <c r="G234" t="s">
-        <v>780</v>
+        <v>779</v>
       </c>
     </row>
     <row r="235" spans="1:7" ht="23.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A235" s="1" t="s">
+        <v>802</v>
+      </c>
+      <c r="B235" s="1" t="s">
         <v>803</v>
       </c>
-      <c r="B235" s="1" t="s">
+      <c r="C235" s="3" t="s">
         <v>804</v>
-      </c>
-      <c r="C235" s="3" t="s">
-        <v>805</v>
       </c>
       <c r="D235" s="3"/>
       <c r="E235" t="s">
         <v>454</v>
       </c>
       <c r="G235" t="s">
-        <v>780</v>
+        <v>779</v>
       </c>
     </row>
     <row r="236" spans="1:7" ht="23.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A236" s="1" t="s">
+        <v>805</v>
+      </c>
+      <c r="B236" s="3" t="s">
         <v>806</v>
       </c>
-      <c r="B236" s="3" t="s">
+      <c r="C236" s="3" t="s">
         <v>807</v>
-      </c>
-      <c r="C236" s="3" t="s">
-        <v>808</v>
       </c>
       <c r="D236" s="3"/>
       <c r="E236" t="s">
         <v>455</v>
       </c>
       <c r="G236" t="s">
-        <v>780</v>
+        <v>779</v>
       </c>
     </row>
     <row r="237" spans="1:7" ht="23.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A237" s="1" t="s">
+        <v>808</v>
+      </c>
+      <c r="B237" s="1" t="s">
         <v>809</v>
       </c>
-      <c r="B237" s="1" t="s">
+      <c r="C237" s="3" t="s">
         <v>810</v>
-      </c>
-      <c r="C237" s="3" t="s">
-        <v>811</v>
       </c>
       <c r="D237" s="3"/>
       <c r="E237" t="s">
         <v>456</v>
       </c>
       <c r="G237" t="s">
-        <v>780</v>
+        <v>779</v>
       </c>
     </row>
     <row r="238" spans="1:7" ht="23.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A238" s="3" t="s">
+        <v>812</v>
+      </c>
+      <c r="B238" s="3" t="s">
+        <v>811</v>
+      </c>
+      <c r="C238" s="1" t="s">
         <v>813</v>
-      </c>
-      <c r="B238" s="3" t="s">
-        <v>812</v>
-      </c>
-      <c r="C238" s="1" t="s">
-        <v>814</v>
       </c>
       <c r="E238" t="s">
         <v>457</v>
       </c>
       <c r="G238" t="s">
-        <v>780</v>
+        <v>779</v>
       </c>
     </row>
     <row r="239" spans="1:7" ht="23.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A239" s="1" t="s">
+        <v>814</v>
+      </c>
+      <c r="B239" s="3" t="s">
         <v>815</v>
       </c>
-      <c r="B239" s="3" t="s">
+      <c r="C239" s="1" t="s">
         <v>816</v>
-      </c>
-      <c r="C239" s="1" t="s">
-        <v>817</v>
       </c>
       <c r="E239" t="s">
         <v>458</v>
       </c>
       <c r="G239" t="s">
-        <v>780</v>
+        <v>779</v>
       </c>
     </row>
     <row r="240" spans="1:7" ht="23.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A240" s="1" t="s">
-        <v>820</v>
+        <v>819</v>
       </c>
       <c r="B240" s="1" t="s">
+        <v>817</v>
+      </c>
+      <c r="C240" s="3" t="s">
         <v>818</v>
-      </c>
-      <c r="C240" s="3" t="s">
-        <v>819</v>
       </c>
       <c r="D240" s="3"/>
       <c r="E240" t="s">
         <v>459</v>
       </c>
       <c r="G240" t="s">
-        <v>780</v>
+        <v>779</v>
       </c>
     </row>
     <row r="241" spans="1:7" ht="23.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A241" s="1" t="s">
+        <v>820</v>
+      </c>
+      <c r="B241" s="1" t="s">
         <v>821</v>
-      </c>
-      <c r="B241" s="1" t="s">
-        <v>822</v>
       </c>
       <c r="E241" t="s">
         <v>460</v>
       </c>
       <c r="G241" t="s">
-        <v>780</v>
+        <v>779</v>
       </c>
     </row>
     <row r="242" spans="1:7" ht="23.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A242" s="1" t="s">
+        <v>822</v>
+      </c>
+      <c r="B242" s="3" t="s">
         <v>823</v>
       </c>
-      <c r="B242" s="3" t="s">
+      <c r="C242" s="1" t="s">
         <v>824</v>
-      </c>
-      <c r="C242" s="1" t="s">
-        <v>825</v>
       </c>
       <c r="E242" t="s">
         <v>461</v>
       </c>
       <c r="G242" t="s">
-        <v>780</v>
+        <v>779</v>
       </c>
     </row>
     <row r="243" spans="1:7" ht="23.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A243" s="1" t="s">
+        <v>825</v>
+      </c>
+      <c r="B243" s="3" t="s">
         <v>826</v>
       </c>
-      <c r="B243" s="3" t="s">
+      <c r="C243" s="1" t="s">
         <v>827</v>
-      </c>
-      <c r="C243" s="1" t="s">
-        <v>828</v>
       </c>
       <c r="E243" t="s">
         <v>462</v>
       </c>
       <c r="G243" t="s">
-        <v>780</v>
+        <v>779</v>
       </c>
     </row>
     <row r="244" spans="1:7" ht="23.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A244" s="1" t="s">
+        <v>828</v>
+      </c>
+      <c r="B244" s="1" t="s">
         <v>829</v>
       </c>
-      <c r="B244" s="1" t="s">
+      <c r="C244" s="3" t="s">
         <v>830</v>
-      </c>
-      <c r="C244" s="3" t="s">
-        <v>831</v>
       </c>
       <c r="D244" s="3"/>
       <c r="E244" t="s">
         <v>463</v>
       </c>
       <c r="G244" t="s">
-        <v>780</v>
+        <v>779</v>
       </c>
     </row>
     <row r="245" spans="1:7" ht="23.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A245" s="1" t="s">
+        <v>831</v>
+      </c>
+      <c r="B245" s="1" t="s">
         <v>832</v>
       </c>
-      <c r="B245" s="1" t="s">
+      <c r="C245" s="1" t="s">
         <v>833</v>
-      </c>
-      <c r="C245" s="1" t="s">
-        <v>834</v>
       </c>
       <c r="E245" t="s">
         <v>464</v>
       </c>
       <c r="G245" t="s">
-        <v>780</v>
+        <v>779</v>
       </c>
     </row>
     <row r="246" spans="1:7" ht="23.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A246" s="1" t="s">
-        <v>835</v>
+        <v>834</v>
       </c>
       <c r="B246" s="1" t="s">
-        <v>1739</v>
+        <v>1737</v>
       </c>
       <c r="E246" t="s">
         <v>465</v>
       </c>
       <c r="G246" t="s">
-        <v>780</v>
+        <v>779</v>
       </c>
     </row>
     <row r="247" spans="1:7" ht="23.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A247" s="1" t="s">
+        <v>836</v>
+      </c>
+      <c r="B247" s="1" t="s">
         <v>837</v>
       </c>
-      <c r="B247" s="1" t="s">
+      <c r="C247" s="1" t="s">
         <v>838</v>
-      </c>
-      <c r="C247" s="1" t="s">
-        <v>839</v>
       </c>
       <c r="E247" t="s">
         <v>466</v>
       </c>
       <c r="G247" t="s">
-        <v>836</v>
+        <v>835</v>
       </c>
     </row>
     <row r="248" spans="1:7" ht="23.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A248" s="1" t="s">
+        <v>839</v>
+      </c>
+      <c r="C248" s="1" t="s">
         <v>840</v>
-      </c>
-      <c r="C248" s="1" t="s">
-        <v>841</v>
       </c>
       <c r="E248" t="s">
         <v>467</v>
       </c>
       <c r="G248" t="s">
-        <v>836</v>
+        <v>835</v>
       </c>
     </row>
     <row r="249" spans="1:7" ht="23.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A249" s="1" t="s">
+        <v>841</v>
+      </c>
+      <c r="B249" s="3" t="s">
+        <v>843</v>
+      </c>
+      <c r="C249" s="1" t="s">
         <v>842</v>
-      </c>
-      <c r="B249" s="3" t="s">
-        <v>844</v>
-      </c>
-      <c r="C249" s="1" t="s">
-        <v>843</v>
       </c>
       <c r="E249" t="s">
         <v>468</v>
       </c>
       <c r="G249" t="s">
-        <v>836</v>
+        <v>835</v>
       </c>
     </row>
     <row r="250" spans="1:7" ht="23.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A250" s="1" t="s">
+        <v>844</v>
+      </c>
+      <c r="B250" s="3" t="s">
         <v>845</v>
-      </c>
-      <c r="B250" s="3" t="s">
-        <v>846</v>
       </c>
       <c r="E250" t="s">
         <v>469</v>
       </c>
       <c r="G250" t="s">
-        <v>836</v>
+        <v>835</v>
       </c>
     </row>
     <row r="251" spans="1:7" ht="23.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A251" s="3" t="s">
+        <v>847</v>
+      </c>
+      <c r="B251" s="1" t="s">
+        <v>846</v>
+      </c>
+      <c r="C251" s="1" t="s">
         <v>848</v>
-      </c>
-      <c r="B251" s="1" t="s">
-        <v>847</v>
-      </c>
-      <c r="C251" s="1" t="s">
-        <v>849</v>
       </c>
       <c r="E251" t="s">
         <v>470</v>
       </c>
       <c r="G251" t="s">
-        <v>836</v>
+        <v>835</v>
       </c>
     </row>
     <row r="252" spans="1:7" ht="23.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A252" s="1" t="s">
+        <v>967</v>
+      </c>
+      <c r="B252" s="1" t="s">
         <v>968</v>
-      </c>
-      <c r="B252" s="1" t="s">
-        <v>969</v>
       </c>
       <c r="E252" t="s">
         <v>471</v>
       </c>
       <c r="G252" t="s">
-        <v>836</v>
+        <v>835</v>
       </c>
     </row>
     <row r="253" spans="1:7" ht="23.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A253" s="1" t="s">
-        <v>859</v>
+        <v>858</v>
       </c>
       <c r="B253" s="1" t="s">
+        <v>849</v>
+      </c>
+      <c r="C253" s="1" t="s">
         <v>850</v>
-      </c>
-      <c r="C253" s="1" t="s">
-        <v>851</v>
       </c>
       <c r="E253" t="s">
         <v>472</v>
       </c>
       <c r="G253" t="s">
-        <v>836</v>
+        <v>835</v>
       </c>
     </row>
     <row r="254" spans="1:7" ht="23.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A254" s="1" t="s">
+        <v>851</v>
+      </c>
+      <c r="B254" s="1" t="s">
         <v>852</v>
       </c>
-      <c r="B254" s="1" t="s">
+      <c r="C254" s="1" t="s">
         <v>853</v>
-      </c>
-      <c r="C254" s="1" t="s">
-        <v>854</v>
       </c>
       <c r="E254" t="s">
         <v>473</v>
       </c>
       <c r="G254" t="s">
-        <v>836</v>
+        <v>835</v>
       </c>
     </row>
     <row r="255" spans="1:7" ht="23.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A255" s="1" t="s">
+        <v>854</v>
+      </c>
+      <c r="B255" s="1" t="s">
         <v>855</v>
-      </c>
-      <c r="B255" s="1" t="s">
-        <v>856</v>
       </c>
       <c r="E255" t="s">
         <v>474</v>
       </c>
       <c r="G255" t="s">
-        <v>836</v>
+        <v>835</v>
       </c>
     </row>
     <row r="256" spans="1:7" ht="23.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A256" s="3" t="s">
-        <v>858</v>
+        <v>857</v>
       </c>
       <c r="B256" s="1" t="s">
-        <v>857</v>
+        <v>856</v>
       </c>
       <c r="E256" t="s">
         <v>475</v>
       </c>
       <c r="G256" t="s">
-        <v>836</v>
+        <v>835</v>
       </c>
     </row>
     <row r="257" spans="1:7" ht="23.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A257" s="1" t="s">
+        <v>859</v>
+      </c>
+      <c r="B257" s="3" t="s">
         <v>860</v>
       </c>
-      <c r="B257" s="3" t="s">
+      <c r="C257" s="1" t="s">
         <v>861</v>
-      </c>
-      <c r="C257" s="1" t="s">
-        <v>862</v>
       </c>
       <c r="E257" t="s">
         <v>476</v>
       </c>
       <c r="G257" t="s">
-        <v>836</v>
+        <v>835</v>
       </c>
     </row>
     <row r="258" spans="1:7" ht="23.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A258" s="1" t="s">
+        <v>862</v>
+      </c>
+      <c r="B258" s="1" t="s">
+        <v>1738</v>
+      </c>
+      <c r="C258" s="1" t="s">
         <v>863</v>
-      </c>
-      <c r="B258" s="1" t="s">
-        <v>1740</v>
-      </c>
-      <c r="C258" s="1" t="s">
-        <v>864</v>
       </c>
       <c r="E258" t="s">
         <v>477</v>
       </c>
       <c r="G258" t="s">
-        <v>836</v>
+        <v>835</v>
       </c>
     </row>
     <row r="259" spans="1:7" ht="23.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A259" s="1" t="s">
-        <v>1759</v>
+        <v>1757</v>
       </c>
       <c r="B259" s="3" t="s">
-        <v>1760</v>
+        <v>1758</v>
       </c>
       <c r="E259" t="s">
         <v>478</v>
       </c>
       <c r="G259" t="s">
-        <v>836</v>
+        <v>835</v>
       </c>
     </row>
     <row r="260" spans="1:7" ht="23.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A260" s="3" t="s">
+        <v>864</v>
+      </c>
+      <c r="B260" s="3" t="s">
         <v>865</v>
-      </c>
-      <c r="B260" s="3" t="s">
-        <v>866</v>
       </c>
       <c r="E260" t="s">
         <v>479</v>
       </c>
       <c r="G260" t="s">
-        <v>836</v>
+        <v>835</v>
       </c>
     </row>
     <row r="261" spans="1:7" ht="23.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A261" s="1" t="s">
+        <v>866</v>
+      </c>
+      <c r="B261" s="3" t="s">
         <v>867</v>
       </c>
-      <c r="B261" s="3" t="s">
+      <c r="C261" s="1" t="s">
         <v>868</v>
-      </c>
-      <c r="C261" s="1" t="s">
-        <v>869</v>
       </c>
       <c r="E261" t="s">
         <v>480</v>
       </c>
       <c r="G261" t="s">
-        <v>836</v>
+        <v>835</v>
       </c>
     </row>
     <row r="262" spans="1:7" ht="23.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A262" s="1" t="s">
+        <v>869</v>
+      </c>
+      <c r="B262" s="3" t="s">
         <v>870</v>
       </c>
-      <c r="B262" s="3" t="s">
+      <c r="C262" s="1" t="s">
         <v>871</v>
-      </c>
-      <c r="C262" s="1" t="s">
-        <v>872</v>
       </c>
       <c r="E262" t="s">
         <v>481</v>
       </c>
       <c r="G262" t="s">
-        <v>836</v>
+        <v>835</v>
       </c>
     </row>
     <row r="263" spans="1:7" ht="23.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A263" s="1" t="s">
+        <v>872</v>
+      </c>
+      <c r="B263" s="3" t="s">
         <v>873</v>
       </c>
-      <c r="B263" s="3" t="s">
+      <c r="C263" s="1" t="s">
         <v>874</v>
-      </c>
-      <c r="C263" s="1" t="s">
-        <v>875</v>
       </c>
       <c r="E263" t="s">
         <v>482</v>
       </c>
       <c r="G263" t="s">
-        <v>836</v>
+        <v>835</v>
       </c>
     </row>
     <row r="264" spans="1:7" ht="23.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A264" s="1" t="s">
+        <v>875</v>
+      </c>
+      <c r="B264" s="1" t="s">
         <v>876</v>
       </c>
-      <c r="B264" s="1" t="s">
+      <c r="C264" s="3" t="s">
         <v>877</v>
-      </c>
-      <c r="C264" s="3" t="s">
-        <v>878</v>
       </c>
       <c r="D264" s="3"/>
       <c r="E264" t="s">
         <v>483</v>
       </c>
       <c r="G264" t="s">
-        <v>836</v>
+        <v>835</v>
       </c>
     </row>
     <row r="265" spans="1:7" ht="23.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A265" s="1" t="s">
+        <v>878</v>
+      </c>
+      <c r="B265" s="1" t="s">
         <v>879</v>
-      </c>
-      <c r="B265" s="1" t="s">
-        <v>880</v>
       </c>
       <c r="E265" t="s">
         <v>484</v>
       </c>
       <c r="G265" t="s">
-        <v>836</v>
+        <v>835</v>
       </c>
     </row>
     <row r="266" spans="1:7" ht="23.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A266" s="1" t="s">
+        <v>880</v>
+      </c>
+      <c r="B266" s="1" t="s">
         <v>881</v>
       </c>
-      <c r="B266" s="1" t="s">
+      <c r="C266" s="1" t="s">
         <v>882</v>
-      </c>
-      <c r="C266" s="1" t="s">
-        <v>883</v>
       </c>
       <c r="E266" t="s">
         <v>485</v>
       </c>
       <c r="G266" t="s">
-        <v>836</v>
+        <v>835</v>
       </c>
     </row>
     <row r="267" spans="1:7" ht="23.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A267" s="1" t="s">
+        <v>883</v>
+      </c>
+      <c r="B267" s="3" t="s">
         <v>884</v>
       </c>
-      <c r="B267" s="3" t="s">
+      <c r="C267" s="1" t="s">
         <v>885</v>
-      </c>
-      <c r="C267" s="1" t="s">
-        <v>886</v>
       </c>
       <c r="E267" t="s">
         <v>486</v>
       </c>
       <c r="G267" t="s">
-        <v>836</v>
+        <v>835</v>
       </c>
     </row>
     <row r="268" spans="1:7" ht="23.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A268" s="1" t="s">
+        <v>887</v>
+      </c>
+      <c r="B268" s="1" t="s">
+        <v>886</v>
+      </c>
+      <c r="C268" s="1" t="s">
         <v>888</v>
-      </c>
-      <c r="B268" s="1" t="s">
-        <v>887</v>
-      </c>
-      <c r="C268" s="1" t="s">
-        <v>889</v>
       </c>
       <c r="E268" t="s">
         <v>487</v>
       </c>
       <c r="G268" t="s">
-        <v>836</v>
+        <v>835</v>
       </c>
     </row>
     <row r="269" spans="1:7" ht="23.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A269" s="1" t="s">
+        <v>889</v>
+      </c>
+      <c r="B269" s="1" t="s">
         <v>890</v>
       </c>
-      <c r="B269" s="1" t="s">
+      <c r="C269" s="1" t="s">
         <v>891</v>
-      </c>
-      <c r="C269" s="1" t="s">
-        <v>892</v>
       </c>
       <c r="E269" t="s">
         <v>488</v>
       </c>
       <c r="G269" t="s">
-        <v>836</v>
+        <v>835</v>
       </c>
     </row>
     <row r="270" spans="1:7" ht="23.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A270" s="1" t="s">
+        <v>892</v>
+      </c>
+      <c r="B270" s="1" t="s">
         <v>893</v>
       </c>
-      <c r="B270" s="1" t="s">
+      <c r="C270" s="3" t="s">
         <v>894</v>
-      </c>
-      <c r="C270" s="3" t="s">
-        <v>895</v>
       </c>
       <c r="D270" s="3"/>
       <c r="E270" t="s">
         <v>489</v>
       </c>
       <c r="G270" t="s">
-        <v>836</v>
+        <v>835</v>
       </c>
     </row>
     <row r="271" spans="1:7" ht="23.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A271" s="1" t="s">
+        <v>895</v>
+      </c>
+      <c r="B271" s="1" t="s">
         <v>896</v>
       </c>
-      <c r="B271" s="1" t="s">
+      <c r="C271" s="3" t="s">
         <v>897</v>
-      </c>
-      <c r="C271" s="3" t="s">
-        <v>898</v>
       </c>
       <c r="D271" s="3"/>
       <c r="E271" t="s">
         <v>490</v>
       </c>
       <c r="G271" t="s">
-        <v>836</v>
+        <v>835</v>
       </c>
     </row>
     <row r="272" spans="1:7" ht="23.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A272" s="1" t="s">
+        <v>898</v>
+      </c>
+      <c r="B272" s="1" t="s">
         <v>899</v>
       </c>
-      <c r="B272" s="1" t="s">
+      <c r="C272" s="1" t="s">
         <v>900</v>
-      </c>
-      <c r="C272" s="1" t="s">
-        <v>901</v>
       </c>
       <c r="E272" t="s">
         <v>491</v>
       </c>
       <c r="G272" t="s">
-        <v>836</v>
+        <v>835</v>
       </c>
     </row>
     <row r="273" spans="1:7" ht="23.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A273" s="1" t="s">
+        <v>902</v>
+      </c>
+      <c r="B273" s="3" t="s">
         <v>903</v>
       </c>
-      <c r="B273" s="3" t="s">
+      <c r="C273" s="3" t="s">
         <v>904</v>
-      </c>
-      <c r="C273" s="3" t="s">
-        <v>905</v>
       </c>
       <c r="D273" s="3"/>
       <c r="E273" t="s">
         <v>492</v>
       </c>
       <c r="G273" t="s">
-        <v>902</v>
+        <v>901</v>
       </c>
     </row>
     <row r="274" spans="1:7" ht="23.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A274" s="1" t="s">
+        <v>905</v>
+      </c>
+      <c r="B274" s="3" t="s">
+        <v>1759</v>
+      </c>
+      <c r="C274" s="1" t="s">
         <v>906</v>
-      </c>
-      <c r="B274" s="3" t="s">
-        <v>1761</v>
-      </c>
-      <c r="C274" s="1" t="s">
-        <v>907</v>
       </c>
       <c r="E274" t="s">
         <v>493</v>
       </c>
       <c r="G274" t="s">
-        <v>902</v>
+        <v>901</v>
       </c>
     </row>
     <row r="275" spans="1:7" ht="23.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A275" s="1" t="s">
+        <v>907</v>
+      </c>
+      <c r="B275" s="1" t="s">
         <v>908</v>
-      </c>
-      <c r="B275" s="1" t="s">
-        <v>909</v>
       </c>
       <c r="E275" t="s">
         <v>494</v>
       </c>
       <c r="G275" t="s">
-        <v>902</v>
+        <v>901</v>
       </c>
     </row>
     <row r="276" spans="1:7" ht="23.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A276" s="1" t="s">
+        <v>909</v>
+      </c>
+      <c r="B276" s="1" t="s">
         <v>910</v>
       </c>
-      <c r="B276" s="1" t="s">
+      <c r="C276" s="1" t="s">
         <v>911</v>
-      </c>
-      <c r="C276" s="1" t="s">
-        <v>912</v>
       </c>
       <c r="E276" t="s">
         <v>495</v>
       </c>
       <c r="G276" t="s">
-        <v>902</v>
+        <v>901</v>
       </c>
     </row>
     <row r="277" spans="1:7" ht="23.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A277" s="1" t="s">
+        <v>912</v>
+      </c>
+      <c r="B277" s="3" t="s">
         <v>913</v>
       </c>
-      <c r="B277" s="3" t="s">
+      <c r="C277" s="1" t="s">
         <v>914</v>
-      </c>
-      <c r="C277" s="1" t="s">
-        <v>915</v>
       </c>
       <c r="E277" t="s">
         <v>496</v>
       </c>
       <c r="G277" t="s">
-        <v>902</v>
+        <v>901</v>
       </c>
     </row>
     <row r="278" spans="1:7" ht="23.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A278" s="1" t="s">
+        <v>915</v>
+      </c>
+      <c r="B278" s="1" t="s">
         <v>916</v>
       </c>
-      <c r="B278" s="1" t="s">
+      <c r="C278" s="1" t="s">
         <v>917</v>
-      </c>
-      <c r="C278" s="1" t="s">
-        <v>918</v>
       </c>
       <c r="E278" t="s">
         <v>497</v>
       </c>
       <c r="G278" t="s">
-        <v>902</v>
+        <v>901</v>
       </c>
     </row>
     <row r="279" spans="1:7" ht="23.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A279" s="1" t="s">
+        <v>918</v>
+      </c>
+      <c r="B279" s="3" t="s">
         <v>919</v>
       </c>
-      <c r="B279" s="3" t="s">
+      <c r="C279" s="1" t="s">
         <v>920</v>
-      </c>
-      <c r="C279" s="1" t="s">
-        <v>921</v>
       </c>
       <c r="E279" t="s">
         <v>498</v>
       </c>
       <c r="G279" t="s">
-        <v>902</v>
+        <v>901</v>
       </c>
     </row>
     <row r="280" spans="1:7" ht="23.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A280" s="1" t="s">
+        <v>921</v>
+      </c>
+      <c r="B280" s="3" t="s">
         <v>922</v>
-      </c>
-      <c r="B280" s="3" t="s">
-        <v>923</v>
       </c>
       <c r="E280" t="s">
         <v>499</v>
       </c>
       <c r="G280" t="s">
-        <v>902</v>
+        <v>901</v>
       </c>
     </row>
     <row r="281" spans="1:7" ht="23.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A281" s="1" t="s">
+        <v>924</v>
+      </c>
+      <c r="B281" s="1" t="s">
+        <v>923</v>
+      </c>
+      <c r="C281" s="1" t="s">
         <v>925</v>
-      </c>
-      <c r="B281" s="1" t="s">
-        <v>924</v>
-      </c>
-      <c r="C281" s="1" t="s">
-        <v>926</v>
       </c>
       <c r="E281" t="s">
         <v>500</v>
       </c>
       <c r="G281" t="s">
-        <v>902</v>
+        <v>901</v>
       </c>
     </row>
     <row r="282" spans="1:7" ht="23.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A282" s="1" t="s">
+        <v>926</v>
+      </c>
+      <c r="C282" s="1" t="s">
         <v>927</v>
-      </c>
-      <c r="C282" s="1" t="s">
-        <v>928</v>
       </c>
       <c r="E282" t="s">
         <v>501</v>
       </c>
       <c r="G282" t="s">
-        <v>902</v>
+        <v>901</v>
       </c>
     </row>
     <row r="283" spans="1:7" ht="23.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A283" s="1" t="s">
+        <v>928</v>
+      </c>
+      <c r="B283" s="3" t="s">
+        <v>1739</v>
+      </c>
+      <c r="C283" s="1" t="s">
         <v>929</v>
-      </c>
-      <c r="B283" s="3" t="s">
-        <v>1741</v>
-      </c>
-      <c r="C283" s="1" t="s">
-        <v>930</v>
       </c>
       <c r="E283" t="s">
         <v>502</v>
       </c>
       <c r="G283" t="s">
-        <v>902</v>
+        <v>901</v>
       </c>
     </row>
     <row r="284" spans="1:7" ht="23.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A284" s="1" t="s">
+        <v>930</v>
+      </c>
+      <c r="B284" s="1" t="s">
         <v>931</v>
       </c>
-      <c r="B284" s="1" t="s">
+      <c r="C284" s="3" t="s">
         <v>932</v>
-      </c>
-      <c r="C284" s="3" t="s">
-        <v>933</v>
       </c>
       <c r="D284" s="3"/>
       <c r="E284" t="s">
         <v>503</v>
       </c>
       <c r="G284" t="s">
-        <v>902</v>
+        <v>901</v>
       </c>
     </row>
     <row r="285" spans="1:7" ht="23.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A285" s="1" t="s">
+        <v>933</v>
+      </c>
+      <c r="B285" s="3" t="s">
         <v>934</v>
       </c>
-      <c r="B285" s="3" t="s">
+      <c r="C285" s="3" t="s">
         <v>935</v>
-      </c>
-      <c r="C285" s="3" t="s">
-        <v>936</v>
       </c>
       <c r="D285" s="3"/>
       <c r="E285" t="s">
         <v>504</v>
       </c>
       <c r="G285" t="s">
-        <v>902</v>
+        <v>901</v>
       </c>
     </row>
     <row r="286" spans="1:7" ht="23.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A286" s="1" t="s">
-        <v>937</v>
+        <v>936</v>
       </c>
       <c r="B286" s="3" t="s">
-        <v>1762</v>
+        <v>1760</v>
       </c>
       <c r="E286" t="s">
         <v>505</v>
       </c>
       <c r="G286" t="s">
-        <v>902</v>
+        <v>901</v>
       </c>
     </row>
     <row r="287" spans="1:7" ht="23.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A287" s="1" t="s">
+        <v>937</v>
+      </c>
+      <c r="B287" s="3" t="s">
         <v>938</v>
       </c>
-      <c r="B287" s="3" t="s">
+      <c r="C287" s="1" t="s">
         <v>939</v>
-      </c>
-      <c r="C287" s="1" t="s">
-        <v>940</v>
       </c>
       <c r="E287" t="s">
         <v>506</v>
       </c>
       <c r="G287" t="s">
-        <v>902</v>
+        <v>901</v>
       </c>
     </row>
     <row r="288" spans="1:7" ht="23.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A288" s="3" t="s">
+        <v>941</v>
+      </c>
+      <c r="B288" s="1" t="s">
+        <v>940</v>
+      </c>
+      <c r="C288" s="1" t="s">
         <v>942</v>
-      </c>
-      <c r="B288" s="1" t="s">
-        <v>941</v>
-      </c>
-      <c r="C288" s="1" t="s">
-        <v>943</v>
       </c>
       <c r="E288" t="s">
         <v>507</v>
       </c>
       <c r="G288" t="s">
-        <v>902</v>
+        <v>901</v>
       </c>
     </row>
     <row r="289" spans="1:7" ht="23.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A289" s="1" t="s">
+        <v>943</v>
+      </c>
+      <c r="B289" s="1" t="s">
         <v>944</v>
-      </c>
-      <c r="B289" s="1" t="s">
-        <v>945</v>
       </c>
       <c r="E289" s="2" t="s">
         <v>508</v>
       </c>
       <c r="G289" t="s">
-        <v>902</v>
+        <v>901</v>
       </c>
     </row>
     <row r="290" spans="1:7" ht="23.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A290" s="1" t="s">
+        <v>945</v>
+      </c>
+      <c r="B290" s="3" t="s">
         <v>946</v>
       </c>
-      <c r="B290" s="3" t="s">
+      <c r="C290" s="3" t="s">
         <v>947</v>
-      </c>
-      <c r="C290" s="3" t="s">
-        <v>948</v>
       </c>
       <c r="D290" s="3"/>
       <c r="E290" t="s">
         <v>509</v>
       </c>
       <c r="G290" t="s">
-        <v>902</v>
+        <v>901</v>
       </c>
     </row>
     <row r="291" spans="1:7" ht="23.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A291" s="1" t="s">
+        <v>948</v>
+      </c>
+      <c r="B291" s="3" t="s">
         <v>949</v>
       </c>
-      <c r="B291" s="3" t="s">
+      <c r="C291" s="1" t="s">
         <v>950</v>
-      </c>
-      <c r="C291" s="1" t="s">
-        <v>951</v>
       </c>
       <c r="E291" t="s">
         <v>510</v>
       </c>
       <c r="G291" t="s">
-        <v>902</v>
+        <v>901</v>
       </c>
     </row>
     <row r="292" spans="1:7" ht="23.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A292" s="1" t="s">
+        <v>951</v>
+      </c>
+      <c r="B292" s="1" t="s">
         <v>952</v>
       </c>
-      <c r="B292" s="1" t="s">
+      <c r="C292" s="3" t="s">
         <v>953</v>
-      </c>
-      <c r="C292" s="3" t="s">
-        <v>954</v>
       </c>
       <c r="D292" s="3"/>
       <c r="E292" t="s">
         <v>511</v>
       </c>
       <c r="G292" t="s">
-        <v>902</v>
+        <v>901</v>
       </c>
     </row>
     <row r="293" spans="1:7" ht="23.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A293" s="1" t="s">
+        <v>954</v>
+      </c>
+      <c r="B293" s="3" t="s">
         <v>955</v>
-      </c>
-      <c r="B293" s="3" t="s">
-        <v>956</v>
       </c>
       <c r="E293" t="s">
         <v>512</v>
       </c>
       <c r="G293" t="s">
-        <v>902</v>
+        <v>901</v>
       </c>
     </row>
     <row r="294" spans="1:7" ht="23.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A294" s="1" t="s">
+        <v>969</v>
+      </c>
+      <c r="B294" s="1" t="s">
         <v>970</v>
       </c>
-      <c r="B294" s="1" t="s">
-        <v>971</v>
-      </c>
       <c r="C294" s="1" t="s">
-        <v>958</v>
+        <v>957</v>
       </c>
       <c r="E294" t="s">
         <v>513</v>
       </c>
       <c r="G294" t="s">
-        <v>902</v>
+        <v>901</v>
       </c>
     </row>
     <row r="295" spans="1:7" ht="23.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A295" s="1" t="s">
-        <v>957</v>
+        <v>956</v>
       </c>
       <c r="B295" s="1" t="s">
-        <v>972</v>
+        <v>971</v>
       </c>
       <c r="E295" t="s">
         <v>514</v>
       </c>
       <c r="G295" t="s">
-        <v>902</v>
+        <v>901</v>
       </c>
     </row>
     <row r="296" spans="1:7" ht="23.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A296" s="1" t="s">
+        <v>972</v>
+      </c>
+      <c r="B296" s="1" t="s">
         <v>973</v>
       </c>
-      <c r="B296" s="1" t="s">
+      <c r="C296" s="3" t="s">
         <v>974</v>
-      </c>
-      <c r="C296" s="3" t="s">
-        <v>975</v>
       </c>
       <c r="D296" s="3"/>
       <c r="E296" t="s">
         <v>515</v>
       </c>
       <c r="G296" t="s">
-        <v>902</v>
+        <v>901</v>
       </c>
     </row>
     <row r="297" spans="1:7" ht="23.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A297" s="1" t="s">
+        <v>975</v>
+      </c>
+      <c r="B297" s="3" t="s">
         <v>976</v>
-      </c>
-      <c r="B297" s="3" t="s">
-        <v>977</v>
       </c>
       <c r="E297" t="s">
         <v>516</v>
       </c>
       <c r="G297" t="s">
-        <v>902</v>
+        <v>901</v>
       </c>
     </row>
     <row r="298" spans="1:7" ht="23.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A298" s="1" t="s">
+        <v>977</v>
+      </c>
+      <c r="B298" s="3" t="s">
         <v>978</v>
       </c>
-      <c r="B298" s="3" t="s">
+      <c r="C298" s="3" t="s">
         <v>979</v>
-      </c>
-      <c r="C298" s="3" t="s">
-        <v>980</v>
       </c>
       <c r="D298" s="3"/>
       <c r="E298" t="s">
         <v>517</v>
       </c>
       <c r="G298" t="s">
-        <v>902</v>
+        <v>901</v>
       </c>
     </row>
     <row r="299" spans="1:7" ht="23.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A299" s="1" t="s">
+        <v>980</v>
+      </c>
+      <c r="B299" s="3" t="s">
         <v>981</v>
       </c>
-      <c r="B299" s="3" t="s">
+      <c r="C299" s="3" t="s">
         <v>982</v>
-      </c>
-      <c r="C299" s="3" t="s">
-        <v>983</v>
       </c>
       <c r="D299" s="3"/>
       <c r="E299" t="s">
         <v>518</v>
       </c>
       <c r="G299" t="s">
-        <v>902</v>
+        <v>901</v>
       </c>
     </row>
     <row r="300" spans="1:7" ht="23.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A300" s="1" t="s">
+        <v>983</v>
+      </c>
+      <c r="B300" s="1" t="s">
         <v>984</v>
       </c>
-      <c r="B300" s="1" t="s">
+      <c r="C300" s="3" t="s">
         <v>985</v>
-      </c>
-      <c r="C300" s="3" t="s">
-        <v>986</v>
       </c>
       <c r="D300" s="3"/>
       <c r="E300" t="s">
         <v>519</v>
       </c>
       <c r="G300" t="s">
-        <v>902</v>
+        <v>901</v>
       </c>
     </row>
     <row r="301" spans="1:7" ht="23.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A301" s="1" t="s">
-        <v>1702</v>
+        <v>1700</v>
       </c>
       <c r="B301" s="3" t="s">
-        <v>1737</v>
+        <v>1735</v>
       </c>
       <c r="C301" s="1" t="s">
-        <v>987</v>
+        <v>986</v>
       </c>
       <c r="E301" t="s">
-        <v>1045</v>
+        <v>1043</v>
       </c>
       <c r="G301" t="s">
-        <v>902</v>
+        <v>901</v>
       </c>
     </row>
     <row r="302" spans="1:7" ht="23.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A302" s="1" t="s">
+        <v>987</v>
+      </c>
+      <c r="B302" s="1" t="s">
+        <v>1761</v>
+      </c>
+      <c r="C302" s="1" t="s">
         <v>988</v>
       </c>
-      <c r="B302" s="1" t="s">
-        <v>1763</v>
-      </c>
-      <c r="C302" s="1" t="s">
-        <v>989</v>
-      </c>
       <c r="E302" t="s">
-        <v>1046</v>
+        <v>1044</v>
       </c>
       <c r="G302" t="s">
-        <v>902</v>
+        <v>901</v>
       </c>
     </row>
     <row r="303" spans="1:7" ht="23.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A303" s="1" t="s">
+        <v>989</v>
+      </c>
+      <c r="B303" s="3" t="s">
+        <v>1762</v>
+      </c>
+      <c r="C303" s="3" t="s">
         <v>990</v>
-      </c>
-      <c r="B303" s="3" t="s">
-        <v>1764</v>
-      </c>
-      <c r="C303" s="3" t="s">
-        <v>991</v>
       </c>
       <c r="D303" s="3"/>
       <c r="E303" t="s">
-        <v>1047</v>
+        <v>1045</v>
       </c>
       <c r="G303" t="s">
-        <v>902</v>
+        <v>901</v>
       </c>
     </row>
     <row r="304" spans="1:7" ht="23.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A304" s="1" t="s">
+        <v>991</v>
+      </c>
+      <c r="B304" s="1" t="s">
         <v>992</v>
       </c>
-      <c r="B304" s="1" t="s">
+      <c r="C304" s="3" t="s">
         <v>993</v>
-      </c>
-      <c r="C304" s="3" t="s">
-        <v>994</v>
       </c>
       <c r="D304" s="3"/>
       <c r="E304" t="s">
-        <v>1048</v>
+        <v>1046</v>
       </c>
       <c r="G304" t="s">
-        <v>902</v>
+        <v>901</v>
       </c>
     </row>
     <row r="305" spans="1:7" ht="23.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A305" s="1" t="s">
+        <v>994</v>
+      </c>
+      <c r="B305" s="3" t="s">
         <v>995</v>
       </c>
-      <c r="B305" s="3" t="s">
+      <c r="C305" s="1" t="s">
         <v>996</v>
       </c>
-      <c r="C305" s="1" t="s">
-        <v>997</v>
-      </c>
       <c r="E305" t="s">
-        <v>1049</v>
+        <v>1047</v>
       </c>
       <c r="G305" t="s">
-        <v>902</v>
+        <v>901</v>
       </c>
     </row>
     <row r="306" spans="1:7" ht="23.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A306" s="1" t="s">
+        <v>998</v>
+      </c>
+      <c r="B306" s="3" t="s">
         <v>999</v>
       </c>
-      <c r="B306" s="3" t="s">
-        <v>1000</v>
-      </c>
       <c r="E306" t="s">
-        <v>1050</v>
+        <v>1048</v>
       </c>
       <c r="G306" t="s">
-        <v>998</v>
+        <v>997</v>
       </c>
     </row>
     <row r="307" spans="1:7" ht="23.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A307" s="1" t="s">
+        <v>1827</v>
+      </c>
+      <c r="B307" s="1" t="s">
+        <v>1000</v>
+      </c>
+      <c r="C307" s="3" t="s">
         <v>1001</v>
-      </c>
-      <c r="B307" s="1" t="s">
-        <v>1002</v>
-      </c>
-      <c r="C307" s="3" t="s">
-        <v>1003</v>
       </c>
       <c r="D307" s="3"/>
       <c r="E307" t="s">
-        <v>1051</v>
+        <v>1049</v>
       </c>
       <c r="G307" t="s">
-        <v>998</v>
+        <v>997</v>
       </c>
     </row>
     <row r="308" spans="1:7" ht="23.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A308" s="1" t="s">
+        <v>1002</v>
+      </c>
+      <c r="B308" s="1" t="s">
+        <v>1003</v>
+      </c>
+      <c r="C308" s="3" t="s">
         <v>1004</v>
-      </c>
-      <c r="B308" s="1" t="s">
-        <v>1005</v>
-      </c>
-      <c r="C308" s="3" t="s">
-        <v>1006</v>
       </c>
       <c r="D308" s="3"/>
       <c r="E308" t="s">
-        <v>1052</v>
+        <v>1050</v>
       </c>
       <c r="G308" t="s">
-        <v>998</v>
+        <v>997</v>
       </c>
     </row>
     <row r="309" spans="1:7" ht="23.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A309" s="1" t="s">
+        <v>1005</v>
+      </c>
+      <c r="B309" s="3" t="s">
+        <v>1006</v>
+      </c>
+      <c r="C309" s="3" t="s">
         <v>1007</v>
-      </c>
-      <c r="B309" s="3" t="s">
-        <v>1008</v>
-      </c>
-      <c r="C309" s="3" t="s">
-        <v>1009</v>
       </c>
       <c r="D309" s="3"/>
       <c r="E309" t="s">
-        <v>1053</v>
+        <v>1051</v>
       </c>
       <c r="G309" t="s">
-        <v>998</v>
+        <v>997</v>
       </c>
     </row>
     <row r="310" spans="1:7" ht="23.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A310" s="1" t="s">
+        <v>1008</v>
+      </c>
+      <c r="B310" s="1" t="s">
+        <v>1009</v>
+      </c>
+      <c r="C310" s="1" t="s">
         <v>1010</v>
       </c>
-      <c r="B310" s="1" t="s">
-        <v>1011</v>
-      </c>
-      <c r="C310" s="1" t="s">
-        <v>1012</v>
-      </c>
       <c r="E310" t="s">
-        <v>1054</v>
+        <v>1052</v>
       </c>
       <c r="G310" t="s">
-        <v>998</v>
+        <v>997</v>
       </c>
     </row>
     <row r="311" spans="1:7" ht="23.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A311" s="1" t="s">
+        <v>1011</v>
+      </c>
+      <c r="B311" s="1" t="s">
+        <v>1012</v>
+      </c>
+      <c r="C311" s="3" t="s">
         <v>1013</v>
-      </c>
-      <c r="B311" s="1" t="s">
-        <v>1014</v>
-      </c>
-      <c r="C311" s="3" t="s">
-        <v>1015</v>
       </c>
       <c r="D311" s="3"/>
       <c r="E311" t="s">
-        <v>1055</v>
+        <v>1053</v>
       </c>
       <c r="G311" t="s">
-        <v>998</v>
+        <v>997</v>
       </c>
     </row>
     <row r="312" spans="1:7" ht="23.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A312" s="1" t="s">
-        <v>1016</v>
+        <v>1014</v>
       </c>
       <c r="B312" s="1" t="s">
-        <v>1017</v>
+        <v>1015</v>
       </c>
       <c r="E312" t="s">
-        <v>1056</v>
+        <v>1054</v>
       </c>
       <c r="G312" t="s">
-        <v>998</v>
+        <v>997</v>
       </c>
     </row>
     <row r="313" spans="1:7" ht="23.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A313" s="1" t="s">
+        <v>1016</v>
+      </c>
+      <c r="B313" s="1" t="s">
+        <v>1017</v>
+      </c>
+      <c r="C313" s="3" t="s">
         <v>1018</v>
-      </c>
-      <c r="B313" s="1" t="s">
-        <v>1019</v>
-      </c>
-      <c r="C313" s="3" t="s">
-        <v>1020</v>
       </c>
       <c r="D313" s="3"/>
       <c r="E313" t="s">
-        <v>1057</v>
+        <v>1055</v>
       </c>
       <c r="G313" t="s">
-        <v>998</v>
+        <v>997</v>
       </c>
     </row>
     <row r="314" spans="1:7" ht="23.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A314" s="1" t="s">
+        <v>1019</v>
+      </c>
+      <c r="B314" s="3" t="s">
+        <v>1020</v>
+      </c>
+      <c r="C314" s="1" t="s">
         <v>1021</v>
       </c>
-      <c r="B314" s="3" t="s">
-        <v>1022</v>
-      </c>
-      <c r="C314" s="1" t="s">
-        <v>1023</v>
-      </c>
       <c r="E314" t="s">
-        <v>1058</v>
+        <v>1056</v>
       </c>
       <c r="G314" t="s">
-        <v>998</v>
+        <v>997</v>
       </c>
     </row>
     <row r="315" spans="1:7" ht="23.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A315" s="1" t="s">
-        <v>1024</v>
+        <v>1022</v>
       </c>
       <c r="B315" s="1" t="s">
-        <v>1025</v>
+        <v>1023</v>
       </c>
       <c r="E315" t="s">
-        <v>1059</v>
+        <v>1057</v>
       </c>
       <c r="G315" t="s">
-        <v>998</v>
+        <v>997</v>
       </c>
     </row>
     <row r="316" spans="1:7" ht="23.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A316" s="1" t="s">
+        <v>1024</v>
+      </c>
+      <c r="B316" s="3" t="s">
+        <v>1025</v>
+      </c>
+      <c r="C316" s="3" t="s">
         <v>1026</v>
-      </c>
-      <c r="B316" s="3" t="s">
-        <v>1027</v>
-      </c>
-      <c r="C316" s="3" t="s">
-        <v>1028</v>
       </c>
       <c r="D316" s="3"/>
       <c r="E316" t="s">
-        <v>1060</v>
+        <v>1058</v>
       </c>
       <c r="G316" t="s">
-        <v>998</v>
+        <v>997</v>
       </c>
     </row>
     <row r="317" spans="1:7" ht="23.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A317" s="1" t="s">
+        <v>1027</v>
+      </c>
+      <c r="B317" s="3" t="s">
+        <v>1028</v>
+      </c>
+      <c r="C317" s="1" t="s">
         <v>1029</v>
       </c>
-      <c r="B317" s="3" t="s">
-        <v>1030</v>
-      </c>
-      <c r="C317" s="1" t="s">
-        <v>1031</v>
-      </c>
       <c r="E317" t="s">
-        <v>1061</v>
+        <v>1059</v>
       </c>
       <c r="G317" t="s">
-        <v>998</v>
+        <v>997</v>
       </c>
     </row>
     <row r="318" spans="1:7" ht="23.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A318" s="1" t="s">
+        <v>1030</v>
+      </c>
+      <c r="B318" s="3" t="s">
+        <v>1031</v>
+      </c>
+      <c r="C318" s="3" t="s">
         <v>1032</v>
-      </c>
-      <c r="B318" s="3" t="s">
-        <v>1033</v>
-      </c>
-      <c r="C318" s="3" t="s">
-        <v>1034</v>
       </c>
       <c r="D318" s="3"/>
       <c r="E318" t="s">
-        <v>1062</v>
+        <v>1060</v>
       </c>
       <c r="G318" t="s">
-        <v>998</v>
+        <v>997</v>
       </c>
     </row>
     <row r="319" spans="1:7" ht="23.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A319" s="3" t="s">
-        <v>1036</v>
+        <v>1034</v>
       </c>
       <c r="B319" s="3" t="s">
+        <v>1033</v>
+      </c>
+      <c r="C319" s="3" t="s">
         <v>1035</v>
-      </c>
-      <c r="C319" s="3" t="s">
-        <v>1037</v>
       </c>
       <c r="D319" s="3"/>
       <c r="E319" t="s">
-        <v>1063</v>
+        <v>1061</v>
       </c>
       <c r="G319" t="s">
-        <v>998</v>
+        <v>997</v>
       </c>
     </row>
     <row r="320" spans="1:7" ht="23.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A320" s="1" t="s">
-        <v>1703</v>
+        <v>1701</v>
       </c>
       <c r="B320" s="3" t="s">
-        <v>1704</v>
+        <v>1702</v>
       </c>
       <c r="C320" s="3" t="s">
-        <v>1038</v>
+        <v>1036</v>
       </c>
       <c r="D320" s="3"/>
       <c r="E320" t="s">
-        <v>1064</v>
+        <v>1062</v>
       </c>
       <c r="G320" t="s">
-        <v>998</v>
+        <v>997</v>
       </c>
     </row>
     <row r="321" spans="1:7" ht="23.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A321" s="1" t="s">
+        <v>1037</v>
+      </c>
+      <c r="B321" s="3" t="s">
+        <v>1038</v>
+      </c>
+      <c r="C321" s="3" t="s">
         <v>1039</v>
-      </c>
-      <c r="B321" s="3" t="s">
-        <v>1040</v>
-      </c>
-      <c r="C321" s="3" t="s">
-        <v>1041</v>
       </c>
       <c r="D321" s="3"/>
       <c r="E321" t="s">
-        <v>1065</v>
+        <v>1063</v>
       </c>
       <c r="G321" t="s">
-        <v>998</v>
+        <v>997</v>
       </c>
     </row>
     <row r="322" spans="1:7" ht="23.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A322" s="1" t="s">
+        <v>1040</v>
+      </c>
+      <c r="B322" s="3" t="s">
+        <v>1041</v>
+      </c>
+      <c r="C322" s="1" t="s">
         <v>1042</v>
       </c>
-      <c r="B322" s="3" t="s">
-        <v>1043</v>
-      </c>
-      <c r="C322" s="1" t="s">
-        <v>1044</v>
-      </c>
       <c r="E322" t="s">
-        <v>1066</v>
+        <v>1064</v>
       </c>
       <c r="G322" t="s">
-        <v>998</v>
+        <v>997</v>
       </c>
     </row>
     <row r="323" spans="1:7" ht="23.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A323" s="1" t="s">
-        <v>1705</v>
+        <v>1703</v>
       </c>
       <c r="B323" s="1" t="s">
-        <v>1706</v>
+        <v>1704</v>
       </c>
       <c r="C323" s="3" t="s">
-        <v>1245</v>
+        <v>1243</v>
       </c>
       <c r="D323" s="3"/>
       <c r="E323" t="s">
-        <v>1067</v>
+        <v>1065</v>
       </c>
       <c r="G323" t="s">
-        <v>998</v>
+        <v>997</v>
       </c>
     </row>
     <row r="324" spans="1:7" ht="23.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A324" s="1" t="s">
-        <v>1253</v>
+        <v>1251</v>
       </c>
       <c r="B324" s="3" t="s">
-        <v>1246</v>
+        <v>1244</v>
       </c>
       <c r="C324" s="1" t="s">
-        <v>1247</v>
+        <v>1245</v>
       </c>
       <c r="E324" t="s">
-        <v>1068</v>
+        <v>1066</v>
       </c>
       <c r="G324" t="s">
-        <v>998</v>
+        <v>997</v>
       </c>
     </row>
     <row r="325" spans="1:7" ht="23.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A325" s="1" t="s">
-        <v>1252</v>
+        <v>1250</v>
       </c>
       <c r="B325" s="3" t="s">
-        <v>1765</v>
+        <v>1763</v>
       </c>
       <c r="C325" s="1" t="s">
-        <v>1248</v>
+        <v>1246</v>
       </c>
       <c r="E325" t="s">
-        <v>1069</v>
+        <v>1067</v>
       </c>
       <c r="G325" t="s">
-        <v>998</v>
+        <v>997</v>
       </c>
     </row>
     <row r="326" spans="1:7" ht="23.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A326" s="1" t="s">
-        <v>1249</v>
+        <v>1247</v>
       </c>
       <c r="E326" t="s">
-        <v>1070</v>
+        <v>1068</v>
       </c>
       <c r="G326" t="s">
-        <v>998</v>
+        <v>997</v>
       </c>
     </row>
     <row r="327" spans="1:7" ht="23.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A327" s="1" t="s">
-        <v>1250</v>
+        <v>1248</v>
       </c>
       <c r="B327" s="3" t="s">
-        <v>1251</v>
+        <v>1249</v>
       </c>
       <c r="C327" s="3" t="s">
-        <v>1254</v>
+        <v>1252</v>
       </c>
       <c r="D327" s="3"/>
       <c r="E327" t="s">
-        <v>1071</v>
+        <v>1069</v>
       </c>
       <c r="G327" t="s">
-        <v>998</v>
+        <v>997</v>
       </c>
     </row>
     <row r="328" spans="1:7" ht="23.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A328" s="1" t="s">
+        <v>1253</v>
+      </c>
+      <c r="B328" s="3" t="s">
+        <v>1254</v>
+      </c>
+      <c r="C328" s="1" t="s">
         <v>1255</v>
       </c>
-      <c r="B328" s="3" t="s">
-        <v>1256</v>
-      </c>
-      <c r="C328" s="1" t="s">
-        <v>1257</v>
-      </c>
       <c r="E328" t="s">
-        <v>1072</v>
+        <v>1070</v>
       </c>
       <c r="G328" t="s">
-        <v>998</v>
+        <v>997</v>
       </c>
     </row>
     <row r="329" spans="1:7" ht="23.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A329" s="1" t="s">
+        <v>1256</v>
+      </c>
+      <c r="B329" s="1" t="s">
+        <v>1257</v>
+      </c>
+      <c r="C329" s="3" t="s">
         <v>1258</v>
-      </c>
-      <c r="B329" s="1" t="s">
-        <v>1259</v>
-      </c>
-      <c r="C329" s="3" t="s">
-        <v>1260</v>
       </c>
       <c r="D329" s="3"/>
       <c r="E329" t="s">
-        <v>1073</v>
+        <v>1071</v>
       </c>
       <c r="G329" t="s">
-        <v>998</v>
+        <v>997</v>
       </c>
     </row>
     <row r="330" spans="1:7" ht="23.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A330" s="1" t="s">
+        <v>1259</v>
+      </c>
+      <c r="B330" s="1" t="s">
+        <v>1260</v>
+      </c>
+      <c r="C330" s="3" t="s">
         <v>1261</v>
-      </c>
-      <c r="B330" s="1" t="s">
-        <v>1262</v>
-      </c>
-      <c r="C330" s="3" t="s">
-        <v>1263</v>
       </c>
       <c r="D330" s="3"/>
       <c r="E330" t="s">
-        <v>1074</v>
+        <v>1072</v>
       </c>
       <c r="G330" t="s">
-        <v>998</v>
+        <v>997</v>
       </c>
     </row>
     <row r="331" spans="1:7" ht="23.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A331" s="1" t="s">
-        <v>1264</v>
+        <v>1262</v>
       </c>
       <c r="B331" s="1" t="s">
-        <v>1265</v>
+        <v>1263</v>
       </c>
       <c r="E331" t="s">
-        <v>1075</v>
+        <v>1073</v>
       </c>
       <c r="G331" t="s">
-        <v>998</v>
+        <v>997</v>
       </c>
     </row>
     <row r="332" spans="1:7" ht="23.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A332" s="1" t="s">
+        <v>1264</v>
+      </c>
+      <c r="B332" s="3" t="s">
+        <v>1265</v>
+      </c>
+      <c r="C332" s="1" t="s">
         <v>1266</v>
       </c>
-      <c r="B332" s="3" t="s">
-        <v>1267</v>
-      </c>
-      <c r="C332" s="1" t="s">
-        <v>1268</v>
-      </c>
       <c r="E332" t="s">
-        <v>1076</v>
+        <v>1074</v>
       </c>
       <c r="G332" t="s">
-        <v>998</v>
+        <v>997</v>
       </c>
     </row>
     <row r="333" spans="1:7" ht="23.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A333" s="1" t="s">
+        <v>1268</v>
+      </c>
+      <c r="B333" s="1" t="s">
+        <v>1269</v>
+      </c>
+      <c r="C333" s="1" t="s">
         <v>1270</v>
       </c>
-      <c r="B333" s="1" t="s">
-        <v>1271</v>
-      </c>
-      <c r="C333" s="1" t="s">
-        <v>1272</v>
-      </c>
       <c r="E333" t="s">
-        <v>1077</v>
+        <v>1075</v>
       </c>
       <c r="F333">
         <v>115</v>
       </c>
       <c r="G333" t="s">
-        <v>1269</v>
+        <v>1267</v>
       </c>
     </row>
     <row r="334" spans="1:7" ht="23.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A334" s="1" t="s">
+        <v>1271</v>
+      </c>
+      <c r="B334" s="3" t="s">
+        <v>1272</v>
+      </c>
+      <c r="C334" s="1" t="s">
         <v>1273</v>
       </c>
-      <c r="B334" s="3" t="s">
-        <v>1274</v>
-      </c>
-      <c r="C334" s="1" t="s">
-        <v>1275</v>
-      </c>
       <c r="E334" t="s">
-        <v>1078</v>
+        <v>1076</v>
       </c>
       <c r="G334" t="s">
-        <v>1269</v>
+        <v>1267</v>
       </c>
     </row>
     <row r="335" spans="1:7" ht="23.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A335" s="1" t="s">
+        <v>1274</v>
+      </c>
+      <c r="B335" s="1" t="s">
+        <v>1275</v>
+      </c>
+      <c r="C335" s="3" t="s">
         <v>1276</v>
-      </c>
-      <c r="B335" s="1" t="s">
-        <v>1277</v>
-      </c>
-      <c r="C335" s="3" t="s">
-        <v>1278</v>
       </c>
       <c r="D335" s="3"/>
       <c r="E335" t="s">
-        <v>1079</v>
+        <v>1077</v>
       </c>
       <c r="G335" t="s">
-        <v>1269</v>
+        <v>1267</v>
       </c>
     </row>
     <row r="336" spans="1:7" ht="23.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A336" s="1" t="s">
-        <v>1279</v>
+        <v>1277</v>
       </c>
       <c r="B336" s="1" t="s">
-        <v>1280</v>
+        <v>1278</v>
       </c>
       <c r="E336" t="s">
-        <v>1080</v>
+        <v>1078</v>
       </c>
       <c r="G336" t="s">
-        <v>1269</v>
+        <v>1267</v>
       </c>
     </row>
     <row r="337" spans="1:7" ht="23.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A337" s="1" t="s">
+        <v>1279</v>
+      </c>
+      <c r="B337" s="1" t="s">
+        <v>1280</v>
+      </c>
+      <c r="C337" s="1" t="s">
         <v>1281</v>
       </c>
-      <c r="B337" s="1" t="s">
-        <v>1282</v>
-      </c>
-      <c r="C337" s="1" t="s">
-        <v>1283</v>
-      </c>
       <c r="E337" t="s">
-        <v>1081</v>
+        <v>1079</v>
       </c>
       <c r="G337" t="s">
-        <v>1269</v>
+        <v>1267</v>
       </c>
     </row>
     <row r="338" spans="1:7" ht="23.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A338" s="1" t="s">
-        <v>1284</v>
+        <v>1282</v>
       </c>
       <c r="C338" s="1" t="s">
-        <v>1285</v>
+        <v>1283</v>
       </c>
       <c r="E338" t="s">
-        <v>1082</v>
+        <v>1080</v>
       </c>
       <c r="G338" t="s">
-        <v>1269</v>
+        <v>1267</v>
       </c>
     </row>
     <row r="339" spans="1:7" ht="23.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A339" s="1" t="s">
-        <v>1286</v>
+        <v>1284</v>
       </c>
       <c r="B339" s="3" t="s">
-        <v>1742</v>
+        <v>1740</v>
       </c>
       <c r="C339" s="1" t="s">
-        <v>1287</v>
+        <v>1285</v>
       </c>
       <c r="E339" t="s">
-        <v>1083</v>
+        <v>1081</v>
       </c>
       <c r="G339" t="s">
-        <v>1269</v>
+        <v>1267</v>
       </c>
     </row>
     <row r="340" spans="1:7" ht="23.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A340" s="1" t="s">
-        <v>1288</v>
+        <v>1286</v>
       </c>
       <c r="B340" s="1" t="s">
-        <v>1289</v>
+        <v>1287</v>
       </c>
       <c r="E340" t="s">
-        <v>1084</v>
+        <v>1082</v>
       </c>
       <c r="G340" t="s">
-        <v>1269</v>
+        <v>1267</v>
       </c>
     </row>
     <row r="341" spans="1:7" ht="23.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A341" s="1" t="s">
+        <v>1288</v>
+      </c>
+      <c r="B341" s="3" t="s">
+        <v>1289</v>
+      </c>
+      <c r="C341" s="1" t="s">
         <v>1290</v>
       </c>
-      <c r="B341" s="3" t="s">
-        <v>1291</v>
-      </c>
-      <c r="C341" s="1" t="s">
-        <v>1292</v>
-      </c>
       <c r="E341" t="s">
-        <v>1085</v>
+        <v>1083</v>
       </c>
       <c r="G341" t="s">
-        <v>1269</v>
+        <v>1267</v>
       </c>
     </row>
     <row r="342" spans="1:7" ht="23.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A342" s="1" t="s">
+        <v>1291</v>
+      </c>
+      <c r="B342" s="1" t="s">
+        <v>1292</v>
+      </c>
+      <c r="C342" s="1" t="s">
         <v>1293</v>
       </c>
-      <c r="B342" s="1" t="s">
-        <v>1294</v>
-      </c>
-      <c r="C342" s="1" t="s">
-        <v>1295</v>
-      </c>
       <c r="E342" t="s">
-        <v>1086</v>
+        <v>1084</v>
       </c>
       <c r="G342" t="s">
-        <v>1269</v>
+        <v>1267</v>
       </c>
     </row>
     <row r="343" spans="1:7" ht="23.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A343" s="1" t="s">
-        <v>1707</v>
+        <v>1705</v>
       </c>
       <c r="B343" s="1" t="s">
-        <v>1708</v>
+        <v>1706</v>
       </c>
       <c r="C343" s="1" t="s">
-        <v>1296</v>
+        <v>1294</v>
       </c>
       <c r="E343" t="s">
-        <v>1087</v>
+        <v>1085</v>
       </c>
       <c r="G343" t="s">
-        <v>1269</v>
+        <v>1267</v>
       </c>
     </row>
     <row r="344" spans="1:7" ht="23.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A344" s="1" t="s">
-        <v>1297</v>
+        <v>1295</v>
       </c>
       <c r="C344" s="1" t="s">
-        <v>1298</v>
+        <v>1296</v>
       </c>
       <c r="E344" t="s">
-        <v>1088</v>
+        <v>1086</v>
       </c>
       <c r="G344" t="s">
-        <v>1269</v>
+        <v>1267</v>
       </c>
     </row>
     <row r="345" spans="1:7" ht="23.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A345" s="1" t="s">
+        <v>1297</v>
+      </c>
+      <c r="B345" s="1" t="s">
+        <v>1298</v>
+      </c>
+      <c r="C345" s="1" t="s">
         <v>1299</v>
       </c>
-      <c r="B345" s="1" t="s">
-        <v>1300</v>
-      </c>
-      <c r="C345" s="1" t="s">
-        <v>1301</v>
-      </c>
       <c r="E345" t="s">
-        <v>1089</v>
+        <v>1087</v>
       </c>
       <c r="G345" t="s">
-        <v>1269</v>
+        <v>1267</v>
       </c>
     </row>
     <row r="346" spans="1:7" ht="23.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A346" s="1" t="s">
+        <v>1300</v>
+      </c>
+      <c r="B346" s="1" t="s">
+        <v>1301</v>
+      </c>
+      <c r="C346" s="1" t="s">
         <v>1302</v>
       </c>
-      <c r="B346" s="1" t="s">
-        <v>1303</v>
-      </c>
-      <c r="C346" s="1" t="s">
-        <v>1304</v>
-      </c>
       <c r="E346" t="s">
-        <v>1090</v>
+        <v>1088</v>
       </c>
       <c r="G346" t="s">
-        <v>1269</v>
+        <v>1267</v>
       </c>
     </row>
     <row r="347" spans="1:7" ht="23.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A347" s="1" t="s">
-        <v>1305</v>
+        <v>1303</v>
       </c>
       <c r="C347" s="1" t="s">
-        <v>1306</v>
+        <v>1304</v>
       </c>
       <c r="E347" t="s">
-        <v>1091</v>
+        <v>1089</v>
       </c>
       <c r="G347" t="s">
-        <v>1269</v>
+        <v>1267</v>
       </c>
     </row>
     <row r="348" spans="1:7" ht="23.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A348" s="1" t="s">
+        <v>1305</v>
+      </c>
+      <c r="B348" s="3" t="s">
+        <v>1306</v>
+      </c>
+      <c r="C348" s="1" t="s">
         <v>1307</v>
       </c>
-      <c r="B348" s="3" t="s">
-        <v>1308</v>
-      </c>
-      <c r="C348" s="1" t="s">
-        <v>1309</v>
-      </c>
       <c r="E348" t="s">
-        <v>1092</v>
+        <v>1090</v>
       </c>
       <c r="G348" t="s">
-        <v>1269</v>
+        <v>1267</v>
       </c>
     </row>
     <row r="349" spans="1:7" ht="23.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A349" s="1" t="s">
+        <v>1308</v>
+      </c>
+      <c r="B349" s="3" t="s">
+        <v>1309</v>
+      </c>
+      <c r="C349" s="1" t="s">
         <v>1310</v>
       </c>
-      <c r="B349" s="3" t="s">
-        <v>1311</v>
-      </c>
-      <c r="C349" s="1" t="s">
-        <v>1312</v>
-      </c>
       <c r="E349" t="s">
-        <v>1093</v>
+        <v>1091</v>
       </c>
       <c r="G349" t="s">
-        <v>1269</v>
+        <v>1267</v>
       </c>
     </row>
     <row r="350" spans="1:7" ht="23.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A350" s="1" t="s">
+        <v>1311</v>
+      </c>
+      <c r="B350" s="1" t="s">
+        <v>1312</v>
+      </c>
+      <c r="C350" s="1" t="s">
         <v>1313</v>
       </c>
-      <c r="B350" s="1" t="s">
-        <v>1314</v>
-      </c>
-      <c r="C350" s="1" t="s">
-        <v>1315</v>
-      </c>
       <c r="E350" t="s">
-        <v>1094</v>
+        <v>1092</v>
       </c>
       <c r="G350" t="s">
-        <v>1269</v>
+        <v>1267</v>
       </c>
     </row>
     <row r="351" spans="1:7" ht="23.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A351" s="1" t="s">
+        <v>1314</v>
+      </c>
+      <c r="B351" s="1" t="s">
+        <v>1315</v>
+      </c>
+      <c r="C351" s="1" t="s">
         <v>1316</v>
       </c>
-      <c r="B351" s="1" t="s">
-        <v>1317</v>
-      </c>
-      <c r="C351" s="1" t="s">
-        <v>1318</v>
-      </c>
       <c r="E351" t="s">
-        <v>1095</v>
+        <v>1093</v>
       </c>
       <c r="G351" t="s">
-        <v>1269</v>
+        <v>1267</v>
       </c>
     </row>
     <row r="352" spans="1:7" ht="23.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A352" s="1" t="s">
+        <v>1317</v>
+      </c>
+      <c r="B352" s="3" t="s">
+        <v>1318</v>
+      </c>
+      <c r="C352" s="1" t="s">
         <v>1319</v>
       </c>
-      <c r="B352" s="3" t="s">
-        <v>1320</v>
-      </c>
-      <c r="C352" s="1" t="s">
-        <v>1321</v>
-      </c>
       <c r="E352" t="s">
-        <v>1096</v>
+        <v>1094</v>
       </c>
       <c r="G352" t="s">
-        <v>1269</v>
+        <v>1267</v>
       </c>
     </row>
     <row r="353" spans="1:7" ht="23.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A353" s="1" t="s">
+        <v>1320</v>
+      </c>
+      <c r="B353" s="1" t="s">
+        <v>1321</v>
+      </c>
+      <c r="C353" s="1" t="s">
         <v>1322</v>
       </c>
-      <c r="B353" s="1" t="s">
-        <v>1323</v>
-      </c>
-      <c r="C353" s="1" t="s">
-        <v>1324</v>
-      </c>
       <c r="E353" t="s">
-        <v>1097</v>
+        <v>1095</v>
       </c>
       <c r="G353" t="s">
-        <v>1269</v>
+        <v>1267</v>
       </c>
     </row>
     <row r="354" spans="1:7" ht="23.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A354" s="1" t="s">
-        <v>1325</v>
+        <v>1323</v>
       </c>
       <c r="B354" s="3" t="s">
-        <v>1326</v>
+        <v>1324</v>
       </c>
       <c r="E354" t="s">
-        <v>1098</v>
+        <v>1096</v>
       </c>
       <c r="G354" t="s">
-        <v>1269</v>
+        <v>1267</v>
       </c>
     </row>
     <row r="355" spans="1:7" ht="23.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A355" s="1" t="s">
-        <v>1709</v>
+        <v>1707</v>
       </c>
       <c r="B355" s="1" t="s">
-        <v>1710</v>
+        <v>1708</v>
       </c>
       <c r="C355" s="3" t="s">
-        <v>1327</v>
+        <v>1325</v>
       </c>
       <c r="D355" s="3"/>
       <c r="E355" t="s">
-        <v>1099</v>
+        <v>1097</v>
       </c>
       <c r="G355" t="s">
-        <v>1269</v>
+        <v>1267</v>
       </c>
     </row>
     <row r="356" spans="1:7" ht="23.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A356" s="1" t="s">
+        <v>1326</v>
+      </c>
+      <c r="B356" s="1" t="s">
+        <v>1327</v>
+      </c>
+      <c r="C356" s="1" t="s">
         <v>1328</v>
       </c>
-      <c r="B356" s="1" t="s">
-        <v>1329</v>
-      </c>
-      <c r="C356" s="1" t="s">
-        <v>1330</v>
-      </c>
       <c r="E356" t="s">
-        <v>1100</v>
+        <v>1098</v>
       </c>
       <c r="G356" t="s">
-        <v>1269</v>
+        <v>1267</v>
       </c>
     </row>
     <row r="357" spans="1:7" ht="23.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A357" s="1" t="s">
+        <v>1329</v>
+      </c>
+      <c r="B357" s="3" t="s">
+        <v>1330</v>
+      </c>
+      <c r="C357" s="1" t="s">
         <v>1331</v>
       </c>
-      <c r="B357" s="3" t="s">
-        <v>1332</v>
-      </c>
-      <c r="C357" s="1" t="s">
-        <v>1333</v>
-      </c>
       <c r="E357" t="s">
-        <v>1101</v>
+        <v>1099</v>
       </c>
       <c r="G357" t="s">
-        <v>1269</v>
+        <v>1267</v>
       </c>
     </row>
     <row r="358" spans="1:7" ht="23.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A358" s="1" t="s">
+        <v>1332</v>
+      </c>
+      <c r="B358" s="3" t="s">
+        <v>1333</v>
+      </c>
+      <c r="C358" s="1" t="s">
         <v>1334</v>
       </c>
-      <c r="B358" s="3" t="s">
-        <v>1335</v>
-      </c>
-      <c r="C358" s="1" t="s">
-        <v>1336</v>
-      </c>
       <c r="E358" t="s">
-        <v>1102</v>
+        <v>1100</v>
       </c>
       <c r="G358" t="s">
-        <v>1269</v>
+        <v>1267</v>
       </c>
     </row>
     <row r="359" spans="1:7" ht="23.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A359" s="1" t="s">
+        <v>1335</v>
+      </c>
+      <c r="B359" s="1" t="s">
         <v>1337</v>
       </c>
-      <c r="B359" s="1" t="s">
-        <v>1339</v>
-      </c>
       <c r="C359" s="1" t="s">
-        <v>1338</v>
+        <v>1336</v>
       </c>
       <c r="E359" t="s">
-        <v>1103</v>
+        <v>1101</v>
       </c>
       <c r="G359" t="s">
-        <v>1269</v>
+        <v>1267</v>
       </c>
     </row>
     <row r="360" spans="1:7" ht="23.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A360" s="1" t="s">
+        <v>1338</v>
+      </c>
+      <c r="B360" s="1" t="s">
+        <v>1339</v>
+      </c>
+      <c r="C360" s="1" t="s">
         <v>1340</v>
       </c>
-      <c r="B360" s="1" t="s">
-        <v>1341</v>
-      </c>
-      <c r="C360" s="1" t="s">
-        <v>1342</v>
-      </c>
       <c r="E360" t="s">
-        <v>1104</v>
+        <v>1102</v>
       </c>
       <c r="G360" t="s">
-        <v>1269</v>
+        <v>1267</v>
       </c>
     </row>
     <row r="361" spans="1:7" ht="23.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A361" s="1" t="s">
+        <v>1341</v>
+      </c>
+      <c r="B361" s="1" t="s">
+        <v>1342</v>
+      </c>
+      <c r="C361" s="1" t="s">
         <v>1343</v>
       </c>
-      <c r="B361" s="1" t="s">
-        <v>1344</v>
-      </c>
-      <c r="C361" s="1" t="s">
-        <v>1345</v>
-      </c>
       <c r="E361" t="s">
-        <v>1105</v>
+        <v>1103</v>
       </c>
       <c r="G361" t="s">
-        <v>1269</v>
+        <v>1267</v>
       </c>
     </row>
     <row r="362" spans="1:7" ht="23.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A362" s="1" t="s">
-        <v>1355</v>
+        <v>1353</v>
       </c>
       <c r="B362" s="3" t="s">
-        <v>1346</v>
+        <v>1344</v>
       </c>
       <c r="C362" s="1" t="s">
-        <v>1347</v>
+        <v>1345</v>
       </c>
       <c r="E362" t="s">
-        <v>1106</v>
+        <v>1104</v>
       </c>
       <c r="G362" t="s">
-        <v>1269</v>
+        <v>1267</v>
       </c>
     </row>
     <row r="363" spans="1:7" ht="23.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A363" s="1" t="s">
-        <v>1348</v>
+        <v>1346</v>
       </c>
       <c r="C363" s="1" t="s">
-        <v>1349</v>
+        <v>1347</v>
       </c>
       <c r="E363" t="s">
-        <v>1107</v>
+        <v>1105</v>
       </c>
       <c r="G363" t="s">
-        <v>1269</v>
+        <v>1267</v>
       </c>
     </row>
     <row r="364" spans="1:7" ht="23.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A364" s="1" t="s">
-        <v>1354</v>
+        <v>1352</v>
       </c>
       <c r="B364" s="3" t="s">
-        <v>1350</v>
+        <v>1348</v>
       </c>
       <c r="C364" s="1" t="s">
-        <v>1351</v>
+        <v>1349</v>
       </c>
       <c r="E364" t="s">
-        <v>1108</v>
+        <v>1106</v>
       </c>
       <c r="G364" t="s">
-        <v>1269</v>
+        <v>1267</v>
       </c>
     </row>
     <row r="365" spans="1:7" ht="23.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A365" s="1" t="s">
-        <v>1352</v>
+        <v>1350</v>
       </c>
       <c r="B365" s="1" t="s">
-        <v>1353</v>
+        <v>1351</v>
       </c>
       <c r="C365" s="1" t="s">
-        <v>1356</v>
+        <v>1354</v>
       </c>
       <c r="E365" t="s">
-        <v>1109</v>
+        <v>1107</v>
       </c>
       <c r="G365" t="s">
-        <v>1269</v>
+        <v>1267</v>
       </c>
     </row>
     <row r="366" spans="1:7" ht="23.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A366" s="1" t="s">
+        <v>1355</v>
+      </c>
+      <c r="B366" s="1" t="s">
+        <v>1356</v>
+      </c>
+      <c r="C366" s="1" t="s">
         <v>1357</v>
       </c>
-      <c r="B366" s="1" t="s">
-        <v>1358</v>
-      </c>
-      <c r="C366" s="1" t="s">
-        <v>1359</v>
-      </c>
       <c r="E366" t="s">
-        <v>1110</v>
+        <v>1108</v>
       </c>
       <c r="G366" t="s">
-        <v>1269</v>
+        <v>1267</v>
       </c>
     </row>
     <row r="367" spans="1:7" ht="23.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A367" s="1" t="s">
+        <v>1358</v>
+      </c>
+      <c r="B367" s="1" t="s">
+        <v>1359</v>
+      </c>
+      <c r="C367" s="1" t="s">
         <v>1360</v>
       </c>
-      <c r="B367" s="1" t="s">
-        <v>1361</v>
-      </c>
-      <c r="C367" s="1" t="s">
-        <v>1362</v>
-      </c>
       <c r="E367" t="s">
-        <v>1111</v>
+        <v>1109</v>
       </c>
       <c r="G367" t="s">
-        <v>1269</v>
+        <v>1267</v>
       </c>
     </row>
     <row r="368" spans="1:7" ht="23.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A368" s="1" t="s">
-        <v>1711</v>
+        <v>1709</v>
       </c>
       <c r="B368" s="1" t="s">
-        <v>1712</v>
+        <v>1710</v>
       </c>
       <c r="C368" s="1" t="s">
-        <v>1363</v>
+        <v>1361</v>
       </c>
       <c r="E368" t="s">
-        <v>1112</v>
+        <v>1110</v>
       </c>
       <c r="G368" t="s">
-        <v>1269</v>
+        <v>1267</v>
       </c>
     </row>
     <row r="369" spans="1:7" ht="23.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A369" s="1" t="s">
+        <v>1362</v>
+      </c>
+      <c r="B369" s="1" t="s">
+        <v>1363</v>
+      </c>
+      <c r="C369" s="1" t="s">
         <v>1364</v>
       </c>
-      <c r="B369" s="1" t="s">
-        <v>1365</v>
-      </c>
-      <c r="C369" s="1" t="s">
-        <v>1366</v>
-      </c>
       <c r="E369" t="s">
-        <v>1113</v>
+        <v>1111</v>
       </c>
       <c r="G369" t="s">
-        <v>1269</v>
+        <v>1267</v>
       </c>
     </row>
     <row r="370" spans="1:7" ht="23.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A370" s="1" t="s">
+        <v>1365</v>
+      </c>
+      <c r="B370" s="1" t="s">
+        <v>1366</v>
+      </c>
+      <c r="C370" s="1" t="s">
         <v>1367</v>
       </c>
-      <c r="B370" s="1" t="s">
-        <v>1368</v>
-      </c>
-      <c r="C370" s="1" t="s">
-        <v>1369</v>
-      </c>
       <c r="E370" t="s">
-        <v>1114</v>
+        <v>1112</v>
       </c>
       <c r="G370" t="s">
-        <v>1269</v>
+        <v>1267</v>
       </c>
     </row>
     <row r="371" spans="1:7" ht="23.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A371" s="1" t="s">
+        <v>1368</v>
+      </c>
+      <c r="B371" s="1" t="s">
+        <v>1369</v>
+      </c>
+      <c r="C371" s="1" t="s">
         <v>1370</v>
       </c>
-      <c r="B371" s="1" t="s">
-        <v>1371</v>
-      </c>
-      <c r="C371" s="1" t="s">
-        <v>1372</v>
-      </c>
       <c r="E371" s="2" t="s">
-        <v>1115</v>
+        <v>1113</v>
       </c>
       <c r="G371" t="s">
-        <v>1269</v>
+        <v>1267</v>
       </c>
     </row>
     <row r="372" spans="1:7" ht="23.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A372" s="1" t="s">
+        <v>1371</v>
+      </c>
+      <c r="B372" s="1" t="s">
+        <v>1372</v>
+      </c>
+      <c r="C372" s="1" t="s">
         <v>1373</v>
       </c>
-      <c r="B372" s="1" t="s">
-        <v>1374</v>
-      </c>
-      <c r="C372" s="1" t="s">
-        <v>1375</v>
-      </c>
       <c r="E372" t="s">
-        <v>1116</v>
+        <v>1114</v>
       </c>
       <c r="G372" t="s">
-        <v>1269</v>
+        <v>1267</v>
       </c>
     </row>
     <row r="373" spans="1:7" ht="23.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A373" s="3" t="s">
+        <v>1374</v>
+      </c>
+      <c r="B373" s="1" t="s">
+        <v>1375</v>
+      </c>
+      <c r="C373" s="1" t="s">
         <v>1376</v>
       </c>
-      <c r="B373" s="1" t="s">
-        <v>1377</v>
-      </c>
-      <c r="C373" s="1" t="s">
-        <v>1378</v>
-      </c>
       <c r="E373" t="s">
-        <v>1117</v>
+        <v>1115</v>
       </c>
       <c r="G373" t="s">
-        <v>1269</v>
+        <v>1267</v>
       </c>
     </row>
     <row r="374" spans="1:7" ht="23.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A374" s="1" t="s">
+        <v>1377</v>
+      </c>
+      <c r="B374" s="3" t="s">
+        <v>1378</v>
+      </c>
+      <c r="C374" s="1" t="s">
         <v>1379</v>
       </c>
-      <c r="B374" s="3" t="s">
-        <v>1380</v>
-      </c>
-      <c r="C374" s="1" t="s">
-        <v>1381</v>
-      </c>
       <c r="E374" t="s">
-        <v>1118</v>
+        <v>1116</v>
       </c>
       <c r="G374" t="s">
-        <v>1269</v>
+        <v>1267</v>
       </c>
     </row>
     <row r="375" spans="1:7" ht="23.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A375" s="1" t="s">
+        <v>1380</v>
+      </c>
+      <c r="B375" s="1" t="s">
+        <v>1381</v>
+      </c>
+      <c r="C375" s="1" t="s">
         <v>1382</v>
       </c>
-      <c r="B375" s="1" t="s">
-        <v>1383</v>
-      </c>
-      <c r="C375" s="1" t="s">
-        <v>1384</v>
-      </c>
       <c r="E375" t="s">
-        <v>1119</v>
+        <v>1117</v>
       </c>
       <c r="G375" t="s">
-        <v>1269</v>
+        <v>1267</v>
       </c>
     </row>
     <row r="376" spans="1:7" ht="23.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A376" s="1" t="s">
+        <v>1383</v>
+      </c>
+      <c r="B376" s="3" t="s">
+        <v>1384</v>
+      </c>
+      <c r="C376" s="1" t="s">
         <v>1385</v>
       </c>
-      <c r="B376" s="3" t="s">
-        <v>1386</v>
-      </c>
-      <c r="C376" s="1" t="s">
-        <v>1387</v>
-      </c>
       <c r="E376" t="s">
-        <v>1120</v>
+        <v>1118</v>
       </c>
       <c r="G376" t="s">
-        <v>1269</v>
+        <v>1267</v>
       </c>
     </row>
     <row r="377" spans="1:7" ht="23.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A377" s="1" t="s">
-        <v>1393</v>
+        <v>1391</v>
       </c>
       <c r="B377" s="1" t="s">
-        <v>1388</v>
+        <v>1386</v>
       </c>
       <c r="C377" s="3" t="s">
-        <v>1389</v>
+        <v>1387</v>
       </c>
       <c r="D377" s="3"/>
       <c r="E377" t="s">
-        <v>1121</v>
+        <v>1119</v>
       </c>
       <c r="G377" t="s">
-        <v>1269</v>
+        <v>1267</v>
       </c>
     </row>
     <row r="378" spans="1:7" ht="23.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A378" s="1" t="s">
+        <v>1388</v>
+      </c>
+      <c r="B378" s="1" t="s">
+        <v>1389</v>
+      </c>
+      <c r="C378" s="1" t="s">
         <v>1390</v>
       </c>
-      <c r="B378" s="1" t="s">
-        <v>1391</v>
-      </c>
-      <c r="C378" s="1" t="s">
-        <v>1392</v>
-      </c>
       <c r="E378" t="s">
-        <v>1122</v>
+        <v>1120</v>
       </c>
       <c r="G378" t="s">
-        <v>1269</v>
+        <v>1267</v>
       </c>
     </row>
     <row r="379" spans="1:7" ht="23.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A379" s="1" t="s">
+        <v>1392</v>
+      </c>
+      <c r="B379" s="1" t="s">
+        <v>1393</v>
+      </c>
+      <c r="C379" s="3" t="s">
         <v>1394</v>
-      </c>
-      <c r="B379" s="1" t="s">
-        <v>1395</v>
-      </c>
-      <c r="C379" s="3" t="s">
-        <v>1396</v>
       </c>
       <c r="D379" s="3"/>
       <c r="E379" t="s">
-        <v>1123</v>
+        <v>1121</v>
       </c>
       <c r="G379" t="s">
-        <v>1269</v>
+        <v>1267</v>
       </c>
     </row>
     <row r="380" spans="1:7" ht="23.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A380" s="3" t="s">
-        <v>1766</v>
+        <v>1764</v>
       </c>
       <c r="B380" s="3" t="s">
-        <v>1767</v>
+        <v>1765</v>
       </c>
       <c r="C380" s="1" t="s">
-        <v>1397</v>
+        <v>1395</v>
       </c>
       <c r="E380" t="s">
-        <v>1124</v>
+        <v>1122</v>
       </c>
       <c r="G380" t="s">
-        <v>1269</v>
+        <v>1267</v>
       </c>
     </row>
     <row r="381" spans="1:7" ht="23.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A381" s="1" t="s">
+        <v>1396</v>
+      </c>
+      <c r="B381" s="1" t="s">
+        <v>1397</v>
+      </c>
+      <c r="C381" s="1" t="s">
         <v>1398</v>
       </c>
-      <c r="B381" s="1" t="s">
-        <v>1399</v>
-      </c>
-      <c r="C381" s="1" t="s">
-        <v>1400</v>
-      </c>
       <c r="E381" t="s">
-        <v>1125</v>
+        <v>1123</v>
       </c>
       <c r="G381" t="s">
-        <v>1269</v>
+        <v>1267</v>
       </c>
     </row>
     <row r="382" spans="1:7" ht="23.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A382" s="1" t="s">
+        <v>1399</v>
+      </c>
+      <c r="B382" s="1" t="s">
+        <v>1400</v>
+      </c>
+      <c r="C382" s="1" t="s">
         <v>1401</v>
       </c>
-      <c r="B382" s="1" t="s">
-        <v>1402</v>
-      </c>
-      <c r="C382" s="1" t="s">
-        <v>1403</v>
-      </c>
       <c r="E382" t="s">
-        <v>1126</v>
+        <v>1124</v>
       </c>
       <c r="G382" t="s">
-        <v>1269</v>
+        <v>1267</v>
       </c>
     </row>
     <row r="383" spans="1:7" ht="23.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A383" s="1" t="s">
+        <v>1402</v>
+      </c>
+      <c r="B383" s="1" t="s">
+        <v>1403</v>
+      </c>
+      <c r="C383" s="1" t="s">
         <v>1404</v>
       </c>
-      <c r="B383" s="1" t="s">
-        <v>1405</v>
-      </c>
-      <c r="C383" s="1" t="s">
-        <v>1406</v>
-      </c>
       <c r="E383" t="s">
-        <v>1127</v>
+        <v>1125</v>
       </c>
       <c r="G383" t="s">
-        <v>1269</v>
+        <v>1267</v>
       </c>
     </row>
     <row r="384" spans="1:7" ht="23.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A384" s="1" t="s">
+        <v>1405</v>
+      </c>
+      <c r="B384" s="3" t="s">
+        <v>1406</v>
+      </c>
+      <c r="C384" s="1" t="s">
         <v>1407</v>
       </c>
-      <c r="B384" s="3" t="s">
-        <v>1408</v>
-      </c>
-      <c r="C384" s="1" t="s">
-        <v>1409</v>
-      </c>
       <c r="E384" t="s">
-        <v>1128</v>
+        <v>1126</v>
       </c>
       <c r="G384" t="s">
-        <v>1269</v>
+        <v>1267</v>
       </c>
     </row>
     <row r="385" spans="1:7" ht="23.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A385" s="1" t="s">
+        <v>1408</v>
+      </c>
+      <c r="B385" s="1" t="s">
+        <v>1409</v>
+      </c>
+      <c r="C385" s="3" t="s">
         <v>1410</v>
-      </c>
-      <c r="B385" s="1" t="s">
-        <v>1411</v>
-      </c>
-      <c r="C385" s="3" t="s">
-        <v>1412</v>
       </c>
       <c r="D385" s="3"/>
       <c r="E385" t="s">
-        <v>1129</v>
+        <v>1127</v>
       </c>
       <c r="G385" t="s">
-        <v>1269</v>
+        <v>1267</v>
       </c>
     </row>
     <row r="386" spans="1:7" ht="23.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A386" s="1" t="s">
+        <v>1411</v>
+      </c>
+      <c r="B386" s="3" t="s">
+        <v>1412</v>
+      </c>
+      <c r="C386" s="1" t="s">
         <v>1413</v>
       </c>
-      <c r="B386" s="3" t="s">
-        <v>1414</v>
-      </c>
-      <c r="C386" s="1" t="s">
-        <v>1415</v>
-      </c>
       <c r="E386" t="s">
-        <v>1130</v>
+        <v>1128</v>
       </c>
       <c r="G386" t="s">
-        <v>1269</v>
+        <v>1267</v>
       </c>
     </row>
     <row r="387" spans="1:7" ht="23.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A387" s="1" t="s">
+        <v>1414</v>
+      </c>
+      <c r="B387" s="1" t="s">
+        <v>1415</v>
+      </c>
+      <c r="C387" s="1" t="s">
         <v>1416</v>
       </c>
-      <c r="B387" s="1" t="s">
-        <v>1417</v>
-      </c>
-      <c r="C387" s="1" t="s">
-        <v>1418</v>
-      </c>
       <c r="E387" t="s">
-        <v>1131</v>
+        <v>1129</v>
       </c>
       <c r="G387" t="s">
-        <v>1269</v>
+        <v>1267</v>
       </c>
     </row>
     <row r="388" spans="1:7" ht="23.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A388" s="1" t="s">
+        <v>1417</v>
+      </c>
+      <c r="B388" s="1" t="s">
+        <v>1418</v>
+      </c>
+      <c r="C388" s="1" t="s">
         <v>1419</v>
       </c>
-      <c r="B388" s="1" t="s">
-        <v>1420</v>
-      </c>
-      <c r="C388" s="1" t="s">
-        <v>1421</v>
-      </c>
       <c r="E388" t="s">
-        <v>1132</v>
+        <v>1130</v>
       </c>
       <c r="G388" t="s">
-        <v>1269</v>
+        <v>1267</v>
       </c>
     </row>
     <row r="389" spans="1:7" ht="23.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A389" s="1" t="s">
-        <v>1422</v>
+        <v>1420</v>
       </c>
       <c r="B389" s="1" t="s">
-        <v>1423</v>
+        <v>1421</v>
       </c>
       <c r="E389" t="s">
-        <v>1133</v>
+        <v>1131</v>
       </c>
       <c r="G389" t="s">
-        <v>1269</v>
+        <v>1267</v>
       </c>
     </row>
     <row r="390" spans="1:7" ht="23.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A390" s="1" t="s">
-        <v>1425</v>
+        <v>1423</v>
       </c>
       <c r="B390" s="1" t="s">
+        <v>1422</v>
+      </c>
+      <c r="C390" s="1" t="s">
         <v>1424</v>
       </c>
-      <c r="C390" s="1" t="s">
-        <v>1426</v>
-      </c>
       <c r="E390" t="s">
-        <v>1134</v>
+        <v>1132</v>
       </c>
       <c r="G390" t="s">
-        <v>1269</v>
+        <v>1267</v>
       </c>
     </row>
     <row r="391" spans="1:7" ht="23.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A391" s="1" t="s">
+        <v>1425</v>
+      </c>
+      <c r="B391" s="3" t="s">
+        <v>1426</v>
+      </c>
+      <c r="C391" s="1" t="s">
         <v>1427</v>
       </c>
-      <c r="B391" s="3" t="s">
-        <v>1428</v>
-      </c>
-      <c r="C391" s="1" t="s">
-        <v>1429</v>
-      </c>
       <c r="E391" t="s">
-        <v>1135</v>
+        <v>1133</v>
       </c>
       <c r="G391" t="s">
-        <v>1269</v>
+        <v>1267</v>
       </c>
     </row>
     <row r="392" spans="1:7" ht="23.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A392" s="1" t="s">
+        <v>1428</v>
+      </c>
+      <c r="B392" s="1" t="s">
+        <v>1429</v>
+      </c>
+      <c r="C392" s="1" t="s">
         <v>1430</v>
       </c>
-      <c r="B392" s="1" t="s">
-        <v>1431</v>
-      </c>
-      <c r="C392" s="1" t="s">
-        <v>1432</v>
-      </c>
       <c r="E392" t="s">
-        <v>1136</v>
+        <v>1134</v>
       </c>
       <c r="G392" t="s">
-        <v>1269</v>
+        <v>1267</v>
       </c>
     </row>
     <row r="393" spans="1:7" ht="23.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A393" s="1" t="s">
-        <v>1435</v>
+        <v>1433</v>
       </c>
       <c r="B393" s="1" t="s">
-        <v>1433</v>
+        <v>1431</v>
       </c>
       <c r="C393" s="1" t="s">
-        <v>1434</v>
+        <v>1432</v>
       </c>
       <c r="E393" t="s">
-        <v>1137</v>
+        <v>1135</v>
       </c>
       <c r="G393" t="s">
-        <v>1269</v>
+        <v>1267</v>
       </c>
     </row>
     <row r="394" spans="1:7" ht="23.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A394" s="1" t="s">
-        <v>1436</v>
+        <v>1434</v>
       </c>
       <c r="C394" s="1" t="s">
-        <v>1437</v>
+        <v>1435</v>
       </c>
       <c r="E394" t="s">
-        <v>1138</v>
+        <v>1136</v>
       </c>
       <c r="G394" t="s">
-        <v>1269</v>
+        <v>1267</v>
       </c>
     </row>
     <row r="395" spans="1:7" ht="23.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A395" s="1" t="s">
+        <v>1436</v>
+      </c>
+      <c r="B395" s="1" t="s">
+        <v>1437</v>
+      </c>
+      <c r="C395" s="1" t="s">
         <v>1438</v>
       </c>
-      <c r="B395" s="1" t="s">
-        <v>1439</v>
-      </c>
-      <c r="C395" s="1" t="s">
-        <v>1440</v>
-      </c>
       <c r="E395" t="s">
-        <v>1139</v>
+        <v>1137</v>
       </c>
       <c r="G395" t="s">
-        <v>1269</v>
+        <v>1267</v>
       </c>
     </row>
     <row r="396" spans="1:7" ht="23.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A396" s="1" t="s">
-        <v>1441</v>
+        <v>1439</v>
       </c>
       <c r="B396" s="1" t="s">
-        <v>1444</v>
+        <v>1442</v>
       </c>
       <c r="C396" s="1" t="s">
-        <v>1445</v>
+        <v>1443</v>
       </c>
       <c r="E396" t="s">
-        <v>1140</v>
+        <v>1138</v>
       </c>
       <c r="G396" t="s">
-        <v>1269</v>
+        <v>1267</v>
       </c>
     </row>
     <row r="397" spans="1:7" ht="23.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A397" s="1" t="s">
-        <v>1442</v>
+        <v>1440</v>
       </c>
       <c r="B397" s="1" t="s">
-        <v>1443</v>
+        <v>1441</v>
       </c>
       <c r="C397" s="1" t="s">
-        <v>1449</v>
+        <v>1447</v>
       </c>
       <c r="E397" t="s">
-        <v>1141</v>
+        <v>1139</v>
       </c>
       <c r="G397" t="s">
-        <v>1269</v>
+        <v>1267</v>
       </c>
     </row>
     <row r="398" spans="1:7" ht="23.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A398" s="1" t="s">
+        <v>1444</v>
+      </c>
+      <c r="B398" s="1" t="s">
+        <v>1445</v>
+      </c>
+      <c r="C398" s="1" t="s">
         <v>1446</v>
       </c>
-      <c r="B398" s="1" t="s">
-        <v>1447</v>
-      </c>
-      <c r="C398" s="1" t="s">
-        <v>1448</v>
-      </c>
       <c r="E398" t="s">
-        <v>1142</v>
+        <v>1140</v>
       </c>
       <c r="G398" t="s">
-        <v>1269</v>
+        <v>1267</v>
       </c>
     </row>
     <row r="399" spans="1:7" ht="23.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A399" s="1" t="s">
+        <v>1448</v>
+      </c>
+      <c r="B399" s="3" t="s">
+        <v>1449</v>
+      </c>
+      <c r="C399" s="1" t="s">
         <v>1450</v>
       </c>
-      <c r="B399" s="3" t="s">
-        <v>1451</v>
-      </c>
-      <c r="C399" s="1" t="s">
-        <v>1452</v>
-      </c>
       <c r="E399" t="s">
-        <v>1143</v>
+        <v>1141</v>
       </c>
       <c r="G399" t="s">
-        <v>1269</v>
+        <v>1267</v>
       </c>
     </row>
     <row r="400" spans="1:7" ht="23.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A400" s="1" t="s">
+        <v>1451</v>
+      </c>
+      <c r="B400" s="1" t="s">
+        <v>1452</v>
+      </c>
+      <c r="C400" s="1" t="s">
         <v>1453</v>
       </c>
-      <c r="B400" s="1" t="s">
-        <v>1454</v>
-      </c>
-      <c r="C400" s="1" t="s">
-        <v>1455</v>
-      </c>
       <c r="E400" t="s">
-        <v>1144</v>
+        <v>1142</v>
       </c>
       <c r="G400" t="s">
-        <v>1269</v>
+        <v>1267</v>
       </c>
     </row>
     <row r="401" spans="1:7" ht="23.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A401" s="1" t="s">
+        <v>1454</v>
+      </c>
+      <c r="B401" s="1" t="s">
+        <v>1455</v>
+      </c>
+      <c r="C401" s="1" t="s">
         <v>1456</v>
       </c>
-      <c r="B401" s="1" t="s">
-        <v>1457</v>
-      </c>
-      <c r="C401" s="1" t="s">
-        <v>1458</v>
-      </c>
       <c r="E401" t="s">
-        <v>1145</v>
+        <v>1143</v>
       </c>
       <c r="G401" t="s">
-        <v>1269</v>
+        <v>1267</v>
       </c>
     </row>
     <row r="402" spans="1:7" ht="23.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A402" s="1" t="s">
+        <v>1457</v>
+      </c>
+      <c r="B402" s="1" t="s">
+        <v>1458</v>
+      </c>
+      <c r="C402" s="1" t="s">
         <v>1459</v>
       </c>
-      <c r="B402" s="1" t="s">
-        <v>1460</v>
-      </c>
-      <c r="C402" s="1" t="s">
-        <v>1461</v>
-      </c>
       <c r="E402" t="s">
-        <v>1146</v>
+        <v>1144</v>
       </c>
       <c r="G402" t="s">
-        <v>1269</v>
+        <v>1267</v>
       </c>
     </row>
     <row r="403" spans="1:7" ht="23.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A403" s="1" t="s">
-        <v>1462</v>
+        <v>1460</v>
       </c>
       <c r="B403" s="3" t="s">
-        <v>1768</v>
+        <v>1766</v>
       </c>
       <c r="C403" s="1" t="s">
-        <v>1463</v>
+        <v>1461</v>
       </c>
       <c r="E403" t="s">
-        <v>1147</v>
+        <v>1145</v>
       </c>
       <c r="G403" t="s">
-        <v>1269</v>
+        <v>1267</v>
       </c>
     </row>
     <row r="404" spans="1:7" ht="23.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A404" s="1" t="s">
-        <v>1713</v>
+        <v>1711</v>
       </c>
       <c r="B404" s="3" t="s">
-        <v>1714</v>
+        <v>1712</v>
       </c>
       <c r="C404" s="1" t="s">
-        <v>1464</v>
+        <v>1462</v>
       </c>
       <c r="E404" t="s">
-        <v>1148</v>
+        <v>1146</v>
       </c>
       <c r="G404" t="s">
-        <v>1269</v>
+        <v>1267</v>
       </c>
     </row>
     <row r="405" spans="1:7" ht="23.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A405" s="1" t="s">
+        <v>1463</v>
+      </c>
+      <c r="B405" s="1" t="s">
+        <v>1464</v>
+      </c>
+      <c r="C405" s="1" t="s">
         <v>1465</v>
       </c>
-      <c r="B405" s="1" t="s">
-        <v>1466</v>
-      </c>
-      <c r="C405" s="1" t="s">
-        <v>1467</v>
-      </c>
       <c r="E405" t="s">
-        <v>1149</v>
+        <v>1147</v>
       </c>
       <c r="G405" t="s">
-        <v>1269</v>
+        <v>1267</v>
       </c>
     </row>
     <row r="406" spans="1:7" ht="23.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A406" s="1" t="s">
-        <v>1470</v>
+        <v>1468</v>
       </c>
       <c r="B406" s="3" t="s">
-        <v>1468</v>
+        <v>1466</v>
       </c>
       <c r="C406" s="1" t="s">
-        <v>1469</v>
+        <v>1467</v>
       </c>
       <c r="E406" t="s">
-        <v>1150</v>
+        <v>1148</v>
       </c>
       <c r="G406" t="s">
-        <v>1269</v>
+        <v>1267</v>
       </c>
     </row>
     <row r="407" spans="1:7" ht="23.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A407" s="1" t="s">
+        <v>1469</v>
+      </c>
+      <c r="B407" s="3" t="s">
+        <v>1470</v>
+      </c>
+      <c r="C407" s="1" t="s">
         <v>1471</v>
       </c>
-      <c r="B407" s="3" t="s">
-        <v>1472</v>
-      </c>
-      <c r="C407" s="1" t="s">
-        <v>1473</v>
-      </c>
       <c r="E407" t="s">
-        <v>1151</v>
+        <v>1149</v>
       </c>
       <c r="G407" t="s">
-        <v>1269</v>
+        <v>1267</v>
       </c>
     </row>
     <row r="408" spans="1:7" ht="23.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A408" s="1" t="s">
+        <v>1472</v>
+      </c>
+      <c r="B408" s="1" t="s">
+        <v>1473</v>
+      </c>
+      <c r="C408" s="3" t="s">
         <v>1474</v>
-      </c>
-      <c r="B408" s="1" t="s">
-        <v>1475</v>
-      </c>
-      <c r="C408" s="3" t="s">
-        <v>1476</v>
       </c>
       <c r="D408" s="3"/>
       <c r="E408" t="s">
-        <v>1152</v>
+        <v>1150</v>
       </c>
       <c r="G408" t="s">
-        <v>1269</v>
+        <v>1267</v>
       </c>
     </row>
     <row r="409" spans="1:7" ht="23.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A409" s="1" t="s">
+        <v>1475</v>
+      </c>
+      <c r="B409" s="1" t="s">
+        <v>1476</v>
+      </c>
+      <c r="C409" s="1" t="s">
         <v>1477</v>
       </c>
-      <c r="B409" s="1" t="s">
-        <v>1478</v>
-      </c>
-      <c r="C409" s="1" t="s">
-        <v>1479</v>
-      </c>
       <c r="E409" t="s">
-        <v>1153</v>
+        <v>1151</v>
       </c>
       <c r="G409" t="s">
-        <v>1269</v>
+        <v>1267</v>
       </c>
     </row>
     <row r="410" spans="1:7" ht="23.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A410" s="1" t="s">
+        <v>1478</v>
+      </c>
+      <c r="B410" s="1" t="s">
+        <v>1479</v>
+      </c>
+      <c r="C410" s="1" t="s">
         <v>1480</v>
       </c>
-      <c r="B410" s="1" t="s">
-        <v>1481</v>
-      </c>
-      <c r="C410" s="1" t="s">
-        <v>1482</v>
-      </c>
       <c r="E410" t="s">
-        <v>1154</v>
+        <v>1152</v>
       </c>
       <c r="G410" t="s">
-        <v>1269</v>
+        <v>1267</v>
       </c>
     </row>
     <row r="411" spans="1:7" ht="23.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A411" s="1" t="s">
+        <v>1481</v>
+      </c>
+      <c r="B411" s="1" t="s">
+        <v>1482</v>
+      </c>
+      <c r="C411" s="1" t="s">
         <v>1483</v>
       </c>
-      <c r="B411" s="1" t="s">
-        <v>1484</v>
-      </c>
-      <c r="C411" s="1" t="s">
-        <v>1485</v>
-      </c>
       <c r="E411" t="s">
-        <v>1155</v>
+        <v>1153</v>
       </c>
       <c r="G411" t="s">
-        <v>1269</v>
+        <v>1267</v>
       </c>
     </row>
     <row r="412" spans="1:7" ht="23.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A412" s="1" t="s">
-        <v>1715</v>
+        <v>1713</v>
       </c>
       <c r="B412" s="3" t="s">
-        <v>1716</v>
+        <v>1714</v>
       </c>
       <c r="C412" s="1" t="s">
-        <v>1486</v>
+        <v>1484</v>
       </c>
       <c r="E412" t="s">
-        <v>1156</v>
+        <v>1154</v>
       </c>
       <c r="G412" t="s">
-        <v>1269</v>
+        <v>1267</v>
       </c>
     </row>
     <row r="413" spans="1:7" ht="23.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A413" s="1" t="s">
+        <v>1485</v>
+      </c>
+      <c r="B413" s="1" t="s">
+        <v>1486</v>
+      </c>
+      <c r="C413" s="1" t="s">
         <v>1487</v>
       </c>
-      <c r="B413" s="1" t="s">
-        <v>1488</v>
-      </c>
-      <c r="C413" s="1" t="s">
-        <v>1489</v>
-      </c>
       <c r="E413" t="s">
-        <v>1157</v>
+        <v>1155</v>
       </c>
       <c r="G413" t="s">
-        <v>1269</v>
+        <v>1267</v>
       </c>
     </row>
     <row r="414" spans="1:7" ht="23.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A414" s="1" t="s">
-        <v>1490</v>
+        <v>1488</v>
       </c>
       <c r="C414" s="1" t="s">
-        <v>1491</v>
+        <v>1489</v>
       </c>
       <c r="E414" t="s">
-        <v>1158</v>
+        <v>1156</v>
       </c>
       <c r="G414" t="s">
-        <v>1269</v>
+        <v>1267</v>
       </c>
     </row>
     <row r="415" spans="1:7" ht="23.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A415" s="1" t="s">
-        <v>1494</v>
+        <v>1492</v>
       </c>
       <c r="B415" s="3" t="s">
-        <v>1492</v>
+        <v>1490</v>
       </c>
       <c r="C415" s="1" t="s">
-        <v>1493</v>
+        <v>1491</v>
       </c>
       <c r="E415" t="s">
-        <v>1159</v>
+        <v>1157</v>
       </c>
       <c r="G415" t="s">
-        <v>1269</v>
+        <v>1267</v>
       </c>
     </row>
     <row r="416" spans="1:7" ht="23.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A416" s="1" t="s">
-        <v>1717</v>
+        <v>1715</v>
       </c>
       <c r="B416" s="1" t="s">
-        <v>1718</v>
+        <v>1716</v>
       </c>
       <c r="C416" s="1" t="s">
-        <v>1495</v>
+        <v>1493</v>
       </c>
       <c r="E416" t="s">
-        <v>1160</v>
+        <v>1158</v>
       </c>
       <c r="G416" t="s">
-        <v>1269</v>
+        <v>1267</v>
       </c>
     </row>
     <row r="417" spans="1:7" ht="23.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A417" s="1" t="s">
+        <v>1494</v>
+      </c>
+      <c r="B417" s="3" t="s">
+        <v>1495</v>
+      </c>
+      <c r="C417" s="3" t="s">
         <v>1496</v>
-      </c>
-      <c r="B417" s="3" t="s">
-        <v>1497</v>
-      </c>
-      <c r="C417" s="3" t="s">
-        <v>1498</v>
       </c>
       <c r="D417" s="3"/>
       <c r="E417" t="s">
-        <v>1161</v>
+        <v>1159</v>
       </c>
       <c r="G417" t="s">
-        <v>1269</v>
+        <v>1267</v>
       </c>
     </row>
     <row r="418" spans="1:7" ht="23.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A418" s="1" t="s">
+        <v>1497</v>
+      </c>
+      <c r="B418" s="3" t="s">
+        <v>1498</v>
+      </c>
+      <c r="C418" s="3" t="s">
         <v>1499</v>
-      </c>
-      <c r="B418" s="3" t="s">
-        <v>1500</v>
-      </c>
-      <c r="C418" s="3" t="s">
-        <v>1501</v>
       </c>
       <c r="D418" s="3"/>
       <c r="E418" t="s">
-        <v>1162</v>
+        <v>1160</v>
       </c>
       <c r="G418" t="s">
-        <v>1269</v>
+        <v>1267</v>
       </c>
     </row>
     <row r="419" spans="1:7" ht="23.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A419" s="1" t="s">
-        <v>1719</v>
+        <v>1717</v>
       </c>
       <c r="B419" s="1" t="s">
-        <v>1720</v>
+        <v>1718</v>
       </c>
       <c r="C419" s="1" t="s">
-        <v>1502</v>
+        <v>1500</v>
       </c>
       <c r="E419" t="s">
-        <v>1163</v>
+        <v>1161</v>
       </c>
       <c r="G419" t="s">
-        <v>1269</v>
+        <v>1267</v>
       </c>
     </row>
     <row r="420" spans="1:7" ht="23.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A420" s="1" t="s">
+        <v>1501</v>
+      </c>
+      <c r="B420" s="3" t="s">
+        <v>1502</v>
+      </c>
+      <c r="C420" s="1" t="s">
         <v>1503</v>
       </c>
-      <c r="B420" s="3" t="s">
-        <v>1504</v>
-      </c>
-      <c r="C420" s="1" t="s">
-        <v>1505</v>
-      </c>
       <c r="E420" t="s">
-        <v>1164</v>
+        <v>1162</v>
       </c>
       <c r="G420" t="s">
-        <v>1269</v>
+        <v>1267</v>
       </c>
     </row>
     <row r="421" spans="1:7" ht="23.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A421" s="1" t="s">
-        <v>1721</v>
+        <v>1719</v>
       </c>
       <c r="B421" s="3" t="s">
-        <v>1722</v>
+        <v>1720</v>
       </c>
       <c r="C421" s="1" t="s">
-        <v>1506</v>
+        <v>1504</v>
       </c>
       <c r="E421" t="s">
-        <v>1165</v>
+        <v>1163</v>
       </c>
       <c r="G421" t="s">
-        <v>1269</v>
+        <v>1267</v>
       </c>
     </row>
     <row r="422" spans="1:7" ht="23.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A422" s="1" t="s">
+        <v>1505</v>
+      </c>
+      <c r="B422" s="3" t="s">
+        <v>1506</v>
+      </c>
+      <c r="C422" s="1" t="s">
         <v>1507</v>
       </c>
-      <c r="B422" s="3" t="s">
-        <v>1508</v>
-      </c>
-      <c r="C422" s="1" t="s">
-        <v>1509</v>
-      </c>
       <c r="E422" t="s">
-        <v>1166</v>
+        <v>1164</v>
       </c>
       <c r="G422" t="s">
-        <v>1269</v>
+        <v>1267</v>
       </c>
     </row>
     <row r="423" spans="1:7" ht="23.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A423" s="1" t="s">
-        <v>1510</v>
+        <v>1508</v>
       </c>
       <c r="C423" s="1" t="s">
-        <v>1511</v>
+        <v>1509</v>
       </c>
       <c r="E423" t="s">
-        <v>1167</v>
+        <v>1165</v>
       </c>
       <c r="G423" t="s">
-        <v>1269</v>
+        <v>1267</v>
       </c>
     </row>
     <row r="424" spans="1:7" ht="23.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A424" s="1" t="s">
+        <v>1510</v>
+      </c>
+      <c r="B424" s="3" t="s">
+        <v>1511</v>
+      </c>
+      <c r="C424" s="1" t="s">
         <v>1512</v>
       </c>
-      <c r="B424" s="3" t="s">
-        <v>1513</v>
-      </c>
-      <c r="C424" s="1" t="s">
-        <v>1514</v>
-      </c>
       <c r="E424" t="s">
-        <v>1168</v>
+        <v>1166</v>
       </c>
       <c r="G424" t="s">
-        <v>1269</v>
+        <v>1267</v>
       </c>
     </row>
     <row r="425" spans="1:7" ht="23.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A425" s="1" t="s">
-        <v>1515</v>
+        <v>1513</v>
       </c>
       <c r="C425" s="1" t="s">
-        <v>1516</v>
+        <v>1514</v>
       </c>
       <c r="E425" t="s">
-        <v>1169</v>
+        <v>1167</v>
       </c>
       <c r="G425" t="s">
-        <v>1269</v>
+        <v>1267</v>
       </c>
     </row>
     <row r="426" spans="1:7" ht="23.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A426" s="1" t="s">
-        <v>1517</v>
+        <v>1515</v>
       </c>
       <c r="C426" s="1" t="s">
-        <v>1518</v>
+        <v>1516</v>
       </c>
       <c r="E426" t="s">
-        <v>1170</v>
+        <v>1168</v>
       </c>
       <c r="G426" t="s">
-        <v>1269</v>
+        <v>1267</v>
       </c>
     </row>
     <row r="427" spans="1:7" ht="23.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A427" s="1" t="s">
+        <v>1517</v>
+      </c>
+      <c r="B427" s="1" t="s">
+        <v>1518</v>
+      </c>
+      <c r="C427" s="1" t="s">
         <v>1519</v>
       </c>
-      <c r="B427" s="1" t="s">
-        <v>1520</v>
-      </c>
-      <c r="C427" s="1" t="s">
-        <v>1521</v>
-      </c>
       <c r="E427" t="s">
-        <v>1171</v>
+        <v>1169</v>
       </c>
       <c r="G427" t="s">
-        <v>1269</v>
+        <v>1267</v>
       </c>
     </row>
     <row r="428" spans="1:7" ht="23.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A428" s="1" t="s">
+        <v>1520</v>
+      </c>
+      <c r="B428" s="3" t="s">
+        <v>1521</v>
+      </c>
+      <c r="C428" s="1" t="s">
         <v>1522</v>
       </c>
-      <c r="B428" s="3" t="s">
-        <v>1523</v>
-      </c>
-      <c r="C428" s="1" t="s">
-        <v>1524</v>
-      </c>
       <c r="E428" t="s">
-        <v>1172</v>
+        <v>1170</v>
       </c>
       <c r="G428" t="s">
-        <v>1269</v>
+        <v>1267</v>
       </c>
     </row>
     <row r="429" spans="1:7" ht="23.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A429" s="1" t="s">
+        <v>1523</v>
+      </c>
+      <c r="B429" s="1" t="s">
+        <v>1524</v>
+      </c>
+      <c r="C429" s="1" t="s">
         <v>1525</v>
       </c>
-      <c r="B429" s="1" t="s">
-        <v>1526</v>
-      </c>
-      <c r="C429" s="1" t="s">
-        <v>1527</v>
-      </c>
       <c r="E429" s="2" t="s">
-        <v>1173</v>
+        <v>1171</v>
       </c>
       <c r="G429" t="s">
-        <v>1269</v>
+        <v>1267</v>
       </c>
     </row>
     <row r="430" spans="1:7" ht="23.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A430" s="1" t="s">
+        <v>1526</v>
+      </c>
+      <c r="B430" s="1" t="s">
+        <v>1527</v>
+      </c>
+      <c r="C430" s="1" t="s">
         <v>1528</v>
       </c>
-      <c r="B430" s="1" t="s">
-        <v>1529</v>
-      </c>
-      <c r="C430" s="1" t="s">
-        <v>1530</v>
-      </c>
       <c r="E430" t="s">
-        <v>1174</v>
+        <v>1172</v>
       </c>
       <c r="G430" t="s">
-        <v>1269</v>
+        <v>1267</v>
       </c>
     </row>
     <row r="431" spans="1:7" ht="23.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A431" s="1" t="s">
+        <v>1529</v>
+      </c>
+      <c r="B431" s="1" t="s">
+        <v>1530</v>
+      </c>
+      <c r="C431" s="1" t="s">
         <v>1531</v>
       </c>
-      <c r="B431" s="1" t="s">
-        <v>1532</v>
-      </c>
-      <c r="C431" s="1" t="s">
-        <v>1533</v>
-      </c>
       <c r="E431" t="s">
-        <v>1175</v>
+        <v>1173</v>
       </c>
       <c r="G431" t="s">
-        <v>1269</v>
+        <v>1267</v>
       </c>
     </row>
     <row r="432" spans="1:7" ht="23.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A432" s="1" t="s">
-        <v>1534</v>
+        <v>1532</v>
       </c>
       <c r="B432" s="1" t="s">
-        <v>1535</v>
+        <v>1533</v>
       </c>
       <c r="E432" t="s">
-        <v>1176</v>
+        <v>1174</v>
       </c>
       <c r="G432" t="s">
-        <v>1269</v>
+        <v>1267</v>
       </c>
     </row>
     <row r="433" spans="1:7" ht="23.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A433" s="1" t="s">
+        <v>1534</v>
+      </c>
+      <c r="B433" s="1" t="s">
+        <v>1535</v>
+      </c>
+      <c r="C433" s="1" t="s">
         <v>1536</v>
       </c>
-      <c r="B433" s="1" t="s">
-        <v>1537</v>
-      </c>
-      <c r="C433" s="1" t="s">
-        <v>1538</v>
-      </c>
       <c r="E433" t="s">
-        <v>1177</v>
+        <v>1175</v>
       </c>
       <c r="G433" t="s">
-        <v>1269</v>
+        <v>1267</v>
       </c>
     </row>
     <row r="434" spans="1:7" ht="23.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A434" s="1" t="s">
+        <v>1537</v>
+      </c>
+      <c r="B434" s="3" t="s">
+        <v>1538</v>
+      </c>
+      <c r="C434" s="1" t="s">
         <v>1539</v>
       </c>
-      <c r="B434" s="3" t="s">
-        <v>1540</v>
-      </c>
-      <c r="C434" s="1" t="s">
-        <v>1541</v>
-      </c>
       <c r="E434" t="s">
-        <v>1178</v>
+        <v>1176</v>
       </c>
       <c r="G434" t="s">
-        <v>1269</v>
+        <v>1267</v>
       </c>
     </row>
     <row r="435" spans="1:7" ht="23.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A435" s="1" t="s">
-        <v>1723</v>
+        <v>1721</v>
       </c>
       <c r="B435" s="3" t="s">
-        <v>1769</v>
+        <v>1767</v>
       </c>
       <c r="C435" s="1" t="s">
-        <v>1542</v>
+        <v>1540</v>
       </c>
       <c r="E435" t="s">
-        <v>1179</v>
+        <v>1177</v>
       </c>
       <c r="G435" t="s">
-        <v>1269</v>
+        <v>1267</v>
       </c>
     </row>
     <row r="436" spans="1:7" ht="23.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A436" s="1" t="s">
+        <v>1541</v>
+      </c>
+      <c r="B436" s="3" t="s">
+        <v>1542</v>
+      </c>
+      <c r="C436" s="1" t="s">
         <v>1543</v>
       </c>
-      <c r="B436" s="3" t="s">
-        <v>1544</v>
-      </c>
-      <c r="C436" s="1" t="s">
-        <v>1545</v>
-      </c>
       <c r="E436" t="s">
-        <v>1180</v>
+        <v>1178</v>
       </c>
       <c r="G436" t="s">
-        <v>1269</v>
+        <v>1267</v>
       </c>
     </row>
     <row r="437" spans="1:7" ht="23.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A437" s="1" t="s">
+        <v>1544</v>
+      </c>
+      <c r="B437" s="1" t="s">
+        <v>1545</v>
+      </c>
+      <c r="C437" s="3" t="s">
         <v>1546</v>
-      </c>
-      <c r="B437" s="1" t="s">
-        <v>1547</v>
-      </c>
-      <c r="C437" s="3" t="s">
-        <v>1548</v>
       </c>
       <c r="D437" s="3"/>
       <c r="E437" t="s">
-        <v>1181</v>
+        <v>1179</v>
       </c>
       <c r="G437" t="s">
-        <v>1269</v>
+        <v>1267</v>
       </c>
     </row>
     <row r="438" spans="1:7" ht="23.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A438" s="1" t="s">
-        <v>1549</v>
+        <v>1547</v>
       </c>
       <c r="B438" s="3" t="s">
-        <v>1743</v>
+        <v>1741</v>
       </c>
       <c r="C438" s="1" t="s">
-        <v>1550</v>
+        <v>1548</v>
       </c>
       <c r="E438" t="s">
-        <v>1182</v>
+        <v>1180</v>
       </c>
       <c r="G438" t="s">
-        <v>1269</v>
+        <v>1267</v>
       </c>
     </row>
     <row r="439" spans="1:7" ht="23.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A439" s="1" t="s">
+        <v>1549</v>
+      </c>
+      <c r="B439" s="3" t="s">
+        <v>1550</v>
+      </c>
+      <c r="C439" s="1" t="s">
         <v>1551</v>
       </c>
-      <c r="B439" s="3" t="s">
-        <v>1552</v>
-      </c>
-      <c r="C439" s="1" t="s">
-        <v>1553</v>
-      </c>
       <c r="E439" t="s">
-        <v>1183</v>
+        <v>1181</v>
       </c>
       <c r="G439" t="s">
-        <v>1269</v>
+        <v>1267</v>
       </c>
     </row>
     <row r="440" spans="1:7" ht="23.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A440" s="1" t="s">
+        <v>1552</v>
+      </c>
+      <c r="B440" s="1" t="s">
+        <v>1553</v>
+      </c>
+      <c r="C440" s="1" t="s">
         <v>1554</v>
       </c>
-      <c r="B440" s="1" t="s">
-        <v>1555</v>
-      </c>
-      <c r="C440" s="1" t="s">
-        <v>1556</v>
-      </c>
       <c r="E440" t="s">
-        <v>1184</v>
+        <v>1182</v>
       </c>
       <c r="G440" t="s">
-        <v>1269</v>
+        <v>1267</v>
       </c>
     </row>
     <row r="441" spans="1:7" ht="23.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A441" s="1" t="s">
+        <v>1555</v>
+      </c>
+      <c r="B441" s="3" t="s">
+        <v>1556</v>
+      </c>
+      <c r="C441" s="3" t="s">
         <v>1557</v>
-      </c>
-      <c r="B441" s="3" t="s">
-        <v>1558</v>
-      </c>
-      <c r="C441" s="3" t="s">
-        <v>1559</v>
       </c>
       <c r="D441" s="3"/>
       <c r="E441" t="s">
-        <v>1185</v>
+        <v>1183</v>
       </c>
       <c r="G441" t="s">
-        <v>1269</v>
+        <v>1267</v>
       </c>
     </row>
     <row r="442" spans="1:7" ht="23.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A442" s="1" t="s">
+        <v>1558</v>
+      </c>
+      <c r="B442" s="1" t="s">
+        <v>1559</v>
+      </c>
+      <c r="C442" s="1" t="s">
         <v>1560</v>
       </c>
-      <c r="B442" s="1" t="s">
-        <v>1561</v>
-      </c>
-      <c r="C442" s="1" t="s">
-        <v>1562</v>
-      </c>
       <c r="E442" t="s">
-        <v>1186</v>
+        <v>1184</v>
       </c>
       <c r="G442" t="s">
-        <v>1269</v>
+        <v>1267</v>
       </c>
     </row>
     <row r="443" spans="1:7" ht="23.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A443" s="1" t="s">
-        <v>1563</v>
+        <v>1561</v>
       </c>
       <c r="C443" s="1" t="s">
-        <v>1564</v>
+        <v>1562</v>
       </c>
       <c r="E443" t="s">
-        <v>1187</v>
+        <v>1185</v>
       </c>
       <c r="G443" t="s">
-        <v>1269</v>
+        <v>1267</v>
       </c>
     </row>
     <row r="444" spans="1:7" ht="23.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A444" s="1" t="s">
-        <v>1565</v>
+        <v>1563</v>
       </c>
       <c r="C444" s="3" t="s">
-        <v>1566</v>
+        <v>1564</v>
       </c>
       <c r="D444" s="3"/>
       <c r="E444" t="s">
-        <v>1188</v>
+        <v>1186</v>
       </c>
       <c r="G444" t="s">
-        <v>1269</v>
+        <v>1267</v>
       </c>
     </row>
     <row r="445" spans="1:7" ht="23.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A445" s="3" t="s">
-        <v>1569</v>
+        <v>1567</v>
       </c>
       <c r="B445" s="1" t="s">
-        <v>1567</v>
+        <v>1565</v>
       </c>
       <c r="C445" s="3" t="s">
-        <v>1568</v>
+        <v>1566</v>
       </c>
       <c r="D445" s="3"/>
       <c r="E445" t="s">
-        <v>1189</v>
+        <v>1187</v>
       </c>
       <c r="G445" t="s">
-        <v>1269</v>
+        <v>1267</v>
       </c>
     </row>
     <row r="446" spans="1:7" ht="23.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A446" s="1" t="s">
+        <v>1568</v>
+      </c>
+      <c r="B446" s="3" t="s">
+        <v>1569</v>
+      </c>
+      <c r="C446" s="1" t="s">
         <v>1570</v>
       </c>
-      <c r="B446" s="3" t="s">
-        <v>1571</v>
-      </c>
-      <c r="C446" s="1" t="s">
-        <v>1572</v>
-      </c>
       <c r="E446" t="s">
-        <v>1190</v>
+        <v>1188</v>
       </c>
       <c r="G446" t="s">
-        <v>1269</v>
+        <v>1267</v>
       </c>
     </row>
     <row r="447" spans="1:7" ht="23.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A447" s="1" t="s">
+        <v>1571</v>
+      </c>
+      <c r="B447" s="1" t="s">
+        <v>1572</v>
+      </c>
+      <c r="C447" s="1" t="s">
         <v>1573</v>
       </c>
-      <c r="B447" s="1" t="s">
-        <v>1574</v>
-      </c>
-      <c r="C447" s="1" t="s">
-        <v>1575</v>
-      </c>
       <c r="E447" t="s">
-        <v>1191</v>
+        <v>1189</v>
       </c>
       <c r="G447" t="s">
-        <v>1269</v>
+        <v>1267</v>
       </c>
     </row>
     <row r="448" spans="1:7" ht="23.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A448" s="1" t="s">
+        <v>1574</v>
+      </c>
+      <c r="B448" s="1" t="s">
+        <v>1575</v>
+      </c>
+      <c r="C448" s="1" t="s">
         <v>1576</v>
       </c>
-      <c r="B448" s="1" t="s">
-        <v>1577</v>
-      </c>
-      <c r="C448" s="1" t="s">
-        <v>1578</v>
-      </c>
       <c r="E448" t="s">
-        <v>1192</v>
+        <v>1190</v>
       </c>
       <c r="G448" t="s">
-        <v>1269</v>
+        <v>1267</v>
       </c>
     </row>
     <row r="449" spans="1:7" ht="23.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A449" s="1" t="s">
+        <v>1577</v>
+      </c>
+      <c r="B449" s="1" t="s">
+        <v>1578</v>
+      </c>
+      <c r="C449" s="1" t="s">
         <v>1579</v>
       </c>
-      <c r="B449" s="1" t="s">
-        <v>1580</v>
-      </c>
-      <c r="C449" s="1" t="s">
-        <v>1581</v>
-      </c>
       <c r="E449" t="s">
-        <v>1193</v>
+        <v>1191</v>
       </c>
       <c r="G449" t="s">
-        <v>1269</v>
+        <v>1267</v>
       </c>
     </row>
     <row r="450" spans="1:7" ht="23.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A450" s="1" t="s">
-        <v>1582</v>
+        <v>1580</v>
       </c>
       <c r="B450" s="1" t="s">
-        <v>1466</v>
+        <v>1464</v>
       </c>
       <c r="C450" s="1" t="s">
-        <v>1583</v>
+        <v>1581</v>
       </c>
       <c r="E450" t="s">
-        <v>1194</v>
+        <v>1192</v>
       </c>
       <c r="G450" t="s">
-        <v>1269</v>
+        <v>1267</v>
       </c>
     </row>
     <row r="451" spans="1:7" ht="23.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A451" s="1" t="s">
+        <v>1582</v>
+      </c>
+      <c r="B451" s="1" t="s">
+        <v>1583</v>
+      </c>
+      <c r="C451" s="1" t="s">
         <v>1584</v>
       </c>
-      <c r="B451" s="1" t="s">
-        <v>1585</v>
-      </c>
-      <c r="C451" s="1" t="s">
-        <v>1586</v>
-      </c>
       <c r="E451" t="s">
-        <v>1195</v>
+        <v>1193</v>
       </c>
       <c r="G451" t="s">
-        <v>1269</v>
+        <v>1267</v>
       </c>
     </row>
     <row r="452" spans="1:7" ht="23.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A452" s="1" t="s">
+        <v>1585</v>
+      </c>
+      <c r="B452" s="3" t="s">
+        <v>1586</v>
+      </c>
+      <c r="C452" s="1" t="s">
         <v>1587</v>
       </c>
-      <c r="B452" s="3" t="s">
-        <v>1588</v>
-      </c>
-      <c r="C452" s="1" t="s">
-        <v>1589</v>
-      </c>
       <c r="E452" t="s">
-        <v>1196</v>
+        <v>1194</v>
       </c>
       <c r="G452" t="s">
-        <v>1269</v>
+        <v>1267</v>
       </c>
     </row>
     <row r="453" spans="1:7" ht="23.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A453" s="1" t="s">
-        <v>1724</v>
+        <v>1722</v>
       </c>
       <c r="B453" s="3" t="s">
-        <v>1725</v>
+        <v>1723</v>
       </c>
       <c r="C453" s="1" t="s">
-        <v>1590</v>
+        <v>1588</v>
       </c>
       <c r="E453" t="s">
-        <v>1197</v>
+        <v>1195</v>
       </c>
       <c r="G453" t="s">
-        <v>1269</v>
+        <v>1267</v>
       </c>
     </row>
     <row r="454" spans="1:7" ht="23.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A454" s="1" t="s">
-        <v>1726</v>
+        <v>1724</v>
       </c>
       <c r="B454" s="1" t="s">
-        <v>1727</v>
+        <v>1725</v>
       </c>
       <c r="C454" s="1" t="s">
-        <v>1591</v>
+        <v>1589</v>
       </c>
       <c r="E454" t="s">
-        <v>1198</v>
+        <v>1196</v>
       </c>
       <c r="G454" t="s">
-        <v>1269</v>
+        <v>1267</v>
       </c>
     </row>
     <row r="455" spans="1:7" ht="23.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A455" s="1" t="s">
+        <v>1590</v>
+      </c>
+      <c r="B455" s="1" t="s">
+        <v>1591</v>
+      </c>
+      <c r="C455" s="1" t="s">
         <v>1592</v>
       </c>
-      <c r="B455" s="1" t="s">
-        <v>1593</v>
-      </c>
-      <c r="C455" s="1" t="s">
-        <v>1594</v>
-      </c>
       <c r="E455" t="s">
-        <v>1199</v>
+        <v>1197</v>
       </c>
       <c r="G455" t="s">
-        <v>1269</v>
+        <v>1267</v>
       </c>
     </row>
     <row r="456" spans="1:7" ht="23.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A456" s="1" t="s">
+        <v>1593</v>
+      </c>
+      <c r="B456" s="1" t="s">
+        <v>1594</v>
+      </c>
+      <c r="C456" s="1" t="s">
         <v>1595</v>
       </c>
-      <c r="B456" s="1" t="s">
-        <v>1596</v>
-      </c>
-      <c r="C456" s="1" t="s">
-        <v>1597</v>
-      </c>
       <c r="E456" t="s">
-        <v>1200</v>
+        <v>1198</v>
       </c>
       <c r="G456" t="s">
-        <v>1269</v>
+        <v>1267</v>
       </c>
     </row>
     <row r="457" spans="1:7" ht="23.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A457" s="1" t="s">
-        <v>1744</v>
+        <v>1742</v>
       </c>
       <c r="B457" s="1" t="s">
-        <v>1745</v>
+        <v>1743</v>
       </c>
       <c r="C457" s="3" t="s">
-        <v>1598</v>
+        <v>1596</v>
       </c>
       <c r="D457" s="3"/>
       <c r="E457" t="s">
-        <v>1201</v>
+        <v>1199</v>
       </c>
       <c r="G457" t="s">
-        <v>1269</v>
+        <v>1267</v>
       </c>
     </row>
     <row r="458" spans="1:7" ht="23.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A458" s="1" t="s">
-        <v>1728</v>
+        <v>1726</v>
       </c>
       <c r="B458" s="1" t="s">
-        <v>1729</v>
+        <v>1727</v>
       </c>
       <c r="C458" s="3" t="s">
-        <v>1599</v>
+        <v>1597</v>
       </c>
       <c r="D458" s="3"/>
       <c r="E458" t="s">
-        <v>1202</v>
+        <v>1200</v>
       </c>
       <c r="G458" t="s">
-        <v>1269</v>
+        <v>1267</v>
       </c>
     </row>
     <row r="459" spans="1:7" ht="23.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A459" s="1" t="s">
+        <v>1598</v>
+      </c>
+      <c r="B459" s="1" t="s">
+        <v>1599</v>
+      </c>
+      <c r="C459" s="1" t="s">
         <v>1600</v>
       </c>
-      <c r="B459" s="1" t="s">
-        <v>1601</v>
-      </c>
-      <c r="C459" s="1" t="s">
-        <v>1602</v>
-      </c>
       <c r="E459" t="s">
-        <v>1203</v>
+        <v>1201</v>
       </c>
       <c r="G459" t="s">
-        <v>1269</v>
+        <v>1267</v>
       </c>
     </row>
     <row r="460" spans="1:7" ht="23.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A460" s="1" t="s">
+        <v>1601</v>
+      </c>
+      <c r="B460" s="1" t="s">
+        <v>1602</v>
+      </c>
+      <c r="C460" s="1" t="s">
         <v>1603</v>
       </c>
-      <c r="B460" s="1" t="s">
-        <v>1604</v>
-      </c>
-      <c r="C460" s="1" t="s">
-        <v>1605</v>
-      </c>
       <c r="E460" t="s">
-        <v>1204</v>
+        <v>1202</v>
       </c>
       <c r="G460" t="s">
-        <v>1269</v>
+        <v>1267</v>
       </c>
     </row>
     <row r="461" spans="1:7" ht="23.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A461" s="1" t="s">
+        <v>1604</v>
+      </c>
+      <c r="B461" s="1" t="s">
+        <v>1605</v>
+      </c>
+      <c r="C461" s="1" t="s">
         <v>1606</v>
       </c>
-      <c r="B461" s="1" t="s">
-        <v>1607</v>
-      </c>
-      <c r="C461" s="1" t="s">
-        <v>1608</v>
-      </c>
       <c r="E461" t="s">
-        <v>1205</v>
+        <v>1203</v>
       </c>
       <c r="G461" t="s">
-        <v>1269</v>
+        <v>1267</v>
       </c>
     </row>
     <row r="462" spans="1:7" ht="23.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A462" s="1" t="s">
+        <v>1607</v>
+      </c>
+      <c r="B462" s="3" t="s">
+        <v>1608</v>
+      </c>
+      <c r="C462" s="1" t="s">
         <v>1609</v>
       </c>
-      <c r="B462" s="3" t="s">
-        <v>1610</v>
-      </c>
-      <c r="C462" s="1" t="s">
-        <v>1611</v>
-      </c>
       <c r="E462" t="s">
-        <v>1206</v>
+        <v>1204</v>
       </c>
       <c r="G462" t="s">
-        <v>1269</v>
+        <v>1267</v>
       </c>
     </row>
     <row r="463" spans="1:7" ht="23.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A463" s="1" t="s">
-        <v>1612</v>
+        <v>1610</v>
       </c>
       <c r="B463" s="1" t="s">
-        <v>1770</v>
+        <v>1768</v>
       </c>
       <c r="C463" s="1" t="s">
-        <v>1613</v>
+        <v>1611</v>
       </c>
       <c r="E463" t="s">
-        <v>1207</v>
+        <v>1205</v>
       </c>
       <c r="G463" t="s">
-        <v>1269</v>
+        <v>1267</v>
       </c>
     </row>
     <row r="464" spans="1:7" ht="23.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A464" s="1" t="s">
+        <v>1612</v>
+      </c>
+      <c r="B464" s="3" t="s">
+        <v>1613</v>
+      </c>
+      <c r="C464" s="3" t="s">
         <v>1614</v>
-      </c>
-      <c r="B464" s="3" t="s">
-        <v>1615</v>
-      </c>
-      <c r="C464" s="3" t="s">
-        <v>1616</v>
       </c>
       <c r="D464" s="3"/>
       <c r="E464" t="s">
-        <v>1208</v>
+        <v>1206</v>
       </c>
       <c r="G464" t="s">
-        <v>1269</v>
+        <v>1267</v>
       </c>
     </row>
     <row r="465" spans="1:7" ht="23.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A465" s="1" t="s">
+        <v>1615</v>
+      </c>
+      <c r="B465" s="3" t="s">
+        <v>1616</v>
+      </c>
+      <c r="C465" s="3" t="s">
         <v>1617</v>
-      </c>
-      <c r="B465" s="3" t="s">
-        <v>1618</v>
-      </c>
-      <c r="C465" s="3" t="s">
-        <v>1619</v>
       </c>
       <c r="D465" s="3"/>
       <c r="E465" t="s">
-        <v>1209</v>
+        <v>1207</v>
       </c>
       <c r="G465" t="s">
-        <v>1269</v>
+        <v>1267</v>
       </c>
     </row>
     <row r="466" spans="1:7" ht="23.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A466" s="1" t="s">
+        <v>1618</v>
+      </c>
+      <c r="B466" s="3" t="s">
+        <v>1619</v>
+      </c>
+      <c r="C466" s="1" t="s">
         <v>1620</v>
       </c>
-      <c r="B466" s="3" t="s">
-        <v>1621</v>
-      </c>
-      <c r="C466" s="1" t="s">
-        <v>1622</v>
-      </c>
       <c r="E466" t="s">
-        <v>1210</v>
+        <v>1208</v>
       </c>
       <c r="G466" t="s">
-        <v>1269</v>
+        <v>1267</v>
       </c>
     </row>
     <row r="467" spans="1:7" ht="23.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A467" s="1" t="s">
+        <v>1621</v>
+      </c>
+      <c r="B467" s="3" t="s">
+        <v>1622</v>
+      </c>
+      <c r="C467" s="1" t="s">
         <v>1623</v>
       </c>
-      <c r="B467" s="3" t="s">
-        <v>1624</v>
-      </c>
-      <c r="C467" s="1" t="s">
-        <v>1625</v>
-      </c>
       <c r="E467" t="s">
-        <v>1211</v>
+        <v>1209</v>
       </c>
       <c r="G467" t="s">
-        <v>1269</v>
+        <v>1267</v>
       </c>
     </row>
     <row r="468" spans="1:7" ht="23.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A468" s="1" t="s">
+        <v>1624</v>
+      </c>
+      <c r="B468" s="3" t="s">
+        <v>1625</v>
+      </c>
+      <c r="C468" s="3" t="s">
         <v>1626</v>
-      </c>
-      <c r="B468" s="3" t="s">
-        <v>1627</v>
-      </c>
-      <c r="C468" s="3" t="s">
-        <v>1628</v>
       </c>
       <c r="D468" s="3"/>
       <c r="E468" t="s">
-        <v>1212</v>
+        <v>1210</v>
       </c>
       <c r="G468" t="s">
-        <v>1269</v>
+        <v>1267</v>
       </c>
     </row>
     <row r="469" spans="1:7" ht="23.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A469" s="1" t="s">
-        <v>1629</v>
+        <v>1627</v>
       </c>
       <c r="C469" s="3" t="s">
-        <v>1630</v>
+        <v>1628</v>
       </c>
       <c r="D469" s="3"/>
       <c r="E469" t="s">
-        <v>1213</v>
+        <v>1211</v>
       </c>
       <c r="G469" t="s">
-        <v>1269</v>
+        <v>1267</v>
       </c>
     </row>
     <row r="470" spans="1:7" ht="23.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A470" s="1" t="s">
+        <v>1629</v>
+      </c>
+      <c r="B470" s="3" t="s">
+        <v>1630</v>
+      </c>
+      <c r="C470" s="3" t="s">
         <v>1631</v>
-      </c>
-      <c r="B470" s="3" t="s">
-        <v>1632</v>
-      </c>
-      <c r="C470" s="3" t="s">
-        <v>1633</v>
       </c>
       <c r="D470" s="3"/>
       <c r="E470" t="s">
-        <v>1214</v>
+        <v>1212</v>
       </c>
       <c r="G470" t="s">
-        <v>1269</v>
+        <v>1267</v>
       </c>
     </row>
     <row r="471" spans="1:7" ht="23.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A471" s="1" t="s">
-        <v>1634</v>
+        <v>1632</v>
       </c>
       <c r="C471" s="1" t="s">
-        <v>1635</v>
+        <v>1633</v>
       </c>
       <c r="E471" t="s">
-        <v>1215</v>
+        <v>1213</v>
       </c>
       <c r="G471" t="s">
-        <v>1269</v>
+        <v>1267</v>
       </c>
     </row>
     <row r="472" spans="1:7" ht="23.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A472" s="1" t="s">
-        <v>1636</v>
+        <v>1634</v>
       </c>
       <c r="B472" s="1" t="s">
-        <v>1771</v>
+        <v>1769</v>
       </c>
       <c r="E472" t="s">
-        <v>1216</v>
+        <v>1214</v>
       </c>
       <c r="G472" t="s">
-        <v>1269</v>
+        <v>1267</v>
       </c>
     </row>
     <row r="473" spans="1:7" ht="23.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A473" s="1" t="s">
+        <v>1635</v>
+      </c>
+      <c r="B473" s="1" t="s">
+        <v>1636</v>
+      </c>
+      <c r="C473" s="1" t="s">
         <v>1637</v>
       </c>
-      <c r="B473" s="1" t="s">
-        <v>1638</v>
-      </c>
-      <c r="C473" s="1" t="s">
-        <v>1639</v>
-      </c>
       <c r="E473" t="s">
-        <v>1217</v>
+        <v>1215</v>
       </c>
       <c r="G473" t="s">
-        <v>1269</v>
+        <v>1267</v>
       </c>
     </row>
     <row r="474" spans="1:7" ht="23.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A474" s="1" t="s">
+        <v>1638</v>
+      </c>
+      <c r="B474" s="1" t="s">
+        <v>1639</v>
+      </c>
+      <c r="C474" s="1" t="s">
         <v>1640</v>
       </c>
-      <c r="B474" s="1" t="s">
-        <v>1641</v>
-      </c>
-      <c r="C474" s="1" t="s">
-        <v>1642</v>
-      </c>
       <c r="E474" t="s">
-        <v>1218</v>
+        <v>1216</v>
       </c>
       <c r="G474" t="s">
-        <v>1269</v>
+        <v>1267</v>
       </c>
     </row>
     <row r="475" spans="1:7" ht="23.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A475" s="1" t="s">
+        <v>1641</v>
+      </c>
+      <c r="B475" s="3" t="s">
+        <v>1642</v>
+      </c>
+      <c r="C475" s="3" t="s">
         <v>1643</v>
-      </c>
-      <c r="B475" s="3" t="s">
-        <v>1644</v>
-      </c>
-      <c r="C475" s="3" t="s">
-        <v>1645</v>
       </c>
       <c r="D475" s="3"/>
       <c r="E475" t="s">
-        <v>1219</v>
+        <v>1217</v>
       </c>
       <c r="G475" t="s">
-        <v>1269</v>
+        <v>1267</v>
       </c>
     </row>
     <row r="476" spans="1:7" ht="23.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A476" s="1" t="s">
-        <v>1647</v>
+        <v>1645</v>
       </c>
       <c r="B476" s="1" t="s">
-        <v>1648</v>
+        <v>1646</v>
       </c>
       <c r="E476" t="s">
-        <v>1220</v>
+        <v>1218</v>
       </c>
       <c r="F476">
         <v>135</v>
       </c>
       <c r="G476" t="s">
-        <v>1646</v>
+        <v>1644</v>
       </c>
     </row>
     <row r="477" spans="1:7" ht="23.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A477" s="1" t="s">
-        <v>1746</v>
+        <v>1744</v>
       </c>
       <c r="B477" s="3" t="s">
-        <v>1650</v>
+        <v>1648</v>
       </c>
       <c r="E477" t="s">
-        <v>1221</v>
+        <v>1219</v>
       </c>
       <c r="F477">
         <v>135</v>
       </c>
       <c r="G477" t="s">
-        <v>1646</v>
+        <v>1644</v>
       </c>
     </row>
     <row r="478" spans="1:7" ht="23.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A478" s="1" t="s">
-        <v>1672</v>
+        <v>1670</v>
       </c>
       <c r="B478" s="3" t="s">
-        <v>1651</v>
+        <v>1649</v>
       </c>
       <c r="E478" t="s">
-        <v>1222</v>
+        <v>1220</v>
       </c>
       <c r="F478">
         <v>136</v>
       </c>
       <c r="G478" t="s">
-        <v>1646</v>
+        <v>1644</v>
       </c>
     </row>
     <row r="479" spans="1:7" ht="23.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A479" s="1" t="s">
-        <v>1747</v>
+        <v>1745</v>
       </c>
       <c r="B479" s="3" t="s">
-        <v>1774</v>
+        <v>1772</v>
       </c>
       <c r="E479" t="s">
-        <v>1223</v>
+        <v>1221</v>
       </c>
       <c r="F479">
         <v>136</v>
       </c>
       <c r="G479" t="s">
-        <v>1646</v>
+        <v>1644</v>
       </c>
     </row>
     <row r="480" spans="1:7" ht="23.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A480" s="1" t="s">
+        <v>1771</v>
+      </c>
+      <c r="B480" s="1" t="s">
         <v>1773</v>
       </c>
-      <c r="B480" s="1" t="s">
-        <v>1775</v>
-      </c>
       <c r="E480" t="s">
-        <v>1224</v>
+        <v>1222</v>
       </c>
       <c r="F480">
         <v>136</v>
       </c>
       <c r="G480" t="s">
-        <v>1646</v>
+        <v>1644</v>
       </c>
     </row>
     <row r="481" spans="1:7" ht="23.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A481" s="1" t="s">
-        <v>1777</v>
+        <v>1775</v>
       </c>
       <c r="B481" s="1" t="s">
-        <v>1776</v>
+        <v>1774</v>
       </c>
       <c r="E481" t="s">
-        <v>1225</v>
+        <v>1223</v>
       </c>
       <c r="F481">
         <v>136</v>
       </c>
       <c r="G481" t="s">
-        <v>1646</v>
+        <v>1644</v>
       </c>
     </row>
     <row r="482" spans="1:7" ht="23.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A482" s="1" t="s">
-        <v>1673</v>
+        <v>1671</v>
       </c>
       <c r="B482" s="1" t="s">
-        <v>1778</v>
+        <v>1776</v>
       </c>
       <c r="C482" s="1" t="s">
-        <v>1779</v>
+        <v>1777</v>
       </c>
       <c r="E482" t="s">
-        <v>1226</v>
+        <v>1224</v>
       </c>
       <c r="F482">
         <v>136</v>
       </c>
       <c r="G482" t="s">
-        <v>1646</v>
+        <v>1644</v>
       </c>
     </row>
     <row r="483" spans="1:7" ht="23.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A483" s="1" t="s">
-        <v>1674</v>
+        <v>1672</v>
       </c>
       <c r="B483" s="1" t="s">
-        <v>1780</v>
+        <v>1778</v>
       </c>
       <c r="C483" s="1" t="s">
-        <v>1781</v>
+        <v>1779</v>
       </c>
       <c r="E483" t="s">
-        <v>1227</v>
+        <v>1225</v>
       </c>
       <c r="F483">
         <v>137</v>
       </c>
       <c r="G483" t="s">
-        <v>1646</v>
+        <v>1644</v>
       </c>
     </row>
     <row r="484" spans="1:7" ht="23.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A484" s="1" t="s">
-        <v>1652</v>
+        <v>1650</v>
       </c>
       <c r="B484" s="1" t="s">
-        <v>1782</v>
+        <v>1780</v>
       </c>
       <c r="E484" t="s">
-        <v>1228</v>
+        <v>1226</v>
       </c>
       <c r="F484">
         <v>137</v>
       </c>
       <c r="G484" t="s">
-        <v>1646</v>
+        <v>1644</v>
       </c>
     </row>
     <row r="485" spans="1:7" ht="23.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A485" s="1" t="s">
-        <v>1675</v>
+        <v>1673</v>
       </c>
       <c r="B485" s="1" t="s">
-        <v>1783</v>
+        <v>1781</v>
       </c>
       <c r="E485" t="s">
-        <v>1229</v>
+        <v>1227</v>
       </c>
       <c r="F485">
         <v>137</v>
       </c>
       <c r="G485" t="s">
-        <v>1646</v>
+        <v>1644</v>
       </c>
     </row>
     <row r="486" spans="1:7" ht="23.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A486" s="1" t="s">
-        <v>1676</v>
+        <v>1674</v>
       </c>
       <c r="B486" s="1" t="s">
-        <v>1784</v>
+        <v>1782</v>
       </c>
       <c r="C486" s="1" t="s">
-        <v>1785</v>
+        <v>1783</v>
       </c>
       <c r="E486" t="s">
-        <v>1230</v>
+        <v>1228</v>
       </c>
       <c r="F486">
         <v>137</v>
       </c>
       <c r="G486" t="s">
-        <v>1646</v>
+        <v>1644</v>
       </c>
     </row>
     <row r="487" spans="1:7" ht="23.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A487" s="1" t="s">
-        <v>1677</v>
+        <v>1675</v>
       </c>
       <c r="B487" s="1" t="s">
-        <v>1786</v>
+        <v>1784</v>
       </c>
       <c r="C487" s="1" t="s">
-        <v>1787</v>
+        <v>1785</v>
       </c>
       <c r="E487" t="s">
-        <v>1231</v>
+        <v>1229</v>
       </c>
       <c r="F487">
         <v>138</v>
       </c>
       <c r="G487" t="s">
-        <v>1646</v>
+        <v>1644</v>
       </c>
     </row>
     <row r="488" spans="1:7" ht="23.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A488" s="1" t="s">
-        <v>1678</v>
+        <v>1676</v>
       </c>
       <c r="B488" s="1" t="s">
-        <v>1788</v>
+        <v>1786</v>
       </c>
       <c r="C488" s="1" t="s">
-        <v>1789</v>
+        <v>1787</v>
       </c>
       <c r="E488" t="s">
-        <v>1232</v>
+        <v>1230</v>
       </c>
       <c r="F488">
         <v>138</v>
       </c>
       <c r="G488" t="s">
-        <v>1646</v>
+        <v>1644</v>
       </c>
     </row>
     <row r="489" spans="1:7" ht="23.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A489" s="1" t="s">
-        <v>1679</v>
+        <v>1677</v>
       </c>
       <c r="B489" s="1" t="s">
-        <v>1790</v>
+        <v>1788</v>
       </c>
       <c r="C489" s="3" t="s">
-        <v>1791</v>
+        <v>1789</v>
       </c>
       <c r="E489" t="s">
-        <v>1233</v>
+        <v>1231</v>
       </c>
       <c r="F489">
         <v>138</v>
       </c>
       <c r="G489" t="s">
-        <v>1646</v>
+        <v>1644</v>
       </c>
     </row>
     <row r="490" spans="1:7" ht="23.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A490" s="1" t="s">
-        <v>1680</v>
+        <v>1678</v>
       </c>
       <c r="B490" s="3" t="s">
-        <v>1792</v>
+        <v>1790</v>
       </c>
       <c r="E490" t="s">
-        <v>1234</v>
+        <v>1232</v>
       </c>
       <c r="F490">
         <v>139</v>
       </c>
       <c r="G490" t="s">
-        <v>1646</v>
+        <v>1644</v>
       </c>
     </row>
     <row r="491" spans="1:7" ht="23.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A491" s="1" t="s">
-        <v>1681</v>
+        <v>1679</v>
       </c>
       <c r="B491" s="1" t="s">
-        <v>1793</v>
+        <v>1791</v>
       </c>
       <c r="C491" s="3" t="s">
-        <v>1794</v>
+        <v>1792</v>
       </c>
       <c r="E491" t="s">
-        <v>1235</v>
+        <v>1233</v>
       </c>
       <c r="F491">
         <v>139</v>
       </c>
       <c r="G491" t="s">
-        <v>1646</v>
+        <v>1644</v>
       </c>
     </row>
     <row r="492" spans="1:7" ht="23.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A492" s="1" t="s">
-        <v>1682</v>
+        <v>1680</v>
       </c>
       <c r="B492" s="1" t="s">
-        <v>1795</v>
+        <v>1793</v>
       </c>
       <c r="E492" t="s">
-        <v>1236</v>
+        <v>1234</v>
       </c>
       <c r="F492">
         <v>139</v>
       </c>
       <c r="G492" t="s">
-        <v>1646</v>
+        <v>1644</v>
       </c>
     </row>
     <row r="493" spans="1:7" ht="23.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A493" s="1" t="s">
-        <v>1683</v>
+        <v>1681</v>
       </c>
       <c r="B493" s="1" t="s">
-        <v>1796</v>
+        <v>1794</v>
       </c>
       <c r="E493" t="s">
-        <v>1237</v>
+        <v>1235</v>
       </c>
       <c r="F493">
         <v>139</v>
       </c>
       <c r="G493" t="s">
-        <v>1646</v>
+        <v>1644</v>
       </c>
     </row>
     <row r="494" spans="1:7" ht="23.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A494" s="1" t="s">
-        <v>1684</v>
+        <v>1682</v>
       </c>
       <c r="B494" s="1" t="s">
-        <v>1797</v>
+        <v>1795</v>
       </c>
       <c r="E494" t="s">
-        <v>1238</v>
+        <v>1236</v>
       </c>
       <c r="F494">
         <v>140</v>
       </c>
       <c r="G494" t="s">
-        <v>1646</v>
+        <v>1644</v>
       </c>
     </row>
     <row r="495" spans="1:7" ht="23.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A495" s="1" t="s">
-        <v>1748</v>
+        <v>1746</v>
       </c>
       <c r="B495" s="3" t="s">
-        <v>1798</v>
+        <v>1796</v>
       </c>
       <c r="E495" t="s">
-        <v>1239</v>
+        <v>1237</v>
       </c>
       <c r="F495">
         <v>140</v>
       </c>
       <c r="G495" t="s">
-        <v>1646</v>
+        <v>1644</v>
       </c>
     </row>
     <row r="496" spans="1:7" ht="23.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A496" s="1" t="s">
-        <v>1685</v>
+        <v>1683</v>
       </c>
       <c r="B496" s="1" t="s">
-        <v>1799</v>
+        <v>1797</v>
       </c>
       <c r="E496" t="s">
-        <v>1240</v>
+        <v>1238</v>
       </c>
       <c r="F496">
         <v>140</v>
       </c>
       <c r="G496" t="s">
-        <v>1646</v>
+        <v>1644</v>
       </c>
     </row>
     <row r="497" spans="1:7" ht="23.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A497" s="1" t="s">
-        <v>1730</v>
+        <v>1728</v>
       </c>
       <c r="B497" s="1" t="s">
-        <v>1800</v>
+        <v>1798</v>
       </c>
       <c r="E497" t="s">
-        <v>1241</v>
+        <v>1239</v>
       </c>
       <c r="F497">
         <v>140</v>
       </c>
       <c r="G497" t="s">
-        <v>1646</v>
+        <v>1644</v>
       </c>
     </row>
     <row r="498" spans="1:7" ht="23.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A498" s="1" t="s">
-        <v>1686</v>
+        <v>1684</v>
       </c>
       <c r="B498" s="1" t="s">
-        <v>1801</v>
+        <v>1799</v>
       </c>
       <c r="E498" t="s">
-        <v>1242</v>
+        <v>1240</v>
       </c>
       <c r="F498">
         <v>140</v>
       </c>
       <c r="G498" t="s">
-        <v>1646</v>
+        <v>1644</v>
       </c>
     </row>
     <row r="499" spans="1:7" ht="23.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A499" s="1" t="s">
-        <v>1687</v>
+        <v>1685</v>
       </c>
       <c r="B499" s="1" t="s">
-        <v>1802</v>
+        <v>1800</v>
       </c>
       <c r="E499" t="s">
-        <v>1243</v>
+        <v>1241</v>
       </c>
       <c r="F499">
         <v>141</v>
       </c>
       <c r="G499" t="s">
-        <v>1646</v>
+        <v>1644</v>
       </c>
     </row>
     <row r="500" spans="1:7" ht="23.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A500" s="1" t="s">
-        <v>1688</v>
+        <v>1686</v>
       </c>
       <c r="B500" s="1" t="s">
-        <v>1803</v>
+        <v>1801</v>
       </c>
       <c r="E500" t="s">
-        <v>1244</v>
+        <v>1242</v>
       </c>
       <c r="F500">
         <v>141</v>
       </c>
       <c r="G500" t="s">
-        <v>1646</v>
+        <v>1644</v>
       </c>
     </row>
     <row r="501" spans="1:7" ht="23.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A501" s="1" t="s">
-        <v>1689</v>
+        <v>1687</v>
       </c>
       <c r="B501" s="1" t="s">
-        <v>1804</v>
+        <v>1802</v>
       </c>
       <c r="C501" s="1" t="s">
-        <v>1805</v>
+        <v>1803</v>
       </c>
       <c r="E501" t="s">
-        <v>1655</v>
+        <v>1653</v>
       </c>
       <c r="F501">
         <v>141</v>
       </c>
       <c r="G501" t="s">
-        <v>1646</v>
+        <v>1644</v>
       </c>
     </row>
     <row r="502" spans="1:7" ht="23.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A502" s="1" t="s">
-        <v>1749</v>
+        <v>1747</v>
       </c>
       <c r="B502" s="3" t="s">
-        <v>1806</v>
+        <v>1804</v>
       </c>
       <c r="E502" t="s">
-        <v>1656</v>
+        <v>1654</v>
       </c>
       <c r="F502">
         <v>141</v>
       </c>
       <c r="G502" t="s">
-        <v>1646</v>
+        <v>1644</v>
       </c>
     </row>
     <row r="503" spans="1:7" ht="23.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A503" s="1" t="s">
-        <v>1690</v>
+        <v>1688</v>
       </c>
       <c r="B503" s="3" t="s">
-        <v>1807</v>
+        <v>1805</v>
       </c>
       <c r="E503" t="s">
-        <v>1657</v>
+        <v>1655</v>
       </c>
       <c r="F503">
         <v>142</v>
       </c>
       <c r="G503" t="s">
-        <v>1646</v>
+        <v>1644</v>
       </c>
     </row>
     <row r="504" spans="1:7" ht="23.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A504" s="1" t="s">
-        <v>1691</v>
+        <v>1689</v>
       </c>
       <c r="B504" s="1" t="s">
-        <v>1810</v>
+        <v>1808</v>
       </c>
       <c r="E504" t="s">
-        <v>1658</v>
+        <v>1656</v>
       </c>
       <c r="F504">
         <v>142</v>
       </c>
       <c r="G504" t="s">
-        <v>1646</v>
+        <v>1644</v>
       </c>
     </row>
     <row r="505" spans="1:7" ht="23.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A505" s="1" t="s">
-        <v>1692</v>
+        <v>1690</v>
       </c>
       <c r="B505" s="3" t="s">
-        <v>1809</v>
+        <v>1807</v>
       </c>
       <c r="E505" t="s">
-        <v>1659</v>
+        <v>1657</v>
       </c>
       <c r="F505">
         <v>142</v>
       </c>
       <c r="G505" t="s">
-        <v>1653</v>
+        <v>1651</v>
       </c>
     </row>
     <row r="506" spans="1:7" ht="23.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A506" s="1" t="s">
-        <v>1731</v>
+        <v>1729</v>
       </c>
       <c r="B506" s="1" t="s">
-        <v>1808</v>
+        <v>1806</v>
       </c>
       <c r="E506" t="s">
-        <v>1660</v>
+        <v>1658</v>
       </c>
       <c r="F506">
         <v>142</v>
       </c>
       <c r="G506" t="s">
-        <v>1653</v>
+        <v>1651</v>
       </c>
     </row>
     <row r="507" spans="1:7" ht="23.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A507" s="1" t="s">
-        <v>1732</v>
+        <v>1730</v>
       </c>
       <c r="B507" s="1" t="s">
-        <v>1811</v>
+        <v>1809</v>
       </c>
       <c r="E507" t="s">
-        <v>1661</v>
+        <v>1659</v>
       </c>
       <c r="F507">
         <v>143</v>
       </c>
       <c r="G507" t="s">
-        <v>1653</v>
+        <v>1651</v>
       </c>
     </row>
     <row r="508" spans="1:7" ht="23.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A508" s="1" t="s">
-        <v>1693</v>
+        <v>1691</v>
       </c>
       <c r="B508" s="1" t="s">
-        <v>1812</v>
+        <v>1810</v>
       </c>
       <c r="E508" t="s">
-        <v>1662</v>
+        <v>1660</v>
       </c>
       <c r="F508">
         <v>143</v>
       </c>
       <c r="G508" t="s">
-        <v>1653</v>
+        <v>1651</v>
       </c>
     </row>
     <row r="509" spans="1:7" ht="23.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A509" s="1" t="s">
-        <v>1694</v>
+        <v>1692</v>
       </c>
       <c r="B509" s="1" t="s">
-        <v>1813</v>
+        <v>1811</v>
       </c>
       <c r="E509" t="s">
-        <v>1663</v>
+        <v>1661</v>
       </c>
       <c r="F509">
         <v>143</v>
       </c>
       <c r="G509" t="s">
-        <v>1653</v>
+        <v>1651</v>
       </c>
     </row>
     <row r="510" spans="1:7" ht="23.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A510" s="1" t="s">
-        <v>1733</v>
+        <v>1731</v>
       </c>
       <c r="B510" s="1" t="s">
-        <v>1814</v>
+        <v>1812</v>
       </c>
       <c r="C510" s="1" t="s">
-        <v>1815</v>
+        <v>1813</v>
       </c>
       <c r="E510" t="s">
-        <v>1664</v>
+        <v>1662</v>
       </c>
       <c r="F510">
         <v>144</v>
       </c>
       <c r="G510" t="s">
-        <v>1653</v>
+        <v>1651</v>
       </c>
     </row>
     <row r="511" spans="1:7" ht="23.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A511" s="1" t="s">
-        <v>1696</v>
+        <v>1694</v>
       </c>
       <c r="B511" s="1" t="s">
-        <v>1816</v>
+        <v>1814</v>
       </c>
       <c r="C511" s="1" t="s">
-        <v>1817</v>
+        <v>1815</v>
       </c>
       <c r="E511" t="s">
-        <v>1700</v>
+        <v>1698</v>
       </c>
       <c r="F511">
         <v>144</v>
       </c>
       <c r="G511" t="s">
-        <v>1653</v>
+        <v>1651</v>
       </c>
     </row>
     <row r="512" spans="1:7" ht="23.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A512" s="1" t="s">
-        <v>1695</v>
+        <v>1693</v>
       </c>
       <c r="B512" s="1" t="s">
-        <v>1654</v>
+        <v>1652</v>
       </c>
       <c r="C512" s="1" t="s">
-        <v>1818</v>
+        <v>1816</v>
       </c>
       <c r="E512" t="s">
-        <v>1665</v>
+        <v>1663</v>
       </c>
       <c r="F512">
         <v>144</v>
       </c>
       <c r="G512" t="s">
-        <v>1653</v>
+        <v>1651</v>
       </c>
     </row>
     <row r="513" spans="1:7" ht="23.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A513" s="1" t="s">
-        <v>1734</v>
+        <v>1732</v>
       </c>
       <c r="B513" s="1" t="s">
-        <v>1819</v>
+        <v>1817</v>
       </c>
       <c r="C513" s="1" t="s">
-        <v>1820</v>
+        <v>1818</v>
       </c>
       <c r="E513" t="s">
-        <v>1666</v>
+        <v>1664</v>
       </c>
       <c r="F513">
         <v>144</v>
       </c>
       <c r="G513" t="s">
-        <v>1653</v>
+        <v>1651</v>
       </c>
     </row>
     <row r="514" spans="1:7" ht="23.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A514" s="1" t="s">
-        <v>1697</v>
+        <v>1695</v>
       </c>
       <c r="B514" s="3" t="s">
-        <v>1821</v>
+        <v>1819</v>
       </c>
       <c r="C514" s="1" t="s">
-        <v>1822</v>
+        <v>1820</v>
       </c>
       <c r="E514" t="s">
-        <v>1667</v>
+        <v>1665</v>
       </c>
       <c r="F514">
         <v>145</v>
       </c>
       <c r="G514" t="s">
-        <v>1653</v>
+        <v>1651</v>
       </c>
     </row>
     <row r="515" spans="1:7" ht="23.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A515" s="1" t="s">
-        <v>1698</v>
+        <v>1696</v>
       </c>
       <c r="B515" s="1" t="s">
-        <v>1823</v>
+        <v>1821</v>
       </c>
       <c r="C515" s="1" t="s">
-        <v>1824</v>
+        <v>1822</v>
       </c>
       <c r="E515" t="s">
-        <v>1668</v>
+        <v>1666</v>
       </c>
       <c r="F515">
         <v>145</v>
       </c>
       <c r="G515" t="s">
-        <v>1653</v>
+        <v>1651</v>
       </c>
     </row>
     <row r="516" spans="1:7" ht="23.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A516" s="1" t="s">
-        <v>1750</v>
+        <v>1748</v>
       </c>
       <c r="B516" s="1" t="s">
-        <v>1825</v>
+        <v>1823</v>
       </c>
       <c r="E516" t="s">
-        <v>1669</v>
+        <v>1667</v>
       </c>
       <c r="F516">
         <v>145</v>
       </c>
       <c r="G516" t="s">
-        <v>1653</v>
+        <v>1651</v>
       </c>
     </row>
     <row r="517" spans="1:7" ht="23.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A517" s="1" t="s">
-        <v>1735</v>
+        <v>1733</v>
       </c>
       <c r="B517" s="3" t="s">
-        <v>1826</v>
+        <v>1824</v>
       </c>
       <c r="E517" t="s">
-        <v>1670</v>
+        <v>1668</v>
       </c>
       <c r="F517">
         <v>146</v>
       </c>
       <c r="G517" t="s">
-        <v>1653</v>
+        <v>1651</v>
       </c>
     </row>
     <row r="518" spans="1:7" ht="23.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A518" s="1" t="s">
-        <v>1699</v>
+        <v>1697</v>
       </c>
       <c r="B518" s="1" t="s">
-        <v>1827</v>
+        <v>1825</v>
       </c>
       <c r="E518" t="s">
-        <v>1671</v>
+        <v>1669</v>
       </c>
       <c r="F518">
         <v>146</v>
       </c>
       <c r="G518" t="s">
-        <v>1653</v>
+        <v>1651</v>
       </c>
     </row>
   </sheetData>

--- a/Book1.xlsx
+++ b/Book1.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2328" uniqueCount="1828">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2340" uniqueCount="1838">
   <si>
     <t>后九蜀寒拆九寒冷，后九无寒节节寒。</t>
   </si>
@@ -2785,9 +2785,6 @@
 </t>
   </si>
   <si>
-    <t>】见别人打架要赶紧躲开，免得被误伤。这反映了小市民 胆小怕事，明哲保身的处世态度。</t>
-  </si>
-  <si>
     <t>浸死好水相，拍死好拳头。</t>
   </si>
   <si>
@@ -2827,9 +2824,6 @@
   </si>
   <si>
     <t>①骹：脚。②踩：〈同义字〉。③借：倚仗。</t>
-  </si>
-  <si>
-    <t>】在官老爷的鞍前马后跑的家伙，往往仗势欺人。</t>
   </si>
   <si>
     <t>未见严嵩，先见严年。</t>
@@ -4227,19 +4221,10 @@
     <t>黄瓜：指大黄鱼。</t>
   </si>
   <si>
-    <t>【喻】只会卖嘴皮子的人。</t>
-  </si>
-  <si>
     <t>厝裡犬，咬门垫。</t>
   </si>
   <si>
-    <t>【喻】只敢在家里耍威风的人。</t>
-  </si>
-  <si>
     <t>牛尾脍遮牛股川。</t>
-  </si>
-  <si>
-    <t>【喻】想遮丑遮不住。</t>
   </si>
   <si>
     <t>龟无笑鳖，鳖无笑龟。</t>
@@ -4255,51 +4240,30 @@
 鱼。</t>
   </si>
   <si>
-    <t>【喻】条件很有限，只能勉强应付。</t>
-  </si>
-  <si>
     <t>猴戏未做，猴脾先起。</t>
   </si>
   <si>
     <t>①猴脾：猴脾气。②起：发作。</t>
   </si>
   <si>
-    <t>【喻】恃才使性子，让人头疼。</t>
-  </si>
-  <si>
-    <t>【喻】怯懦者经不起威吓。</t>
-  </si>
-  <si>
     <t>老犬会记千年屎。</t>
   </si>
   <si>
-    <t>【喻】不合时宜地提起陈年旧事。</t>
-  </si>
-  <si>
     <t>羊死目未克。</t>
   </si>
   <si>
     <t>克：〈音〉闭（目〉。</t>
   </si>
   <si>
-    <t>【喻】死不瞑目。</t>
-  </si>
-  <si>
     <t>金蒲蝇屎腹。</t>
   </si>
   <si>
     <t>】①金蒲蝇：红头大苍蝇。②屎腹：肚子里尽是屎。</t>
   </si>
   <si>
-    <t>【喻】打扮得漂漂亮亮的无德无能之辈。</t>
-  </si>
-  <si>
     <t>老鼠会变牛。</t>
   </si>
   <si>
-    <t>【喻】神通广大，能由小变大，由少变多。</t>
-  </si>
-  <si>
     <t>眚盲猫搦着死老鼠。</t>
   </si>
   <si>
@@ -4307,9 +4271,6 @@
 </t>
   </si>
   <si>
-    <t>【喻】瞎撞上的，纯属巧合。</t>
-  </si>
-  <si>
     <t>猪母都戴金耳坠。</t>
   </si>
   <si>
@@ -4317,25 +4278,16 @@
 </t>
   </si>
   <si>
-    <t>【喻】夸张形容家中极为富有。</t>
-  </si>
-  <si>
     <t>牛囝未桊鼻。</t>
   </si>
   <si>
     <t>①牛囝：牛犊。②未：还没有。③桊鼻：穿鼻环。</t>
   </si>
   <si>
-    <t>【喻】年轻人没吃过亏不晓得厉害。</t>
-  </si>
-  <si>
     <t>鸡角囝未大先叫更。</t>
   </si>
   <si>
     <t>①鸡角囝：小公鸡。②未大：还没长大。③叫更：〔公 鸡）打鸣。</t>
-  </si>
-  <si>
-    <t>【喻】孩子在成年人面前逞能说大话。</t>
   </si>
   <si>
     <t>老蜞行下冥。</t>
@@ -4346,18 +4298,12 @@
 </t>
   </si>
   <si>
-    <t>【喻】习慣深夜活动的人。</t>
-  </si>
-  <si>
     <t>小空出大螃蟹。</t>
   </si>
   <si>
     <t>空：〈阴去调〉窟窿。</t>
   </si>
   <si>
-    <t>【喻】不起眼的地方也可能出现惊人的景象。</t>
-  </si>
-  <si>
     <t>蜂王无着厝，蜂囝拍倒厝。</t>
   </si>
   <si>
@@ -4365,19 +4311,12 @@
 </t>
   </si>
   <si>
-    <t xml:space="preserve">【喻】不纪受称赞的人，蛊赞之下也难改劣根性。
-</t>
-  </si>
-  <si>
     <t>七骹八手蚂大爷。</t>
   </si>
   <si>
     <t>①七骹八手：七手八脚。骹：脚。②蚂大爷〈音〉：一 种不结网的长足蜘蛛。</t>
   </si>
   <si>
-    <t>【喻】七手八脚地忙乱。</t>
-  </si>
-  <si>
     <t>鸡角囝斗大。</t>
   </si>
   <si>
@@ -4385,9 +4324,6 @@
 </t>
   </si>
   <si>
-    <t>【喻】双方互相争斗，互不示弱。</t>
-  </si>
-  <si>
     <t>无猪犬也剑。</t>
   </si>
   <si>
@@ -4395,15 +4331,9 @@
 </t>
   </si>
   <si>
-    <t>【喻】无奈退而求其次。</t>
-  </si>
-  <si>
     <t>老虎复来，鞋带复断。</t>
   </si>
   <si>
-    <t>【喻】危急之中又加险情。</t>
-  </si>
-  <si>
     <t>复……复……：又……又……。复：又，俗写“仅”</t>
   </si>
   <si>
@@ -4413,119 +4343,74 @@
     <t>搦：〈借用字〉捉。</t>
   </si>
   <si>
-    <t>【喻】费尽九牛二虎之力制服对方，使之就范。</t>
-  </si>
-  <si>
     <t>老鸦叫，别侬死。</t>
   </si>
   <si>
     <t xml:space="preserve">①老鸦：乌鸦。②别侬：别人。 </t>
   </si>
   <si>
-    <t xml:space="preserve"> 【喻】光会叫嚷，而让别人去出钱出力。</t>
-  </si>
-  <si>
     <t xml:space="preserve">①狯：不能。②上桌：摆上席面。
 </t>
   </si>
   <si>
-    <t>【喻】素质低劣，无法抬举。</t>
-  </si>
-  <si>
     <t>锦被罩鸡笼。</t>
   </si>
   <si>
-    <t>【喻】外表好看，内里空虚。</t>
-  </si>
-  <si>
     <t xml:space="preserve">①无：没有。②钊：〈方言俗字〉宰杀；本字“治”。 ③八：知道。④腹肠：肚肠。
 </t>
   </si>
   <si>
-    <t>【喻】凭经验可识坏人的坏心思。</t>
-  </si>
-  <si>
     <t>郎机炮拍隻隻。</t>
   </si>
   <si>
-    <t>①郎机炮：旧称大炮。②拍：打。③隻隻：麻雀。 【喻】宰鸡用牛刀，大可不必。</t>
-  </si>
-  <si>
     <t>无刣犬就八犬腹肠。</t>
   </si>
   <si>
     <t>犬肉𣍐上桌。</t>
   </si>
   <si>
-    <t xml:space="preserve"> 【喻】宰鸡用牛刀，大可不必。</t>
-  </si>
-  <si>
     <t>十硋九漏。</t>
   </si>
   <si>
     <t>核：〈方言俗字〉陶瓷。</t>
   </si>
   <si>
-    <t>【喻】几乎个个都是有毛病的。</t>
-  </si>
-  <si>
     <t>柱珠生白蚁。</t>
   </si>
   <si>
     <t>柱珠：花冈石的柱础，通常为鼓状。</t>
   </si>
   <si>
-    <t>【喻】指身体一向很结实的人生了病。</t>
-  </si>
-  <si>
-    <t>【喻】没良心，狠毒。</t>
-  </si>
-  <si>
     <t>雷公睏落眠。</t>
   </si>
   <si>
     <t>①雷公：雷神，传说中的惩恶之神。②睏落眠：睡熟了。 睏：睡。</t>
   </si>
   <si>
-    <t>【喻】坏人没有受到惩处，正义没有得到伸张。</t>
-  </si>
-  <si>
     <t>复浅复拍泎。</t>
   </si>
   <si>
     <t>①复……复……：又……又……。②拍泎：洒泼。</t>
   </si>
   <si>
-    <t>【喻】本来就嫌少，偏又遭到无端的损失。</t>
-  </si>
-  <si>
     <t>无位等侬起，无姆等侬死。</t>
   </si>
   <si>
     <t>①无位：没有空位。②侬：人。③起：起身离去。④姆: 老婆。⑤等侬死：等他人死后〈娶寡妇八</t>
   </si>
   <si>
-    <t>【喻】“候补”者可悲的阴暗心态。</t>
-  </si>
-  <si>
     <t>拾猪屎碰着猪病泻。</t>
   </si>
   <si>
     <t>①碰着：遇上。②病泻：腹泻拉稀。</t>
   </si>
   <si>
-    <t>【喻】运气不好，碰得很不巧。</t>
-  </si>
-  <si>
     <t>猪刣白讲价。</t>
   </si>
   <si>
     <t>釗白：宰杀牲畜并褪毛去内脏。釗：〈方言俗字〉宰杀。</t>
   </si>
   <si>
-    <t>【喻】先制造出既成事实，然后再迫使对方接受不合理的条 件。</t>
-  </si>
-  <si>
     <t>海贼做普渡。</t>
   </si>
   <si>
@@ -4533,18 +4418,12 @@
 </t>
   </si>
   <si>
-    <t>【喻】恶人发善心。</t>
-  </si>
-  <si>
     <t>塔骨会排娘奶宫。</t>
   </si>
   <si>
     <t>【注】①塔骨：以竹制骨架，外罩衣冠的鬼神偶像，用于迎神 游行活动。偶像约两人高，腹部开一孔，供套着偶像行走的 人向外张望。②会：竟然。③排：摆放。④娘奶宫：供奉临 水夫人的庙。临水夫人是专司保佑妇女儿童的女神，据传是 唐代人，福州下渡陈昌之女，名靖姑，嫁刘杞，年二十四卒。</t>
   </si>
   <si>
-    <t>【喻】两码事混为一谈。</t>
-  </si>
-  <si>
     <t>东岳做普渡，六十年蜀回。</t>
   </si>
   <si>
@@ -4552,25 +4431,15 @@
 </t>
   </si>
   <si>
-    <t>【喻】机不可失，时不再来。</t>
-  </si>
-  <si>
     <t>①脍抢：抢不到。②冥头：初入夜时。③斋：檑米蒸制 的甜馅饼，闽俗用以祭鬼神。</t>
   </si>
   <si>
-    <t>【喻】无能之萆，到死还是无能的。
-【案】福州风俗在夜间的门外靖脚边以“斋”供孤魂野鬼。传 说饿极了的小鬼总是争先恐后地“抢斋”。无能的人，死了 也是无能的鬼，只能在下半夜捡食剩余。</t>
-  </si>
-  <si>
     <t>细姨过厝。</t>
   </si>
   <si>
     <t xml:space="preserve">①细姨：小姨子，妻妹。②过厝：〔花轿抬〉过门。 </t>
   </si>
   <si>
-    <t>【喻】生米煮成了熟饭，只能将错就错。</t>
-  </si>
-  <si>
     <t>做鬼也𣍐抢冥头斋。</t>
   </si>
   <si>
@@ -4584,36 +4453,24 @@
 </t>
   </si>
   <si>
-    <t>【喻】对随之而来的必然结果早有思想准备。</t>
-  </si>
-  <si>
     <t>新人蜀过门，媒侬丢过墙。</t>
   </si>
   <si>
     <t>①新人：新娘。②蜀：一。③媒侬：媒人。④丢：〈同 义字〉抛。</t>
   </si>
   <si>
-    <t>【喻】过河拆桥。</t>
-  </si>
-  <si>
     <t>好心乞雷拍。</t>
   </si>
   <si>
     <t xml:space="preserve">乞雷拍：〈反而）遭雷打。乞：介词；被。拍：击，打。 </t>
   </si>
   <si>
-    <t>【喻】好心没好报。</t>
-  </si>
-  <si>
     <t>单身哥固嫌家法大。</t>
   </si>
   <si>
     <t>①单身哥：单身汉。②固：副词；还。③家法：家庭的 日常开支。</t>
   </si>
   <si>
-    <t>【喻】要抱怨也还轮不上他。</t>
-  </si>
-  <si>
     <t>买臣妈十八败。</t>
   </si>
   <si>
@@ -4621,9 +4478,6 @@
 </t>
   </si>
   <si>
-    <t>【喻】命里注定要吃苦，无论如付挣扎也接脱不了。</t>
-  </si>
-  <si>
     <t>罗汉请观音。</t>
   </si>
   <si>
@@ -4641,27 +4495,18 @@
 </t>
   </si>
   <si>
-    <t>【喻】从本屑上说，两者没什么差别。</t>
-  </si>
-  <si>
     <t>碰着先生就看命。</t>
   </si>
   <si>
     <t>①先生：指算命先生。②看命：算命。</t>
   </si>
   <si>
-    <t>【喻】自己没主见，见人就请教。</t>
-  </si>
-  <si>
     <t>四月八无闲和尚。</t>
   </si>
   <si>
     <t>四月八：农历四月初八为浴佛节，也是和尚烧戒的日子, 各寺院都举行隆重的佛教典礼。</t>
   </si>
   <si>
-    <t>【喻】大忙的时候每个人都派得上用场。</t>
-  </si>
-  <si>
     <t>未食三日菜，就想上西天。</t>
   </si>
   <si>
@@ -4674,9 +4519,6 @@
     <t>竹𥮕下仙家。</t>
   </si>
   <si>
-    <t>【喻】没有换洗的衣服，立等衣服晾干再穿。</t>
-  </si>
-  <si>
     <t>蜀师蜀法门。</t>
   </si>
   <si>
@@ -4684,42 +4526,27 @@
 </t>
   </si>
   <si>
-    <t>【喻】各有各的办法。</t>
-  </si>
-  <si>
     <t>去和尚寺借篦梳。</t>
   </si>
   <si>
     <t>【注】和尚寺：佛教的寺庙。</t>
   </si>
   <si>
-    <t>【喻】求助找错了对象。</t>
-  </si>
-  <si>
     <t>①脍做：做不了。②姆脍讨：老婆找不到。姆：老婆。 讨：找。</t>
   </si>
   <si>
-    <t>【喻】干什么都干不成。</t>
-  </si>
-  <si>
     <t>和尚𣍐做姆脍讨。</t>
   </si>
   <si>
     <t>和尚头，顶橄榄。</t>
   </si>
   <si>
-    <t>【喻】物品叠置得很不穗当，随时可能跌下来。</t>
-  </si>
-  <si>
     <t>道士拍死道士声。</t>
   </si>
   <si>
     <t>①拍死：打死。②道士声：道士的腔调。</t>
   </si>
   <si>
-    <t>【喻】三句不离本行。</t>
-  </si>
-  <si>
     <t>暴乍梅香做夫人。</t>
   </si>
   <si>
@@ -4732,21 +4559,12 @@
     <t>①暴乍：破天荒第一次，刚刚。②梅香：婢女的常用名， 借代指婢女。</t>
   </si>
   <si>
-    <t>【喻】身份陡然升高的贱人。</t>
-  </si>
-  <si>
     <t>衣裳襆乞侬拖去拭屎。</t>
   </si>
   <si>
     <t>①衣裳襆：衣服的下襟。“襆”写方言俗字。②乞侬：被 别人。</t>
   </si>
   <si>
-    <t>【喻】平白无故地当了冤大头。</t>
-  </si>
-  <si>
-    <t>【喻】势利眼，以不同的态度对待不同身份的人。</t>
-  </si>
-  <si>
     <t>无位尖台中。</t>
   </si>
   <si>
@@ -4754,61 +4572,37 @@
 </t>
   </si>
   <si>
-    <t>读】后来者反而挤占了最好的位子。</t>
-  </si>
-  <si>
     <t>上半冥肖鸡，下半冥肖鸭。</t>
   </si>
   <si>
     <t>①半冥：半夜。冥：夜。②肖鸡：〔生肖）属鸡。</t>
   </si>
   <si>
-    <t>【喻】说法一会儿一变，叫人捉摸不定。</t>
-  </si>
-  <si>
     <t>三叔公，拉长屎。</t>
   </si>
   <si>
     <t>拉长屎：拉屎的时间长。</t>
   </si>
   <si>
-    <t>【喻】办事慢呑呑，拖得时间长。</t>
-  </si>
-  <si>
     <t>圆鼎四角甑。</t>
   </si>
   <si>
     <t>①鼎：铁锅。②四角甑：方形的蒸笼。甑：蒸笼；本字 “床”。</t>
   </si>
   <si>
-    <t>【喻】方枘圆柄，搭纪不上。</t>
-  </si>
-  <si>
     <t>伓像菜头伓像芋。</t>
   </si>
   <si>
-    <t>【喻】非驴非马。</t>
-  </si>
-  <si>
-    <t>【喻】说话很快，语流急促，如从坛子里倒出撖榄的声音。</t>
-  </si>
-  <si>
     <t>蜀时韭菜蜀时葱。</t>
   </si>
   <si>
     <t>蜀时：一时。</t>
   </si>
   <si>
-    <t>【喻】一会儿变一个花样。</t>
-  </si>
-  <si>
     <t xml:space="preserve">镦：阉割。《字林》：“镦，去畜势，都昆切。”
 </t>
   </si>
   <si>
-    <t>【喻】年纪太大了才开始学习某种靳技能。</t>
-  </si>
-  <si>
     <t>年老学驐猪。</t>
   </si>
   <si>
@@ -4819,77 +4613,46 @@
 </t>
   </si>
   <si>
-    <t>【喻】自找麻烦，自添负担。</t>
-  </si>
-  <si>
     <t>有风飑起就有梨囝拾。</t>
   </si>
   <si>
     <t>①风飑：台风。②起：发生。③梨囝：小梨儿。</t>
   </si>
   <si>
-    <t xml:space="preserve">【喻】总有办法在混乱中获利。
-</t>
-  </si>
-  <si>
     <t>斧头拍凿凿拍柴，郎罢使囝囝使孙。</t>
   </si>
   <si>
     <t>①拍：击打。②凿：凿子。③郎罢：父亲。④使：使唤。 ⑤囝：儿子。</t>
   </si>
   <si>
-    <t>【喻】依次往下推，最后总是地位最低的人吃亏。</t>
-  </si>
-  <si>
     <t>锣掼过山拍。</t>
   </si>
   <si>
     <t>①掼：提。②过山：隔着山头的远处。</t>
   </si>
   <si>
-    <t>【喻】有本事到外面去显。</t>
-  </si>
-  <si>
     <t>猛猛鼎炒花生。</t>
   </si>
   <si>
     <t xml:space="preserve">猛猛鼎：烧得很热的油锅。猛：火旺。鼎：铁锅。 </t>
   </si>
   <si>
-    <t>【喻】动作快，手脚麻利。</t>
-  </si>
-  <si>
-    <t>【喻】精于计算，斤斤计较。</t>
-  </si>
-  <si>
     <t>新粪坑，好拉屎。</t>
   </si>
   <si>
     <t>粪坑：厕所。</t>
   </si>
   <si>
-    <t>【喻】（贬）对任何新的东西，都感觉特别好。</t>
-  </si>
-  <si>
     <t>大家马，大家骑。</t>
   </si>
   <si>
-    <t>【喻】同样的的规矩适用于每一个人。</t>
-  </si>
-  <si>
     <t xml:space="preserve">①担粪：挑粪。②脍等：等不及，期盼。③桶：指粪桶。
 </t>
   </si>
   <si>
-    <t>【喻】爱偷懒的人的心理状态。</t>
-  </si>
-  <si>
     <t>担粪𣍐等桶漏。</t>
   </si>
   <si>
-    <t>【喻】投人所好的话不会说，反而无意间刺到对方的痛处。</t>
-  </si>
-  <si>
     <t>拍落身固当做喜事。</t>
   </si>
   <si>
@@ -4897,10 +4660,6 @@
 </t>
   </si>
   <si>
-    <t xml:space="preserve">【喻】该痛心的时候却兴高采烈，尴尬事却自己大肆宣扬。 【案】看上去显得反常，其实都有不好明言的苦衷。
-</t>
-  </si>
-  <si>
     <t>好头好面臭股川。</t>
   </si>
   <si>
@@ -4908,13 +4667,6 @@
 </t>
   </si>
   <si>
-    <t xml:space="preserve">【喻】表面上好看，其实毛病隐藏在不显眼处。
-</t>
-  </si>
-  <si>
-    <t>【喻】自已偷偷得了便宜不算，还要让别人背黑锅。</t>
-  </si>
-  <si>
     <t>讲食龙过山，讲做会打单。</t>
   </si>
   <si>
@@ -4922,12 +4674,6 @@
 </t>
   </si>
   <si>
-    <t>【喻】好吃愀做。</t>
-  </si>
-  <si>
-    <t>【喻】本想两头兼顾，结果都误了。</t>
-  </si>
-  <si>
     <t>无水游九铺。</t>
   </si>
   <si>
@@ -4935,15 +4681,9 @@
 </t>
   </si>
   <si>
-    <t>【喻】（貶）神通广大，无所不能。</t>
-  </si>
-  <si>
     <t>船过水无痕。</t>
   </si>
   <si>
-    <t>【喻】事情发生，过后了无表迹。</t>
-  </si>
-  <si>
     <t>亲母自耀骹腿白。</t>
   </si>
   <si>
@@ -4951,30 +4691,18 @@
 </t>
   </si>
   <si>
-    <t>【喻】可笑的自夸。</t>
-  </si>
-  <si>
     <t>鼻屎当盐食。</t>
   </si>
   <si>
-    <t>【喻】吝啬之极。</t>
-  </si>
-  <si>
     <t>兵过篱笆破。</t>
   </si>
   <si>
-    <t>【喻】鲁莽者所到之处，不免造成破坏。</t>
-  </si>
-  <si>
     <t>蜀槌拍两橛。</t>
   </si>
   <si>
     <t>①蜀槌：槌子一击。②拍：击打。③橛：段。</t>
   </si>
   <si>
-    <t>【喻】处事千脆利落，不拖泥带水。</t>
-  </si>
-  <si>
     <t>番囝翻摆生。</t>
   </si>
   <si>
@@ -4982,36 +4710,24 @@
 </t>
   </si>
   <si>
-    <t>【喻】奇怪的反常的行为举止。</t>
-  </si>
-  <si>
     <t>贻顺哥烛蒂。</t>
   </si>
   <si>
     <t>贻顺哥是福州民间故事中典型的吝啬鬼形象，处处算 计，最终人财两空，只落下几根烛蒂。</t>
   </si>
   <si>
-    <t>【喻】吝嗇鬼。</t>
-  </si>
-  <si>
     <t>请来婆奶囝三旦。</t>
   </si>
   <si>
     <t>①婆奶：接生婆。②囝：儿子，孩子。③三且：婴儿出 生的第三日，旧俗在这一天庆贺宴客。</t>
   </si>
   <si>
-    <t>【喻】来得太迟了。</t>
-  </si>
-  <si>
     <t>曲蹄请亲家。</t>
   </si>
   <si>
     <t>①曲蹄：旧称以打渔、内河航运为生的水上居民。②请: 宴请。</t>
   </si>
   <si>
-    <t>【喻】满桌尽是鱼虾。</t>
-  </si>
-  <si>
     <t>未学行，先学肺。</t>
   </si>
   <si>
@@ -5024,9 +4740,6 @@
     <t>未划起：还没开始划。</t>
   </si>
   <si>
-    <t>除】喻义同“‘八’字还没有一撇”。</t>
-  </si>
-  <si>
     <t>蜀隻剃头，两隻扒耳。</t>
   </si>
   <si>
@@ -5034,12 +4747,6 @@
 </t>
   </si>
   <si>
-    <t>【喻】人浮于事。[除】新解或曰，有饭大家吃。</t>
-  </si>
-  <si>
-    <t>喻】一窍不通。</t>
-  </si>
-  <si>
     <t>索面未拍架先排。</t>
   </si>
   <si>
@@ -5047,26 +4754,15 @@
 </t>
   </si>
   <si>
-    <t>【喻】事情还没做，先摆臭架子。</t>
-  </si>
-  <si>
     <t>门垫复悬犬复大。</t>
   </si>
   <si>
     <t>①门垫：门植。②复：又；俗写“仅”字。③悬：〈白 读音〉高，俗写同音字“咸”。</t>
   </si>
   <si>
-    <t xml:space="preserve">【喻】气焰骄人，令人却步。
-除】据说是“为了维护机关的正常工作秩序’’。
-</t>
-  </si>
-  <si>
     <t>会八偷食，𣍐八拭嘴。</t>
   </si>
   <si>
-    <t>【喻】干了坏事而不懂得如何加以掩饰。</t>
-  </si>
-  <si>
     <t>食死皮包骨。</t>
   </si>
   <si>
@@ -5074,18 +4770,12 @@
 </t>
   </si>
   <si>
-    <t>【喻】努力的结果也不怎么样。</t>
-  </si>
-  <si>
     <t>七隻食饭，八隻当家。</t>
   </si>
   <si>
     <t>】①隻：个（人〉。②食饭：吃饭。</t>
   </si>
   <si>
-    <t>【喻】政出多门，缺乏统一领导。</t>
-  </si>
-  <si>
     <t>闲工补笊篱。</t>
   </si>
   <si>
@@ -5093,33 +4783,18 @@
 </t>
   </si>
   <si>
-    <t xml:space="preserve">【喻】做毫无意义的劳动。
-读】北方俗语：“下雨天打孩子，闲着也是闲着。”
-</t>
-  </si>
-  <si>
     <t>九十九，整蜀百。</t>
   </si>
   <si>
     <t>①整：凑成整数。②蜀百：一百。</t>
   </si>
   <si>
-    <t>【喻】富且吝，富了更贪。</t>
-  </si>
-  <si>
     <t>嘴渴食盐卤。</t>
   </si>
   <si>
-    <t>【喻】饮鸩止渴。</t>
-  </si>
-  <si>
     <t>贼食鸦片睏。</t>
   </si>
   <si>
-    <t xml:space="preserve">【喻】胃口极好，而且特别能睡慊觉的人。
-</t>
-  </si>
-  <si>
     <t>①荒唐：福州话骂人“荒唐”，犹北方话骂“混账”，与 “方肠”二字同音。②四角：方形的。</t>
   </si>
   <si>
@@ -5137,51 +4812,33 @@
 </t>
   </si>
   <si>
-    <t>【喻】不榷装懂而且还好为人师。</t>
-  </si>
-  <si>
     <t>前鼎未滚，后鼎啪啪滚。</t>
   </si>
   <si>
     <t>①前鼎、后鼎：灶膛正上方的锅坑放置“前鼎”，偏后 的位置加设一个利用余热的锅坑，放置“后鼎”。鼎：铁锅。 ②滚：〈水）沸腾。③啪啪滚：猛烈地沸腾。</t>
   </si>
   <si>
-    <t>辟】北京俗语说：“皇帝不急太监急。”</t>
-  </si>
-  <si>
     <t>十八岁会见廿四代。</t>
   </si>
   <si>
     <t>见：见过，经历了。</t>
   </si>
   <si>
-    <t>【喻】年轻人在长者面前不懂装懂，卖弄知识。</t>
-  </si>
-  <si>
     <t>上轿缠骹。</t>
   </si>
   <si>
     <t>①上轿：指上花轿。②骹；脚。</t>
   </si>
   <si>
-    <t>【喻】事到临头才着急。</t>
-  </si>
-  <si>
     <t>蜀时风驶蜀时船。</t>
   </si>
   <si>
-    <t>【喻】见风使舵。</t>
-  </si>
-  <si>
     <t>卜食鱼汤七十二。</t>
   </si>
   <si>
     <t>①卜食：要吃。卜：助动词；要，想要。②七十二: (必须付）七十二枚铜钱。</t>
   </si>
   <si>
-    <t>【喻】不能不接受的刻板条件。</t>
-  </si>
-  <si>
     <t>教师乞舀粪拍咯。</t>
   </si>
   <si>
@@ -5189,68 +4846,40 @@
 </t>
   </si>
   <si>
-    <t>【喻】不声不响的人倒有真功夫。</t>
-  </si>
-  <si>
-    <t>【喻】原是亲密无间，陡然间反目成仇。</t>
-  </si>
-  <si>
-    <t>【喻】罕见的东西。</t>
-  </si>
-  <si>
     <t>大目脍看见灶。</t>
   </si>
   <si>
     <t>①大目：睁大眼睛。②脍看见：看不见。</t>
   </si>
   <si>
-    <t>【喻】摆在眼前的东西也看不见。</t>
-  </si>
-  <si>
     <t>无地会起厝，无米会做斋。</t>
   </si>
   <si>
     <t>①会：〈竟然）能够。②起厝：盖房子。③斋：懦米制 作的甜馅饼。俗写加“米”字旁。</t>
   </si>
   <si>
-    <t>【喻】搭空中楼阁，无根据的设想。</t>
-  </si>
-  <si>
     <t xml:space="preserve">喻】看似聪明能干，却缺乏最基本的、真正需要的能力。
 </t>
   </si>
   <si>
-    <t xml:space="preserve">【喻】泡在水里还累出一身汗，夸张形容费尽口舌。
-</t>
-  </si>
-  <si>
     <t>长长冥，十八更。</t>
   </si>
   <si>
     <t>①冥：夜。《广韵》：“幽也，暗也，莫经切。”②十八更: 夸张说夜长。</t>
   </si>
   <si>
-    <t>【喻】还有的是时间，不必着急。</t>
-  </si>
-  <si>
     <t>闲柴烧滚汤。</t>
   </si>
   <si>
     <t>①闲柴：多余的柴火。②滚汤：开水，此处指已经烧开 了的水。</t>
   </si>
   <si>
-    <t>【喻】无益的消耗。</t>
-  </si>
-  <si>
     <t>红衫颂半爿。</t>
   </si>
   <si>
     <t>①红衫：旧例死刑犯押往刑场时身着红衫。②颂：穿。 ③半另：半边。</t>
   </si>
   <si>
-    <t>【喻】冒杀头之险。</t>
-  </si>
-  <si>
     <t>连江鸡筑胲。</t>
   </si>
   <si>
@@ -5258,15 +4887,9 @@
 </t>
   </si>
   <si>
-    <t>【喻】挑动别人干蠢事。</t>
-  </si>
-  <si>
     <t>会惊泄尿伓去睏。</t>
   </si>
   <si>
-    <t>【喻】因噎废食。</t>
-  </si>
-  <si>
     <t>买炮仗，别侬放。</t>
   </si>
   <si>
@@ -5274,11 +4897,6 @@
 </t>
   </si>
   <si>
-    <t xml:space="preserve">【喻】替别人花钱。
-陳】鞭炮声响众人听，花钱买鞭炮无非是图自己燃放的乐 趣。
-</t>
-  </si>
-  <si>
     <t>关门拍逷锁，搬厝拍逷姆。</t>
   </si>
   <si>
@@ -5286,10 +4904,6 @@
 </t>
   </si>
   <si>
-    <t xml:space="preserve">【喻】瞎忙半天，却去失了最重要的东西。
-</t>
-  </si>
-  <si>
     <t>耳聋会听见鸭母叫更。</t>
   </si>
   <si>
@@ -5297,9 +4911,6 @@
 </t>
   </si>
   <si>
-    <t>【喻】因没听清楚，产生了误会。</t>
-  </si>
-  <si>
     <t>做岁无月。</t>
   </si>
   <si>
@@ -5307,9 +4918,6 @@
 </t>
   </si>
   <si>
-    <t>【喻】美中不足。</t>
-  </si>
-  <si>
     <t>茉莉花赶头水。</t>
   </si>
   <si>
@@ -5317,17 +4925,9 @@
 </t>
   </si>
   <si>
-    <t>【喻】赶前不赶后。
-陳】采莉花要趁含苞待放时采摘，稍迟花开，香气尽释，就 不值钱了。</t>
-  </si>
-  <si>
     <t>水流破布。</t>
   </si>
   <si>
-    <t xml:space="preserve">【喻】走走停停，随其自然，没有时间观念。
-</t>
-  </si>
-  <si>
     <t>皇帝嘴，乞食身。</t>
   </si>
   <si>
@@ -5335,16 +4935,9 @@
 </t>
   </si>
   <si>
-    <t xml:space="preserve">【喻】家境贫穷，衣裳褴褛，但对吃喝却挺讲究。
-</t>
-  </si>
-  <si>
     <t>皇帝牛食麦。</t>
   </si>
   <si>
-    <t>【喻】不着边际的胡侃。</t>
-  </si>
-  <si>
     <t>是事伓做，做事伓是。</t>
   </si>
   <si>
@@ -5354,16 +4947,10 @@
     <t>①做好无赏：做好了也得不到奖赏。②拍破：弄砸了。 ③着：要，必须。</t>
   </si>
   <si>
-    <t>【喻】吃力不讨好的事情。</t>
-  </si>
-  <si>
     <t>两耳鼎羁草鞋鼻。</t>
   </si>
   <si>
     <t>①两耳鼎：双耳铁锅。②羁：系。③草鞋鼻：草鞋前端 翘起的部分，这里代指草鞋。</t>
-  </si>
-  <si>
-    <t>【喻】穷人的可怜家当。</t>
   </si>
   <si>
     <t>房桶镜箱灯，草鞋包袱伞。</t>
@@ -5803,15 +5390,9 @@
     <t>①水姹：新鲜的海蛰。②汝：你。③伊：他。④脍急: 不着急。</t>
   </si>
   <si>
-    <t>除】绱鞋者终日坐着不紧不慢地干活，而卖鲜海蛰的扳子急 于求售要四处游走，因为待售的鲜海蛰在不停地化水收縮， 分量越来越轻。</t>
-  </si>
-  <si>
     <t>①白面盾：娼寮。白面：娼妓。盾：家，房子。②固做: 还显得。③真：很。④光鲜：光彩漂亮。</t>
   </si>
   <si>
-    <t>【案】旧社会的娼寮门前挂红灯笔。</t>
-  </si>
-  <si>
     <t>①花彩：小费。②偌夥：多少。③会使：可以。</t>
   </si>
   <si>
@@ -5821,19 +5402,10 @@
     <t>①孤老：麻疯病。②裡：进。</t>
   </si>
   <si>
-    <t>【喻】亲友往来中只收礼、不送礼的人。</t>
-  </si>
-  <si>
     <t>①六月天：指盛夏。②老客：富有旅行经验者。</t>
   </si>
   <si>
-    <t>喻】有备无患。</t>
-  </si>
-  <si>
     <t>①黄瓜鱼：大黄鱼。②放：指“放籽”，即产子。③春 籽：即小黄鱼，状如黄鱼而较小，口味远逊于大黄鱼。④蜀 代：一代。</t>
-  </si>
-  <si>
-    <t>【案】俗或以为“春籽”是大黄鱼所产的幼鱼，故有此说。</t>
   </si>
   <si>
     <t>①火烧厝：火烧房子，失火6②受怪：可怜。“怪”的 本字可能是“过”。③东家：指事主。</t>
@@ -5906,9 +5478,6 @@
     <t>①眚盲：瞎子。②讨姆：娶妻，此处指择偶。③俪八: 只晓得，只要。偭：〈借用字〉只，仅。八：晓得，知道。</t>
   </si>
   <si>
-    <t>】①食蜀腹：吃了一肚子。②固吼：还，还在。③畏羞: 怕羞。④须：触须；与“羞”字白读音相同。</t>
-  </si>
-  <si>
     <t>①芋瓠：瓤瓜的一种，长条状。②拍犬：打狗。③固： 还。④蜀长：一段。</t>
   </si>
   <si>
@@ -5918,37 +5487,19 @@
     <t>①塀骹：歧足。②师公：道士。③坐吼：坐着。吼：动 态助词；着。④做法：施法术。</t>
   </si>
   <si>
-    <t>【喻】自己坐着不动，支使别人做这做那。</t>
-  </si>
-  <si>
     <t>①眠床：床。②平平：一样，同样。③悬：高；俗写同 音字“咸”。</t>
   </si>
   <si>
-    <t>【喻】谁也不比谁强。</t>
-  </si>
-  <si>
-    <t>【喻】脏话不离口。</t>
-  </si>
-  <si>
     <t xml:space="preserve">①十八钱：十八个铜板。②俪：只。③吼：动态助词；了。④嘴：尿壶口，双关指嘴巴。 </t>
   </si>
   <si>
-    <t>【喻】能言善辩而别无他长的人物。</t>
-  </si>
-  <si>
     <t xml:space="preserve">①鼎边糊：一种福州小吃，如北方的“片儿汤”，以米 浆制作。用大铁锅煮半锅汤，再以稠米浆在锅壁的上半部摊 成片状，即铲入汤汁中。鼎：铁锅。②蜀：一。③汶〈音〉： 制作“鼎边糊”时摊米浆的动作手势一一迅速地沿锅壁转一 圈；双关指短暂的交际接触。
 </t>
   </si>
   <si>
-    <t>【喻】善于交际，与人一见面就熟的人。</t>
-  </si>
-  <si>
     <t>①青螯：蛤蜊。②怀食：不吃。③食碰：碰钉子。 “碰”与“蚌”同音。</t>
   </si>
   <si>
-    <t>【喻】自讨没趣。</t>
-  </si>
-  <si>
     <t>①夫人奶：即“临水夫人陈靖姑”，福州及闽东一带民 间信仰的女神，旧福州有其庙宇多处，庙内有抽签问卜等活 动。②梢着：碰到。梢：〈方言俗字〉遇，碰。③脍圣：不 灵验。④卖线：指吆喝卖线的小贩。“卖线”与“脍圣”同 音。</t>
   </si>
   <si>
@@ -5963,6 +5514,482 @@
   </si>
   <si>
     <t>讨亲长长阵，拜堂俪两奇。</t>
+  </si>
+  <si>
+    <t>心急马倒退。</t>
+  </si>
+  <si>
+    <t>79552999-0a30-494d-a638-74c9a77c1fae</t>
+  </si>
+  <si>
+    <t>熻熻食两碗半。</t>
+  </si>
+  <si>
+    <t>①燴擒：闷声不响地；谐音双关指焖锅饭。②食：吃。</t>
+  </si>
+  <si>
+    <t>15eff81e-90ce-4383-b9dd-a683153d2efc</t>
+  </si>
+  <si>
+    <t>旧社会的娼寮门前挂红灯笔。</t>
+  </si>
+  <si>
+    <t>绱鞋者终日坐着不紧不慢地干活，而卖鲜海蛰的扳子急 于求售要四处游走，因为待售的鲜海蛰在不停地化水收縮， 分量越来越轻。</t>
+  </si>
+  <si>
+    <t>俗或以为“春籽”是大黄鱼所产的幼鱼，故有此说。</t>
+  </si>
+  <si>
+    <t>采莉花要趁含苞待放时采摘，稍迟花开，香气尽释，就 不值钱了。</t>
+  </si>
+  <si>
+    <t>后来者反而挤占了最好的位子。</t>
+  </si>
+  <si>
+    <t>新解或曰，有饭大家吃。</t>
+  </si>
+  <si>
+    <t>喻义同“‘八’字还没有一撇”。</t>
+  </si>
+  <si>
+    <t>北方俗语：“下雨天打孩子，闲着也是闲着。”</t>
+  </si>
+  <si>
+    <t>北京俗语说：“皇帝不急太监急。”</t>
+  </si>
+  <si>
+    <t>福州风俗在夜间的门外靖脚边以“斋”供孤魂野鬼。传 说饿极了的小鬼总是争先恐后地“抢斋”。无能的人，死了 也是无能的鬼，只能在下半夜捡食剩余。</t>
+  </si>
+  <si>
+    <t xml:space="preserve">①郎机炮：旧称大炮。②拍：打。③隻隻：麻雀。 </t>
+  </si>
+  <si>
+    <t>只会卖嘴皮子的人。</t>
+  </si>
+  <si>
+    <t>只敢在家里耍威风的人。</t>
+  </si>
+  <si>
+    <t>想遮丑遮不住。</t>
+  </si>
+  <si>
+    <t>条件很有限，只能勉强应付。</t>
+  </si>
+  <si>
+    <t>恃才使性子，让人头疼。</t>
+  </si>
+  <si>
+    <t>怯懦者经不起威吓。</t>
+  </si>
+  <si>
+    <t>不合时宜地提起陈年旧事。</t>
+  </si>
+  <si>
+    <t>死不瞑目。</t>
+  </si>
+  <si>
+    <t>打扮得漂漂亮亮的无德无能之辈。</t>
+  </si>
+  <si>
+    <t>神通广大，能由小变大，由少变多。</t>
+  </si>
+  <si>
+    <t>瞎撞上的，纯属巧合。</t>
+  </si>
+  <si>
+    <t>夸张形容家中极为富有。</t>
+  </si>
+  <si>
+    <t>年轻人没吃过亏不晓得厉害。</t>
+  </si>
+  <si>
+    <t>孩子在成年人面前逞能说大话。</t>
+  </si>
+  <si>
+    <t>习慣深夜活动的人。</t>
+  </si>
+  <si>
+    <t>不起眼的地方也可能出现惊人的景象。</t>
+  </si>
+  <si>
+    <t xml:space="preserve">不纪受称赞的人，蛊赞之下也难改劣根性。
+</t>
+  </si>
+  <si>
+    <t>七手八脚地忙乱。</t>
+  </si>
+  <si>
+    <t>双方互相争斗，互不示弱。</t>
+  </si>
+  <si>
+    <t>无奈退而求其次。</t>
+  </si>
+  <si>
+    <t>危急之中又加险情。</t>
+  </si>
+  <si>
+    <t>费尽九牛二虎之力制服对方，使之就范。</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 光会叫嚷，而让别人去出钱出力。</t>
+  </si>
+  <si>
+    <t>素质低劣，无法抬举。</t>
+  </si>
+  <si>
+    <t>外表好看，内里空虚。</t>
+  </si>
+  <si>
+    <t>凭经验可识坏人的坏心思。</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 宰鸡用牛刀，大可不必。</t>
+  </si>
+  <si>
+    <t>几乎个个都是有毛病的。</t>
+  </si>
+  <si>
+    <t>指身体一向很结实的人生了病。</t>
+  </si>
+  <si>
+    <t>没良心，狠毒。</t>
+  </si>
+  <si>
+    <t>坏人没有受到惩处，正义没有得到伸张。</t>
+  </si>
+  <si>
+    <t>本来就嫌少，偏又遭到无端的损失。</t>
+  </si>
+  <si>
+    <t>“候补”者可悲的阴暗心态。</t>
+  </si>
+  <si>
+    <t>运气不好，碰得很不巧。</t>
+  </si>
+  <si>
+    <t>先制造出既成事实，然后再迫使对方接受不合理的条 件。</t>
+  </si>
+  <si>
+    <t>恶人发善心。</t>
+  </si>
+  <si>
+    <t>两码事混为一谈。</t>
+  </si>
+  <si>
+    <t>机不可失，时不再来。</t>
+  </si>
+  <si>
+    <t>无能之萆，到死还是无能的。</t>
+  </si>
+  <si>
+    <t>生米煮成了熟饭，只能将错就错。</t>
+  </si>
+  <si>
+    <t>对随之而来的必然结果早有思想准备。</t>
+  </si>
+  <si>
+    <t>过河拆桥。</t>
+  </si>
+  <si>
+    <t>好心没好报。</t>
+  </si>
+  <si>
+    <t>要抱怨也还轮不上他。</t>
+  </si>
+  <si>
+    <t>命里注定要吃苦，无论如付挣扎也接脱不了。</t>
+  </si>
+  <si>
+    <t>从本屑上说，两者没什么差别。</t>
+  </si>
+  <si>
+    <t>自己没主见，见人就请教。</t>
+  </si>
+  <si>
+    <t>大忙的时候每个人都派得上用场。</t>
+  </si>
+  <si>
+    <t>没有换洗的衣服，立等衣服晾干再穿。</t>
+  </si>
+  <si>
+    <t>各有各的办法。</t>
+  </si>
+  <si>
+    <t>求助找错了对象。</t>
+  </si>
+  <si>
+    <t>干什么都干不成。</t>
+  </si>
+  <si>
+    <t>物品叠置得很不穗当，随时可能跌下来。</t>
+  </si>
+  <si>
+    <t>三句不离本行。</t>
+  </si>
+  <si>
+    <t>身份陡然升高的贱人。</t>
+  </si>
+  <si>
+    <t>势利眼，以不同的态度对待不同身份的人。</t>
+  </si>
+  <si>
+    <t>平白无故地当了冤大头。</t>
+  </si>
+  <si>
+    <t>说法一会儿一变，叫人捉摸不定。</t>
+  </si>
+  <si>
+    <t>办事慢呑呑，拖得时间长。</t>
+  </si>
+  <si>
+    <t>方枘圆柄，搭纪不上。</t>
+  </si>
+  <si>
+    <t>非驴非马。</t>
+  </si>
+  <si>
+    <t>说话很快，语流急促，如从坛子里倒出撖榄的声音。</t>
+  </si>
+  <si>
+    <t>一会儿变一个花样。</t>
+  </si>
+  <si>
+    <t>年纪太大了才开始学习某种靳技能。</t>
+  </si>
+  <si>
+    <t>自找麻烦，自添负担。</t>
+  </si>
+  <si>
+    <t xml:space="preserve">总有办法在混乱中获利。
+</t>
+  </si>
+  <si>
+    <t>依次往下推，最后总是地位最低的人吃亏。</t>
+  </si>
+  <si>
+    <t>有本事到外面去显。</t>
+  </si>
+  <si>
+    <t>动作快，手脚麻利。</t>
+  </si>
+  <si>
+    <t>精于计算，斤斤计较。</t>
+  </si>
+  <si>
+    <t>（贬）对任何新的东西，都感觉特别好。</t>
+  </si>
+  <si>
+    <t>同样的的规矩适用于每一个人。</t>
+  </si>
+  <si>
+    <t>爱偷懒的人的心理状态。</t>
+  </si>
+  <si>
+    <t>投人所好的话不会说，反而无意间刺到对方的痛处。</t>
+  </si>
+  <si>
+    <t xml:space="preserve">该痛心的时候却兴高采烈，尴尬事却自己大肆宣扬。 【案】看上去显得反常，其实都有不好明言的苦衷。
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">表面上好看，其实毛病隐藏在不显眼处。
+</t>
+  </si>
+  <si>
+    <t>自已偷偷得了便宜不算，还要让别人背黑锅。</t>
+  </si>
+  <si>
+    <t>好吃愀做。</t>
+  </si>
+  <si>
+    <t>本想两头兼顾，结果都误了。</t>
+  </si>
+  <si>
+    <t>（貶）神通广大，无所不能。</t>
+  </si>
+  <si>
+    <t>事情发生，过后了无表迹。</t>
+  </si>
+  <si>
+    <t>可笑的自夸。</t>
+  </si>
+  <si>
+    <t>吝啬之极。</t>
+  </si>
+  <si>
+    <t>鲁莽者所到之处，不免造成破坏。</t>
+  </si>
+  <si>
+    <t>处事千脆利落，不拖泥带水。</t>
+  </si>
+  <si>
+    <t>奇怪的反常的行为举止。</t>
+  </si>
+  <si>
+    <t>吝嗇鬼。</t>
+  </si>
+  <si>
+    <t>来得太迟了。</t>
+  </si>
+  <si>
+    <t>满桌尽是鱼虾。</t>
+  </si>
+  <si>
+    <t>人浮于事。</t>
+  </si>
+  <si>
+    <t>事情还没做，先摆臭架子。</t>
+  </si>
+  <si>
+    <t xml:space="preserve">气焰骄人，令人却步。
+除】据说是“为了维护机关的正常工作秩序’’。
+</t>
+  </si>
+  <si>
+    <t>干了坏事而不懂得如何加以掩饰。</t>
+  </si>
+  <si>
+    <t>努力的结果也不怎么样。</t>
+  </si>
+  <si>
+    <t>政出多门，缺乏统一领导。</t>
+  </si>
+  <si>
+    <t>做毫无意义的劳动。</t>
+  </si>
+  <si>
+    <t>富且吝，富了更贪。</t>
+  </si>
+  <si>
+    <t>饮鸩止渴。</t>
+  </si>
+  <si>
+    <t xml:space="preserve">胃口极好，而且特别能睡慊觉的人。
+</t>
+  </si>
+  <si>
+    <t>不榷装懂而且还好为人师。</t>
+  </si>
+  <si>
+    <t>年轻人在长者面前不懂装懂，卖弄知识。</t>
+  </si>
+  <si>
+    <t>事到临头才着急。</t>
+  </si>
+  <si>
+    <t>见风使舵。</t>
+  </si>
+  <si>
+    <t>不能不接受的刻板条件。</t>
+  </si>
+  <si>
+    <t>不声不响的人倒有真功夫。</t>
+  </si>
+  <si>
+    <t xml:space="preserve">不声不响的人倒有真功夫。
+</t>
+  </si>
+  <si>
+    <t>原是亲密无间，陡然间反目成仇。</t>
+  </si>
+  <si>
+    <t>罕见的东西。</t>
+  </si>
+  <si>
+    <t>摆在眼前的东西也看不见。</t>
+  </si>
+  <si>
+    <t>搭空中楼阁，无根据的设想。</t>
+  </si>
+  <si>
+    <t xml:space="preserve">泡在水里还累出一身汗，夸张形容费尽口舌。
+</t>
+  </si>
+  <si>
+    <t>还有的是时间，不必着急。</t>
+  </si>
+  <si>
+    <t>无益的消耗。</t>
+  </si>
+  <si>
+    <t>冒杀头之险。</t>
+  </si>
+  <si>
+    <t>挑动别人干蠢事。</t>
+  </si>
+  <si>
+    <t>因噎废食。</t>
+  </si>
+  <si>
+    <t xml:space="preserve">替别人花钱。
+陳】鞭炮声响众人听，花钱买鞭炮无非是图自己燃放的乐 趣。
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">瞎忙半天，却去失了最重要的东西。
+</t>
+  </si>
+  <si>
+    <t>因没听清楚，产生了误会。</t>
+  </si>
+  <si>
+    <t>美中不足。</t>
+  </si>
+  <si>
+    <t>赶前不赶后。</t>
+  </si>
+  <si>
+    <t xml:space="preserve">走走停停，随其自然，没有时间观念。
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">家境贫穷，衣裳褴褛，但对吃喝却挺讲究。
+</t>
+  </si>
+  <si>
+    <t>不着边际的胡侃。</t>
+  </si>
+  <si>
+    <t>吃力不讨好的事情。</t>
+  </si>
+  <si>
+    <t>穷人的可怜家当。</t>
+  </si>
+  <si>
+    <t>亲友往来中只收礼、不送礼的人。</t>
+  </si>
+  <si>
+    <t>自己坐着不动，支使别人做这做那。</t>
+  </si>
+  <si>
+    <t>谁也不比谁强。</t>
+  </si>
+  <si>
+    <t>脏话不离口。</t>
+  </si>
+  <si>
+    <t>能言善辩而别无他长的人物。</t>
+  </si>
+  <si>
+    <t>善于交际，与人一见面就熟的人。</t>
+  </si>
+  <si>
+    <t>自讨没趣。</t>
+  </si>
+  <si>
+    <t>见别人打架要赶紧躲开，免得被误伤。这反映了小市民 胆小怕事，明哲保身的处世态度。</t>
+  </si>
+  <si>
+    <t>在官老爷的鞍前马后跑的家伙，往往仗势欺人。</t>
+  </si>
+  <si>
+    <t>一窍不通。</t>
+  </si>
+  <si>
+    <t>有备无患。</t>
+  </si>
+  <si>
+    <t>①食蜀腹：吃了一肚子。②固吼：还，还在。③畏羞: 怕羞。④须：触须；与“羞”字白读音相同。</t>
   </si>
 </sst>
 </file>
@@ -6291,18 +6318,18 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:G518"/>
+  <dimension ref="A1:G520"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A302" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="A307" sqref="A307"/>
+    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A508" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="C513" sqref="C513"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="23.25" customHeight="1" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="53" style="1" customWidth="1"/>
-    <col min="2" max="2" width="32.85546875" style="1" hidden="1" customWidth="1"/>
-    <col min="3" max="4" width="16.5703125" style="1" hidden="1" customWidth="1"/>
+    <col min="2" max="2" width="32.85546875" style="1" customWidth="1"/>
+    <col min="3" max="4" width="16.5703125" style="1" customWidth="1"/>
     <col min="5" max="5" width="37" customWidth="1"/>
     <col min="6" max="6" width="9.140625" customWidth="1"/>
     <col min="7" max="7" width="12.42578125" customWidth="1"/>
@@ -6319,7 +6346,7 @@
         <v>151</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>1647</v>
+        <v>1515</v>
       </c>
       <c r="E1" t="s">
         <v>219</v>
@@ -8517,7 +8544,7 @@
         <v>564</v>
       </c>
       <c r="B130" s="3" t="s">
-        <v>1699</v>
+        <v>1567</v>
       </c>
       <c r="E130" t="s">
         <v>350</v>
@@ -8534,7 +8561,7 @@
         <v>565</v>
       </c>
       <c r="B131" s="3" t="s">
-        <v>1749</v>
+        <v>1617</v>
       </c>
       <c r="E131" t="s">
         <v>351</v>
@@ -8653,7 +8680,7 @@
         <v>572</v>
       </c>
       <c r="B138" s="3" t="s">
-        <v>1750</v>
+        <v>1618</v>
       </c>
       <c r="E138" t="s">
         <v>357</v>
@@ -8786,10 +8813,10 @@
     </row>
     <row r="146" spans="1:7" ht="23.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A146" s="1" t="s">
-        <v>958</v>
+        <v>956</v>
       </c>
       <c r="B146" s="3" t="s">
-        <v>959</v>
+        <v>957</v>
       </c>
       <c r="E146" t="s">
         <v>365</v>
@@ -8925,7 +8952,7 @@
         <v>610</v>
       </c>
       <c r="B154" s="1" t="s">
-        <v>1751</v>
+        <v>1619</v>
       </c>
       <c r="E154" t="s">
         <v>373</v>
@@ -9027,7 +9054,7 @@
         <v>621</v>
       </c>
       <c r="B160" s="3" t="s">
-        <v>1752</v>
+        <v>1620</v>
       </c>
       <c r="E160" t="s">
         <v>379</v>
@@ -9061,7 +9088,7 @@
         <v>624</v>
       </c>
       <c r="B162" s="3" t="s">
-        <v>1753</v>
+        <v>1621</v>
       </c>
       <c r="E162" t="s">
         <v>381</v>
@@ -9163,7 +9190,7 @@
         <v>635</v>
       </c>
       <c r="B168" s="3" t="s">
-        <v>960</v>
+        <v>958</v>
       </c>
       <c r="E168" t="s">
         <v>387</v>
@@ -9217,7 +9244,7 @@
         <v>642</v>
       </c>
       <c r="B171" s="3" t="s">
-        <v>1734</v>
+        <v>1602</v>
       </c>
       <c r="C171" s="1" t="s">
         <v>639</v>
@@ -9338,7 +9365,7 @@
         <v>396</v>
       </c>
       <c r="G177" t="s">
-        <v>1770</v>
+        <v>1638</v>
       </c>
     </row>
     <row r="178" spans="1:7" ht="23.25" customHeight="1" x14ac:dyDescent="0.3">
@@ -9356,7 +9383,7 @@
         <v>397</v>
       </c>
       <c r="G178" t="s">
-        <v>1770</v>
+        <v>1638</v>
       </c>
     </row>
     <row r="179" spans="1:7" ht="23.25" customHeight="1" x14ac:dyDescent="0.3">
@@ -9370,7 +9397,7 @@
         <v>398</v>
       </c>
       <c r="G179" t="s">
-        <v>1770</v>
+        <v>1638</v>
       </c>
     </row>
     <row r="180" spans="1:7" ht="23.25" customHeight="1" x14ac:dyDescent="0.3">
@@ -9387,7 +9414,7 @@
         <v>399</v>
       </c>
       <c r="G180" t="s">
-        <v>1770</v>
+        <v>1638</v>
       </c>
     </row>
     <row r="181" spans="1:7" ht="23.25" customHeight="1" x14ac:dyDescent="0.3">
@@ -9405,15 +9432,15 @@
         <v>400</v>
       </c>
       <c r="G181" t="s">
-        <v>1770</v>
+        <v>1638</v>
       </c>
     </row>
     <row r="182" spans="1:7" ht="23.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A182" s="1" t="s">
-        <v>961</v>
+        <v>959</v>
       </c>
       <c r="B182" s="1" t="s">
-        <v>962</v>
+        <v>960</v>
       </c>
       <c r="C182" s="1" t="s">
         <v>669</v>
@@ -9422,7 +9449,7 @@
         <v>401</v>
       </c>
       <c r="G182" t="s">
-        <v>1770</v>
+        <v>1638</v>
       </c>
     </row>
     <row r="183" spans="1:7" ht="23.25" customHeight="1" x14ac:dyDescent="0.3">
@@ -9437,7 +9464,7 @@
         <v>402</v>
       </c>
       <c r="G183" t="s">
-        <v>1770</v>
+        <v>1638</v>
       </c>
     </row>
     <row r="184" spans="1:7" ht="23.25" customHeight="1" x14ac:dyDescent="0.3">
@@ -9454,7 +9481,7 @@
         <v>403</v>
       </c>
       <c r="G184" t="s">
-        <v>1770</v>
+        <v>1638</v>
       </c>
     </row>
     <row r="185" spans="1:7" ht="23.25" customHeight="1" x14ac:dyDescent="0.3">
@@ -9469,7 +9496,7 @@
         <v>404</v>
       </c>
       <c r="G185" t="s">
-        <v>1770</v>
+        <v>1638</v>
       </c>
     </row>
     <row r="186" spans="1:7" ht="23.25" customHeight="1" x14ac:dyDescent="0.3">
@@ -9486,7 +9513,7 @@
         <v>405</v>
       </c>
       <c r="G186" t="s">
-        <v>1770</v>
+        <v>1638</v>
       </c>
     </row>
     <row r="187" spans="1:7" ht="23.25" customHeight="1" x14ac:dyDescent="0.3">
@@ -9503,7 +9530,7 @@
         <v>406</v>
       </c>
       <c r="G187" t="s">
-        <v>1770</v>
+        <v>1638</v>
       </c>
     </row>
     <row r="188" spans="1:7" ht="23.25" customHeight="1" x14ac:dyDescent="0.3">
@@ -9520,7 +9547,7 @@
         <v>407</v>
       </c>
       <c r="G188" t="s">
-        <v>1770</v>
+        <v>1638</v>
       </c>
     </row>
     <row r="189" spans="1:7" ht="23.25" customHeight="1" x14ac:dyDescent="0.3">
@@ -9528,7 +9555,7 @@
         <v>688</v>
       </c>
       <c r="B189" s="1" t="s">
-        <v>1754</v>
+        <v>1622</v>
       </c>
       <c r="C189" s="1" t="s">
         <v>686</v>
@@ -9537,7 +9564,7 @@
         <v>408</v>
       </c>
       <c r="G189" t="s">
-        <v>1770</v>
+        <v>1638</v>
       </c>
     </row>
     <row r="190" spans="1:7" ht="23.25" customHeight="1" x14ac:dyDescent="0.3">
@@ -9554,7 +9581,7 @@
         <v>409</v>
       </c>
       <c r="G190" t="s">
-        <v>1770</v>
+        <v>1638</v>
       </c>
     </row>
     <row r="191" spans="1:7" ht="23.25" customHeight="1" x14ac:dyDescent="0.3">
@@ -9568,7 +9595,7 @@
         <v>410</v>
       </c>
       <c r="G191" t="s">
-        <v>1770</v>
+        <v>1638</v>
       </c>
     </row>
     <row r="192" spans="1:7" ht="23.25" customHeight="1" x14ac:dyDescent="0.3">
@@ -9699,10 +9726,10 @@
     </row>
     <row r="200" spans="1:7" ht="23.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A200" s="1" t="s">
-        <v>963</v>
+        <v>961</v>
       </c>
       <c r="B200" s="1" t="s">
-        <v>964</v>
+        <v>962</v>
       </c>
       <c r="C200" s="1" t="s">
         <v>716</v>
@@ -9838,7 +9865,7 @@
     </row>
     <row r="209" spans="1:7" ht="23.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A209" s="1" t="s">
-        <v>1826</v>
+        <v>1682</v>
       </c>
       <c r="B209" s="3" t="s">
         <v>736</v>
@@ -9884,10 +9911,10 @@
     </row>
     <row r="212" spans="1:7" ht="23.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A212" s="1" t="s">
-        <v>965</v>
+        <v>963</v>
       </c>
       <c r="B212" s="1" t="s">
-        <v>966</v>
+        <v>964</v>
       </c>
       <c r="C212" s="1" t="s">
         <v>742</v>
@@ -9936,7 +9963,7 @@
     </row>
     <row r="215" spans="1:7" ht="23.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A215" s="1" t="s">
-        <v>1736</v>
+        <v>1604</v>
       </c>
       <c r="B215" s="1" t="s">
         <v>750</v>
@@ -9953,7 +9980,7 @@
         <v>752</v>
       </c>
       <c r="B216" s="3" t="s">
-        <v>1755</v>
+        <v>1623</v>
       </c>
       <c r="C216" s="3" t="s">
         <v>751</v>
@@ -10139,7 +10166,7 @@
         <v>780</v>
       </c>
       <c r="B227" s="1" t="s">
-        <v>1756</v>
+        <v>1624</v>
       </c>
       <c r="C227" s="3" t="s">
         <v>783</v>
@@ -10392,7 +10419,7 @@
         <v>823</v>
       </c>
       <c r="C242" s="1" t="s">
-        <v>824</v>
+        <v>1833</v>
       </c>
       <c r="E242" t="s">
         <v>461</v>
@@ -10403,13 +10430,13 @@
     </row>
     <row r="243" spans="1:7" ht="23.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A243" s="1" t="s">
+        <v>824</v>
+      </c>
+      <c r="B243" s="3" t="s">
         <v>825</v>
       </c>
-      <c r="B243" s="3" t="s">
+      <c r="C243" s="1" t="s">
         <v>826</v>
-      </c>
-      <c r="C243" s="1" t="s">
-        <v>827</v>
       </c>
       <c r="E243" t="s">
         <v>462</v>
@@ -10420,13 +10447,13 @@
     </row>
     <row r="244" spans="1:7" ht="23.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A244" s="1" t="s">
+        <v>827</v>
+      </c>
+      <c r="B244" s="1" t="s">
         <v>828</v>
       </c>
-      <c r="B244" s="1" t="s">
+      <c r="C244" s="3" t="s">
         <v>829</v>
-      </c>
-      <c r="C244" s="3" t="s">
-        <v>830</v>
       </c>
       <c r="D244" s="3"/>
       <c r="E244" t="s">
@@ -10438,13 +10465,13 @@
     </row>
     <row r="245" spans="1:7" ht="23.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A245" s="1" t="s">
+        <v>830</v>
+      </c>
+      <c r="B245" s="1" t="s">
         <v>831</v>
       </c>
-      <c r="B245" s="1" t="s">
+      <c r="C245" s="1" t="s">
         <v>832</v>
-      </c>
-      <c r="C245" s="1" t="s">
-        <v>833</v>
       </c>
       <c r="E245" t="s">
         <v>464</v>
@@ -10455,10 +10482,10 @@
     </row>
     <row r="246" spans="1:7" ht="23.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A246" s="1" t="s">
-        <v>834</v>
+        <v>833</v>
       </c>
       <c r="B246" s="1" t="s">
-        <v>1737</v>
+        <v>1605</v>
       </c>
       <c r="E246" t="s">
         <v>465</v>
@@ -10469,4596 +10496,4626 @@
     </row>
     <row r="247" spans="1:7" ht="23.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A247" s="1" t="s">
+        <v>835</v>
+      </c>
+      <c r="B247" s="1" t="s">
         <v>836</v>
       </c>
-      <c r="B247" s="1" t="s">
-        <v>837</v>
-      </c>
       <c r="C247" s="1" t="s">
-        <v>838</v>
+        <v>1834</v>
       </c>
       <c r="E247" t="s">
         <v>466</v>
       </c>
       <c r="G247" t="s">
-        <v>835</v>
+        <v>834</v>
       </c>
     </row>
     <row r="248" spans="1:7" ht="23.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A248" s="1" t="s">
-        <v>839</v>
+        <v>837</v>
       </c>
       <c r="C248" s="1" t="s">
-        <v>840</v>
+        <v>838</v>
       </c>
       <c r="E248" t="s">
         <v>467</v>
       </c>
       <c r="G248" t="s">
-        <v>835</v>
+        <v>834</v>
       </c>
     </row>
     <row r="249" spans="1:7" ht="23.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A249" s="1" t="s">
+        <v>839</v>
+      </c>
+      <c r="B249" s="3" t="s">
         <v>841</v>
       </c>
-      <c r="B249" s="3" t="s">
-        <v>843</v>
-      </c>
       <c r="C249" s="1" t="s">
-        <v>842</v>
+        <v>840</v>
       </c>
       <c r="E249" t="s">
         <v>468</v>
       </c>
       <c r="G249" t="s">
-        <v>835</v>
+        <v>834</v>
       </c>
     </row>
     <row r="250" spans="1:7" ht="23.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A250" s="1" t="s">
-        <v>844</v>
+        <v>842</v>
       </c>
       <c r="B250" s="3" t="s">
-        <v>845</v>
+        <v>843</v>
       </c>
       <c r="E250" t="s">
         <v>469</v>
       </c>
       <c r="G250" t="s">
-        <v>835</v>
+        <v>834</v>
       </c>
     </row>
     <row r="251" spans="1:7" ht="23.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A251" s="3" t="s">
-        <v>847</v>
+        <v>845</v>
       </c>
       <c r="B251" s="1" t="s">
+        <v>844</v>
+      </c>
+      <c r="C251" s="1" t="s">
         <v>846</v>
-      </c>
-      <c r="C251" s="1" t="s">
-        <v>848</v>
       </c>
       <c r="E251" t="s">
         <v>470</v>
       </c>
       <c r="G251" t="s">
-        <v>835</v>
+        <v>834</v>
       </c>
     </row>
     <row r="252" spans="1:7" ht="23.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A252" s="1" t="s">
-        <v>967</v>
+        <v>965</v>
       </c>
       <c r="B252" s="1" t="s">
-        <v>968</v>
+        <v>966</v>
       </c>
       <c r="E252" t="s">
         <v>471</v>
       </c>
       <c r="G252" t="s">
-        <v>835</v>
+        <v>834</v>
       </c>
     </row>
     <row r="253" spans="1:7" ht="23.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A253" s="1" t="s">
-        <v>858</v>
+        <v>856</v>
       </c>
       <c r="B253" s="1" t="s">
-        <v>849</v>
+        <v>847</v>
       </c>
       <c r="C253" s="1" t="s">
-        <v>850</v>
+        <v>848</v>
       </c>
       <c r="E253" t="s">
         <v>472</v>
       </c>
       <c r="G253" t="s">
-        <v>835</v>
+        <v>834</v>
       </c>
     </row>
     <row r="254" spans="1:7" ht="23.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A254" s="1" t="s">
+        <v>849</v>
+      </c>
+      <c r="B254" s="1" t="s">
+        <v>850</v>
+      </c>
+      <c r="C254" s="1" t="s">
         <v>851</v>
-      </c>
-      <c r="B254" s="1" t="s">
-        <v>852</v>
-      </c>
-      <c r="C254" s="1" t="s">
-        <v>853</v>
       </c>
       <c r="E254" t="s">
         <v>473</v>
       </c>
       <c r="G254" t="s">
-        <v>835</v>
+        <v>834</v>
       </c>
     </row>
     <row r="255" spans="1:7" ht="23.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A255" s="1" t="s">
-        <v>854</v>
+        <v>852</v>
       </c>
       <c r="B255" s="1" t="s">
-        <v>855</v>
+        <v>853</v>
       </c>
       <c r="E255" t="s">
         <v>474</v>
       </c>
       <c r="G255" t="s">
-        <v>835</v>
+        <v>834</v>
       </c>
     </row>
     <row r="256" spans="1:7" ht="23.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A256" s="3" t="s">
-        <v>857</v>
+        <v>855</v>
       </c>
       <c r="B256" s="1" t="s">
-        <v>856</v>
+        <v>854</v>
       </c>
       <c r="E256" t="s">
         <v>475</v>
       </c>
       <c r="G256" t="s">
-        <v>835</v>
+        <v>834</v>
       </c>
     </row>
     <row r="257" spans="1:7" ht="23.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A257" s="1" t="s">
+        <v>857</v>
+      </c>
+      <c r="B257" s="3" t="s">
+        <v>858</v>
+      </c>
+      <c r="C257" s="1" t="s">
         <v>859</v>
-      </c>
-      <c r="B257" s="3" t="s">
-        <v>860</v>
-      </c>
-      <c r="C257" s="1" t="s">
-        <v>861</v>
       </c>
       <c r="E257" t="s">
         <v>476</v>
       </c>
       <c r="G257" t="s">
-        <v>835</v>
+        <v>834</v>
       </c>
     </row>
     <row r="258" spans="1:7" ht="23.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A258" s="1" t="s">
-        <v>862</v>
+        <v>860</v>
       </c>
       <c r="B258" s="1" t="s">
-        <v>1738</v>
+        <v>1606</v>
       </c>
       <c r="C258" s="1" t="s">
-        <v>863</v>
+        <v>861</v>
       </c>
       <c r="E258" t="s">
         <v>477</v>
       </c>
       <c r="G258" t="s">
-        <v>835</v>
+        <v>834</v>
       </c>
     </row>
     <row r="259" spans="1:7" ht="23.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A259" s="1" t="s">
-        <v>1757</v>
+        <v>1625</v>
       </c>
       <c r="B259" s="3" t="s">
-        <v>1758</v>
+        <v>1626</v>
       </c>
       <c r="E259" t="s">
         <v>478</v>
       </c>
       <c r="G259" t="s">
-        <v>835</v>
+        <v>834</v>
       </c>
     </row>
     <row r="260" spans="1:7" ht="23.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A260" s="3" t="s">
-        <v>864</v>
+        <v>862</v>
       </c>
       <c r="B260" s="3" t="s">
-        <v>865</v>
+        <v>863</v>
       </c>
       <c r="E260" t="s">
         <v>479</v>
       </c>
       <c r="G260" t="s">
-        <v>835</v>
+        <v>834</v>
       </c>
     </row>
     <row r="261" spans="1:7" ht="23.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A261" s="1" t="s">
+        <v>864</v>
+      </c>
+      <c r="B261" s="3" t="s">
+        <v>865</v>
+      </c>
+      <c r="C261" s="1" t="s">
         <v>866</v>
-      </c>
-      <c r="B261" s="3" t="s">
-        <v>867</v>
-      </c>
-      <c r="C261" s="1" t="s">
-        <v>868</v>
       </c>
       <c r="E261" t="s">
         <v>480</v>
       </c>
       <c r="G261" t="s">
-        <v>835</v>
+        <v>834</v>
       </c>
     </row>
     <row r="262" spans="1:7" ht="23.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A262" s="1" t="s">
+        <v>867</v>
+      </c>
+      <c r="B262" s="3" t="s">
+        <v>868</v>
+      </c>
+      <c r="C262" s="1" t="s">
         <v>869</v>
-      </c>
-      <c r="B262" s="3" t="s">
-        <v>870</v>
-      </c>
-      <c r="C262" s="1" t="s">
-        <v>871</v>
       </c>
       <c r="E262" t="s">
         <v>481</v>
       </c>
       <c r="G262" t="s">
-        <v>835</v>
+        <v>834</v>
       </c>
     </row>
     <row r="263" spans="1:7" ht="23.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A263" s="1" t="s">
+        <v>870</v>
+      </c>
+      <c r="B263" s="3" t="s">
+        <v>871</v>
+      </c>
+      <c r="C263" s="1" t="s">
         <v>872</v>
-      </c>
-      <c r="B263" s="3" t="s">
-        <v>873</v>
-      </c>
-      <c r="C263" s="1" t="s">
-        <v>874</v>
       </c>
       <c r="E263" t="s">
         <v>482</v>
       </c>
       <c r="G263" t="s">
-        <v>835</v>
+        <v>834</v>
       </c>
     </row>
     <row r="264" spans="1:7" ht="23.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A264" s="1" t="s">
+        <v>873</v>
+      </c>
+      <c r="B264" s="1" t="s">
+        <v>874</v>
+      </c>
+      <c r="C264" s="3" t="s">
         <v>875</v>
-      </c>
-      <c r="B264" s="1" t="s">
-        <v>876</v>
-      </c>
-      <c r="C264" s="3" t="s">
-        <v>877</v>
       </c>
       <c r="D264" s="3"/>
       <c r="E264" t="s">
         <v>483</v>
       </c>
       <c r="G264" t="s">
-        <v>835</v>
+        <v>834</v>
       </c>
     </row>
     <row r="265" spans="1:7" ht="23.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A265" s="1" t="s">
-        <v>878</v>
+        <v>876</v>
       </c>
       <c r="B265" s="1" t="s">
-        <v>879</v>
+        <v>877</v>
       </c>
       <c r="E265" t="s">
         <v>484</v>
       </c>
       <c r="G265" t="s">
-        <v>835</v>
+        <v>834</v>
       </c>
     </row>
     <row r="266" spans="1:7" ht="23.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A266" s="1" t="s">
+        <v>878</v>
+      </c>
+      <c r="B266" s="1" t="s">
+        <v>879</v>
+      </c>
+      <c r="C266" s="1" t="s">
         <v>880</v>
-      </c>
-      <c r="B266" s="1" t="s">
-        <v>881</v>
-      </c>
-      <c r="C266" s="1" t="s">
-        <v>882</v>
       </c>
       <c r="E266" t="s">
         <v>485</v>
       </c>
       <c r="G266" t="s">
-        <v>835</v>
+        <v>834</v>
       </c>
     </row>
     <row r="267" spans="1:7" ht="23.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A267" s="1" t="s">
+        <v>881</v>
+      </c>
+      <c r="B267" s="3" t="s">
+        <v>882</v>
+      </c>
+      <c r="C267" s="1" t="s">
         <v>883</v>
-      </c>
-      <c r="B267" s="3" t="s">
-        <v>884</v>
-      </c>
-      <c r="C267" s="1" t="s">
-        <v>885</v>
       </c>
       <c r="E267" t="s">
         <v>486</v>
       </c>
       <c r="G267" t="s">
-        <v>835</v>
+        <v>834</v>
       </c>
     </row>
     <row r="268" spans="1:7" ht="23.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A268" s="1" t="s">
-        <v>887</v>
+        <v>885</v>
       </c>
       <c r="B268" s="1" t="s">
+        <v>884</v>
+      </c>
+      <c r="C268" s="1" t="s">
         <v>886</v>
-      </c>
-      <c r="C268" s="1" t="s">
-        <v>888</v>
       </c>
       <c r="E268" t="s">
         <v>487</v>
       </c>
       <c r="G268" t="s">
-        <v>835</v>
+        <v>834</v>
       </c>
     </row>
     <row r="269" spans="1:7" ht="23.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A269" s="1" t="s">
+        <v>887</v>
+      </c>
+      <c r="B269" s="1" t="s">
+        <v>888</v>
+      </c>
+      <c r="C269" s="1" t="s">
         <v>889</v>
-      </c>
-      <c r="B269" s="1" t="s">
-        <v>890</v>
-      </c>
-      <c r="C269" s="1" t="s">
-        <v>891</v>
       </c>
       <c r="E269" t="s">
         <v>488</v>
       </c>
       <c r="G269" t="s">
-        <v>835</v>
+        <v>834</v>
       </c>
     </row>
     <row r="270" spans="1:7" ht="23.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A270" s="1" t="s">
+        <v>890</v>
+      </c>
+      <c r="B270" s="1" t="s">
+        <v>891</v>
+      </c>
+      <c r="C270" s="3" t="s">
         <v>892</v>
-      </c>
-      <c r="B270" s="1" t="s">
-        <v>893</v>
-      </c>
-      <c r="C270" s="3" t="s">
-        <v>894</v>
       </c>
       <c r="D270" s="3"/>
       <c r="E270" t="s">
         <v>489</v>
       </c>
       <c r="G270" t="s">
-        <v>835</v>
+        <v>834</v>
       </c>
     </row>
     <row r="271" spans="1:7" ht="23.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A271" s="1" t="s">
+        <v>893</v>
+      </c>
+      <c r="B271" s="1" t="s">
+        <v>894</v>
+      </c>
+      <c r="C271" s="3" t="s">
         <v>895</v>
-      </c>
-      <c r="B271" s="1" t="s">
-        <v>896</v>
-      </c>
-      <c r="C271" s="3" t="s">
-        <v>897</v>
       </c>
       <c r="D271" s="3"/>
       <c r="E271" t="s">
         <v>490</v>
       </c>
       <c r="G271" t="s">
-        <v>835</v>
+        <v>834</v>
       </c>
     </row>
     <row r="272" spans="1:7" ht="23.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A272" s="1" t="s">
+        <v>896</v>
+      </c>
+      <c r="B272" s="1" t="s">
+        <v>897</v>
+      </c>
+      <c r="C272" s="1" t="s">
         <v>898</v>
-      </c>
-      <c r="B272" s="1" t="s">
-        <v>899</v>
-      </c>
-      <c r="C272" s="1" t="s">
-        <v>900</v>
       </c>
       <c r="E272" t="s">
         <v>491</v>
       </c>
       <c r="G272" t="s">
-        <v>835</v>
+        <v>834</v>
       </c>
     </row>
     <row r="273" spans="1:7" ht="23.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A273" s="1" t="s">
+        <v>900</v>
+      </c>
+      <c r="B273" s="3" t="s">
+        <v>901</v>
+      </c>
+      <c r="C273" s="3" t="s">
         <v>902</v>
-      </c>
-      <c r="B273" s="3" t="s">
-        <v>903</v>
-      </c>
-      <c r="C273" s="3" t="s">
-        <v>904</v>
       </c>
       <c r="D273" s="3"/>
       <c r="E273" t="s">
         <v>492</v>
       </c>
       <c r="G273" t="s">
-        <v>901</v>
+        <v>899</v>
       </c>
     </row>
     <row r="274" spans="1:7" ht="23.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A274" s="1" t="s">
-        <v>905</v>
+        <v>903</v>
       </c>
       <c r="B274" s="3" t="s">
-        <v>1759</v>
+        <v>1627</v>
       </c>
       <c r="C274" s="1" t="s">
-        <v>906</v>
+        <v>904</v>
       </c>
       <c r="E274" t="s">
         <v>493</v>
       </c>
       <c r="G274" t="s">
-        <v>901</v>
+        <v>899</v>
       </c>
     </row>
     <row r="275" spans="1:7" ht="23.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A275" s="1" t="s">
-        <v>907</v>
+        <v>905</v>
       </c>
       <c r="B275" s="1" t="s">
-        <v>908</v>
+        <v>906</v>
       </c>
       <c r="E275" t="s">
         <v>494</v>
       </c>
       <c r="G275" t="s">
-        <v>901</v>
+        <v>899</v>
       </c>
     </row>
     <row r="276" spans="1:7" ht="23.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A276" s="1" t="s">
+        <v>907</v>
+      </c>
+      <c r="B276" s="1" t="s">
+        <v>908</v>
+      </c>
+      <c r="C276" s="1" t="s">
         <v>909</v>
-      </c>
-      <c r="B276" s="1" t="s">
-        <v>910</v>
-      </c>
-      <c r="C276" s="1" t="s">
-        <v>911</v>
       </c>
       <c r="E276" t="s">
         <v>495</v>
       </c>
       <c r="G276" t="s">
-        <v>901</v>
+        <v>899</v>
       </c>
     </row>
     <row r="277" spans="1:7" ht="23.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A277" s="1" t="s">
+        <v>910</v>
+      </c>
+      <c r="B277" s="3" t="s">
+        <v>911</v>
+      </c>
+      <c r="C277" s="1" t="s">
         <v>912</v>
-      </c>
-      <c r="B277" s="3" t="s">
-        <v>913</v>
-      </c>
-      <c r="C277" s="1" t="s">
-        <v>914</v>
       </c>
       <c r="E277" t="s">
         <v>496</v>
       </c>
       <c r="G277" t="s">
-        <v>901</v>
+        <v>899</v>
       </c>
     </row>
     <row r="278" spans="1:7" ht="23.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A278" s="1" t="s">
+        <v>913</v>
+      </c>
+      <c r="B278" s="1" t="s">
+        <v>914</v>
+      </c>
+      <c r="C278" s="1" t="s">
         <v>915</v>
-      </c>
-      <c r="B278" s="1" t="s">
-        <v>916</v>
-      </c>
-      <c r="C278" s="1" t="s">
-        <v>917</v>
       </c>
       <c r="E278" t="s">
         <v>497</v>
       </c>
       <c r="G278" t="s">
-        <v>901</v>
+        <v>899</v>
       </c>
     </row>
     <row r="279" spans="1:7" ht="23.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A279" s="1" t="s">
+        <v>916</v>
+      </c>
+      <c r="B279" s="3" t="s">
+        <v>917</v>
+      </c>
+      <c r="C279" s="1" t="s">
         <v>918</v>
-      </c>
-      <c r="B279" s="3" t="s">
-        <v>919</v>
-      </c>
-      <c r="C279" s="1" t="s">
-        <v>920</v>
       </c>
       <c r="E279" t="s">
         <v>498</v>
       </c>
       <c r="G279" t="s">
-        <v>901</v>
+        <v>899</v>
       </c>
     </row>
     <row r="280" spans="1:7" ht="23.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A280" s="1" t="s">
-        <v>921</v>
+        <v>919</v>
       </c>
       <c r="B280" s="3" t="s">
-        <v>922</v>
+        <v>920</v>
       </c>
       <c r="E280" t="s">
         <v>499</v>
       </c>
       <c r="G280" t="s">
-        <v>901</v>
+        <v>899</v>
       </c>
     </row>
     <row r="281" spans="1:7" ht="23.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A281" s="1" t="s">
-        <v>924</v>
+        <v>922</v>
       </c>
       <c r="B281" s="1" t="s">
+        <v>921</v>
+      </c>
+      <c r="C281" s="1" t="s">
         <v>923</v>
-      </c>
-      <c r="C281" s="1" t="s">
-        <v>925</v>
       </c>
       <c r="E281" t="s">
         <v>500</v>
       </c>
       <c r="G281" t="s">
-        <v>901</v>
+        <v>899</v>
       </c>
     </row>
     <row r="282" spans="1:7" ht="23.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A282" s="1" t="s">
-        <v>926</v>
+        <v>924</v>
       </c>
       <c r="C282" s="1" t="s">
-        <v>927</v>
+        <v>925</v>
       </c>
       <c r="E282" t="s">
         <v>501</v>
       </c>
       <c r="G282" t="s">
-        <v>901</v>
+        <v>899</v>
       </c>
     </row>
     <row r="283" spans="1:7" ht="23.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A283" s="1" t="s">
-        <v>928</v>
+        <v>926</v>
       </c>
       <c r="B283" s="3" t="s">
-        <v>1739</v>
+        <v>1607</v>
       </c>
       <c r="C283" s="1" t="s">
-        <v>929</v>
+        <v>927</v>
       </c>
       <c r="E283" t="s">
         <v>502</v>
       </c>
       <c r="G283" t="s">
-        <v>901</v>
+        <v>899</v>
       </c>
     </row>
     <row r="284" spans="1:7" ht="23.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A284" s="1" t="s">
+        <v>928</v>
+      </c>
+      <c r="B284" s="1" t="s">
+        <v>929</v>
+      </c>
+      <c r="C284" s="3" t="s">
         <v>930</v>
-      </c>
-      <c r="B284" s="1" t="s">
-        <v>931</v>
-      </c>
-      <c r="C284" s="3" t="s">
-        <v>932</v>
       </c>
       <c r="D284" s="3"/>
       <c r="E284" t="s">
         <v>503</v>
       </c>
       <c r="G284" t="s">
-        <v>901</v>
+        <v>899</v>
       </c>
     </row>
     <row r="285" spans="1:7" ht="23.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A285" s="1" t="s">
+        <v>931</v>
+      </c>
+      <c r="B285" s="3" t="s">
+        <v>932</v>
+      </c>
+      <c r="C285" s="3" t="s">
         <v>933</v>
-      </c>
-      <c r="B285" s="3" t="s">
-        <v>934</v>
-      </c>
-      <c r="C285" s="3" t="s">
-        <v>935</v>
       </c>
       <c r="D285" s="3"/>
       <c r="E285" t="s">
         <v>504</v>
       </c>
       <c r="G285" t="s">
-        <v>901</v>
+        <v>899</v>
       </c>
     </row>
     <row r="286" spans="1:7" ht="23.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A286" s="1" t="s">
-        <v>936</v>
+        <v>934</v>
       </c>
       <c r="B286" s="3" t="s">
-        <v>1760</v>
+        <v>1628</v>
       </c>
       <c r="E286" t="s">
         <v>505</v>
       </c>
       <c r="G286" t="s">
-        <v>901</v>
+        <v>899</v>
       </c>
     </row>
     <row r="287" spans="1:7" ht="23.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A287" s="1" t="s">
+        <v>935</v>
+      </c>
+      <c r="B287" s="3" t="s">
+        <v>936</v>
+      </c>
+      <c r="C287" s="1" t="s">
         <v>937</v>
-      </c>
-      <c r="B287" s="3" t="s">
-        <v>938</v>
-      </c>
-      <c r="C287" s="1" t="s">
-        <v>939</v>
       </c>
       <c r="E287" t="s">
         <v>506</v>
       </c>
       <c r="G287" t="s">
-        <v>901</v>
+        <v>899</v>
       </c>
     </row>
     <row r="288" spans="1:7" ht="23.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A288" s="3" t="s">
-        <v>941</v>
+        <v>939</v>
       </c>
       <c r="B288" s="1" t="s">
+        <v>938</v>
+      </c>
+      <c r="C288" s="1" t="s">
         <v>940</v>
-      </c>
-      <c r="C288" s="1" t="s">
-        <v>942</v>
       </c>
       <c r="E288" t="s">
         <v>507</v>
       </c>
       <c r="G288" t="s">
-        <v>901</v>
+        <v>899</v>
       </c>
     </row>
     <row r="289" spans="1:7" ht="23.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A289" s="1" t="s">
-        <v>943</v>
+        <v>941</v>
       </c>
       <c r="B289" s="1" t="s">
-        <v>944</v>
+        <v>942</v>
       </c>
       <c r="E289" s="2" t="s">
         <v>508</v>
       </c>
       <c r="G289" t="s">
-        <v>901</v>
+        <v>899</v>
       </c>
     </row>
     <row r="290" spans="1:7" ht="23.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A290" s="1" t="s">
+        <v>943</v>
+      </c>
+      <c r="B290" s="3" t="s">
+        <v>944</v>
+      </c>
+      <c r="C290" s="3" t="s">
         <v>945</v>
-      </c>
-      <c r="B290" s="3" t="s">
-        <v>946</v>
-      </c>
-      <c r="C290" s="3" t="s">
-        <v>947</v>
       </c>
       <c r="D290" s="3"/>
       <c r="E290" t="s">
         <v>509</v>
       </c>
       <c r="G290" t="s">
-        <v>901</v>
+        <v>899</v>
       </c>
     </row>
     <row r="291" spans="1:7" ht="23.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A291" s="1" t="s">
+        <v>946</v>
+      </c>
+      <c r="B291" s="3" t="s">
+        <v>947</v>
+      </c>
+      <c r="C291" s="1" t="s">
         <v>948</v>
-      </c>
-      <c r="B291" s="3" t="s">
-        <v>949</v>
-      </c>
-      <c r="C291" s="1" t="s">
-        <v>950</v>
       </c>
       <c r="E291" t="s">
         <v>510</v>
       </c>
       <c r="G291" t="s">
-        <v>901</v>
+        <v>899</v>
       </c>
     </row>
     <row r="292" spans="1:7" ht="23.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A292" s="1" t="s">
+        <v>949</v>
+      </c>
+      <c r="B292" s="1" t="s">
+        <v>950</v>
+      </c>
+      <c r="C292" s="3" t="s">
         <v>951</v>
-      </c>
-      <c r="B292" s="1" t="s">
-        <v>952</v>
-      </c>
-      <c r="C292" s="3" t="s">
-        <v>953</v>
       </c>
       <c r="D292" s="3"/>
       <c r="E292" t="s">
         <v>511</v>
       </c>
       <c r="G292" t="s">
-        <v>901</v>
+        <v>899</v>
       </c>
     </row>
     <row r="293" spans="1:7" ht="23.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A293" s="1" t="s">
-        <v>954</v>
+        <v>952</v>
       </c>
       <c r="B293" s="3" t="s">
-        <v>955</v>
+        <v>953</v>
       </c>
       <c r="E293" t="s">
         <v>512</v>
       </c>
       <c r="G293" t="s">
-        <v>901</v>
+        <v>899</v>
       </c>
     </row>
     <row r="294" spans="1:7" ht="23.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A294" s="1" t="s">
-        <v>969</v>
+        <v>967</v>
       </c>
       <c r="B294" s="1" t="s">
-        <v>970</v>
+        <v>968</v>
       </c>
       <c r="C294" s="1" t="s">
-        <v>957</v>
+        <v>955</v>
       </c>
       <c r="E294" t="s">
         <v>513</v>
       </c>
       <c r="G294" t="s">
-        <v>901</v>
+        <v>899</v>
       </c>
     </row>
     <row r="295" spans="1:7" ht="23.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A295" s="1" t="s">
-        <v>956</v>
+        <v>954</v>
       </c>
       <c r="B295" s="1" t="s">
-        <v>971</v>
+        <v>969</v>
       </c>
       <c r="E295" t="s">
         <v>514</v>
       </c>
       <c r="G295" t="s">
-        <v>901</v>
+        <v>899</v>
       </c>
     </row>
     <row r="296" spans="1:7" ht="23.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A296" s="1" t="s">
+        <v>970</v>
+      </c>
+      <c r="B296" s="1" t="s">
+        <v>971</v>
+      </c>
+      <c r="C296" s="3" t="s">
         <v>972</v>
-      </c>
-      <c r="B296" s="1" t="s">
-        <v>973</v>
-      </c>
-      <c r="C296" s="3" t="s">
-        <v>974</v>
       </c>
       <c r="D296" s="3"/>
       <c r="E296" t="s">
         <v>515</v>
       </c>
       <c r="G296" t="s">
-        <v>901</v>
+        <v>899</v>
       </c>
     </row>
     <row r="297" spans="1:7" ht="23.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A297" s="1" t="s">
-        <v>975</v>
+        <v>973</v>
       </c>
       <c r="B297" s="3" t="s">
-        <v>976</v>
+        <v>974</v>
       </c>
       <c r="E297" t="s">
         <v>516</v>
       </c>
       <c r="G297" t="s">
-        <v>901</v>
+        <v>899</v>
       </c>
     </row>
     <row r="298" spans="1:7" ht="23.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A298" s="1" t="s">
+        <v>975</v>
+      </c>
+      <c r="B298" s="3" t="s">
+        <v>976</v>
+      </c>
+      <c r="C298" s="3" t="s">
         <v>977</v>
-      </c>
-      <c r="B298" s="3" t="s">
-        <v>978</v>
-      </c>
-      <c r="C298" s="3" t="s">
-        <v>979</v>
       </c>
       <c r="D298" s="3"/>
       <c r="E298" t="s">
         <v>517</v>
       </c>
       <c r="G298" t="s">
-        <v>901</v>
+        <v>899</v>
       </c>
     </row>
     <row r="299" spans="1:7" ht="23.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A299" s="1" t="s">
+        <v>978</v>
+      </c>
+      <c r="B299" s="3" t="s">
+        <v>979</v>
+      </c>
+      <c r="C299" s="3" t="s">
         <v>980</v>
-      </c>
-      <c r="B299" s="3" t="s">
-        <v>981</v>
-      </c>
-      <c r="C299" s="3" t="s">
-        <v>982</v>
       </c>
       <c r="D299" s="3"/>
       <c r="E299" t="s">
         <v>518</v>
       </c>
       <c r="G299" t="s">
-        <v>901</v>
+        <v>899</v>
       </c>
     </row>
     <row r="300" spans="1:7" ht="23.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A300" s="1" t="s">
+        <v>981</v>
+      </c>
+      <c r="B300" s="1" t="s">
+        <v>982</v>
+      </c>
+      <c r="C300" s="3" t="s">
         <v>983</v>
-      </c>
-      <c r="B300" s="1" t="s">
-        <v>984</v>
-      </c>
-      <c r="C300" s="3" t="s">
-        <v>985</v>
       </c>
       <c r="D300" s="3"/>
       <c r="E300" t="s">
         <v>519</v>
       </c>
       <c r="G300" t="s">
-        <v>901</v>
+        <v>899</v>
       </c>
     </row>
     <row r="301" spans="1:7" ht="23.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A301" s="1" t="s">
-        <v>1700</v>
+        <v>1568</v>
       </c>
       <c r="B301" s="3" t="s">
-        <v>1735</v>
+        <v>1603</v>
       </c>
       <c r="C301" s="1" t="s">
-        <v>986</v>
+        <v>984</v>
       </c>
       <c r="E301" t="s">
-        <v>1043</v>
+        <v>1041</v>
       </c>
       <c r="G301" t="s">
-        <v>901</v>
+        <v>899</v>
       </c>
     </row>
     <row r="302" spans="1:7" ht="23.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A302" s="1" t="s">
-        <v>987</v>
+        <v>985</v>
       </c>
       <c r="B302" s="1" t="s">
-        <v>1761</v>
+        <v>1629</v>
       </c>
       <c r="C302" s="1" t="s">
-        <v>988</v>
+        <v>986</v>
       </c>
       <c r="E302" t="s">
-        <v>1044</v>
+        <v>1042</v>
       </c>
       <c r="G302" t="s">
-        <v>901</v>
+        <v>899</v>
       </c>
     </row>
     <row r="303" spans="1:7" ht="23.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A303" s="1" t="s">
-        <v>989</v>
+        <v>987</v>
       </c>
       <c r="B303" s="3" t="s">
-        <v>1762</v>
+        <v>1630</v>
       </c>
       <c r="C303" s="3" t="s">
-        <v>990</v>
+        <v>988</v>
       </c>
       <c r="D303" s="3"/>
       <c r="E303" t="s">
-        <v>1045</v>
+        <v>1043</v>
       </c>
       <c r="G303" t="s">
-        <v>901</v>
+        <v>899</v>
       </c>
     </row>
     <row r="304" spans="1:7" ht="23.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A304" s="1" t="s">
+        <v>989</v>
+      </c>
+      <c r="B304" s="1" t="s">
+        <v>990</v>
+      </c>
+      <c r="C304" s="3" t="s">
         <v>991</v>
-      </c>
-      <c r="B304" s="1" t="s">
-        <v>992</v>
-      </c>
-      <c r="C304" s="3" t="s">
-        <v>993</v>
       </c>
       <c r="D304" s="3"/>
       <c r="E304" t="s">
-        <v>1046</v>
+        <v>1044</v>
       </c>
       <c r="G304" t="s">
-        <v>901</v>
+        <v>899</v>
       </c>
     </row>
     <row r="305" spans="1:7" ht="23.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A305" s="1" t="s">
+        <v>992</v>
+      </c>
+      <c r="B305" s="3" t="s">
+        <v>993</v>
+      </c>
+      <c r="C305" s="1" t="s">
         <v>994</v>
       </c>
-      <c r="B305" s="3" t="s">
-        <v>995</v>
-      </c>
-      <c r="C305" s="1" t="s">
-        <v>996</v>
-      </c>
       <c r="E305" t="s">
-        <v>1047</v>
+        <v>1045</v>
       </c>
       <c r="G305" t="s">
-        <v>901</v>
+        <v>899</v>
       </c>
     </row>
     <row r="306" spans="1:7" ht="23.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A306" s="1" t="s">
-        <v>998</v>
+        <v>996</v>
       </c>
       <c r="B306" s="3" t="s">
-        <v>999</v>
+        <v>997</v>
       </c>
       <c r="E306" t="s">
-        <v>1048</v>
+        <v>1046</v>
       </c>
       <c r="G306" t="s">
-        <v>997</v>
+        <v>995</v>
       </c>
     </row>
     <row r="307" spans="1:7" ht="23.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A307" s="1" t="s">
-        <v>1827</v>
+        <v>1683</v>
       </c>
       <c r="B307" s="1" t="s">
-        <v>1000</v>
+        <v>998</v>
       </c>
       <c r="C307" s="3" t="s">
-        <v>1001</v>
+        <v>999</v>
       </c>
       <c r="D307" s="3"/>
       <c r="E307" t="s">
-        <v>1049</v>
+        <v>1047</v>
       </c>
       <c r="G307" t="s">
-        <v>997</v>
+        <v>995</v>
       </c>
     </row>
     <row r="308" spans="1:7" ht="23.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A308" s="1" t="s">
+        <v>1000</v>
+      </c>
+      <c r="B308" s="1" t="s">
+        <v>1001</v>
+      </c>
+      <c r="C308" s="3" t="s">
         <v>1002</v>
-      </c>
-      <c r="B308" s="1" t="s">
-        <v>1003</v>
-      </c>
-      <c r="C308" s="3" t="s">
-        <v>1004</v>
       </c>
       <c r="D308" s="3"/>
       <c r="E308" t="s">
-        <v>1050</v>
+        <v>1048</v>
       </c>
       <c r="G308" t="s">
-        <v>997</v>
+        <v>995</v>
       </c>
     </row>
     <row r="309" spans="1:7" ht="23.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A309" s="1" t="s">
+        <v>1003</v>
+      </c>
+      <c r="B309" s="3" t="s">
+        <v>1004</v>
+      </c>
+      <c r="C309" s="3" t="s">
         <v>1005</v>
-      </c>
-      <c r="B309" s="3" t="s">
-        <v>1006</v>
-      </c>
-      <c r="C309" s="3" t="s">
-        <v>1007</v>
       </c>
       <c r="D309" s="3"/>
       <c r="E309" t="s">
-        <v>1051</v>
+        <v>1049</v>
       </c>
       <c r="G309" t="s">
-        <v>997</v>
+        <v>995</v>
       </c>
     </row>
     <row r="310" spans="1:7" ht="23.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A310" s="1" t="s">
+        <v>1006</v>
+      </c>
+      <c r="B310" s="1" t="s">
+        <v>1007</v>
+      </c>
+      <c r="C310" s="1" t="s">
         <v>1008</v>
       </c>
-      <c r="B310" s="1" t="s">
-        <v>1009</v>
-      </c>
-      <c r="C310" s="1" t="s">
-        <v>1010</v>
-      </c>
       <c r="E310" t="s">
-        <v>1052</v>
+        <v>1050</v>
       </c>
       <c r="G310" t="s">
-        <v>997</v>
+        <v>995</v>
       </c>
     </row>
     <row r="311" spans="1:7" ht="23.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A311" s="1" t="s">
+        <v>1009</v>
+      </c>
+      <c r="B311" s="1" t="s">
+        <v>1010</v>
+      </c>
+      <c r="C311" s="3" t="s">
         <v>1011</v>
-      </c>
-      <c r="B311" s="1" t="s">
-        <v>1012</v>
-      </c>
-      <c r="C311" s="3" t="s">
-        <v>1013</v>
       </c>
       <c r="D311" s="3"/>
       <c r="E311" t="s">
-        <v>1053</v>
+        <v>1051</v>
       </c>
       <c r="G311" t="s">
-        <v>997</v>
+        <v>995</v>
       </c>
     </row>
     <row r="312" spans="1:7" ht="23.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A312" s="1" t="s">
-        <v>1014</v>
+        <v>1012</v>
       </c>
       <c r="B312" s="1" t="s">
-        <v>1015</v>
+        <v>1013</v>
       </c>
       <c r="E312" t="s">
-        <v>1054</v>
+        <v>1052</v>
       </c>
       <c r="G312" t="s">
-        <v>997</v>
+        <v>995</v>
       </c>
     </row>
     <row r="313" spans="1:7" ht="23.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A313" s="1" t="s">
+        <v>1014</v>
+      </c>
+      <c r="B313" s="1" t="s">
+        <v>1015</v>
+      </c>
+      <c r="C313" s="3" t="s">
         <v>1016</v>
-      </c>
-      <c r="B313" s="1" t="s">
-        <v>1017</v>
-      </c>
-      <c r="C313" s="3" t="s">
-        <v>1018</v>
       </c>
       <c r="D313" s="3"/>
       <c r="E313" t="s">
-        <v>1055</v>
+        <v>1053</v>
       </c>
       <c r="G313" t="s">
-        <v>997</v>
+        <v>995</v>
       </c>
     </row>
     <row r="314" spans="1:7" ht="23.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A314" s="1" t="s">
+        <v>1017</v>
+      </c>
+      <c r="B314" s="3" t="s">
+        <v>1018</v>
+      </c>
+      <c r="C314" s="1" t="s">
         <v>1019</v>
       </c>
-      <c r="B314" s="3" t="s">
-        <v>1020</v>
-      </c>
-      <c r="C314" s="1" t="s">
-        <v>1021</v>
-      </c>
       <c r="E314" t="s">
-        <v>1056</v>
+        <v>1054</v>
       </c>
       <c r="G314" t="s">
-        <v>997</v>
+        <v>995</v>
       </c>
     </row>
     <row r="315" spans="1:7" ht="23.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A315" s="1" t="s">
-        <v>1022</v>
+        <v>1020</v>
       </c>
       <c r="B315" s="1" t="s">
-        <v>1023</v>
+        <v>1021</v>
       </c>
       <c r="E315" t="s">
-        <v>1057</v>
+        <v>1055</v>
       </c>
       <c r="G315" t="s">
-        <v>997</v>
+        <v>995</v>
       </c>
     </row>
     <row r="316" spans="1:7" ht="23.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A316" s="1" t="s">
+        <v>1022</v>
+      </c>
+      <c r="B316" s="3" t="s">
+        <v>1023</v>
+      </c>
+      <c r="C316" s="3" t="s">
         <v>1024</v>
-      </c>
-      <c r="B316" s="3" t="s">
-        <v>1025</v>
-      </c>
-      <c r="C316" s="3" t="s">
-        <v>1026</v>
       </c>
       <c r="D316" s="3"/>
       <c r="E316" t="s">
-        <v>1058</v>
+        <v>1056</v>
       </c>
       <c r="G316" t="s">
-        <v>997</v>
+        <v>995</v>
       </c>
     </row>
     <row r="317" spans="1:7" ht="23.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A317" s="1" t="s">
+        <v>1025</v>
+      </c>
+      <c r="B317" s="3" t="s">
+        <v>1026</v>
+      </c>
+      <c r="C317" s="1" t="s">
         <v>1027</v>
       </c>
-      <c r="B317" s="3" t="s">
-        <v>1028</v>
-      </c>
-      <c r="C317" s="1" t="s">
-        <v>1029</v>
-      </c>
       <c r="E317" t="s">
-        <v>1059</v>
+        <v>1057</v>
       </c>
       <c r="G317" t="s">
-        <v>997</v>
+        <v>995</v>
       </c>
     </row>
     <row r="318" spans="1:7" ht="23.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A318" s="1" t="s">
+        <v>1028</v>
+      </c>
+      <c r="B318" s="3" t="s">
+        <v>1029</v>
+      </c>
+      <c r="C318" s="3" t="s">
         <v>1030</v>
-      </c>
-      <c r="B318" s="3" t="s">
-        <v>1031</v>
-      </c>
-      <c r="C318" s="3" t="s">
-        <v>1032</v>
       </c>
       <c r="D318" s="3"/>
       <c r="E318" t="s">
-        <v>1060</v>
+        <v>1058</v>
       </c>
       <c r="G318" t="s">
-        <v>997</v>
+        <v>995</v>
       </c>
     </row>
     <row r="319" spans="1:7" ht="23.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A319" s="3" t="s">
-        <v>1034</v>
+        <v>1032</v>
       </c>
       <c r="B319" s="3" t="s">
+        <v>1031</v>
+      </c>
+      <c r="C319" s="3" t="s">
         <v>1033</v>
-      </c>
-      <c r="C319" s="3" t="s">
-        <v>1035</v>
       </c>
       <c r="D319" s="3"/>
       <c r="E319" t="s">
-        <v>1061</v>
+        <v>1059</v>
       </c>
       <c r="G319" t="s">
-        <v>997</v>
+        <v>995</v>
       </c>
     </row>
     <row r="320" spans="1:7" ht="23.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A320" s="1" t="s">
-        <v>1701</v>
+        <v>1569</v>
       </c>
       <c r="B320" s="3" t="s">
-        <v>1702</v>
+        <v>1570</v>
       </c>
       <c r="C320" s="3" t="s">
-        <v>1036</v>
+        <v>1034</v>
       </c>
       <c r="D320" s="3"/>
       <c r="E320" t="s">
-        <v>1062</v>
+        <v>1060</v>
       </c>
       <c r="G320" t="s">
-        <v>997</v>
+        <v>995</v>
       </c>
     </row>
     <row r="321" spans="1:7" ht="23.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A321" s="1" t="s">
+        <v>1035</v>
+      </c>
+      <c r="B321" s="3" t="s">
+        <v>1036</v>
+      </c>
+      <c r="C321" s="3" t="s">
         <v>1037</v>
-      </c>
-      <c r="B321" s="3" t="s">
-        <v>1038</v>
-      </c>
-      <c r="C321" s="3" t="s">
-        <v>1039</v>
       </c>
       <c r="D321" s="3"/>
       <c r="E321" t="s">
-        <v>1063</v>
+        <v>1061</v>
       </c>
       <c r="G321" t="s">
-        <v>997</v>
+        <v>995</v>
       </c>
     </row>
     <row r="322" spans="1:7" ht="23.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A322" s="1" t="s">
+        <v>1038</v>
+      </c>
+      <c r="B322" s="3" t="s">
+        <v>1039</v>
+      </c>
+      <c r="C322" s="1" t="s">
         <v>1040</v>
       </c>
-      <c r="B322" s="3" t="s">
-        <v>1041</v>
-      </c>
-      <c r="C322" s="1" t="s">
-        <v>1042</v>
-      </c>
       <c r="E322" t="s">
-        <v>1064</v>
+        <v>1062</v>
       </c>
       <c r="G322" t="s">
-        <v>997</v>
+        <v>995</v>
       </c>
     </row>
     <row r="323" spans="1:7" ht="23.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A323" s="1" t="s">
-        <v>1703</v>
+        <v>1571</v>
       </c>
       <c r="B323" s="1" t="s">
-        <v>1704</v>
+        <v>1572</v>
       </c>
       <c r="C323" s="3" t="s">
-        <v>1243</v>
+        <v>1241</v>
       </c>
       <c r="D323" s="3"/>
       <c r="E323" t="s">
-        <v>1065</v>
+        <v>1063</v>
       </c>
       <c r="G323" t="s">
-        <v>997</v>
+        <v>995</v>
       </c>
     </row>
     <row r="324" spans="1:7" ht="23.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A324" s="1" t="s">
-        <v>1251</v>
+        <v>1249</v>
       </c>
       <c r="B324" s="3" t="s">
-        <v>1244</v>
+        <v>1242</v>
       </c>
       <c r="C324" s="1" t="s">
-        <v>1245</v>
+        <v>1243</v>
       </c>
       <c r="E324" t="s">
-        <v>1066</v>
+        <v>1064</v>
       </c>
       <c r="G324" t="s">
-        <v>997</v>
+        <v>995</v>
       </c>
     </row>
     <row r="325" spans="1:7" ht="23.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A325" s="1" t="s">
-        <v>1250</v>
+        <v>1248</v>
       </c>
       <c r="B325" s="3" t="s">
-        <v>1763</v>
+        <v>1631</v>
       </c>
       <c r="C325" s="1" t="s">
-        <v>1246</v>
+        <v>1244</v>
       </c>
       <c r="E325" t="s">
-        <v>1067</v>
+        <v>1065</v>
       </c>
       <c r="G325" t="s">
-        <v>997</v>
+        <v>995</v>
       </c>
     </row>
     <row r="326" spans="1:7" ht="23.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A326" s="1" t="s">
-        <v>1247</v>
+        <v>1245</v>
       </c>
       <c r="E326" t="s">
-        <v>1068</v>
+        <v>1066</v>
       </c>
       <c r="G326" t="s">
-        <v>997</v>
+        <v>995</v>
       </c>
     </row>
     <row r="327" spans="1:7" ht="23.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A327" s="1" t="s">
-        <v>1248</v>
+        <v>1246</v>
       </c>
       <c r="B327" s="3" t="s">
-        <v>1249</v>
+        <v>1247</v>
       </c>
       <c r="C327" s="3" t="s">
-        <v>1252</v>
+        <v>1250</v>
       </c>
       <c r="D327" s="3"/>
       <c r="E327" t="s">
-        <v>1069</v>
+        <v>1067</v>
       </c>
       <c r="G327" t="s">
-        <v>997</v>
+        <v>995</v>
       </c>
     </row>
     <row r="328" spans="1:7" ht="23.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A328" s="1" t="s">
+        <v>1251</v>
+      </c>
+      <c r="B328" s="3" t="s">
+        <v>1252</v>
+      </c>
+      <c r="C328" s="1" t="s">
         <v>1253</v>
       </c>
-      <c r="B328" s="3" t="s">
-        <v>1254</v>
-      </c>
-      <c r="C328" s="1" t="s">
-        <v>1255</v>
-      </c>
       <c r="E328" t="s">
-        <v>1070</v>
+        <v>1068</v>
       </c>
       <c r="G328" t="s">
-        <v>997</v>
+        <v>995</v>
       </c>
     </row>
     <row r="329" spans="1:7" ht="23.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A329" s="1" t="s">
+        <v>1254</v>
+      </c>
+      <c r="B329" s="1" t="s">
+        <v>1255</v>
+      </c>
+      <c r="C329" s="3" t="s">
         <v>1256</v>
-      </c>
-      <c r="B329" s="1" t="s">
-        <v>1257</v>
-      </c>
-      <c r="C329" s="3" t="s">
-        <v>1258</v>
       </c>
       <c r="D329" s="3"/>
       <c r="E329" t="s">
-        <v>1071</v>
+        <v>1069</v>
       </c>
       <c r="G329" t="s">
-        <v>997</v>
+        <v>995</v>
       </c>
     </row>
     <row r="330" spans="1:7" ht="23.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A330" s="1" t="s">
+        <v>1257</v>
+      </c>
+      <c r="B330" s="1" t="s">
+        <v>1258</v>
+      </c>
+      <c r="C330" s="3" t="s">
         <v>1259</v>
-      </c>
-      <c r="B330" s="1" t="s">
-        <v>1260</v>
-      </c>
-      <c r="C330" s="3" t="s">
-        <v>1261</v>
       </c>
       <c r="D330" s="3"/>
       <c r="E330" t="s">
-        <v>1072</v>
+        <v>1070</v>
       </c>
       <c r="G330" t="s">
-        <v>997</v>
+        <v>995</v>
       </c>
     </row>
     <row r="331" spans="1:7" ht="23.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A331" s="1" t="s">
-        <v>1262</v>
+        <v>1260</v>
       </c>
       <c r="B331" s="1" t="s">
-        <v>1263</v>
+        <v>1261</v>
       </c>
       <c r="E331" t="s">
-        <v>1073</v>
+        <v>1071</v>
       </c>
       <c r="G331" t="s">
-        <v>997</v>
+        <v>995</v>
       </c>
     </row>
     <row r="332" spans="1:7" ht="23.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A332" s="1" t="s">
+        <v>1262</v>
+      </c>
+      <c r="B332" s="3" t="s">
+        <v>1263</v>
+      </c>
+      <c r="C332" s="1" t="s">
         <v>1264</v>
       </c>
-      <c r="B332" s="3" t="s">
-        <v>1265</v>
-      </c>
-      <c r="C332" s="1" t="s">
-        <v>1266</v>
-      </c>
       <c r="E332" t="s">
-        <v>1074</v>
+        <v>1072</v>
       </c>
       <c r="G332" t="s">
-        <v>997</v>
+        <v>995</v>
       </c>
     </row>
     <row r="333" spans="1:7" ht="23.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A333" s="1" t="s">
-        <v>1268</v>
-      </c>
-      <c r="B333" s="1" t="s">
-        <v>1269</v>
-      </c>
-      <c r="C333" s="1" t="s">
-        <v>1270</v>
-      </c>
+        <v>1684</v>
+      </c>
+      <c r="B333" s="3"/>
       <c r="E333" t="s">
-        <v>1075</v>
+        <v>1685</v>
       </c>
       <c r="F333">
-        <v>115</v>
+        <v>101</v>
       </c>
       <c r="G333" t="s">
-        <v>1267</v>
+        <v>1265</v>
       </c>
     </row>
     <row r="334" spans="1:7" ht="23.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A334" s="1" t="s">
-        <v>1271</v>
-      </c>
-      <c r="B334" s="3" t="s">
-        <v>1272</v>
+        <v>1266</v>
+      </c>
+      <c r="B334" s="1" t="s">
+        <v>1267</v>
       </c>
       <c r="C334" s="1" t="s">
-        <v>1273</v>
+        <v>1268</v>
       </c>
       <c r="E334" t="s">
-        <v>1076</v>
+        <v>1073</v>
+      </c>
+      <c r="F334">
+        <v>102</v>
       </c>
       <c r="G334" t="s">
-        <v>1267</v>
+        <v>1265</v>
       </c>
     </row>
     <row r="335" spans="1:7" ht="23.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A335" s="1" t="s">
-        <v>1274</v>
-      </c>
-      <c r="B335" s="1" t="s">
-        <v>1275</v>
-      </c>
-      <c r="C335" s="3" t="s">
-        <v>1276</v>
-      </c>
-      <c r="D335" s="3"/>
+        <v>1269</v>
+      </c>
+      <c r="B335" s="3" t="s">
+        <v>1270</v>
+      </c>
+      <c r="C335" s="1" t="s">
+        <v>1271</v>
+      </c>
       <c r="E335" t="s">
-        <v>1077</v>
+        <v>1074</v>
       </c>
       <c r="G335" t="s">
-        <v>1267</v>
+        <v>1265</v>
       </c>
     </row>
     <row r="336" spans="1:7" ht="23.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A336" s="1" t="s">
-        <v>1277</v>
+        <v>1272</v>
       </c>
       <c r="B336" s="1" t="s">
-        <v>1278</v>
-      </c>
+        <v>1273</v>
+      </c>
+      <c r="C336" s="3" t="s">
+        <v>1274</v>
+      </c>
+      <c r="D336" s="3"/>
       <c r="E336" t="s">
-        <v>1078</v>
+        <v>1075</v>
       </c>
       <c r="G336" t="s">
-        <v>1267</v>
+        <v>1265</v>
       </c>
     </row>
     <row r="337" spans="1:7" ht="23.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A337" s="1" t="s">
-        <v>1279</v>
+        <v>1275</v>
       </c>
       <c r="B337" s="1" t="s">
-        <v>1280</v>
-      </c>
-      <c r="C337" s="1" t="s">
-        <v>1281</v>
+        <v>1276</v>
       </c>
       <c r="E337" t="s">
-        <v>1079</v>
+        <v>1076</v>
       </c>
       <c r="G337" t="s">
-        <v>1267</v>
+        <v>1265</v>
       </c>
     </row>
     <row r="338" spans="1:7" ht="23.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A338" s="1" t="s">
-        <v>1282</v>
-      </c>
-      <c r="C338" s="1" t="s">
-        <v>1283</v>
+        <v>1277</v>
+      </c>
+      <c r="B338" s="1" t="s">
+        <v>1278</v>
+      </c>
+      <c r="D338" s="1" t="s">
+        <v>1700</v>
       </c>
       <c r="E338" t="s">
-        <v>1080</v>
+        <v>1077</v>
       </c>
       <c r="G338" t="s">
-        <v>1267</v>
+        <v>1265</v>
       </c>
     </row>
     <row r="339" spans="1:7" ht="23.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A339" s="1" t="s">
-        <v>1284</v>
-      </c>
-      <c r="B339" s="3" t="s">
-        <v>1740</v>
-      </c>
-      <c r="C339" s="1" t="s">
-        <v>1285</v>
+        <v>1279</v>
+      </c>
+      <c r="D339" s="1" t="s">
+        <v>1701</v>
       </c>
       <c r="E339" t="s">
-        <v>1081</v>
+        <v>1078</v>
       </c>
       <c r="G339" t="s">
-        <v>1267</v>
+        <v>1265</v>
       </c>
     </row>
     <row r="340" spans="1:7" ht="23.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A340" s="1" t="s">
-        <v>1286</v>
-      </c>
-      <c r="B340" s="1" t="s">
-        <v>1287</v>
+        <v>1280</v>
+      </c>
+      <c r="B340" s="3" t="s">
+        <v>1608</v>
+      </c>
+      <c r="D340" s="1" t="s">
+        <v>1702</v>
       </c>
       <c r="E340" t="s">
-        <v>1082</v>
+        <v>1079</v>
       </c>
       <c r="G340" t="s">
-        <v>1267</v>
+        <v>1265</v>
       </c>
     </row>
     <row r="341" spans="1:7" ht="23.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A341" s="1" t="s">
-        <v>1288</v>
-      </c>
-      <c r="B341" s="3" t="s">
-        <v>1289</v>
-      </c>
-      <c r="C341" s="1" t="s">
-        <v>1290</v>
+        <v>1281</v>
+      </c>
+      <c r="B341" s="1" t="s">
+        <v>1282</v>
       </c>
       <c r="E341" t="s">
-        <v>1083</v>
+        <v>1080</v>
       </c>
       <c r="G341" t="s">
-        <v>1267</v>
+        <v>1265</v>
       </c>
     </row>
     <row r="342" spans="1:7" ht="23.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A342" s="1" t="s">
-        <v>1291</v>
-      </c>
-      <c r="B342" s="1" t="s">
-        <v>1292</v>
-      </c>
-      <c r="C342" s="1" t="s">
-        <v>1293</v>
+        <v>1283</v>
+      </c>
+      <c r="B342" s="3" t="s">
+        <v>1284</v>
+      </c>
+      <c r="D342" s="1" t="s">
+        <v>1703</v>
       </c>
       <c r="E342" t="s">
-        <v>1084</v>
+        <v>1081</v>
       </c>
       <c r="G342" t="s">
-        <v>1267</v>
+        <v>1265</v>
       </c>
     </row>
     <row r="343" spans="1:7" ht="23.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A343" s="1" t="s">
-        <v>1705</v>
+        <v>1285</v>
       </c>
       <c r="B343" s="1" t="s">
-        <v>1706</v>
-      </c>
-      <c r="C343" s="1" t="s">
-        <v>1294</v>
+        <v>1286</v>
+      </c>
+      <c r="D343" s="1" t="s">
+        <v>1704</v>
       </c>
       <c r="E343" t="s">
-        <v>1085</v>
+        <v>1082</v>
       </c>
       <c r="G343" t="s">
-        <v>1267</v>
+        <v>1265</v>
       </c>
     </row>
     <row r="344" spans="1:7" ht="23.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A344" s="1" t="s">
-        <v>1295</v>
-      </c>
-      <c r="C344" s="1" t="s">
-        <v>1296</v>
+        <v>1573</v>
+      </c>
+      <c r="B344" s="1" t="s">
+        <v>1574</v>
+      </c>
+      <c r="D344" s="1" t="s">
+        <v>1705</v>
       </c>
       <c r="E344" t="s">
-        <v>1086</v>
+        <v>1083</v>
       </c>
       <c r="G344" t="s">
-        <v>1267</v>
+        <v>1265</v>
       </c>
     </row>
     <row r="345" spans="1:7" ht="23.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A345" s="1" t="s">
-        <v>1297</v>
-      </c>
-      <c r="B345" s="1" t="s">
-        <v>1298</v>
-      </c>
-      <c r="C345" s="1" t="s">
-        <v>1299</v>
+        <v>1287</v>
+      </c>
+      <c r="D345" s="1" t="s">
+        <v>1706</v>
       </c>
       <c r="E345" t="s">
-        <v>1087</v>
+        <v>1084</v>
       </c>
       <c r="G345" t="s">
-        <v>1267</v>
+        <v>1265</v>
       </c>
     </row>
     <row r="346" spans="1:7" ht="23.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A346" s="1" t="s">
-        <v>1300</v>
+        <v>1288</v>
       </c>
       <c r="B346" s="1" t="s">
-        <v>1301</v>
-      </c>
-      <c r="C346" s="1" t="s">
-        <v>1302</v>
+        <v>1289</v>
+      </c>
+      <c r="D346" s="1" t="s">
+        <v>1707</v>
       </c>
       <c r="E346" t="s">
-        <v>1088</v>
+        <v>1085</v>
       </c>
       <c r="G346" t="s">
-        <v>1267</v>
+        <v>1265</v>
       </c>
     </row>
     <row r="347" spans="1:7" ht="23.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A347" s="1" t="s">
-        <v>1303</v>
-      </c>
-      <c r="C347" s="1" t="s">
-        <v>1304</v>
+        <v>1290</v>
+      </c>
+      <c r="B347" s="1" t="s">
+        <v>1291</v>
+      </c>
+      <c r="D347" s="1" t="s">
+        <v>1708</v>
       </c>
       <c r="E347" t="s">
-        <v>1089</v>
+        <v>1086</v>
       </c>
       <c r="G347" t="s">
-        <v>1267</v>
+        <v>1265</v>
       </c>
     </row>
     <row r="348" spans="1:7" ht="23.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A348" s="1" t="s">
-        <v>1305</v>
-      </c>
-      <c r="B348" s="3" t="s">
-        <v>1306</v>
-      </c>
-      <c r="C348" s="1" t="s">
-        <v>1307</v>
+        <v>1292</v>
+      </c>
+      <c r="D348" s="1" t="s">
+        <v>1709</v>
       </c>
       <c r="E348" t="s">
-        <v>1090</v>
+        <v>1087</v>
       </c>
       <c r="G348" t="s">
-        <v>1267</v>
+        <v>1265</v>
       </c>
     </row>
     <row r="349" spans="1:7" ht="23.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A349" s="1" t="s">
-        <v>1308</v>
+        <v>1293</v>
       </c>
       <c r="B349" s="3" t="s">
-        <v>1309</v>
-      </c>
-      <c r="C349" s="1" t="s">
-        <v>1310</v>
+        <v>1294</v>
+      </c>
+      <c r="D349" s="1" t="s">
+        <v>1710</v>
       </c>
       <c r="E349" t="s">
-        <v>1091</v>
+        <v>1088</v>
       </c>
       <c r="G349" t="s">
-        <v>1267</v>
+        <v>1265</v>
       </c>
     </row>
     <row r="350" spans="1:7" ht="23.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A350" s="1" t="s">
-        <v>1311</v>
-      </c>
-      <c r="B350" s="1" t="s">
-        <v>1312</v>
-      </c>
-      <c r="C350" s="1" t="s">
-        <v>1313</v>
+        <v>1295</v>
+      </c>
+      <c r="B350" s="3" t="s">
+        <v>1296</v>
+      </c>
+      <c r="D350" s="1" t="s">
+        <v>1711</v>
       </c>
       <c r="E350" t="s">
-        <v>1092</v>
+        <v>1089</v>
       </c>
       <c r="G350" t="s">
-        <v>1267</v>
+        <v>1265</v>
       </c>
     </row>
     <row r="351" spans="1:7" ht="23.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A351" s="1" t="s">
-        <v>1314</v>
+        <v>1297</v>
       </c>
       <c r="B351" s="1" t="s">
-        <v>1315</v>
-      </c>
-      <c r="C351" s="1" t="s">
-        <v>1316</v>
+        <v>1298</v>
+      </c>
+      <c r="D351" s="1" t="s">
+        <v>1712</v>
       </c>
       <c r="E351" t="s">
-        <v>1093</v>
+        <v>1090</v>
       </c>
       <c r="G351" t="s">
-        <v>1267</v>
+        <v>1265</v>
       </c>
     </row>
     <row r="352" spans="1:7" ht="23.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A352" s="1" t="s">
-        <v>1317</v>
-      </c>
-      <c r="B352" s="3" t="s">
-        <v>1318</v>
-      </c>
-      <c r="C352" s="1" t="s">
-        <v>1319</v>
+        <v>1299</v>
+      </c>
+      <c r="B352" s="1" t="s">
+        <v>1300</v>
+      </c>
+      <c r="D352" s="1" t="s">
+        <v>1713</v>
       </c>
       <c r="E352" t="s">
-        <v>1094</v>
+        <v>1091</v>
       </c>
       <c r="G352" t="s">
-        <v>1267</v>
+        <v>1265</v>
       </c>
     </row>
     <row r="353" spans="1:7" ht="23.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A353" s="1" t="s">
-        <v>1320</v>
-      </c>
-      <c r="B353" s="1" t="s">
-        <v>1321</v>
-      </c>
-      <c r="C353" s="1" t="s">
-        <v>1322</v>
+        <v>1301</v>
+      </c>
+      <c r="B353" s="3" t="s">
+        <v>1302</v>
+      </c>
+      <c r="D353" s="1" t="s">
+        <v>1714</v>
       </c>
       <c r="E353" t="s">
-        <v>1095</v>
+        <v>1092</v>
       </c>
       <c r="G353" t="s">
-        <v>1267</v>
+        <v>1265</v>
       </c>
     </row>
     <row r="354" spans="1:7" ht="23.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A354" s="1" t="s">
-        <v>1323</v>
-      </c>
-      <c r="B354" s="3" t="s">
-        <v>1324</v>
+        <v>1303</v>
+      </c>
+      <c r="B354" s="1" t="s">
+        <v>1304</v>
+      </c>
+      <c r="D354" s="1" t="s">
+        <v>1715</v>
       </c>
       <c r="E354" t="s">
-        <v>1096</v>
+        <v>1093</v>
       </c>
       <c r="G354" t="s">
-        <v>1267</v>
+        <v>1265</v>
       </c>
     </row>
     <row r="355" spans="1:7" ht="23.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A355" s="1" t="s">
-        <v>1707</v>
-      </c>
-      <c r="B355" s="1" t="s">
-        <v>1708</v>
-      </c>
-      <c r="C355" s="3" t="s">
-        <v>1325</v>
-      </c>
-      <c r="D355" s="3"/>
+        <v>1305</v>
+      </c>
+      <c r="B355" s="3" t="s">
+        <v>1306</v>
+      </c>
       <c r="E355" t="s">
-        <v>1097</v>
+        <v>1094</v>
       </c>
       <c r="G355" t="s">
-        <v>1267</v>
+        <v>1265</v>
       </c>
     </row>
     <row r="356" spans="1:7" ht="23.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A356" s="1" t="s">
-        <v>1326</v>
+        <v>1575</v>
       </c>
       <c r="B356" s="1" t="s">
-        <v>1327</v>
-      </c>
-      <c r="C356" s="1" t="s">
-        <v>1328</v>
+        <v>1576</v>
+      </c>
+      <c r="D356" s="3" t="s">
+        <v>1716</v>
       </c>
       <c r="E356" t="s">
-        <v>1098</v>
+        <v>1095</v>
       </c>
       <c r="G356" t="s">
-        <v>1267</v>
+        <v>1265</v>
       </c>
     </row>
     <row r="357" spans="1:7" ht="23.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A357" s="1" t="s">
-        <v>1329</v>
-      </c>
-      <c r="B357" s="3" t="s">
-        <v>1330</v>
-      </c>
-      <c r="C357" s="1" t="s">
-        <v>1331</v>
+        <v>1307</v>
+      </c>
+      <c r="B357" s="1" t="s">
+        <v>1308</v>
+      </c>
+      <c r="D357" s="1" t="s">
+        <v>1717</v>
       </c>
       <c r="E357" t="s">
-        <v>1099</v>
+        <v>1096</v>
       </c>
       <c r="G357" t="s">
-        <v>1267</v>
+        <v>1265</v>
       </c>
     </row>
     <row r="358" spans="1:7" ht="23.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A358" s="1" t="s">
-        <v>1332</v>
+        <v>1309</v>
       </c>
       <c r="B358" s="3" t="s">
-        <v>1333</v>
-      </c>
-      <c r="C358" s="1" t="s">
-        <v>1334</v>
+        <v>1310</v>
+      </c>
+      <c r="D358" s="1" t="s">
+        <v>1718</v>
       </c>
       <c r="E358" t="s">
-        <v>1100</v>
+        <v>1097</v>
       </c>
       <c r="G358" t="s">
-        <v>1267</v>
+        <v>1265</v>
       </c>
     </row>
     <row r="359" spans="1:7" ht="23.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A359" s="1" t="s">
-        <v>1335</v>
-      </c>
-      <c r="B359" s="1" t="s">
-        <v>1337</v>
-      </c>
-      <c r="C359" s="1" t="s">
-        <v>1336</v>
+        <v>1311</v>
+      </c>
+      <c r="B359" s="3" t="s">
+        <v>1312</v>
+      </c>
+      <c r="D359" s="1" t="s">
+        <v>1719</v>
       </c>
       <c r="E359" t="s">
-        <v>1101</v>
+        <v>1098</v>
       </c>
       <c r="G359" t="s">
-        <v>1267</v>
+        <v>1265</v>
       </c>
     </row>
     <row r="360" spans="1:7" ht="23.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A360" s="1" t="s">
-        <v>1338</v>
+        <v>1313</v>
       </c>
       <c r="B360" s="1" t="s">
-        <v>1339</v>
-      </c>
-      <c r="C360" s="1" t="s">
-        <v>1340</v>
+        <v>1314</v>
+      </c>
+      <c r="D360" s="1" t="s">
+        <v>1720</v>
       </c>
       <c r="E360" t="s">
-        <v>1102</v>
+        <v>1099</v>
       </c>
       <c r="G360" t="s">
-        <v>1267</v>
+        <v>1265</v>
       </c>
     </row>
     <row r="361" spans="1:7" ht="23.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A361" s="1" t="s">
-        <v>1341</v>
+        <v>1315</v>
       </c>
       <c r="B361" s="1" t="s">
-        <v>1342</v>
-      </c>
-      <c r="C361" s="1" t="s">
-        <v>1343</v>
+        <v>1316</v>
+      </c>
+      <c r="D361" s="1" t="s">
+        <v>1721</v>
       </c>
       <c r="E361" t="s">
-        <v>1103</v>
+        <v>1100</v>
       </c>
       <c r="G361" t="s">
-        <v>1267</v>
+        <v>1265</v>
       </c>
     </row>
     <row r="362" spans="1:7" ht="23.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A362" s="1" t="s">
-        <v>1353</v>
-      </c>
-      <c r="B362" s="3" t="s">
-        <v>1344</v>
-      </c>
-      <c r="C362" s="1" t="s">
-        <v>1345</v>
+        <v>1317</v>
+      </c>
+      <c r="B362" s="1" t="s">
+        <v>1318</v>
+      </c>
+      <c r="D362" s="1" t="s">
+        <v>1722</v>
       </c>
       <c r="E362" t="s">
-        <v>1104</v>
+        <v>1101</v>
       </c>
       <c r="G362" t="s">
-        <v>1267</v>
+        <v>1265</v>
       </c>
     </row>
     <row r="363" spans="1:7" ht="23.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A363" s="1" t="s">
-        <v>1346</v>
-      </c>
-      <c r="C363" s="1" t="s">
-        <v>1347</v>
+        <v>1324</v>
+      </c>
+      <c r="B363" s="3" t="s">
+        <v>1319</v>
+      </c>
+      <c r="D363" s="1" t="s">
+        <v>1723</v>
       </c>
       <c r="E363" t="s">
-        <v>1105</v>
+        <v>1102</v>
       </c>
       <c r="G363" t="s">
-        <v>1267</v>
+        <v>1265</v>
       </c>
     </row>
     <row r="364" spans="1:7" ht="23.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A364" s="1" t="s">
-        <v>1352</v>
-      </c>
-      <c r="B364" s="3" t="s">
-        <v>1348</v>
-      </c>
-      <c r="C364" s="1" t="s">
-        <v>1349</v>
+        <v>1320</v>
+      </c>
+      <c r="D364" s="1" t="s">
+        <v>1724</v>
       </c>
       <c r="E364" t="s">
-        <v>1106</v>
+        <v>1103</v>
       </c>
       <c r="G364" t="s">
-        <v>1267</v>
+        <v>1265</v>
       </c>
     </row>
     <row r="365" spans="1:7" ht="23.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A365" s="1" t="s">
-        <v>1350</v>
-      </c>
-      <c r="B365" s="1" t="s">
-        <v>1351</v>
-      </c>
-      <c r="C365" s="1" t="s">
-        <v>1354</v>
+        <v>1323</v>
+      </c>
+      <c r="B365" s="3" t="s">
+        <v>1321</v>
+      </c>
+      <c r="D365" s="1" t="s">
+        <v>1725</v>
       </c>
       <c r="E365" t="s">
-        <v>1107</v>
+        <v>1104</v>
       </c>
       <c r="G365" t="s">
-        <v>1267</v>
+        <v>1265</v>
       </c>
     </row>
     <row r="366" spans="1:7" ht="23.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A366" s="1" t="s">
-        <v>1355</v>
+        <v>1322</v>
       </c>
       <c r="B366" s="1" t="s">
-        <v>1356</v>
-      </c>
-      <c r="C366" s="1" t="s">
-        <v>1357</v>
+        <v>1699</v>
+      </c>
+      <c r="D366" s="1" t="s">
+        <v>1726</v>
       </c>
       <c r="E366" t="s">
-        <v>1108</v>
+        <v>1105</v>
       </c>
       <c r="G366" t="s">
-        <v>1267</v>
+        <v>1265</v>
       </c>
     </row>
     <row r="367" spans="1:7" ht="23.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A367" s="1" t="s">
-        <v>1358</v>
+        <v>1325</v>
       </c>
       <c r="B367" s="1" t="s">
-        <v>1359</v>
-      </c>
-      <c r="C367" s="1" t="s">
-        <v>1360</v>
+        <v>1326</v>
+      </c>
+      <c r="D367" s="1" t="s">
+        <v>1727</v>
       </c>
       <c r="E367" t="s">
-        <v>1109</v>
+        <v>1106</v>
       </c>
       <c r="G367" t="s">
-        <v>1267</v>
+        <v>1265</v>
       </c>
     </row>
     <row r="368" spans="1:7" ht="23.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A368" s="1" t="s">
-        <v>1709</v>
+        <v>1327</v>
       </c>
       <c r="B368" s="1" t="s">
-        <v>1710</v>
-      </c>
-      <c r="C368" s="1" t="s">
-        <v>1361</v>
+        <v>1328</v>
+      </c>
+      <c r="D368" s="1" t="s">
+        <v>1728</v>
       </c>
       <c r="E368" t="s">
-        <v>1110</v>
+        <v>1107</v>
       </c>
       <c r="G368" t="s">
-        <v>1267</v>
+        <v>1265</v>
       </c>
     </row>
     <row r="369" spans="1:7" ht="23.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A369" s="1" t="s">
-        <v>1362</v>
+        <v>1577</v>
       </c>
       <c r="B369" s="1" t="s">
-        <v>1363</v>
-      </c>
-      <c r="C369" s="1" t="s">
-        <v>1364</v>
+        <v>1578</v>
+      </c>
+      <c r="D369" s="1" t="s">
+        <v>1729</v>
       </c>
       <c r="E369" t="s">
-        <v>1111</v>
+        <v>1108</v>
       </c>
       <c r="G369" t="s">
-        <v>1267</v>
+        <v>1265</v>
       </c>
     </row>
     <row r="370" spans="1:7" ht="23.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A370" s="1" t="s">
-        <v>1365</v>
+        <v>1329</v>
       </c>
       <c r="B370" s="1" t="s">
-        <v>1366</v>
-      </c>
-      <c r="C370" s="1" t="s">
-        <v>1367</v>
+        <v>1330</v>
+      </c>
+      <c r="D370" s="1" t="s">
+        <v>1730</v>
       </c>
       <c r="E370" t="s">
-        <v>1112</v>
+        <v>1109</v>
       </c>
       <c r="G370" t="s">
-        <v>1267</v>
+        <v>1265</v>
       </c>
     </row>
     <row r="371" spans="1:7" ht="23.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A371" s="1" t="s">
-        <v>1368</v>
+        <v>1331</v>
       </c>
       <c r="B371" s="1" t="s">
-        <v>1369</v>
-      </c>
-      <c r="C371" s="1" t="s">
-        <v>1370</v>
-      </c>
-      <c r="E371" s="2" t="s">
-        <v>1113</v>
+        <v>1332</v>
+      </c>
+      <c r="D371" s="1" t="s">
+        <v>1731</v>
+      </c>
+      <c r="E371" t="s">
+        <v>1110</v>
       </c>
       <c r="G371" t="s">
-        <v>1267</v>
+        <v>1265</v>
       </c>
     </row>
     <row r="372" spans="1:7" ht="23.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A372" s="1" t="s">
-        <v>1371</v>
+        <v>1333</v>
       </c>
       <c r="B372" s="1" t="s">
-        <v>1372</v>
-      </c>
-      <c r="C372" s="1" t="s">
-        <v>1373</v>
-      </c>
-      <c r="E372" t="s">
-        <v>1114</v>
+        <v>1334</v>
+      </c>
+      <c r="D372" s="1" t="s">
+        <v>1732</v>
+      </c>
+      <c r="E372" s="2" t="s">
+        <v>1111</v>
       </c>
       <c r="G372" t="s">
-        <v>1267</v>
+        <v>1265</v>
       </c>
     </row>
     <row r="373" spans="1:7" ht="23.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A373" s="3" t="s">
-        <v>1374</v>
+      <c r="A373" s="1" t="s">
+        <v>1335</v>
       </c>
       <c r="B373" s="1" t="s">
-        <v>1375</v>
-      </c>
-      <c r="C373" s="1" t="s">
-        <v>1376</v>
+        <v>1336</v>
+      </c>
+      <c r="D373" s="1" t="s">
+        <v>1733</v>
       </c>
       <c r="E373" t="s">
-        <v>1115</v>
+        <v>1112</v>
       </c>
       <c r="G373" t="s">
-        <v>1267</v>
+        <v>1265</v>
       </c>
     </row>
     <row r="374" spans="1:7" ht="23.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A374" s="1" t="s">
-        <v>1377</v>
-      </c>
-      <c r="B374" s="3" t="s">
-        <v>1378</v>
-      </c>
-      <c r="C374" s="1" t="s">
-        <v>1379</v>
+      <c r="A374" s="3" t="s">
+        <v>1337</v>
+      </c>
+      <c r="B374" s="1" t="s">
+        <v>1338</v>
+      </c>
+      <c r="D374" s="1" t="s">
+        <v>1734</v>
       </c>
       <c r="E374" t="s">
-        <v>1116</v>
+        <v>1113</v>
       </c>
       <c r="G374" t="s">
-        <v>1267</v>
+        <v>1265</v>
       </c>
     </row>
     <row r="375" spans="1:7" ht="23.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A375" s="1" t="s">
-        <v>1380</v>
-      </c>
-      <c r="B375" s="1" t="s">
-        <v>1381</v>
-      </c>
-      <c r="C375" s="1" t="s">
-        <v>1382</v>
+        <v>1339</v>
+      </c>
+      <c r="B375" s="3" t="s">
+        <v>1340</v>
+      </c>
+      <c r="D375" s="1" t="s">
+        <v>1735</v>
       </c>
       <c r="E375" t="s">
-        <v>1117</v>
+        <v>1114</v>
       </c>
       <c r="G375" t="s">
-        <v>1267</v>
+        <v>1265</v>
       </c>
     </row>
     <row r="376" spans="1:7" ht="23.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A376" s="1" t="s">
-        <v>1383</v>
-      </c>
-      <c r="B376" s="3" t="s">
-        <v>1384</v>
-      </c>
-      <c r="C376" s="1" t="s">
-        <v>1385</v>
+        <v>1341</v>
+      </c>
+      <c r="B376" s="1" t="s">
+        <v>1342</v>
+      </c>
+      <c r="D376" s="1" t="s">
+        <v>1736</v>
       </c>
       <c r="E376" t="s">
-        <v>1118</v>
+        <v>1115</v>
       </c>
       <c r="G376" t="s">
-        <v>1267</v>
+        <v>1265</v>
       </c>
     </row>
     <row r="377" spans="1:7" ht="23.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A377" s="1" t="s">
-        <v>1391</v>
-      </c>
-      <c r="B377" s="1" t="s">
-        <v>1386</v>
-      </c>
-      <c r="C377" s="3" t="s">
-        <v>1387</v>
-      </c>
-      <c r="D377" s="3"/>
+        <v>1343</v>
+      </c>
+      <c r="B377" s="3" t="s">
+        <v>1344</v>
+      </c>
+      <c r="D377" s="1" t="s">
+        <v>1737</v>
+      </c>
       <c r="E377" t="s">
-        <v>1119</v>
+        <v>1116</v>
       </c>
       <c r="G377" t="s">
-        <v>1267</v>
+        <v>1265</v>
       </c>
     </row>
     <row r="378" spans="1:7" ht="23.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A378" s="1" t="s">
-        <v>1388</v>
+        <v>1348</v>
       </c>
       <c r="B378" s="1" t="s">
-        <v>1389</v>
+        <v>1345</v>
       </c>
       <c r="C378" s="1" t="s">
-        <v>1390</v>
+        <v>1698</v>
+      </c>
+      <c r="D378" s="3" t="s">
+        <v>1738</v>
       </c>
       <c r="E378" t="s">
-        <v>1120</v>
+        <v>1117</v>
       </c>
       <c r="G378" t="s">
-        <v>1267</v>
+        <v>1265</v>
       </c>
     </row>
     <row r="379" spans="1:7" ht="23.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A379" s="1" t="s">
-        <v>1392</v>
+        <v>1346</v>
       </c>
       <c r="B379" s="1" t="s">
-        <v>1393</v>
-      </c>
-      <c r="C379" s="3" t="s">
-        <v>1394</v>
-      </c>
-      <c r="D379" s="3"/>
+        <v>1347</v>
+      </c>
+      <c r="D379" s="1" t="s">
+        <v>1739</v>
+      </c>
       <c r="E379" t="s">
-        <v>1121</v>
+        <v>1118</v>
       </c>
       <c r="G379" t="s">
-        <v>1267</v>
+        <v>1265</v>
       </c>
     </row>
     <row r="380" spans="1:7" ht="23.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A380" s="3" t="s">
-        <v>1764</v>
-      </c>
-      <c r="B380" s="3" t="s">
-        <v>1765</v>
-      </c>
-      <c r="C380" s="1" t="s">
-        <v>1395</v>
-      </c>
+      <c r="A380" s="1" t="s">
+        <v>1349</v>
+      </c>
+      <c r="B380" s="1" t="s">
+        <v>1350</v>
+      </c>
+      <c r="C380" s="3" t="s">
+        <v>1351</v>
+      </c>
+      <c r="D380" s="3"/>
       <c r="E380" t="s">
-        <v>1122</v>
+        <v>1119</v>
       </c>
       <c r="G380" t="s">
-        <v>1267</v>
+        <v>1265</v>
       </c>
     </row>
     <row r="381" spans="1:7" ht="23.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A381" s="1" t="s">
-        <v>1396</v>
-      </c>
-      <c r="B381" s="1" t="s">
-        <v>1397</v>
-      </c>
-      <c r="C381" s="1" t="s">
-        <v>1398</v>
+      <c r="A381" s="3" t="s">
+        <v>1632</v>
+      </c>
+      <c r="B381" s="3" t="s">
+        <v>1633</v>
+      </c>
+      <c r="D381" s="1" t="s">
+        <v>1740</v>
       </c>
       <c r="E381" t="s">
-        <v>1123</v>
+        <v>1120</v>
       </c>
       <c r="G381" t="s">
-        <v>1267</v>
+        <v>1265</v>
       </c>
     </row>
     <row r="382" spans="1:7" ht="23.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A382" s="1" t="s">
-        <v>1399</v>
+        <v>1352</v>
       </c>
       <c r="B382" s="1" t="s">
-        <v>1400</v>
-      </c>
-      <c r="C382" s="1" t="s">
-        <v>1401</v>
+        <v>1353</v>
+      </c>
+      <c r="D382" s="1" t="s">
+        <v>1741</v>
       </c>
       <c r="E382" t="s">
-        <v>1124</v>
+        <v>1121</v>
       </c>
       <c r="G382" t="s">
-        <v>1267</v>
+        <v>1265</v>
       </c>
     </row>
     <row r="383" spans="1:7" ht="23.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A383" s="1" t="s">
-        <v>1402</v>
+        <v>1354</v>
       </c>
       <c r="B383" s="1" t="s">
-        <v>1403</v>
-      </c>
-      <c r="C383" s="1" t="s">
-        <v>1404</v>
+        <v>1355</v>
+      </c>
+      <c r="D383" s="1" t="s">
+        <v>1742</v>
       </c>
       <c r="E383" t="s">
-        <v>1125</v>
+        <v>1122</v>
       </c>
       <c r="G383" t="s">
-        <v>1267</v>
+        <v>1265</v>
       </c>
     </row>
     <row r="384" spans="1:7" ht="23.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A384" s="1" t="s">
-        <v>1405</v>
-      </c>
-      <c r="B384" s="3" t="s">
-        <v>1406</v>
-      </c>
-      <c r="C384" s="1" t="s">
-        <v>1407</v>
+        <v>1356</v>
+      </c>
+      <c r="B384" s="1" t="s">
+        <v>1357</v>
+      </c>
+      <c r="D384" s="1" t="s">
+        <v>1743</v>
       </c>
       <c r="E384" t="s">
-        <v>1126</v>
+        <v>1123</v>
       </c>
       <c r="G384" t="s">
-        <v>1267</v>
+        <v>1265</v>
       </c>
     </row>
     <row r="385" spans="1:7" ht="23.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A385" s="1" t="s">
-        <v>1408</v>
-      </c>
-      <c r="B385" s="1" t="s">
-        <v>1409</v>
-      </c>
-      <c r="C385" s="3" t="s">
-        <v>1410</v>
-      </c>
-      <c r="D385" s="3"/>
+        <v>1358</v>
+      </c>
+      <c r="B385" s="3" t="s">
+        <v>1359</v>
+      </c>
+      <c r="D385" s="1" t="s">
+        <v>1744</v>
+      </c>
       <c r="E385" t="s">
-        <v>1127</v>
+        <v>1124</v>
       </c>
       <c r="G385" t="s">
-        <v>1267</v>
+        <v>1265</v>
       </c>
     </row>
     <row r="386" spans="1:7" ht="23.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A386" s="1" t="s">
-        <v>1411</v>
-      </c>
-      <c r="B386" s="3" t="s">
-        <v>1412</v>
-      </c>
-      <c r="C386" s="1" t="s">
-        <v>1413</v>
-      </c>
+        <v>1360</v>
+      </c>
+      <c r="B386" s="1" t="s">
+        <v>1361</v>
+      </c>
+      <c r="C386" s="3" t="s">
+        <v>1362</v>
+      </c>
+      <c r="D386" s="3"/>
       <c r="E386" t="s">
-        <v>1128</v>
+        <v>1125</v>
       </c>
       <c r="G386" t="s">
-        <v>1267</v>
+        <v>1265</v>
       </c>
     </row>
     <row r="387" spans="1:7" ht="23.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A387" s="1" t="s">
-        <v>1414</v>
-      </c>
-      <c r="B387" s="1" t="s">
-        <v>1415</v>
-      </c>
-      <c r="C387" s="1" t="s">
-        <v>1416</v>
+        <v>1363</v>
+      </c>
+      <c r="B387" s="3" t="s">
+        <v>1364</v>
+      </c>
+      <c r="D387" s="1" t="s">
+        <v>1745</v>
       </c>
       <c r="E387" t="s">
-        <v>1129</v>
+        <v>1126</v>
       </c>
       <c r="G387" t="s">
-        <v>1267</v>
+        <v>1265</v>
       </c>
     </row>
     <row r="388" spans="1:7" ht="23.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A388" s="1" t="s">
-        <v>1417</v>
+        <v>1365</v>
       </c>
       <c r="B388" s="1" t="s">
-        <v>1418</v>
-      </c>
-      <c r="C388" s="1" t="s">
-        <v>1419</v>
+        <v>1366</v>
+      </c>
+      <c r="D388" s="1" t="s">
+        <v>1746</v>
       </c>
       <c r="E388" t="s">
-        <v>1130</v>
+        <v>1127</v>
       </c>
       <c r="G388" t="s">
-        <v>1267</v>
+        <v>1265</v>
       </c>
     </row>
     <row r="389" spans="1:7" ht="23.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A389" s="1" t="s">
-        <v>1420</v>
+        <v>1367</v>
       </c>
       <c r="B389" s="1" t="s">
-        <v>1421</v>
+        <v>1368</v>
+      </c>
+      <c r="D389" s="1" t="s">
+        <v>1747</v>
       </c>
       <c r="E389" t="s">
-        <v>1131</v>
+        <v>1128</v>
       </c>
       <c r="G389" t="s">
-        <v>1267</v>
+        <v>1265</v>
       </c>
     </row>
     <row r="390" spans="1:7" ht="23.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A390" s="1" t="s">
-        <v>1423</v>
+        <v>1369</v>
       </c>
       <c r="B390" s="1" t="s">
-        <v>1422</v>
-      </c>
-      <c r="C390" s="1" t="s">
-        <v>1424</v>
+        <v>1370</v>
       </c>
       <c r="E390" t="s">
-        <v>1132</v>
+        <v>1129</v>
       </c>
       <c r="G390" t="s">
-        <v>1267</v>
+        <v>1265</v>
       </c>
     </row>
     <row r="391" spans="1:7" ht="23.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A391" s="1" t="s">
-        <v>1425</v>
-      </c>
-      <c r="B391" s="3" t="s">
-        <v>1426</v>
-      </c>
-      <c r="C391" s="1" t="s">
-        <v>1427</v>
+        <v>1372</v>
+      </c>
+      <c r="B391" s="1" t="s">
+        <v>1371</v>
+      </c>
+      <c r="D391" s="1" t="s">
+        <v>1748</v>
       </c>
       <c r="E391" t="s">
-        <v>1133</v>
+        <v>1130</v>
       </c>
       <c r="G391" t="s">
-        <v>1267</v>
+        <v>1265</v>
       </c>
     </row>
     <row r="392" spans="1:7" ht="23.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A392" s="1" t="s">
-        <v>1428</v>
-      </c>
-      <c r="B392" s="1" t="s">
-        <v>1429</v>
-      </c>
-      <c r="C392" s="1" t="s">
-        <v>1430</v>
+        <v>1373</v>
+      </c>
+      <c r="B392" s="3" t="s">
+        <v>1374</v>
+      </c>
+      <c r="D392" s="1" t="s">
+        <v>1749</v>
       </c>
       <c r="E392" t="s">
-        <v>1134</v>
+        <v>1131</v>
       </c>
       <c r="G392" t="s">
-        <v>1267</v>
+        <v>1265</v>
       </c>
     </row>
     <row r="393" spans="1:7" ht="23.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A393" s="1" t="s">
-        <v>1433</v>
+        <v>1375</v>
       </c>
       <c r="B393" s="1" t="s">
-        <v>1431</v>
-      </c>
-      <c r="C393" s="1" t="s">
-        <v>1432</v>
+        <v>1376</v>
+      </c>
+      <c r="D393" s="1" t="s">
+        <v>1750</v>
       </c>
       <c r="E393" t="s">
-        <v>1135</v>
+        <v>1132</v>
       </c>
       <c r="G393" t="s">
-        <v>1267</v>
+        <v>1265</v>
       </c>
     </row>
     <row r="394" spans="1:7" ht="23.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A394" s="1" t="s">
-        <v>1434</v>
-      </c>
-      <c r="C394" s="1" t="s">
-        <v>1435</v>
+        <v>1378</v>
+      </c>
+      <c r="B394" s="1" t="s">
+        <v>1377</v>
+      </c>
+      <c r="D394" s="1" t="s">
+        <v>1751</v>
       </c>
       <c r="E394" t="s">
-        <v>1136</v>
+        <v>1133</v>
       </c>
       <c r="G394" t="s">
-        <v>1267</v>
+        <v>1265</v>
       </c>
     </row>
     <row r="395" spans="1:7" ht="23.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A395" s="1" t="s">
-        <v>1436</v>
-      </c>
-      <c r="B395" s="1" t="s">
-        <v>1437</v>
-      </c>
-      <c r="C395" s="1" t="s">
-        <v>1438</v>
+        <v>1379</v>
+      </c>
+      <c r="D395" s="1" t="s">
+        <v>1752</v>
       </c>
       <c r="E395" t="s">
-        <v>1137</v>
+        <v>1134</v>
       </c>
       <c r="G395" t="s">
-        <v>1267</v>
+        <v>1265</v>
       </c>
     </row>
     <row r="396" spans="1:7" ht="23.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A396" s="1" t="s">
-        <v>1439</v>
+        <v>1380</v>
       </c>
       <c r="B396" s="1" t="s">
-        <v>1442</v>
-      </c>
-      <c r="C396" s="1" t="s">
-        <v>1443</v>
+        <v>1381</v>
+      </c>
+      <c r="D396" s="1" t="s">
+        <v>1753</v>
       </c>
       <c r="E396" t="s">
-        <v>1138</v>
+        <v>1135</v>
       </c>
       <c r="G396" t="s">
-        <v>1267</v>
+        <v>1265</v>
       </c>
     </row>
     <row r="397" spans="1:7" ht="23.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A397" s="1" t="s">
-        <v>1440</v>
+        <v>1382</v>
       </c>
       <c r="B397" s="1" t="s">
-        <v>1441</v>
-      </c>
-      <c r="C397" s="1" t="s">
-        <v>1447</v>
+        <v>1385</v>
+      </c>
+      <c r="D397" s="1" t="s">
+        <v>1754</v>
       </c>
       <c r="E397" t="s">
-        <v>1139</v>
+        <v>1136</v>
       </c>
       <c r="G397" t="s">
-        <v>1267</v>
+        <v>1265</v>
       </c>
     </row>
     <row r="398" spans="1:7" ht="23.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A398" s="1" t="s">
-        <v>1444</v>
+        <v>1383</v>
       </c>
       <c r="B398" s="1" t="s">
-        <v>1445</v>
-      </c>
-      <c r="C398" s="1" t="s">
-        <v>1446</v>
+        <v>1384</v>
+      </c>
+      <c r="D398" s="1" t="s">
+        <v>1755</v>
       </c>
       <c r="E398" t="s">
-        <v>1140</v>
+        <v>1137</v>
       </c>
       <c r="G398" t="s">
-        <v>1267</v>
+        <v>1265</v>
       </c>
     </row>
     <row r="399" spans="1:7" ht="23.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A399" s="1" t="s">
-        <v>1448</v>
-      </c>
-      <c r="B399" s="3" t="s">
-        <v>1449</v>
-      </c>
-      <c r="C399" s="1" t="s">
-        <v>1450</v>
+        <v>1386</v>
+      </c>
+      <c r="B399" s="1" t="s">
+        <v>1387</v>
+      </c>
+      <c r="D399" s="1" t="s">
+        <v>1756</v>
       </c>
       <c r="E399" t="s">
-        <v>1141</v>
+        <v>1138</v>
       </c>
       <c r="G399" t="s">
-        <v>1267</v>
+        <v>1265</v>
       </c>
     </row>
     <row r="400" spans="1:7" ht="23.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A400" s="1" t="s">
-        <v>1451</v>
-      </c>
-      <c r="B400" s="1" t="s">
-        <v>1452</v>
+        <v>1388</v>
+      </c>
+      <c r="B400" s="3" t="s">
+        <v>1389</v>
       </c>
       <c r="C400" s="1" t="s">
-        <v>1453</v>
+        <v>1693</v>
       </c>
       <c r="E400" t="s">
-        <v>1142</v>
+        <v>1139</v>
       </c>
       <c r="G400" t="s">
-        <v>1267</v>
+        <v>1265</v>
       </c>
     </row>
     <row r="401" spans="1:7" ht="23.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A401" s="1" t="s">
-        <v>1454</v>
+        <v>1390</v>
       </c>
       <c r="B401" s="1" t="s">
-        <v>1455</v>
-      </c>
-      <c r="C401" s="1" t="s">
-        <v>1456</v>
+        <v>1391</v>
+      </c>
+      <c r="D401" s="1" t="s">
+        <v>1757</v>
       </c>
       <c r="E401" t="s">
-        <v>1143</v>
+        <v>1140</v>
       </c>
       <c r="G401" t="s">
-        <v>1267</v>
+        <v>1265</v>
       </c>
     </row>
     <row r="402" spans="1:7" ht="23.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A402" s="1" t="s">
-        <v>1457</v>
+        <v>1392</v>
       </c>
       <c r="B402" s="1" t="s">
-        <v>1458</v>
-      </c>
-      <c r="C402" s="1" t="s">
-        <v>1459</v>
+        <v>1393</v>
+      </c>
+      <c r="D402" s="1" t="s">
+        <v>1758</v>
       </c>
       <c r="E402" t="s">
-        <v>1144</v>
+        <v>1141</v>
       </c>
       <c r="G402" t="s">
-        <v>1267</v>
+        <v>1265</v>
       </c>
     </row>
     <row r="403" spans="1:7" ht="23.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A403" s="1" t="s">
-        <v>1460</v>
-      </c>
-      <c r="B403" s="3" t="s">
-        <v>1766</v>
-      </c>
-      <c r="C403" s="1" t="s">
-        <v>1461</v>
+        <v>1394</v>
+      </c>
+      <c r="B403" s="1" t="s">
+        <v>1395</v>
+      </c>
+      <c r="D403" s="1" t="s">
+        <v>1759</v>
       </c>
       <c r="E403" t="s">
-        <v>1145</v>
+        <v>1142</v>
       </c>
       <c r="G403" t="s">
-        <v>1267</v>
+        <v>1265</v>
       </c>
     </row>
     <row r="404" spans="1:7" ht="23.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A404" s="1" t="s">
-        <v>1711</v>
+        <v>1396</v>
       </c>
       <c r="B404" s="3" t="s">
-        <v>1712</v>
-      </c>
-      <c r="C404" s="1" t="s">
-        <v>1462</v>
+        <v>1634</v>
+      </c>
+      <c r="D404" s="1" t="s">
+        <v>1760</v>
       </c>
       <c r="E404" t="s">
-        <v>1146</v>
+        <v>1143</v>
       </c>
       <c r="G404" t="s">
-        <v>1267</v>
+        <v>1265</v>
       </c>
     </row>
     <row r="405" spans="1:7" ht="23.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A405" s="1" t="s">
-        <v>1463</v>
-      </c>
-      <c r="B405" s="1" t="s">
-        <v>1464</v>
-      </c>
-      <c r="C405" s="1" t="s">
-        <v>1465</v>
+        <v>1579</v>
+      </c>
+      <c r="B405" s="3" t="s">
+        <v>1580</v>
+      </c>
+      <c r="D405" s="1" t="s">
+        <v>1761</v>
       </c>
       <c r="E405" t="s">
-        <v>1147</v>
+        <v>1144</v>
       </c>
       <c r="G405" t="s">
-        <v>1267</v>
+        <v>1265</v>
       </c>
     </row>
     <row r="406" spans="1:7" ht="23.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A406" s="1" t="s">
-        <v>1468</v>
-      </c>
-      <c r="B406" s="3" t="s">
-        <v>1466</v>
-      </c>
-      <c r="C406" s="1" t="s">
-        <v>1467</v>
+        <v>1397</v>
+      </c>
+      <c r="B406" s="1" t="s">
+        <v>1398</v>
+      </c>
+      <c r="D406" s="1" t="s">
+        <v>1762</v>
       </c>
       <c r="E406" t="s">
-        <v>1148</v>
+        <v>1145</v>
       </c>
       <c r="G406" t="s">
-        <v>1267</v>
+        <v>1265</v>
       </c>
     </row>
     <row r="407" spans="1:7" ht="23.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A407" s="1" t="s">
-        <v>1469</v>
+        <v>1400</v>
       </c>
       <c r="B407" s="3" t="s">
-        <v>1470</v>
-      </c>
-      <c r="C407" s="1" t="s">
-        <v>1471</v>
+        <v>1399</v>
+      </c>
+      <c r="D407" s="1" t="s">
+        <v>1763</v>
       </c>
       <c r="E407" t="s">
-        <v>1149</v>
+        <v>1146</v>
       </c>
       <c r="G407" t="s">
-        <v>1267</v>
+        <v>1265</v>
       </c>
     </row>
     <row r="408" spans="1:7" ht="23.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A408" s="1" t="s">
-        <v>1472</v>
-      </c>
-      <c r="B408" s="1" t="s">
-        <v>1473</v>
-      </c>
-      <c r="C408" s="3" t="s">
-        <v>1474</v>
-      </c>
-      <c r="D408" s="3"/>
+        <v>1401</v>
+      </c>
+      <c r="B408" s="3" t="s">
+        <v>1402</v>
+      </c>
+      <c r="D408" s="1" t="s">
+        <v>1764</v>
+      </c>
       <c r="E408" t="s">
-        <v>1150</v>
+        <v>1147</v>
       </c>
       <c r="G408" t="s">
-        <v>1267</v>
+        <v>1265</v>
       </c>
     </row>
     <row r="409" spans="1:7" ht="23.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A409" s="1" t="s">
-        <v>1475</v>
+        <v>1403</v>
       </c>
       <c r="B409" s="1" t="s">
-        <v>1476</v>
-      </c>
-      <c r="C409" s="1" t="s">
-        <v>1477</v>
+        <v>1404</v>
+      </c>
+      <c r="D409" s="3" t="s">
+        <v>1765</v>
       </c>
       <c r="E409" t="s">
-        <v>1151</v>
+        <v>1148</v>
       </c>
       <c r="G409" t="s">
-        <v>1267</v>
+        <v>1265</v>
       </c>
     </row>
     <row r="410" spans="1:7" ht="23.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A410" s="1" t="s">
-        <v>1478</v>
+        <v>1405</v>
       </c>
       <c r="B410" s="1" t="s">
-        <v>1479</v>
-      </c>
-      <c r="C410" s="1" t="s">
-        <v>1480</v>
+        <v>1406</v>
+      </c>
+      <c r="D410" s="1" t="s">
+        <v>1766</v>
       </c>
       <c r="E410" t="s">
-        <v>1152</v>
+        <v>1149</v>
       </c>
       <c r="G410" t="s">
-        <v>1267</v>
+        <v>1265</v>
       </c>
     </row>
     <row r="411" spans="1:7" ht="23.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A411" s="1" t="s">
-        <v>1481</v>
+        <v>1407</v>
       </c>
       <c r="B411" s="1" t="s">
-        <v>1482</v>
-      </c>
-      <c r="C411" s="1" t="s">
-        <v>1483</v>
+        <v>1408</v>
+      </c>
+      <c r="D411" s="1" t="s">
+        <v>1767</v>
       </c>
       <c r="E411" t="s">
-        <v>1153</v>
+        <v>1150</v>
       </c>
       <c r="G411" t="s">
-        <v>1267</v>
+        <v>1265</v>
       </c>
     </row>
     <row r="412" spans="1:7" ht="23.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A412" s="1" t="s">
-        <v>1713</v>
-      </c>
-      <c r="B412" s="3" t="s">
-        <v>1714</v>
-      </c>
-      <c r="C412" s="1" t="s">
-        <v>1484</v>
+        <v>1409</v>
+      </c>
+      <c r="B412" s="1" t="s">
+        <v>1410</v>
+      </c>
+      <c r="D412" s="1" t="s">
+        <v>1768</v>
       </c>
       <c r="E412" t="s">
-        <v>1154</v>
+        <v>1151</v>
       </c>
       <c r="G412" t="s">
-        <v>1267</v>
+        <v>1265</v>
       </c>
     </row>
     <row r="413" spans="1:7" ht="23.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A413" s="1" t="s">
-        <v>1485</v>
-      </c>
-      <c r="B413" s="1" t="s">
-        <v>1486</v>
-      </c>
-      <c r="C413" s="1" t="s">
-        <v>1487</v>
+        <v>1581</v>
+      </c>
+      <c r="B413" s="3" t="s">
+        <v>1582</v>
+      </c>
+      <c r="D413" s="1" t="s">
+        <v>1769</v>
       </c>
       <c r="E413" t="s">
-        <v>1155</v>
+        <v>1152</v>
       </c>
       <c r="G413" t="s">
-        <v>1267</v>
+        <v>1265</v>
       </c>
     </row>
     <row r="414" spans="1:7" ht="23.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A414" s="1" t="s">
-        <v>1488</v>
-      </c>
-      <c r="C414" s="1" t="s">
-        <v>1489</v>
+        <v>1411</v>
+      </c>
+      <c r="B414" s="1" t="s">
+        <v>1412</v>
+      </c>
+      <c r="D414" s="1" t="s">
+        <v>1770</v>
       </c>
       <c r="E414" t="s">
-        <v>1156</v>
+        <v>1153</v>
       </c>
       <c r="G414" t="s">
-        <v>1267</v>
+        <v>1265</v>
       </c>
     </row>
     <row r="415" spans="1:7" ht="23.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A415" s="1" t="s">
-        <v>1492</v>
-      </c>
-      <c r="B415" s="3" t="s">
-        <v>1490</v>
-      </c>
-      <c r="C415" s="1" t="s">
-        <v>1491</v>
+        <v>1413</v>
+      </c>
+      <c r="D415" s="1" t="s">
+        <v>1771</v>
       </c>
       <c r="E415" t="s">
-        <v>1157</v>
+        <v>1154</v>
       </c>
       <c r="G415" t="s">
-        <v>1267</v>
+        <v>1265</v>
       </c>
     </row>
     <row r="416" spans="1:7" ht="23.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A416" s="1" t="s">
-        <v>1715</v>
-      </c>
-      <c r="B416" s="1" t="s">
-        <v>1716</v>
-      </c>
-      <c r="C416" s="1" t="s">
-        <v>1493</v>
+        <v>1415</v>
+      </c>
+      <c r="B416" s="3" t="s">
+        <v>1414</v>
+      </c>
+      <c r="D416" s="1" t="s">
+        <v>1772</v>
       </c>
       <c r="E416" t="s">
-        <v>1158</v>
+        <v>1155</v>
       </c>
       <c r="G416" t="s">
-        <v>1267</v>
+        <v>1265</v>
       </c>
     </row>
     <row r="417" spans="1:7" ht="23.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A417" s="1" t="s">
-        <v>1494</v>
-      </c>
-      <c r="B417" s="3" t="s">
-        <v>1495</v>
-      </c>
-      <c r="C417" s="3" t="s">
-        <v>1496</v>
-      </c>
-      <c r="D417" s="3"/>
+        <v>1583</v>
+      </c>
+      <c r="B417" s="1" t="s">
+        <v>1584</v>
+      </c>
+      <c r="D417" s="1" t="s">
+        <v>1773</v>
+      </c>
       <c r="E417" t="s">
-        <v>1159</v>
+        <v>1156</v>
       </c>
       <c r="G417" t="s">
-        <v>1267</v>
+        <v>1265</v>
       </c>
     </row>
     <row r="418" spans="1:7" ht="23.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A418" s="1" t="s">
-        <v>1497</v>
+        <v>1416</v>
       </c>
       <c r="B418" s="3" t="s">
-        <v>1498</v>
-      </c>
-      <c r="C418" s="3" t="s">
-        <v>1499</v>
-      </c>
-      <c r="D418" s="3"/>
+        <v>1417</v>
+      </c>
+      <c r="D418" s="3" t="s">
+        <v>1774</v>
+      </c>
       <c r="E418" t="s">
-        <v>1160</v>
+        <v>1157</v>
       </c>
       <c r="G418" t="s">
-        <v>1267</v>
+        <v>1265</v>
       </c>
     </row>
     <row r="419" spans="1:7" ht="23.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A419" s="1" t="s">
-        <v>1717</v>
-      </c>
-      <c r="B419" s="1" t="s">
-        <v>1718</v>
-      </c>
-      <c r="C419" s="1" t="s">
-        <v>1500</v>
+        <v>1418</v>
+      </c>
+      <c r="B419" s="3" t="s">
+        <v>1419</v>
+      </c>
+      <c r="D419" s="3" t="s">
+        <v>1775</v>
       </c>
       <c r="E419" t="s">
-        <v>1161</v>
+        <v>1158</v>
       </c>
       <c r="G419" t="s">
-        <v>1267</v>
+        <v>1265</v>
       </c>
     </row>
     <row r="420" spans="1:7" ht="23.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A420" s="1" t="s">
-        <v>1501</v>
-      </c>
-      <c r="B420" s="3" t="s">
-        <v>1502</v>
-      </c>
-      <c r="C420" s="1" t="s">
-        <v>1503</v>
+        <v>1585</v>
+      </c>
+      <c r="B420" s="1" t="s">
+        <v>1586</v>
+      </c>
+      <c r="D420" s="1" t="s">
+        <v>1776</v>
       </c>
       <c r="E420" t="s">
-        <v>1162</v>
+        <v>1159</v>
       </c>
       <c r="G420" t="s">
-        <v>1267</v>
+        <v>1265</v>
       </c>
     </row>
     <row r="421" spans="1:7" ht="23.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A421" s="1" t="s">
-        <v>1719</v>
+        <v>1420</v>
       </c>
       <c r="B421" s="3" t="s">
-        <v>1720</v>
-      </c>
-      <c r="C421" s="1" t="s">
-        <v>1504</v>
+        <v>1421</v>
+      </c>
+      <c r="D421" s="1" t="s">
+        <v>1777</v>
       </c>
       <c r="E421" t="s">
-        <v>1163</v>
+        <v>1160</v>
       </c>
       <c r="G421" t="s">
-        <v>1267</v>
+        <v>1265</v>
       </c>
     </row>
     <row r="422" spans="1:7" ht="23.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A422" s="1" t="s">
-        <v>1505</v>
+        <v>1587</v>
       </c>
       <c r="B422" s="3" t="s">
-        <v>1506</v>
-      </c>
-      <c r="C422" s="1" t="s">
-        <v>1507</v>
+        <v>1588</v>
+      </c>
+      <c r="D422" s="1" t="s">
+        <v>1778</v>
       </c>
       <c r="E422" t="s">
-        <v>1164</v>
+        <v>1161</v>
       </c>
       <c r="G422" t="s">
-        <v>1267</v>
+        <v>1265</v>
       </c>
     </row>
     <row r="423" spans="1:7" ht="23.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A423" s="1" t="s">
-        <v>1508</v>
-      </c>
-      <c r="C423" s="1" t="s">
-        <v>1509</v>
+        <v>1422</v>
+      </c>
+      <c r="B423" s="3" t="s">
+        <v>1423</v>
+      </c>
+      <c r="D423" s="1" t="s">
+        <v>1779</v>
       </c>
       <c r="E423" t="s">
-        <v>1165</v>
+        <v>1162</v>
       </c>
       <c r="G423" t="s">
-        <v>1267</v>
+        <v>1265</v>
       </c>
     </row>
     <row r="424" spans="1:7" ht="23.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A424" s="1" t="s">
-        <v>1510</v>
-      </c>
-      <c r="B424" s="3" t="s">
-        <v>1511</v>
-      </c>
-      <c r="C424" s="1" t="s">
-        <v>1512</v>
+        <v>1424</v>
+      </c>
+      <c r="D424" s="1" t="s">
+        <v>1780</v>
       </c>
       <c r="E424" t="s">
-        <v>1166</v>
+        <v>1163</v>
       </c>
       <c r="G424" t="s">
-        <v>1267</v>
+        <v>1265</v>
       </c>
     </row>
     <row r="425" spans="1:7" ht="23.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A425" s="1" t="s">
-        <v>1513</v>
-      </c>
-      <c r="C425" s="1" t="s">
-        <v>1514</v>
+        <v>1425</v>
+      </c>
+      <c r="B425" s="3" t="s">
+        <v>1426</v>
+      </c>
+      <c r="D425" s="1" t="s">
+        <v>1781</v>
       </c>
       <c r="E425" t="s">
-        <v>1167</v>
+        <v>1164</v>
       </c>
       <c r="G425" t="s">
-        <v>1267</v>
+        <v>1265</v>
       </c>
     </row>
     <row r="426" spans="1:7" ht="23.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A426" s="1" t="s">
-        <v>1515</v>
-      </c>
-      <c r="C426" s="1" t="s">
-        <v>1516</v>
+        <v>1427</v>
+      </c>
+      <c r="D426" s="1" t="s">
+        <v>1782</v>
       </c>
       <c r="E426" t="s">
-        <v>1168</v>
+        <v>1165</v>
       </c>
       <c r="G426" t="s">
-        <v>1267</v>
+        <v>1265</v>
       </c>
     </row>
     <row r="427" spans="1:7" ht="23.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A427" s="1" t="s">
-        <v>1517</v>
-      </c>
-      <c r="B427" s="1" t="s">
-        <v>1518</v>
-      </c>
-      <c r="C427" s="1" t="s">
-        <v>1519</v>
+        <v>1428</v>
+      </c>
+      <c r="D427" s="1" t="s">
+        <v>1783</v>
       </c>
       <c r="E427" t="s">
-        <v>1169</v>
+        <v>1166</v>
       </c>
       <c r="G427" t="s">
-        <v>1267</v>
+        <v>1265</v>
       </c>
     </row>
     <row r="428" spans="1:7" ht="23.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A428" s="1" t="s">
-        <v>1520</v>
-      </c>
-      <c r="B428" s="3" t="s">
-        <v>1521</v>
-      </c>
-      <c r="C428" s="1" t="s">
-        <v>1522</v>
+        <v>1429</v>
+      </c>
+      <c r="B428" s="1" t="s">
+        <v>1430</v>
+      </c>
+      <c r="D428" s="1" t="s">
+        <v>1784</v>
       </c>
       <c r="E428" t="s">
-        <v>1170</v>
+        <v>1167</v>
       </c>
       <c r="G428" t="s">
-        <v>1267</v>
+        <v>1265</v>
       </c>
     </row>
     <row r="429" spans="1:7" ht="23.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A429" s="1" t="s">
-        <v>1523</v>
-      </c>
-      <c r="B429" s="1" t="s">
-        <v>1524</v>
-      </c>
-      <c r="C429" s="1" t="s">
-        <v>1525</v>
-      </c>
-      <c r="E429" s="2" t="s">
-        <v>1171</v>
+        <v>1431</v>
+      </c>
+      <c r="B429" s="3" t="s">
+        <v>1432</v>
+      </c>
+      <c r="D429" s="1" t="s">
+        <v>1785</v>
+      </c>
+      <c r="E429" t="s">
+        <v>1168</v>
       </c>
       <c r="G429" t="s">
-        <v>1267</v>
+        <v>1265</v>
       </c>
     </row>
     <row r="430" spans="1:7" ht="23.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A430" s="1" t="s">
-        <v>1526</v>
+        <v>1433</v>
       </c>
       <c r="B430" s="1" t="s">
-        <v>1527</v>
-      </c>
-      <c r="C430" s="1" t="s">
-        <v>1528</v>
-      </c>
-      <c r="E430" t="s">
-        <v>1172</v>
+        <v>1434</v>
+      </c>
+      <c r="D430" s="1" t="s">
+        <v>1786</v>
+      </c>
+      <c r="E430" s="2" t="s">
+        <v>1169</v>
       </c>
       <c r="G430" t="s">
-        <v>1267</v>
+        <v>1265</v>
       </c>
     </row>
     <row r="431" spans="1:7" ht="23.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A431" s="1" t="s">
-        <v>1529</v>
+        <v>1435</v>
       </c>
       <c r="B431" s="1" t="s">
-        <v>1530</v>
-      </c>
-      <c r="C431" s="1" t="s">
-        <v>1531</v>
+        <v>1436</v>
+      </c>
+      <c r="D431" s="1" t="s">
+        <v>1787</v>
       </c>
       <c r="E431" t="s">
-        <v>1173</v>
+        <v>1170</v>
       </c>
       <c r="G431" t="s">
-        <v>1267</v>
+        <v>1265</v>
       </c>
     </row>
     <row r="432" spans="1:7" ht="23.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A432" s="1" t="s">
-        <v>1532</v>
+        <v>1437</v>
       </c>
       <c r="B432" s="1" t="s">
-        <v>1533</v>
+        <v>1438</v>
+      </c>
+      <c r="D432" s="1" t="s">
+        <v>1788</v>
       </c>
       <c r="E432" t="s">
-        <v>1174</v>
+        <v>1171</v>
       </c>
       <c r="G432" t="s">
-        <v>1267</v>
+        <v>1265</v>
       </c>
     </row>
     <row r="433" spans="1:7" ht="23.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A433" s="1" t="s">
-        <v>1534</v>
+        <v>1439</v>
       </c>
       <c r="B433" s="1" t="s">
-        <v>1535</v>
-      </c>
-      <c r="C433" s="1" t="s">
-        <v>1536</v>
+        <v>1440</v>
       </c>
       <c r="E433" t="s">
-        <v>1175</v>
+        <v>1172</v>
       </c>
       <c r="G433" t="s">
-        <v>1267</v>
+        <v>1265</v>
       </c>
     </row>
     <row r="434" spans="1:7" ht="23.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A434" s="1" t="s">
-        <v>1537</v>
-      </c>
-      <c r="B434" s="3" t="s">
-        <v>1538</v>
+        <v>1441</v>
+      </c>
+      <c r="B434" s="1" t="s">
+        <v>1442</v>
       </c>
       <c r="C434" s="1" t="s">
-        <v>1539</v>
+        <v>1695</v>
       </c>
       <c r="E434" t="s">
-        <v>1176</v>
+        <v>1173</v>
       </c>
       <c r="G434" t="s">
-        <v>1267</v>
+        <v>1265</v>
       </c>
     </row>
     <row r="435" spans="1:7" ht="23.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A435" s="1" t="s">
-        <v>1721</v>
+        <v>1443</v>
       </c>
       <c r="B435" s="3" t="s">
-        <v>1767</v>
+        <v>1444</v>
       </c>
       <c r="C435" s="1" t="s">
-        <v>1540</v>
+        <v>1694</v>
+      </c>
+      <c r="D435" s="1" t="s">
+        <v>1789</v>
       </c>
       <c r="E435" t="s">
-        <v>1177</v>
+        <v>1174</v>
       </c>
       <c r="G435" t="s">
-        <v>1267</v>
+        <v>1265</v>
       </c>
     </row>
     <row r="436" spans="1:7" ht="23.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A436" s="1" t="s">
-        <v>1541</v>
+        <v>1589</v>
       </c>
       <c r="B436" s="3" t="s">
-        <v>1542</v>
-      </c>
-      <c r="C436" s="1" t="s">
-        <v>1543</v>
+        <v>1635</v>
+      </c>
+      <c r="D436" s="1" t="s">
+        <v>1835</v>
       </c>
       <c r="E436" t="s">
-        <v>1178</v>
+        <v>1175</v>
       </c>
       <c r="G436" t="s">
-        <v>1267</v>
+        <v>1265</v>
       </c>
     </row>
     <row r="437" spans="1:7" ht="23.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A437" s="1" t="s">
-        <v>1544</v>
-      </c>
-      <c r="B437" s="1" t="s">
-        <v>1545</v>
-      </c>
-      <c r="C437" s="3" t="s">
-        <v>1546</v>
-      </c>
-      <c r="D437" s="3"/>
+        <v>1445</v>
+      </c>
+      <c r="B437" s="3" t="s">
+        <v>1446</v>
+      </c>
+      <c r="D437" s="1" t="s">
+        <v>1790</v>
+      </c>
       <c r="E437" t="s">
-        <v>1179</v>
+        <v>1176</v>
       </c>
       <c r="G437" t="s">
-        <v>1267</v>
+        <v>1265</v>
       </c>
     </row>
     <row r="438" spans="1:7" ht="23.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A438" s="1" t="s">
-        <v>1547</v>
-      </c>
-      <c r="B438" s="3" t="s">
-        <v>1741</v>
-      </c>
-      <c r="C438" s="1" t="s">
-        <v>1548</v>
+        <v>1447</v>
+      </c>
+      <c r="B438" s="1" t="s">
+        <v>1448</v>
+      </c>
+      <c r="D438" s="3" t="s">
+        <v>1791</v>
       </c>
       <c r="E438" t="s">
-        <v>1180</v>
+        <v>1177</v>
       </c>
       <c r="G438" t="s">
-        <v>1267</v>
+        <v>1265</v>
       </c>
     </row>
     <row r="439" spans="1:7" ht="23.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A439" s="1" t="s">
-        <v>1549</v>
+        <v>1449</v>
       </c>
       <c r="B439" s="3" t="s">
-        <v>1550</v>
-      </c>
-      <c r="C439" s="1" t="s">
-        <v>1551</v>
+        <v>1609</v>
+      </c>
+      <c r="D439" s="1" t="s">
+        <v>1792</v>
       </c>
       <c r="E439" t="s">
-        <v>1181</v>
+        <v>1178</v>
       </c>
       <c r="G439" t="s">
-        <v>1267</v>
+        <v>1265</v>
       </c>
     </row>
     <row r="440" spans="1:7" ht="23.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A440" s="1" t="s">
-        <v>1552</v>
-      </c>
-      <c r="B440" s="1" t="s">
-        <v>1553</v>
-      </c>
-      <c r="C440" s="1" t="s">
-        <v>1554</v>
+        <v>1450</v>
+      </c>
+      <c r="B440" s="3" t="s">
+        <v>1451</v>
+      </c>
+      <c r="D440" s="1" t="s">
+        <v>1793</v>
       </c>
       <c r="E440" t="s">
-        <v>1182</v>
+        <v>1179</v>
       </c>
       <c r="G440" t="s">
-        <v>1267</v>
+        <v>1265</v>
       </c>
     </row>
     <row r="441" spans="1:7" ht="23.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A441" s="1" t="s">
-        <v>1555</v>
-      </c>
-      <c r="B441" s="3" t="s">
-        <v>1556</v>
-      </c>
-      <c r="C441" s="3" t="s">
-        <v>1557</v>
-      </c>
-      <c r="D441" s="3"/>
+        <v>1452</v>
+      </c>
+      <c r="B441" s="1" t="s">
+        <v>1453</v>
+      </c>
+      <c r="D441" s="1" t="s">
+        <v>1794</v>
+      </c>
       <c r="E441" t="s">
-        <v>1183</v>
+        <v>1180</v>
       </c>
       <c r="G441" t="s">
-        <v>1267</v>
+        <v>1265</v>
       </c>
     </row>
     <row r="442" spans="1:7" ht="23.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A442" s="1" t="s">
-        <v>1558</v>
-      </c>
-      <c r="B442" s="1" t="s">
-        <v>1559</v>
+        <v>1454</v>
+      </c>
+      <c r="B442" s="3" t="s">
+        <v>1455</v>
       </c>
       <c r="C442" s="1" t="s">
-        <v>1560</v>
+        <v>1696</v>
+      </c>
+      <c r="D442" s="3" t="s">
+        <v>1795</v>
       </c>
       <c r="E442" t="s">
-        <v>1184</v>
+        <v>1181</v>
       </c>
       <c r="G442" t="s">
-        <v>1267</v>
+        <v>1265</v>
       </c>
     </row>
     <row r="443" spans="1:7" ht="23.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A443" s="1" t="s">
-        <v>1561</v>
-      </c>
-      <c r="C443" s="1" t="s">
-        <v>1562</v>
+        <v>1456</v>
+      </c>
+      <c r="B443" s="1" t="s">
+        <v>1457</v>
+      </c>
+      <c r="D443" s="1" t="s">
+        <v>1796</v>
       </c>
       <c r="E443" t="s">
-        <v>1185</v>
+        <v>1182</v>
       </c>
       <c r="G443" t="s">
-        <v>1267</v>
+        <v>1265</v>
       </c>
     </row>
     <row r="444" spans="1:7" ht="23.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A444" s="1" t="s">
-        <v>1563</v>
-      </c>
-      <c r="C444" s="3" t="s">
-        <v>1564</v>
-      </c>
-      <c r="D444" s="3"/>
+        <v>1458</v>
+      </c>
+      <c r="D444" s="1" t="s">
+        <v>1797</v>
+      </c>
       <c r="E444" t="s">
-        <v>1186</v>
+        <v>1183</v>
       </c>
       <c r="G444" t="s">
-        <v>1267</v>
+        <v>1265</v>
       </c>
     </row>
     <row r="445" spans="1:7" ht="23.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A445" s="3" t="s">
-        <v>1567</v>
-      </c>
-      <c r="B445" s="1" t="s">
-        <v>1565</v>
-      </c>
-      <c r="C445" s="3" t="s">
-        <v>1566</v>
-      </c>
-      <c r="D445" s="3"/>
+      <c r="A445" s="1" t="s">
+        <v>1459</v>
+      </c>
+      <c r="D445" s="3" t="s">
+        <v>1798</v>
+      </c>
       <c r="E445" t="s">
-        <v>1187</v>
+        <v>1184</v>
       </c>
       <c r="G445" t="s">
-        <v>1267</v>
+        <v>1265</v>
       </c>
     </row>
     <row r="446" spans="1:7" ht="23.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A446" s="1" t="s">
-        <v>1568</v>
-      </c>
-      <c r="B446" s="3" t="s">
-        <v>1569</v>
-      </c>
-      <c r="C446" s="1" t="s">
-        <v>1570</v>
-      </c>
+      <c r="A446" s="3" t="s">
+        <v>1462</v>
+      </c>
+      <c r="B446" s="1" t="s">
+        <v>1460</v>
+      </c>
+      <c r="C446" s="3" t="s">
+        <v>1461</v>
+      </c>
+      <c r="D446" s="3"/>
       <c r="E446" t="s">
-        <v>1188</v>
+        <v>1185</v>
       </c>
       <c r="G446" t="s">
-        <v>1267</v>
+        <v>1265</v>
       </c>
     </row>
     <row r="447" spans="1:7" ht="23.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A447" s="1" t="s">
-        <v>1571</v>
-      </c>
-      <c r="B447" s="1" t="s">
-        <v>1572</v>
-      </c>
-      <c r="C447" s="1" t="s">
-        <v>1573</v>
+        <v>1463</v>
+      </c>
+      <c r="B447" s="3" t="s">
+        <v>1464</v>
+      </c>
+      <c r="D447" s="1" t="s">
+        <v>1799</v>
       </c>
       <c r="E447" t="s">
-        <v>1189</v>
+        <v>1186</v>
       </c>
       <c r="G447" t="s">
-        <v>1267</v>
+        <v>1265</v>
       </c>
     </row>
     <row r="448" spans="1:7" ht="23.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A448" s="1" t="s">
-        <v>1574</v>
+        <v>1465</v>
       </c>
       <c r="B448" s="1" t="s">
-        <v>1575</v>
+        <v>1466</v>
       </c>
       <c r="C448" s="1" t="s">
-        <v>1576</v>
+        <v>1697</v>
       </c>
       <c r="E448" t="s">
-        <v>1190</v>
+        <v>1187</v>
       </c>
       <c r="G448" t="s">
-        <v>1267</v>
+        <v>1265</v>
       </c>
     </row>
     <row r="449" spans="1:7" ht="23.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A449" s="1" t="s">
-        <v>1577</v>
+        <v>1467</v>
       </c>
       <c r="B449" s="1" t="s">
-        <v>1578</v>
-      </c>
-      <c r="C449" s="1" t="s">
-        <v>1579</v>
+        <v>1468</v>
+      </c>
+      <c r="D449" s="1" t="s">
+        <v>1800</v>
       </c>
       <c r="E449" t="s">
-        <v>1191</v>
+        <v>1188</v>
       </c>
       <c r="G449" t="s">
-        <v>1267</v>
+        <v>1265</v>
       </c>
     </row>
     <row r="450" spans="1:7" ht="23.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A450" s="1" t="s">
-        <v>1580</v>
+        <v>1469</v>
       </c>
       <c r="B450" s="1" t="s">
-        <v>1464</v>
-      </c>
-      <c r="C450" s="1" t="s">
-        <v>1581</v>
+        <v>1470</v>
+      </c>
+      <c r="D450" s="1" t="s">
+        <v>1801</v>
       </c>
       <c r="E450" t="s">
-        <v>1192</v>
+        <v>1189</v>
       </c>
       <c r="G450" t="s">
-        <v>1267</v>
+        <v>1265</v>
       </c>
     </row>
     <row r="451" spans="1:7" ht="23.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A451" s="1" t="s">
-        <v>1582</v>
+        <v>1471</v>
       </c>
       <c r="B451" s="1" t="s">
-        <v>1583</v>
-      </c>
-      <c r="C451" s="1" t="s">
-        <v>1584</v>
+        <v>1398</v>
+      </c>
+      <c r="D451" s="1" t="s">
+        <v>1802</v>
       </c>
       <c r="E451" t="s">
-        <v>1193</v>
+        <v>1190</v>
       </c>
       <c r="G451" t="s">
-        <v>1267</v>
+        <v>1265</v>
       </c>
     </row>
     <row r="452" spans="1:7" ht="23.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A452" s="1" t="s">
-        <v>1585</v>
-      </c>
-      <c r="B452" s="3" t="s">
-        <v>1586</v>
-      </c>
-      <c r="C452" s="1" t="s">
-        <v>1587</v>
+        <v>1472</v>
+      </c>
+      <c r="B452" s="1" t="s">
+        <v>1473</v>
+      </c>
+      <c r="D452" s="1" t="s">
+        <v>1803</v>
       </c>
       <c r="E452" t="s">
-        <v>1194</v>
+        <v>1191</v>
       </c>
       <c r="G452" t="s">
-        <v>1267</v>
+        <v>1265</v>
       </c>
     </row>
     <row r="453" spans="1:7" ht="23.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A453" s="1" t="s">
-        <v>1722</v>
+        <v>1474</v>
       </c>
       <c r="B453" s="3" t="s">
-        <v>1723</v>
-      </c>
-      <c r="C453" s="1" t="s">
-        <v>1588</v>
+        <v>1475</v>
+      </c>
+      <c r="D453" s="1" t="s">
+        <v>1804</v>
       </c>
       <c r="E453" t="s">
-        <v>1195</v>
+        <v>1192</v>
       </c>
       <c r="G453" t="s">
-        <v>1267</v>
+        <v>1265</v>
       </c>
     </row>
     <row r="454" spans="1:7" ht="23.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A454" s="1" t="s">
-        <v>1724</v>
-      </c>
-      <c r="B454" s="1" t="s">
-        <v>1725</v>
-      </c>
-      <c r="C454" s="1" t="s">
-        <v>1589</v>
+        <v>1686</v>
+      </c>
+      <c r="B454" s="3" t="s">
+        <v>1687</v>
+      </c>
+      <c r="D454" s="3" t="s">
+        <v>1805</v>
       </c>
       <c r="E454" t="s">
-        <v>1196</v>
+        <v>1688</v>
       </c>
       <c r="G454" t="s">
-        <v>1267</v>
+        <v>1265</v>
       </c>
     </row>
     <row r="455" spans="1:7" ht="23.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A455" s="1" t="s">
         <v>1590</v>
       </c>
-      <c r="B455" s="1" t="s">
+      <c r="B455" s="3" t="s">
         <v>1591</v>
       </c>
-      <c r="C455" s="1" t="s">
-        <v>1592</v>
+      <c r="D455" s="1" t="s">
+        <v>1806</v>
       </c>
       <c r="E455" t="s">
-        <v>1197</v>
+        <v>1193</v>
       </c>
       <c r="G455" t="s">
-        <v>1267</v>
+        <v>1265</v>
       </c>
     </row>
     <row r="456" spans="1:7" ht="23.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A456" s="1" t="s">
+        <v>1592</v>
+      </c>
+      <c r="B456" s="1" t="s">
         <v>1593</v>
       </c>
-      <c r="B456" s="1" t="s">
-        <v>1594</v>
-      </c>
-      <c r="C456" s="1" t="s">
-        <v>1595</v>
+      <c r="D456" s="1" t="s">
+        <v>1807</v>
       </c>
       <c r="E456" t="s">
-        <v>1198</v>
+        <v>1194</v>
       </c>
       <c r="G456" t="s">
-        <v>1267</v>
+        <v>1265</v>
       </c>
     </row>
     <row r="457" spans="1:7" ht="23.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A457" s="1" t="s">
-        <v>1742</v>
+        <v>1476</v>
       </c>
       <c r="B457" s="1" t="s">
-        <v>1743</v>
-      </c>
-      <c r="C457" s="3" t="s">
-        <v>1596</v>
-      </c>
-      <c r="D457" s="3"/>
+        <v>1477</v>
+      </c>
+      <c r="D457" s="1" t="s">
+        <v>1808</v>
+      </c>
       <c r="E457" t="s">
-        <v>1199</v>
+        <v>1195</v>
       </c>
       <c r="G457" t="s">
-        <v>1267</v>
+        <v>1265</v>
       </c>
     </row>
     <row r="458" spans="1:7" ht="23.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A458" s="1" t="s">
-        <v>1726</v>
+        <v>1478</v>
       </c>
       <c r="B458" s="1" t="s">
-        <v>1727</v>
-      </c>
-      <c r="C458" s="3" t="s">
-        <v>1597</v>
-      </c>
-      <c r="D458" s="3"/>
+        <v>1479</v>
+      </c>
+      <c r="D458" s="1" t="s">
+        <v>1809</v>
+      </c>
       <c r="E458" t="s">
-        <v>1200</v>
+        <v>1196</v>
       </c>
       <c r="G458" t="s">
-        <v>1267</v>
+        <v>1265</v>
       </c>
     </row>
     <row r="459" spans="1:7" ht="23.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A459" s="1" t="s">
-        <v>1598</v>
+        <v>1610</v>
       </c>
       <c r="B459" s="1" t="s">
-        <v>1599</v>
-      </c>
-      <c r="C459" s="1" t="s">
-        <v>1600</v>
+        <v>1611</v>
+      </c>
+      <c r="D459" s="3" t="s">
+        <v>1480</v>
       </c>
       <c r="E459" t="s">
-        <v>1201</v>
+        <v>1197</v>
       </c>
       <c r="G459" t="s">
-        <v>1267</v>
+        <v>1265</v>
       </c>
     </row>
     <row r="460" spans="1:7" ht="23.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A460" s="1" t="s">
-        <v>1601</v>
+        <v>1594</v>
       </c>
       <c r="B460" s="1" t="s">
-        <v>1602</v>
-      </c>
-      <c r="C460" s="1" t="s">
-        <v>1603</v>
+        <v>1595</v>
+      </c>
+      <c r="D460" s="3" t="s">
+        <v>1810</v>
       </c>
       <c r="E460" t="s">
-        <v>1202</v>
+        <v>1198</v>
       </c>
       <c r="G460" t="s">
-        <v>1267</v>
+        <v>1265</v>
       </c>
     </row>
     <row r="461" spans="1:7" ht="23.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A461" s="1" t="s">
-        <v>1604</v>
+        <v>1481</v>
       </c>
       <c r="B461" s="1" t="s">
-        <v>1605</v>
-      </c>
-      <c r="C461" s="1" t="s">
-        <v>1606</v>
+        <v>1482</v>
+      </c>
+      <c r="D461" s="1" t="s">
+        <v>1811</v>
       </c>
       <c r="E461" t="s">
-        <v>1203</v>
+        <v>1199</v>
       </c>
       <c r="G461" t="s">
-        <v>1267</v>
+        <v>1265</v>
       </c>
     </row>
     <row r="462" spans="1:7" ht="23.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A462" s="1" t="s">
-        <v>1607</v>
-      </c>
-      <c r="B462" s="3" t="s">
-        <v>1608</v>
-      </c>
-      <c r="C462" s="1" t="s">
-        <v>1609</v>
+        <v>1483</v>
+      </c>
+      <c r="B462" s="1" t="s">
+        <v>1484</v>
+      </c>
+      <c r="D462" s="1" t="s">
+        <v>1812</v>
       </c>
       <c r="E462" t="s">
-        <v>1204</v>
+        <v>1200</v>
       </c>
       <c r="G462" t="s">
-        <v>1267</v>
+        <v>1265</v>
       </c>
     </row>
     <row r="463" spans="1:7" ht="23.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A463" s="1" t="s">
-        <v>1610</v>
+        <v>1485</v>
       </c>
       <c r="B463" s="1" t="s">
-        <v>1768</v>
-      </c>
-      <c r="C463" s="1" t="s">
-        <v>1611</v>
+        <v>1486</v>
+      </c>
+      <c r="D463" s="1" t="s">
+        <v>1813</v>
       </c>
       <c r="E463" t="s">
-        <v>1205</v>
+        <v>1201</v>
       </c>
       <c r="G463" t="s">
-        <v>1267</v>
+        <v>1265</v>
       </c>
     </row>
     <row r="464" spans="1:7" ht="23.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A464" s="1" t="s">
-        <v>1612</v>
+        <v>1487</v>
       </c>
       <c r="B464" s="3" t="s">
-        <v>1613</v>
-      </c>
-      <c r="C464" s="3" t="s">
-        <v>1614</v>
-      </c>
-      <c r="D464" s="3"/>
+        <v>1488</v>
+      </c>
+      <c r="D464" s="1" t="s">
+        <v>1814</v>
+      </c>
       <c r="E464" t="s">
-        <v>1206</v>
+        <v>1202</v>
       </c>
       <c r="G464" t="s">
-        <v>1267</v>
+        <v>1265</v>
       </c>
     </row>
     <row r="465" spans="1:7" ht="23.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A465" s="1" t="s">
-        <v>1615</v>
-      </c>
-      <c r="B465" s="3" t="s">
-        <v>1616</v>
-      </c>
-      <c r="C465" s="3" t="s">
-        <v>1617</v>
-      </c>
-      <c r="D465" s="3"/>
+        <v>1489</v>
+      </c>
+      <c r="B465" s="1" t="s">
+        <v>1636</v>
+      </c>
+      <c r="D465" s="1" t="s">
+        <v>1815</v>
+      </c>
       <c r="E465" t="s">
-        <v>1207</v>
+        <v>1203</v>
       </c>
       <c r="G465" t="s">
-        <v>1267</v>
+        <v>1265</v>
       </c>
     </row>
     <row r="466" spans="1:7" ht="23.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A466" s="1" t="s">
-        <v>1618</v>
+        <v>1490</v>
       </c>
       <c r="B466" s="3" t="s">
-        <v>1619</v>
-      </c>
-      <c r="C466" s="1" t="s">
-        <v>1620</v>
-      </c>
+        <v>1491</v>
+      </c>
+      <c r="C466" s="3" t="s">
+        <v>1816</v>
+      </c>
+      <c r="D466" s="3"/>
       <c r="E466" t="s">
-        <v>1208</v>
+        <v>1204</v>
       </c>
       <c r="G466" t="s">
-        <v>1267</v>
+        <v>1265</v>
       </c>
     </row>
     <row r="467" spans="1:7" ht="23.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A467" s="1" t="s">
-        <v>1621</v>
+        <v>1492</v>
       </c>
       <c r="B467" s="3" t="s">
-        <v>1622</v>
-      </c>
-      <c r="C467" s="1" t="s">
-        <v>1623</v>
+        <v>1493</v>
+      </c>
+      <c r="D467" s="3" t="s">
+        <v>1817</v>
       </c>
       <c r="E467" t="s">
-        <v>1209</v>
+        <v>1205</v>
       </c>
       <c r="G467" t="s">
-        <v>1267</v>
+        <v>1265</v>
       </c>
     </row>
     <row r="468" spans="1:7" ht="23.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A468" s="1" t="s">
-        <v>1624</v>
+        <v>1494</v>
       </c>
       <c r="B468" s="3" t="s">
-        <v>1625</v>
-      </c>
-      <c r="C468" s="3" t="s">
-        <v>1626</v>
-      </c>
-      <c r="D468" s="3"/>
+        <v>1495</v>
+      </c>
+      <c r="D468" s="1" t="s">
+        <v>1818</v>
+      </c>
       <c r="E468" t="s">
-        <v>1210</v>
+        <v>1206</v>
       </c>
       <c r="G468" t="s">
-        <v>1267</v>
+        <v>1265</v>
       </c>
     </row>
     <row r="469" spans="1:7" ht="23.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A469" s="1" t="s">
-        <v>1627</v>
-      </c>
-      <c r="C469" s="3" t="s">
-        <v>1628</v>
-      </c>
-      <c r="D469" s="3"/>
+        <v>1496</v>
+      </c>
+      <c r="B469" s="3" t="s">
+        <v>1497</v>
+      </c>
+      <c r="D469" s="1" t="s">
+        <v>1819</v>
+      </c>
       <c r="E469" t="s">
-        <v>1211</v>
+        <v>1207</v>
       </c>
       <c r="G469" t="s">
-        <v>1267</v>
+        <v>1265</v>
       </c>
     </row>
     <row r="470" spans="1:7" ht="23.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A470" s="1" t="s">
-        <v>1629</v>
+        <v>1498</v>
       </c>
       <c r="B470" s="3" t="s">
-        <v>1630</v>
-      </c>
-      <c r="C470" s="3" t="s">
-        <v>1631</v>
-      </c>
-      <c r="D470" s="3"/>
+        <v>1499</v>
+      </c>
+      <c r="C470" s="1" t="s">
+        <v>1692</v>
+      </c>
+      <c r="D470" s="3" t="s">
+        <v>1820</v>
+      </c>
       <c r="E470" t="s">
-        <v>1212</v>
+        <v>1208</v>
       </c>
       <c r="G470" t="s">
-        <v>1267</v>
+        <v>1265</v>
       </c>
     </row>
     <row r="471" spans="1:7" ht="23.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A471" s="1" t="s">
-        <v>1632</v>
-      </c>
-      <c r="C471" s="1" t="s">
-        <v>1633</v>
+        <v>1500</v>
+      </c>
+      <c r="D471" s="3" t="s">
+        <v>1821</v>
       </c>
       <c r="E471" t="s">
-        <v>1213</v>
+        <v>1209</v>
       </c>
       <c r="G471" t="s">
-        <v>1267</v>
+        <v>1265</v>
       </c>
     </row>
     <row r="472" spans="1:7" ht="23.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A472" s="1" t="s">
-        <v>1634</v>
-      </c>
-      <c r="B472" s="1" t="s">
-        <v>1769</v>
+        <v>1501</v>
+      </c>
+      <c r="B472" s="3" t="s">
+        <v>1502</v>
+      </c>
+      <c r="D472" s="3" t="s">
+        <v>1822</v>
       </c>
       <c r="E472" t="s">
-        <v>1214</v>
+        <v>1210</v>
       </c>
       <c r="G472" t="s">
-        <v>1267</v>
+        <v>1265</v>
       </c>
     </row>
     <row r="473" spans="1:7" ht="23.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A473" s="1" t="s">
-        <v>1635</v>
-      </c>
-      <c r="B473" s="1" t="s">
-        <v>1636</v>
-      </c>
-      <c r="C473" s="1" t="s">
-        <v>1637</v>
+        <v>1503</v>
+      </c>
+      <c r="D473" s="1" t="s">
+        <v>1823</v>
       </c>
       <c r="E473" t="s">
-        <v>1215</v>
+        <v>1211</v>
       </c>
       <c r="G473" t="s">
-        <v>1267</v>
+        <v>1265</v>
       </c>
     </row>
     <row r="474" spans="1:7" ht="23.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A474" s="1" t="s">
-        <v>1638</v>
+        <v>1504</v>
       </c>
       <c r="B474" s="1" t="s">
-        <v>1639</v>
-      </c>
-      <c r="C474" s="1" t="s">
-        <v>1640</v>
+        <v>1637</v>
       </c>
       <c r="E474" t="s">
-        <v>1216</v>
+        <v>1212</v>
       </c>
       <c r="G474" t="s">
-        <v>1267</v>
+        <v>1265</v>
       </c>
     </row>
     <row r="475" spans="1:7" ht="23.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A475" s="1" t="s">
-        <v>1641</v>
-      </c>
-      <c r="B475" s="3" t="s">
-        <v>1642</v>
-      </c>
-      <c r="C475" s="3" t="s">
-        <v>1643</v>
-      </c>
-      <c r="D475" s="3"/>
+        <v>1505</v>
+      </c>
+      <c r="B475" s="1" t="s">
+        <v>1506</v>
+      </c>
+      <c r="D475" s="1" t="s">
+        <v>1824</v>
+      </c>
       <c r="E475" t="s">
-        <v>1217</v>
+        <v>1213</v>
       </c>
       <c r="G475" t="s">
-        <v>1267</v>
+        <v>1265</v>
       </c>
     </row>
     <row r="476" spans="1:7" ht="23.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A476" s="1" t="s">
-        <v>1645</v>
+        <v>1507</v>
       </c>
       <c r="B476" s="1" t="s">
-        <v>1646</v>
+        <v>1508</v>
+      </c>
+      <c r="D476" s="1" t="s">
+        <v>1825</v>
       </c>
       <c r="E476" t="s">
-        <v>1218</v>
-      </c>
-      <c r="F476">
-        <v>135</v>
+        <v>1214</v>
       </c>
       <c r="G476" t="s">
-        <v>1644</v>
+        <v>1265</v>
       </c>
     </row>
     <row r="477" spans="1:7" ht="23.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A477" s="1" t="s">
-        <v>1744</v>
+        <v>1509</v>
       </c>
       <c r="B477" s="3" t="s">
-        <v>1648</v>
-      </c>
+        <v>1510</v>
+      </c>
+      <c r="C477" s="3" t="s">
+        <v>1511</v>
+      </c>
+      <c r="D477" s="3"/>
       <c r="E477" t="s">
-        <v>1219</v>
-      </c>
-      <c r="F477">
-        <v>135</v>
+        <v>1215</v>
       </c>
       <c r="G477" t="s">
-        <v>1644</v>
+        <v>1265</v>
       </c>
     </row>
     <row r="478" spans="1:7" ht="23.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A478" s="1" t="s">
-        <v>1670</v>
-      </c>
-      <c r="B478" s="3" t="s">
-        <v>1649</v>
+        <v>1513</v>
+      </c>
+      <c r="B478" s="1" t="s">
+        <v>1514</v>
       </c>
       <c r="E478" t="s">
-        <v>1220</v>
+        <v>1216</v>
       </c>
       <c r="F478">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="G478" t="s">
-        <v>1644</v>
+        <v>1512</v>
       </c>
     </row>
     <row r="479" spans="1:7" ht="23.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A479" s="1" t="s">
-        <v>1745</v>
+        <v>1612</v>
       </c>
       <c r="B479" s="3" t="s">
-        <v>1772</v>
+        <v>1516</v>
       </c>
       <c r="E479" t="s">
-        <v>1221</v>
+        <v>1217</v>
       </c>
       <c r="F479">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="G479" t="s">
-        <v>1644</v>
+        <v>1512</v>
       </c>
     </row>
     <row r="480" spans="1:7" ht="23.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A480" s="1" t="s">
-        <v>1771</v>
-      </c>
-      <c r="B480" s="1" t="s">
-        <v>1773</v>
+        <v>1538</v>
+      </c>
+      <c r="B480" s="3" t="s">
+        <v>1517</v>
       </c>
       <c r="E480" t="s">
-        <v>1222</v>
+        <v>1218</v>
       </c>
       <c r="F480">
         <v>136</v>
       </c>
       <c r="G480" t="s">
-        <v>1644</v>
+        <v>1512</v>
       </c>
     </row>
     <row r="481" spans="1:7" ht="23.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A481" s="1" t="s">
-        <v>1775</v>
-      </c>
-      <c r="B481" s="1" t="s">
-        <v>1774</v>
+        <v>1613</v>
+      </c>
+      <c r="B481" s="3" t="s">
+        <v>1640</v>
       </c>
       <c r="E481" t="s">
-        <v>1223</v>
+        <v>1219</v>
       </c>
       <c r="F481">
         <v>136</v>
       </c>
       <c r="G481" t="s">
-        <v>1644</v>
+        <v>1512</v>
       </c>
     </row>
     <row r="482" spans="1:7" ht="23.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A482" s="1" t="s">
-        <v>1671</v>
+        <v>1639</v>
       </c>
       <c r="B482" s="1" t="s">
-        <v>1776</v>
-      </c>
-      <c r="C482" s="1" t="s">
-        <v>1777</v>
+        <v>1641</v>
       </c>
       <c r="E482" t="s">
-        <v>1224</v>
+        <v>1220</v>
       </c>
       <c r="F482">
         <v>136</v>
       </c>
       <c r="G482" t="s">
-        <v>1644</v>
+        <v>1512</v>
       </c>
     </row>
     <row r="483" spans="1:7" ht="23.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A483" s="1" t="s">
-        <v>1672</v>
+        <v>1643</v>
       </c>
       <c r="B483" s="1" t="s">
-        <v>1778</v>
-      </c>
-      <c r="C483" s="1" t="s">
-        <v>1779</v>
+        <v>1642</v>
       </c>
       <c r="E483" t="s">
-        <v>1225</v>
+        <v>1221</v>
       </c>
       <c r="F483">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="G483" t="s">
-        <v>1644</v>
+        <v>1512</v>
       </c>
     </row>
     <row r="484" spans="1:7" ht="23.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A484" s="1" t="s">
-        <v>1650</v>
+        <v>1539</v>
       </c>
       <c r="B484" s="1" t="s">
-        <v>1780</v>
+        <v>1644</v>
+      </c>
+      <c r="C484" s="1" t="s">
+        <v>1690</v>
       </c>
       <c r="E484" t="s">
-        <v>1226</v>
+        <v>1222</v>
       </c>
       <c r="F484">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="G484" t="s">
-        <v>1644</v>
+        <v>1512</v>
       </c>
     </row>
     <row r="485" spans="1:7" ht="23.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A485" s="1" t="s">
-        <v>1673</v>
+        <v>1540</v>
       </c>
       <c r="B485" s="1" t="s">
-        <v>1781</v>
+        <v>1645</v>
+      </c>
+      <c r="C485" s="1" t="s">
+        <v>1689</v>
       </c>
       <c r="E485" t="s">
-        <v>1227</v>
+        <v>1223</v>
       </c>
       <c r="F485">
         <v>137</v>
       </c>
       <c r="G485" t="s">
-        <v>1644</v>
+        <v>1512</v>
       </c>
     </row>
     <row r="486" spans="1:7" ht="23.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A486" s="1" t="s">
-        <v>1674</v>
+        <v>1518</v>
       </c>
       <c r="B486" s="1" t="s">
-        <v>1782</v>
-      </c>
-      <c r="C486" s="1" t="s">
-        <v>1783</v>
+        <v>1646</v>
       </c>
       <c r="E486" t="s">
-        <v>1228</v>
+        <v>1224</v>
       </c>
       <c r="F486">
         <v>137</v>
       </c>
       <c r="G486" t="s">
-        <v>1644</v>
+        <v>1512</v>
       </c>
     </row>
     <row r="487" spans="1:7" ht="23.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A487" s="1" t="s">
-        <v>1675</v>
+        <v>1541</v>
       </c>
       <c r="B487" s="1" t="s">
-        <v>1784</v>
-      </c>
-      <c r="C487" s="1" t="s">
-        <v>1785</v>
+        <v>1647</v>
       </c>
       <c r="E487" t="s">
-        <v>1229</v>
+        <v>1225</v>
       </c>
       <c r="F487">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="G487" t="s">
-        <v>1644</v>
+        <v>1512</v>
       </c>
     </row>
     <row r="488" spans="1:7" ht="23.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A488" s="1" t="s">
-        <v>1676</v>
+        <v>1542</v>
       </c>
       <c r="B488" s="1" t="s">
-        <v>1786</v>
-      </c>
-      <c r="C488" s="1" t="s">
-        <v>1787</v>
+        <v>1648</v>
+      </c>
+      <c r="D488" s="1" t="s">
+        <v>1826</v>
       </c>
       <c r="E488" t="s">
-        <v>1230</v>
+        <v>1226</v>
       </c>
       <c r="F488">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="G488" t="s">
-        <v>1644</v>
+        <v>1512</v>
       </c>
     </row>
     <row r="489" spans="1:7" ht="23.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A489" s="1" t="s">
-        <v>1677</v>
+        <v>1543</v>
       </c>
       <c r="B489" s="1" t="s">
-        <v>1788</v>
-      </c>
-      <c r="C489" s="3" t="s">
-        <v>1789</v>
+        <v>1649</v>
+      </c>
+      <c r="D489" s="1" t="s">
+        <v>1836</v>
       </c>
       <c r="E489" t="s">
-        <v>1231</v>
+        <v>1227</v>
       </c>
       <c r="F489">
         <v>138</v>
       </c>
       <c r="G489" t="s">
-        <v>1644</v>
+        <v>1512</v>
       </c>
     </row>
     <row r="490" spans="1:7" ht="23.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A490" s="1" t="s">
-        <v>1678</v>
-      </c>
-      <c r="B490" s="3" t="s">
-        <v>1790</v>
+        <v>1544</v>
+      </c>
+      <c r="B490" s="1" t="s">
+        <v>1650</v>
+      </c>
+      <c r="C490" s="1" t="s">
+        <v>1691</v>
       </c>
       <c r="E490" t="s">
-        <v>1232</v>
+        <v>1228</v>
       </c>
       <c r="F490">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="G490" t="s">
-        <v>1644</v>
+        <v>1512</v>
       </c>
     </row>
     <row r="491" spans="1:7" ht="23.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A491" s="1" t="s">
-        <v>1679</v>
+        <v>1545</v>
       </c>
       <c r="B491" s="1" t="s">
-        <v>1791</v>
+        <v>1651</v>
       </c>
       <c r="C491" s="3" t="s">
-        <v>1792</v>
+        <v>1652</v>
       </c>
       <c r="E491" t="s">
-        <v>1233</v>
+        <v>1229</v>
       </c>
       <c r="F491">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="G491" t="s">
-        <v>1644</v>
+        <v>1512</v>
       </c>
     </row>
     <row r="492" spans="1:7" ht="23.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A492" s="1" t="s">
-        <v>1680</v>
-      </c>
-      <c r="B492" s="1" t="s">
-        <v>1793</v>
+        <v>1546</v>
+      </c>
+      <c r="B492" s="3" t="s">
+        <v>1653</v>
       </c>
       <c r="E492" t="s">
-        <v>1234</v>
+        <v>1230</v>
       </c>
       <c r="F492">
         <v>139</v>
       </c>
       <c r="G492" t="s">
-        <v>1644</v>
+        <v>1512</v>
       </c>
     </row>
     <row r="493" spans="1:7" ht="23.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A493" s="1" t="s">
-        <v>1681</v>
+        <v>1547</v>
       </c>
       <c r="B493" s="1" t="s">
-        <v>1794</v>
+        <v>1654</v>
+      </c>
+      <c r="C493" s="3" t="s">
+        <v>1655</v>
       </c>
       <c r="E493" t="s">
-        <v>1235</v>
+        <v>1231</v>
       </c>
       <c r="F493">
         <v>139</v>
       </c>
       <c r="G493" t="s">
-        <v>1644</v>
+        <v>1512</v>
       </c>
     </row>
     <row r="494" spans="1:7" ht="23.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A494" s="1" t="s">
-        <v>1682</v>
+        <v>1548</v>
       </c>
       <c r="B494" s="1" t="s">
-        <v>1795</v>
+        <v>1656</v>
       </c>
       <c r="E494" t="s">
-        <v>1236</v>
+        <v>1232</v>
       </c>
       <c r="F494">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="G494" t="s">
-        <v>1644</v>
+        <v>1512</v>
       </c>
     </row>
     <row r="495" spans="1:7" ht="23.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A495" s="1" t="s">
-        <v>1746</v>
-      </c>
-      <c r="B495" s="3" t="s">
-        <v>1796</v>
+        <v>1549</v>
+      </c>
+      <c r="B495" s="1" t="s">
+        <v>1657</v>
       </c>
       <c r="E495" t="s">
-        <v>1237</v>
+        <v>1233</v>
       </c>
       <c r="F495">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="G495" t="s">
-        <v>1644</v>
+        <v>1512</v>
       </c>
     </row>
     <row r="496" spans="1:7" ht="23.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A496" s="1" t="s">
-        <v>1683</v>
+        <v>1550</v>
       </c>
       <c r="B496" s="1" t="s">
-        <v>1797</v>
+        <v>1658</v>
       </c>
       <c r="E496" t="s">
-        <v>1238</v>
+        <v>1234</v>
       </c>
       <c r="F496">
         <v>140</v>
       </c>
       <c r="G496" t="s">
-        <v>1644</v>
+        <v>1512</v>
       </c>
     </row>
     <row r="497" spans="1:7" ht="23.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A497" s="1" t="s">
-        <v>1728</v>
-      </c>
-      <c r="B497" s="1" t="s">
-        <v>1798</v>
+        <v>1614</v>
+      </c>
+      <c r="B497" s="3" t="s">
+        <v>1659</v>
       </c>
       <c r="E497" t="s">
-        <v>1239</v>
+        <v>1235</v>
       </c>
       <c r="F497">
         <v>140</v>
       </c>
       <c r="G497" t="s">
-        <v>1644</v>
+        <v>1512</v>
       </c>
     </row>
     <row r="498" spans="1:7" ht="23.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A498" s="1" t="s">
-        <v>1684</v>
+        <v>1551</v>
       </c>
       <c r="B498" s="1" t="s">
-        <v>1799</v>
+        <v>1660</v>
       </c>
       <c r="E498" t="s">
-        <v>1240</v>
+        <v>1236</v>
       </c>
       <c r="F498">
         <v>140</v>
       </c>
       <c r="G498" t="s">
-        <v>1644</v>
+        <v>1512</v>
       </c>
     </row>
     <row r="499" spans="1:7" ht="23.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A499" s="1" t="s">
-        <v>1685</v>
+        <v>1596</v>
       </c>
       <c r="B499" s="1" t="s">
-        <v>1800</v>
+        <v>1661</v>
       </c>
       <c r="E499" t="s">
-        <v>1241</v>
+        <v>1237</v>
       </c>
       <c r="F499">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="G499" t="s">
-        <v>1644</v>
+        <v>1512</v>
       </c>
     </row>
     <row r="500" spans="1:7" ht="23.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A500" s="1" t="s">
-        <v>1686</v>
+        <v>1552</v>
       </c>
       <c r="B500" s="1" t="s">
-        <v>1801</v>
+        <v>1662</v>
       </c>
       <c r="E500" t="s">
-        <v>1242</v>
+        <v>1238</v>
       </c>
       <c r="F500">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="G500" t="s">
-        <v>1644</v>
+        <v>1512</v>
       </c>
     </row>
     <row r="501" spans="1:7" ht="23.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A501" s="1" t="s">
-        <v>1687</v>
+        <v>1553</v>
       </c>
       <c r="B501" s="1" t="s">
-        <v>1802</v>
-      </c>
-      <c r="C501" s="1" t="s">
-        <v>1803</v>
+        <v>1663</v>
       </c>
       <c r="E501" t="s">
-        <v>1653</v>
+        <v>1239</v>
       </c>
       <c r="F501">
         <v>141</v>
       </c>
       <c r="G501" t="s">
-        <v>1644</v>
+        <v>1512</v>
       </c>
     </row>
     <row r="502" spans="1:7" ht="23.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A502" s="1" t="s">
-        <v>1747</v>
-      </c>
-      <c r="B502" s="3" t="s">
-        <v>1804</v>
+        <v>1554</v>
+      </c>
+      <c r="B502" s="1" t="s">
+        <v>1664</v>
       </c>
       <c r="E502" t="s">
-        <v>1654</v>
+        <v>1240</v>
       </c>
       <c r="F502">
         <v>141</v>
       </c>
       <c r="G502" t="s">
-        <v>1644</v>
+        <v>1512</v>
       </c>
     </row>
     <row r="503" spans="1:7" ht="23.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A503" s="1" t="s">
-        <v>1688</v>
-      </c>
-      <c r="B503" s="3" t="s">
-        <v>1805</v>
+        <v>1555</v>
+      </c>
+      <c r="B503" s="1" t="s">
+        <v>1665</v>
+      </c>
+      <c r="C503" s="1" t="s">
+        <v>1666</v>
       </c>
       <c r="E503" t="s">
-        <v>1655</v>
+        <v>1521</v>
       </c>
       <c r="F503">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="G503" t="s">
-        <v>1644</v>
+        <v>1512</v>
       </c>
     </row>
     <row r="504" spans="1:7" ht="23.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A504" s="1" t="s">
-        <v>1689</v>
-      </c>
-      <c r="B504" s="1" t="s">
-        <v>1808</v>
+        <v>1615</v>
+      </c>
+      <c r="B504" s="3" t="s">
+        <v>1667</v>
       </c>
       <c r="E504" t="s">
-        <v>1656</v>
+        <v>1522</v>
       </c>
       <c r="F504">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="G504" t="s">
-        <v>1644</v>
+        <v>1512</v>
       </c>
     </row>
     <row r="505" spans="1:7" ht="23.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A505" s="1" t="s">
-        <v>1690</v>
+        <v>1556</v>
       </c>
       <c r="B505" s="3" t="s">
-        <v>1807</v>
+        <v>1668</v>
       </c>
       <c r="E505" t="s">
-        <v>1657</v>
+        <v>1523</v>
       </c>
       <c r="F505">
         <v>142</v>
       </c>
       <c r="G505" t="s">
-        <v>1651</v>
+        <v>1512</v>
       </c>
     </row>
     <row r="506" spans="1:7" ht="23.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A506" s="1" t="s">
-        <v>1729</v>
+        <v>1557</v>
       </c>
       <c r="B506" s="1" t="s">
-        <v>1806</v>
+        <v>1671</v>
       </c>
       <c r="E506" t="s">
-        <v>1658</v>
+        <v>1524</v>
       </c>
       <c r="F506">
         <v>142</v>
       </c>
       <c r="G506" t="s">
-        <v>1651</v>
+        <v>1512</v>
       </c>
     </row>
     <row r="507" spans="1:7" ht="23.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A507" s="1" t="s">
-        <v>1730</v>
-      </c>
-      <c r="B507" s="1" t="s">
-        <v>1809</v>
+        <v>1558</v>
+      </c>
+      <c r="B507" s="3" t="s">
+        <v>1670</v>
       </c>
       <c r="E507" t="s">
-        <v>1659</v>
+        <v>1525</v>
       </c>
       <c r="F507">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="G507" t="s">
-        <v>1651</v>
+        <v>1519</v>
       </c>
     </row>
     <row r="508" spans="1:7" ht="23.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A508" s="1" t="s">
-        <v>1691</v>
+        <v>1597</v>
       </c>
       <c r="B508" s="1" t="s">
-        <v>1810</v>
+        <v>1669</v>
       </c>
       <c r="E508" t="s">
-        <v>1660</v>
+        <v>1526</v>
       </c>
       <c r="F508">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="G508" t="s">
-        <v>1651</v>
+        <v>1519</v>
       </c>
     </row>
     <row r="509" spans="1:7" ht="23.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A509" s="1" t="s">
-        <v>1692</v>
+        <v>1598</v>
       </c>
       <c r="B509" s="1" t="s">
-        <v>1811</v>
+        <v>1837</v>
       </c>
       <c r="E509" t="s">
-        <v>1661</v>
+        <v>1527</v>
       </c>
       <c r="F509">
         <v>143</v>
       </c>
       <c r="G509" t="s">
-        <v>1651</v>
+        <v>1519</v>
       </c>
     </row>
     <row r="510" spans="1:7" ht="23.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A510" s="1" t="s">
-        <v>1731</v>
+        <v>1559</v>
       </c>
       <c r="B510" s="1" t="s">
-        <v>1812</v>
-      </c>
-      <c r="C510" s="1" t="s">
-        <v>1813</v>
+        <v>1672</v>
       </c>
       <c r="E510" t="s">
-        <v>1662</v>
+        <v>1528</v>
       </c>
       <c r="F510">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="G510" t="s">
-        <v>1651</v>
+        <v>1519</v>
       </c>
     </row>
     <row r="511" spans="1:7" ht="23.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A511" s="1" t="s">
-        <v>1694</v>
+        <v>1560</v>
       </c>
       <c r="B511" s="1" t="s">
-        <v>1814</v>
-      </c>
-      <c r="C511" s="1" t="s">
-        <v>1815</v>
+        <v>1673</v>
       </c>
       <c r="E511" t="s">
-        <v>1698</v>
+        <v>1529</v>
       </c>
       <c r="F511">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="G511" t="s">
-        <v>1651</v>
+        <v>1519</v>
       </c>
     </row>
     <row r="512" spans="1:7" ht="23.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A512" s="1" t="s">
-        <v>1693</v>
+        <v>1599</v>
       </c>
       <c r="B512" s="1" t="s">
-        <v>1652</v>
-      </c>
-      <c r="C512" s="1" t="s">
-        <v>1816</v>
+        <v>1674</v>
+      </c>
+      <c r="D512" s="1" t="s">
+        <v>1827</v>
       </c>
       <c r="E512" t="s">
-        <v>1663</v>
+        <v>1530</v>
       </c>
       <c r="F512">
         <v>144</v>
       </c>
       <c r="G512" t="s">
-        <v>1651</v>
+        <v>1519</v>
       </c>
     </row>
     <row r="513" spans="1:7" ht="23.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A513" s="1" t="s">
-        <v>1732</v>
+        <v>1562</v>
       </c>
       <c r="B513" s="1" t="s">
-        <v>1817</v>
-      </c>
-      <c r="C513" s="1" t="s">
-        <v>1818</v>
+        <v>1675</v>
+      </c>
+      <c r="D513" s="1" t="s">
+        <v>1828</v>
       </c>
       <c r="E513" t="s">
-        <v>1664</v>
+        <v>1566</v>
       </c>
       <c r="F513">
         <v>144</v>
       </c>
       <c r="G513" t="s">
-        <v>1651</v>
+        <v>1519</v>
       </c>
     </row>
     <row r="514" spans="1:7" ht="23.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A514" s="1" t="s">
-        <v>1695</v>
-      </c>
-      <c r="B514" s="3" t="s">
-        <v>1819</v>
-      </c>
-      <c r="C514" s="1" t="s">
-        <v>1820</v>
+        <v>1561</v>
+      </c>
+      <c r="B514" s="1" t="s">
+        <v>1520</v>
+      </c>
+      <c r="D514" s="1" t="s">
+        <v>1829</v>
       </c>
       <c r="E514" t="s">
-        <v>1665</v>
+        <v>1531</v>
       </c>
       <c r="F514">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="G514" t="s">
-        <v>1651</v>
+        <v>1519</v>
       </c>
     </row>
     <row r="515" spans="1:7" ht="23.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A515" s="1" t="s">
-        <v>1696</v>
+        <v>1600</v>
       </c>
       <c r="B515" s="1" t="s">
-        <v>1821</v>
-      </c>
-      <c r="C515" s="1" t="s">
-        <v>1822</v>
+        <v>1676</v>
+      </c>
+      <c r="D515" s="1" t="s">
+        <v>1830</v>
       </c>
       <c r="E515" t="s">
-        <v>1666</v>
+        <v>1532</v>
       </c>
       <c r="F515">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="G515" t="s">
-        <v>1651</v>
+        <v>1519</v>
       </c>
     </row>
     <row r="516" spans="1:7" ht="23.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A516" s="1" t="s">
-        <v>1748</v>
-      </c>
-      <c r="B516" s="1" t="s">
-        <v>1823</v>
+        <v>1563</v>
+      </c>
+      <c r="B516" s="3" t="s">
+        <v>1677</v>
+      </c>
+      <c r="D516" s="1" t="s">
+        <v>1831</v>
       </c>
       <c r="E516" t="s">
-        <v>1667</v>
+        <v>1533</v>
       </c>
       <c r="F516">
         <v>145</v>
       </c>
       <c r="G516" t="s">
-        <v>1651</v>
+        <v>1519</v>
       </c>
     </row>
     <row r="517" spans="1:7" ht="23.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A517" s="1" t="s">
-        <v>1733</v>
-      </c>
-      <c r="B517" s="3" t="s">
-        <v>1824</v>
+        <v>1564</v>
+      </c>
+      <c r="B517" s="1" t="s">
+        <v>1678</v>
+      </c>
+      <c r="D517" s="1" t="s">
+        <v>1832</v>
       </c>
       <c r="E517" t="s">
-        <v>1668</v>
+        <v>1534</v>
       </c>
       <c r="F517">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="G517" t="s">
-        <v>1651</v>
+        <v>1519</v>
       </c>
     </row>
     <row r="518" spans="1:7" ht="23.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A518" s="1" t="s">
-        <v>1697</v>
+        <v>1616</v>
       </c>
       <c r="B518" s="1" t="s">
-        <v>1825</v>
+        <v>1679</v>
       </c>
       <c r="E518" t="s">
-        <v>1669</v>
+        <v>1535</v>
       </c>
       <c r="F518">
+        <v>145</v>
+      </c>
+      <c r="G518" t="s">
+        <v>1519</v>
+      </c>
+    </row>
+    <row r="519" spans="1:7" ht="23.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A519" s="1" t="s">
+        <v>1601</v>
+      </c>
+      <c r="B519" s="3" t="s">
+        <v>1680</v>
+      </c>
+      <c r="E519" t="s">
+        <v>1536</v>
+      </c>
+      <c r="F519">
         <v>146</v>
       </c>
-      <c r="G518" t="s">
-        <v>1651</v>
+      <c r="G519" t="s">
+        <v>1519</v>
+      </c>
+    </row>
+    <row r="520" spans="1:7" ht="23.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A520" s="1" t="s">
+        <v>1565</v>
+      </c>
+      <c r="B520" s="1" t="s">
+        <v>1681</v>
+      </c>
+      <c r="E520" t="s">
+        <v>1537</v>
+      </c>
+      <c r="F520">
+        <v>146</v>
+      </c>
+      <c r="G520" t="s">
+        <v>1519</v>
       </c>
     </row>
   </sheetData>
